--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -4270,6 +4270,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ch02. AWS EMR에 배포</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>CH02_01. AWS EMR에서 Spark application 실행</t>
@@ -4286,7 +4291,6 @@
     <mergeCell ref="A8:A30"/>
     <mergeCell ref="B161:B169"/>
     <mergeCell ref="B127"/>
-    <mergeCell ref="B172:B178"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B64:B71"/>
     <mergeCell ref="B30"/>
@@ -4320,6 +4324,7 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B128:B142"/>
     <mergeCell ref="B42"/>
+    <mergeCell ref="B172:B177"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="A112:A159"/>
     <mergeCell ref="B54:B55"/>
@@ -11760,6 +11765,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Ch 05. 모의 시험 문제 풀이</t>
+        </is>
+      </c>
       <c r="C468" t="inlineStr">
         <is>
           <t>01.모의 시험 문제 풀이</t>
@@ -11776,7 +11786,6 @@
     <mergeCell ref="B385:B388"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="B311:B316"/>
-    <mergeCell ref="B462:B468"/>
     <mergeCell ref="A422:A438"/>
     <mergeCell ref="B58:B67"/>
     <mergeCell ref="B295:B299"/>
@@ -11830,6 +11839,7 @@
     <mergeCell ref="B382:B384"/>
     <mergeCell ref="B97:B103"/>
     <mergeCell ref="B362"/>
+    <mergeCell ref="B462:B467"/>
     <mergeCell ref="B352:B354"/>
     <mergeCell ref="A311:A351"/>
     <mergeCell ref="B132:B136"/>
@@ -23622,6 +23632,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Chapter.05 Advanced Topic</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr">
         <is>
           <t>CH05_01 못다한 이야기들</t>
@@ -23645,6 +23660,7 @@
     <mergeCell ref="B220:B221"/>
     <mergeCell ref="B172:B180"/>
     <mergeCell ref="A185:A213"/>
+    <mergeCell ref="B229:B230"/>
     <mergeCell ref="B48:B58"/>
     <mergeCell ref="B157:B171"/>
     <mergeCell ref="B96:B116"/>
@@ -23661,7 +23677,6 @@
     <mergeCell ref="B76:B95"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B145:B156"/>
-    <mergeCell ref="B229:B231"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B212:B213"/>
     <mergeCell ref="B21:B25"/>

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -20,6 +20,7 @@
     <sheet name="ChatGPT기술리뷰AtoZ" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="알아서일하는진짜인공지능AutoGPT서" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="한번에끝내는AWS기반아키텍처설계와De" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="데이터분석을위한기초통계완전정복" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11879,6 +11880,817 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="49" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대주제(Part)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>중주제(Chapter)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>소주제(Clip)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>강의 시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Part 1. 비전공자도 할 수 있는 왕초보 통계, 엑셀 데이터 탐색 시작하기</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01. 비전공자도 기본적인 통계 기초가 필요한 이유</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CH01-01. Over View</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CH01-02. 비전공자도 통계를 공부해야 하는 이유</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CH01-03. 고등학교 때 수학 공부가 힘들었는데 시작할 수 있을까</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02. 데이터 분석 단계 및 탐색적 데이터 분석(EDA)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CH02-01. 데이터 분석과정과 탐색적 데이터 분석(EDA)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 무작정 따라 하는 엑셀 데이터 탐색 실습</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CH03-01. 데이터 실습을 위한 엑셀 예제 csv 파일 찾기(Kaggle)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CH03-02. 엑셀 데이터 분석도구 세팅 방법 실습</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CH03-03. 엑셀 데이터 분석도구 기술 통계법 실습</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CH03-04. 엑셀 데이터 분석도구 공분산, 상관행렬 실습</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Part 2. 비전공자도 엑셀만 알아도 시작할 수 있는 데이터 탐색</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01. 데이터 탐색 사례</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CH01-01. Over View</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CH01-02. 대표값으로 데이터 탐색 사례</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CH01-03. 차트로 데이터 탐색 사례</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CH01-04. 상관관계로 데이터 탐색 사례</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CH01-05. 결측치, 이상치 데이터 탐색 사례</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02. 데이터 탐색과 통계 필요성</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CH02-01. 데이터 탐색과 통계 공부 필요성</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 차트로 엑셀 데이터 쉽게 탐색하기</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CH03-01. 엑셀로 히스토그램 그리기</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CH03-02. 엑셀로 산점도 그리기</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CH03-03. 엑셀로 Box Plot 그리기</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Part 3. 비전공자를 위한 왕초보 기초 통계(고등학교 통계부터 기술통계까지)</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01. 왕초보 고등학교 기초통계</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CH01-01. Over View</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CH01-02. 변량, 도수, 상대도수, 도수분포표, 히스토그램</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CH01-03. 평균, 분산, 표준편차 개념 (도수 있는 경우와 없는 경우)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CH01-04. 통계에 확률변수, 확률분포가 등장하는 이유</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CH01-05. 연속형 확률분포와 이산형 확률분포</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CH01-06. 확률분포표, 확률밀도함수</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CH01-07. 정규분포, 표준정규분포, 표준화</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CH01-08. 모집단, 표본, 모평균, 표본평균, 모분산, 표본분산</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CH01-09. 추정, 신뢰도, 신뢰구간</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02. 기술통계</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CH02-01. 기술통계와 추론통계의 차이점</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CH02-02. 대표값과 기초통계량</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CH02-03. 기초통계량(1) - 중심경향성</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CH02-04. 기초통계량(2) - 퍼짐정도</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CH02-05. 기초통계량(3) - 왜도,첨도</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 회귀분석, 공분산, 상관계수</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CH03-01. 회귀분석을 공부하는 이유</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CH03-02. 공분산 기본 개념</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CH03-03. 상관계수 기본 개념</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Part 4. 기술통계 기초 개념을 엑셀 데이터 탐색에 적용해 보기</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01. 대표값으로 데이터 분포 파악하기</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CH01-01. Over View</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CH01-02. 대표값 엑셀 함수를 사용해서 데이터 분포 파악하기</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CH01-03. 데이터 분석 도구를 사용해서 데이터 분포 파악하기</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02. 이상치 탐지</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CH02-01. 사분위수(IQR)활용 이상치 탐지하기</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CH02-02. Z-Score 활용해서 이상치 탐지하기</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CH02-03. Box-Plot 활용해서 이상치 탐지하기</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 두 변수의 상관관계 분석하기</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CH03-01. 산점도 활용 및 회귀선 찾기</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CH03-02. 공분산, 상관계수 측정 및 회귀선 비교하기</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Part 5. 추론통계 맛보기와 공공데이터 셋 탐색해보기</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01. 추론통계 맛보기</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CH01-01. Over View</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CH01-02. 엑셀에서 표본을 추출하고, 표본평균, 표본표준편차 계산하기</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CH01-03. 엑셀에서 모평균, 표본평균, 모분산, 표본분산 계산하기</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CH01-04. 정규분포 관련 함수 알아보기</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CH01-05. t분포 관련 함수 알아보기</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CH01-06. 이항분포 시각화해보기</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CH01-07. 이항분포가 정규분포에 가까워지는 지 실습하기</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ch 02. 중심극한정리 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CH02-01. 중심극한정리 알아보기</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 분포의 모양과 추론통계</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CH03-01. 분포의 모양과 추론통계에 대한 이해</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Ch 04. 공공 데이터 셋 탐색 하기</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CH04-01. 공공 데이터 셋으로 데이터 탐색해 보기 (1)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CH04-02. 공공 데이터 셋으로 데이터 탐색 해보기 (2)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B52"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A19:A35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -437,10 +437,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="66" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="44" customWidth="1" min="1" max="1"/>
+    <col width="66" customWidth="1" min="2" max="2"/>
+    <col width="71" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part.1 데이터와 친해지기</t>
+          <t>Part.1 데이터와 친해지기 (03:15:15)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 일상 생활에서의 데이터</t>
+          <t>Chapter.01 일상 생활에서의 데이터 (29:02)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 기업에서의 데이터</t>
+          <t>Chapter.02 기업에서의 데이터 (01:03:22)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 데이터 직무</t>
+          <t>Chapter.03 데이터 직무 (34:38)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -608,7 +608,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 데이터 분석 트렌드</t>
+          <t>Chapter.04 데이터 분석 트렌드 (01:08:13)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -649,12 +649,12 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Part.2 파이썬 익숙해지기</t>
+          <t>Part.2 파이썬 익숙해지기 (07:08:42)</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 파이썬 시작</t>
+          <t>Chapter.01 파이썬 시작 (24:46)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 파이썬 기초 자료형</t>
+          <t>Chapter.02 파이썬 기초 자료형 (01:19:52)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 DataFrame</t>
+          <t>Chapter.03 DataFrame (02:30:58)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="35">
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 시각화</t>
+          <t>Chapter.04 시각화 (01:45:36)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 파이썬 예외처리</t>
+          <t>Chapter.05 파이썬 예외처리 (10:43)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Chapter.06 파이썬 함수 및 입력</t>
+          <t>Chapter.06 파이썬 함수 및 입력 (27:58)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="45">
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Chapter.07 실전 프로젝트</t>
+          <t>Chapter.07 실전 프로젝트 (28:49)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1061,12 +1061,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Part.3 통계로 데이터 분석 능숙해지기</t>
+          <t>Part.3 통계로 데이터 분석 능숙해지기 (04:39:11)</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 기초 통계량 (1) 대푯값</t>
+          <t>Chapter.01 기초 통계량 (1) 대푯값 (40:36)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 기초 통계량 (2) 분산도</t>
+          <t>Chapter.02 기초 통계량 (2) 분산도 (43:00)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="56">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 기술통계</t>
+          <t>Chapter.03 기술통계 (29:29)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="61">
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 통계 실험과 유의성검정</t>
+          <t>Chapter.04 통계 실험과 유의성검정 (01:19:02)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1374,7 +1374,7 @@
     <row r="70">
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 선형회귀분석</t>
+          <t>Chapter.05 선형회귀분석 (01:27:04)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1427,12 +1427,12 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Part..4 실무 데이터 분석 마스터</t>
+          <t>Part..4 실무 데이터 분석 마스터 (03:09:44)</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 데이터 분석 방법을 공부하기전에 알아야 할 비즈니스 용어 정리</t>
+          <t>Chapter.01 데이터 분석 방법을 공부하기전에 알아야 할 비즈니스 용어 정리 (01:03:41)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 대표적인 실험방법론</t>
+          <t>Chapter.02 대표적인 실험방법론 (02:06:03)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>[부록] 커리어 치트키 - 연봉협상</t>
+          <t>[부록] 커리어 치트키 - 연봉협상 (02:57:10)</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>Chapter.00 오리엔테이션</t>
+          <t>Chapter.00 오리엔테이션 (01:38)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chapter.01 이직에서의 7가지 System </t>
+          <t>Chapter.01 이직에서의 7가지 System  (01:19:16)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1697,7 +1697,7 @@
     <row r="94">
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chapter.02 현 직장에서의 5가지 System </t>
+          <t>Chapter.02 현 직장에서의 5가지 System  (44:40)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1762,7 +1762,7 @@
     <row r="99">
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chapter.03 실전  </t>
+          <t>Chapter.03 실전   (51:36)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -1860,10 +1860,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="103" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="108" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1891,12 +1891,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 데이터 엔지니어링과 분산처리 기본 개념</t>
+          <t>Part 1. 데이터 엔지니어링과 분산처리 기본 개념 (47:30)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ch01. 데이터 엔지니어링과 분산처리 기본 개념</t>
+          <t>ch01. 데이터 엔지니어링과 분산처리 기본 개념 (47:30)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1973,12 +1973,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Part 2. Kafka 이해하기</t>
+          <t>Part 2. Kafka 이해하기 (03:34:26)</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>ch01. Kafka란?</t>
+          <t>ch01. Kafka란? (14:19)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2007,7 +2007,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ch02. Kafka의 구조</t>
+          <t>ch02. Kafka의 구조 (42:30)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>ch03. Kafka 프로듀서</t>
+          <t>ch03. Kafka 프로듀서 (18:29)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2125,7 +2125,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>ch04. Kafka 컨슈머</t>
+          <t>ch04. Kafka 컨슈머 (22:07)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>ch05. Kafka 설치</t>
+          <t>ch05. Kafka 설치 (47:18)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>ch06. Kafka 브로커 실행하기</t>
+          <t>ch06. Kafka 브로커 실행하기 (55:08)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>ch07. Kafka Producer 설정</t>
+          <t>ch07. Kafka Producer 설정 (14:35)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2289,12 +2289,12 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Part 3. ElasticSearch, ELK스택</t>
+          <t>Part 3. ElasticSearch, ELK스택 (05:11:45)</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>ch01. ElasticSearch란?</t>
+          <t>ch01. ElasticSearch란? (18:02)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2335,7 +2335,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>ch02. ElasticSearch의 기본 구성</t>
+          <t>ch02. ElasticSearch의 기본 구성 (18:17)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>ch03. AWS EC2에 ElasticSearch 설치하기</t>
+          <t>ch03. AWS EC2에 ElasticSearch 설치하기 (55:31)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>ch04. ElasticSearch 모니터링</t>
+          <t>ch04. ElasticSearch 모니터링 (05:35)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>ch05. ElasticSearch TLS 적용하기</t>
+          <t>ch05. ElasticSearch TLS 적용하기 (22:59)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="45">
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>ch06. AWS EC2에 Kibana 설치하기</t>
+          <t>ch06. AWS EC2에 Kibana 설치하기 (27:08)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>ch07. ElasticSearch API</t>
+          <t>ch07. ElasticSearch API (31:06)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>ch08. ElasticSearch Aggregation</t>
+          <t>ch08. ElasticSearch Aggregation (30:30)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="54">
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>ch9. ElasticSearch Mapping API</t>
+          <t>ch9. ElasticSearch Mapping API (09:32)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="56">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>ch10. AWS EC2에 Logstash 설치하기</t>
+          <t>ch10. AWS EC2에 Logstash 설치하기 (24:49)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="58">
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>ch11. Filebeat와 Logstash로 데이터 전송하기</t>
+          <t>ch11. Filebeat와 Logstash로 데이터 전송하기 (35:11)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="61">
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>ch12.Text Tokenizer, Nori</t>
+          <t>ch12.Text Tokenizer, Nori (33:05)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Part 4. Workflow Orchestration, Airflow</t>
+          <t>Part 4. Workflow Orchestration, Airflow (03:47:39)</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>ch01. Airflow란?</t>
+          <t>ch01. Airflow란? (01:01:38)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="72">
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>ch02. AWS EC2에 Airflow 설치하기</t>
+          <t>ch02. AWS EC2에 Airflow 설치하기 (01:41:10)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2945,7 +2945,7 @@
     <row r="79">
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>ch03. Kubernetes에 Airflow 설치하기</t>
+          <t>ch03. Kubernetes에 Airflow 설치하기 (01:04:51)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3022,12 +3022,12 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 실전 프로젝트</t>
+          <t>Part 5. 실전 프로젝트 (01:28:23)</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>ch01. 스트리밍 데이터 파이프라인 구성하기</t>
+          <t>ch01. 스트리밍 데이터 파이프라인 구성하기 (42:11)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="89">
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>ch02. 배치 데이터 파이프라인 구성하기</t>
+          <t>ch02. 배치 데이터 파이프라인 구성하기 (46:12)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3145,12 +3145,12 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Part6. Kubernetes</t>
+          <t>Part6. Kubernetes (01:19:39)</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>ch01. Kubernetes란?</t>
+          <t>ch01. Kubernetes란? (11:22)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3179,7 +3179,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>ch02. Kubernetes의 기본 개념과 구성</t>
+          <t>ch02. Kubernetes의 기본 개념과 구성 (52:53)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="102">
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>ch03. Kubernetes 기타 개념</t>
+          <t>ch03. Kubernetes 기타 개념 (15:24)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3285,12 +3285,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Part 8. Hadoop이란?</t>
+          <t>Part 8. Hadoop이란? (01:15:11)</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>ch01. Hadoop 개요</t>
+          <t>ch01. Hadoop 개요 (14:11)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="105">
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>ch02. Hadoop의 핵심 구성 요소</t>
+          <t>ch02. Hadoop의 핵심 구성 요소 (27:32)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>ch03. Hadoop 에코시스템 프레임워크 둘러보기</t>
+          <t>ch03. Hadoop 에코시스템 프레임워크 둘러보기 (33:28)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3401,12 +3401,12 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Part 9. Apache Spark</t>
+          <t>Part 9. Apache Spark (11:07:50)</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>ch01. 스파크 개요</t>
+          <t>ch01. 스파크 개요 (46:46)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3459,7 +3459,7 @@
     <row r="116">
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>ch02. RDD</t>
+          <t>ch02. RDD (01:21:32)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3524,7 +3524,7 @@
     <row r="121">
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>ch03. SparkSQL, DataFrame, Dataset</t>
+          <t>ch03. SparkSQL, DataFrame, Dataset (01:41:50)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3601,7 +3601,7 @@
     <row r="127">
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>ch04. RDD, SparkSQL, DataFrame 비교</t>
+          <t>ch04. RDD, SparkSQL, DataFrame 비교 (04:03)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="128">
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>ch05. 스파크 심층 분석</t>
+          <t>ch05. 스파크 심층 분석 (02:37:54)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3803,7 +3803,7 @@
     <row r="143">
       <c r="B143" s="1" t="inlineStr">
         <is>
-          <t>ch06. Partitioning</t>
+          <t>ch06. Partitioning (01:09:01)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="149">
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>ch07. 스파크 실무 팁</t>
+          <t>ch07. 스파크 실무 팁 (54:28)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="152">
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>ch08. Spark Streaming</t>
+          <t>ch08. Spark Streaming (02:32:16)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4022,12 +4022,12 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Part 10. 컬럼 기반의 NoSQL</t>
+          <t>Part 10. 컬럼 기반의 NoSQL (02:42:30)</t>
         </is>
       </c>
       <c r="B160" s="1" t="inlineStr">
         <is>
-          <t>ch01. 컬럼 기반 NoSQL 개요</t>
+          <t>ch01. 컬럼 기반 NoSQL 개요 (17:46)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="161">
       <c r="B161" s="1" t="inlineStr">
         <is>
-          <t>ch02. Cassandra</t>
+          <t>ch02. Cassandra (02:24:44)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4157,12 +4157,12 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Part 11 . File System</t>
+          <t>Part 11 . File System (23:21)</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
         <is>
-          <t>ch01. 파일 시스템 개요</t>
+          <t>ch01. 파일 시스템 개요 (23:21)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4191,12 +4191,12 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Part 12 . 이커머스 상품 데이터 파이프라인 구축 실습</t>
+          <t>Part 12 . 이커머스 상품 데이터 파이프라인 구축 실습 (01:48:22)</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>ch01. 로컬 파이프라인 구축</t>
+          <t>ch01. 로컬 파이프라인 구축 (01:30:07)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4362,10 +4362,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="105" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="56" customWidth="1" min="1" max="1"/>
+    <col width="51" customWidth="1" min="2" max="2"/>
+    <col width="110" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4393,12 +4393,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part1.자연어란? 지금까지의 히스토리</t>
+          <t>Part1.자연어란? 지금까지의 히스토리 (01:12:46)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>CH01.자연어를 컴퓨터가 이해하는 법</t>
+          <t>CH01.자연어를 컴퓨터가 이해하는 법 (11:16)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4415,7 +4415,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>CH02.자연어처리 모델 히스토리</t>
+          <t>CH02.자연어처리 모델 히스토리 (01:01:30)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4456,12 +4456,12 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Part2.새로운 패러다임: 사전 학습 모델</t>
+          <t>Part2.새로운 패러다임: 사전 학습 모델 (01:45:44)</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>CH01.Pretrained Language Model</t>
+          <t>CH01.Pretrained Language Model (01:45:44)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4514,12 +4514,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Part3.ChatGPT 파헤치기</t>
+          <t>Part3.ChatGPT 파헤치기 (01:55:43)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>CH01.ChatGPT 개요</t>
+          <t>CH01.ChatGPT 개요 (25:01)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT 동작방식</t>
+          <t>CH02.ChatGPT 동작방식 (01:30:42)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4601,12 +4601,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Part4.ChatGPT와 관련있는 다른 연구들</t>
+          <t>Part4.ChatGPT와 관련있는 다른 연구들 (02:29:28)</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>CH01.대규모 언어모델 관련 연구</t>
+          <t>CH01.대규모 언어모델 관련 연구 (01:30:53)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4659,7 +4659,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT 관련 연구</t>
+          <t>CH02.ChatGPT 관련 연구 (58:35)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4724,12 +4724,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Part5.ChatGPT와 연관모델들은 어떻게 사용되고 있을까?</t>
+          <t>Part5.ChatGPT와 연관모델들은 어떻게 사용되고 있을까? (01:12:17)</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>CH01.ChatGPT의 관련 서비스</t>
+          <t>CH01.ChatGPT의 관련 서비스 (22:20)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4770,7 +4770,7 @@
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT와 관련 사례</t>
+          <t>CH02.ChatGPT와 관련 사례 (33:59)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4799,7 +4799,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>CH03.ChatGPT와 같은 모델 사용</t>
+          <t>CH03.ChatGPT와 같은 모델 사용 (15:58)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4828,12 +4828,12 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Part6.한국의 기업들은 어떻게 대응하고 있을까</t>
+          <t>Part6.한국의 기업들은 어떻게 대응하고 있을까 (01:00:08)</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>CH01. 한국의 빅모델 현황</t>
+          <t>CH01. 한국의 빅모델 현황 (01:00:08)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Part7.최종 ChatGPT 정리</t>
+          <t>Part7.최종 ChatGPT 정리 (28:17)</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>CH01.ChatGPT에 대한 사람들의 관심</t>
+          <t>CH01.ChatGPT에 대한 사람들의 관심 (05:59)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4908,7 +4908,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT 정리</t>
+          <t>CH02.ChatGPT 정리 (22:18)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4937,12 +4937,12 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Part8.GPT-4의 등장</t>
+          <t>Part8.GPT-4의 등장 (02:07:08)</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>CH01.GPT-4 리뷰</t>
+          <t>CH01.GPT-4 리뷰 (02:07:08)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5007,12 +5007,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>특별부록. PPO 이론과 구현</t>
+          <t>특별부록. PPO 이론과 구현 (50:47)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>CH01. PPO</t>
+          <t>CH01. PPO (50:47)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5083,10 +5083,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="44" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="54" customWidth="1" min="1" max="1"/>
+    <col width="58" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5114,12 +5114,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 01. Auto-GPT와 친해지기</t>
+          <t>Part 01. Auto-GPT와 친해지기 (01:47:49)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter 01. Introduction</t>
+          <t>Chapter 01. Introduction (04:18)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5136,7 +5136,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Chapter  02. Auto-GPT의 등장 배경과 원리</t>
+          <t>Chapter  02. Auto-GPT의 등장 배경과 원리 (01:03:36)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5177,7 +5177,7 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Chapter  03. Auto-GPT 맛보기</t>
+          <t>Chapter  03. Auto-GPT 맛보기 (39:55)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5230,12 +5230,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Part 02. 초간단 파이썬 프로그래밍 기초</t>
+          <t>Part 02. 초간단 파이썬 프로그래밍 기초 (02:58:38)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. 파이썬 소개</t>
+          <t>Chapter  01. 파이썬 소개 (37:44)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Chapter  02. 파이썬 필수 기초</t>
+          <t>Chapter  02. 파이썬 필수 기초 (02:20:54)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5341,12 +5341,12 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Part 03. ChatGPT와 친해지기</t>
+          <t>Part 03. ChatGPT와 친해지기 (01:59:08)</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. OpenAI API 사용하기</t>
+          <t>Chapter  01. OpenAI API 사용하기 (46:59)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5375,7 +5375,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Chapter  02. AI 서비스를 만들기 위한 기초 라이브러리</t>
+          <t>Chapter  02. AI 서비스를 만들기 위한 기초 라이브러리 (19:41)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="22">
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Chapter  03. OpenAI API를 활용한 AI 서비스 만들기</t>
+          <t>Chapter  03. OpenAI API를 활용한 AI 서비스 만들기 (52:28)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5445,12 +5445,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Part 04. Auto-GPT를 활용한 AI 서비스 만들기</t>
+          <t>Part 04. Auto-GPT를 활용한 AI 서비스 만들기 (03:18:29)</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. Auto-GPT를 활용한 AI 서비스 만들기</t>
+          <t>Chapter  01. Auto-GPT를 활용한 AI 서비스 만들기 (03:18:29)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Part 05. AI 서비스를 AWS에 배포하기</t>
+          <t>Part 05. AI 서비스를 AWS에 배포하기 (01:04:18)</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Chapter 01.  내가 만든 AI 서비스를 AWS에 배포하기</t>
+          <t>Chapter 01.  내가 만든 AI 서비스를 AWS에 배포하기 (01:04:18)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5609,12 +5609,12 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Part 06. 자율 AI Agent + α</t>
+          <t>Part 06. 자율 AI Agent + α (12:41)</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. 유용한 자율 AI Agent 알아보기</t>
+          <t>Chapter  01. 유용한 자율 AI Agent 알아보기 (12:41)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5690,10 +5690,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="42" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="75" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="1" max="1"/>
+    <col width="51" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5721,12 +5721,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. AWS와 DevOps 기초</t>
+          <t>Part 1. AWS와 DevOps 기초 (03:28:09)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 클라우드 서비스 개요</t>
+          <t>Ch 01. 클라우드 서비스 개요 (18:59)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5815,7 +5815,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. AWS 서비스 개요</t>
+          <t>Ch 02. AWS 서비스 개요 (14:04)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. AWS 주요 서비스 소개</t>
+          <t>Ch 03. AWS 주요 서비스 소개 (44:48)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5933,7 +5933,7 @@
     <row r="18">
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. AWS공동 책임 모델 &amp; 규정 준수 프로그램</t>
+          <t>Ch 04. AWS공동 책임 모델 &amp; 규정 준수 프로그램 (06:05)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5962,7 +5962,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. AWS 비용 체계</t>
+          <t>Ch 05. AWS 비용 체계 (14:31)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6015,7 +6015,7 @@
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS 계정 생성 실습 하기</t>
+          <t>Ch 06. AWS 계정 생성 실습 하기 (24:54)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6092,7 +6092,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. AWS 콘솔 및 aws cli사용 하기</t>
+          <t>Ch 07. AWS 콘솔 및 aws cli사용 하기 (48:40)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6181,7 +6181,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. DevOps기초</t>
+          <t>Ch 08. DevOps기초 (36:08)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6270,12 +6270,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Part 2. AWS 아키텍처 설계 기본</t>
+          <t>Part 2. AWS 아키텍처 설계 기본 (07:49:38)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. AWS 아키텍팅 하기 전에 알아야 할 것들</t>
+          <t>Ch 01. AWS 아키텍팅 하기 전에 알아야 할 것들 (16:30)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6316,7 +6316,7 @@
     <row r="47">
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 네트워크 기초</t>
+          <t>Ch 02. 네트워크 기초 (16:32)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="53">
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. VPC 실습하기</t>
+          <t>Ch 03. VPC 실습하기 (50:28)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6458,7 +6458,7 @@
     <row r="58">
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 소규모 서비스 구축 해보기</t>
+          <t>Ch 04. 소규모 서비스 구축 해보기 (02:06:59)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6583,7 +6583,7 @@
     <row r="68">
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. AWS Autoscaling Group 개요</t>
+          <t>Ch 05. AWS Autoscaling Group 개요 (07:44)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6636,7 +6636,7 @@
     <row r="72">
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. Autoscaling Group 실습</t>
+          <t>Ch 06. Autoscaling Group 실습 (43:54)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6749,7 +6749,7 @@
     <row r="81">
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 중규모 서비스 구축해보기(컨테이너 사용)</t>
+          <t>Ch 07. 중규모 서비스 구축해보기(컨테이너 사용) (01:52:04)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6946,7 +6946,7 @@
     <row r="97">
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 서비스 운영</t>
+          <t>Ch 08. 서비스 운영 (01:35:27)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7035,12 +7035,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Part 3. AWS 아키텍처 설계 심화</t>
+          <t>Part 3. AWS 아키텍처 설계 심화 (06:11:51)</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 마이크로 서비스 아키텍처란?</t>
+          <t>Ch 01. 마이크로 서비스 아키텍처란? (01:02:03)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7117,7 +7117,7 @@
     <row r="110">
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 마이크로 서비스 아키텍처 구현해보기</t>
+          <t>Ch 02. 마이크로 서비스 아키텍처 구현해보기 (01:11:53)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7206,7 +7206,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 마이크로 서비스 간 데이터 통신</t>
+          <t>Ch 03. 마이크로 서비스 간 데이터 통신 (42:09)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7319,7 +7319,7 @@
     <row r="126">
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 마이크로 서비스 배포 자동화</t>
+          <t>Ch 04. 마이크로 서비스 배포 자동화 (39:10)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7396,7 +7396,7 @@
     <row r="132">
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 서버리스 아키텍처란?</t>
+          <t>Ch 05. 서버리스 아키텍처란? (36:03)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -7461,7 +7461,7 @@
     <row r="137">
       <c r="B137" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 서버리스 아키텍처 구현해보기</t>
+          <t>Ch 06. 서버리스 아키텍처 구현해보기 (31:38)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7526,7 +7526,7 @@
     <row r="142">
       <c r="B142" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. Lambda Deep-dive</t>
+          <t>Ch 07. Lambda Deep-dive (43:05)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7615,7 +7615,7 @@
     <row r="149">
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 서비리스 아키텍처와 데이터</t>
+          <t>Ch 08. 서비리스 아키텍처와 데이터 (45:50)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7680,12 +7680,12 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 코드를 통한 인프라 관리(IaC)</t>
+          <t>Part 4. 코드를 통한 인프라 관리(IaC) (09:58:52)</t>
         </is>
       </c>
       <c r="B154" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 코드형 인프라(IaC)란?</t>
+          <t>Ch 01. 코드형 인프라(IaC)란? (34:26)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="158">
       <c r="B158" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 실습을 위한 기본 개발환경 구성</t>
+          <t>Ch 02. 실습을 위한 기본 개발환경 구성 (24:59)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7851,7 +7851,7 @@
     <row r="167">
       <c r="B167" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. CloudFormation/SAM</t>
+          <t>Ch 03. CloudFormation/SAM (58:22)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7964,7 +7964,7 @@
     <row r="176">
       <c r="B176" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Terraform</t>
+          <t>Ch 04. Terraform (04:47:38)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8161,7 +8161,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Ansible</t>
+          <t>Ch 05. Ansible (01:59:47)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8322,7 +8322,7 @@
     <row r="205">
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS CDKTF</t>
+          <t>Ch 06. AWS CDKTF (58:03)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8375,7 +8375,7 @@
     <row r="209">
       <c r="B209" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. IaC 비교</t>
+          <t>Ch 07. IaC 비교 (15:37)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8392,12 +8392,12 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>mini. Golang으로 구현하는 서버리스 프레임워크 실습</t>
+          <t>mini. Golang으로 구현하는 서버리스 프레임워크 실습 (02:22:58)</t>
         </is>
       </c>
       <c r="B210" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 서버리스 프레임워크를 활용한 자동화</t>
+          <t>Ch 01. 서버리스 프레임워크를 활용한 자동화 (02:22:58)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8498,12 +8498,12 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Part 5. Docker와 실전 Kubernetes on AWS</t>
+          <t>Part 5. Docker와 실전 Kubernetes on AWS (13:09:06)</t>
         </is>
       </c>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 01. docker 개요 </t>
+          <t>Ch 01. docker 개요  (01:22:18)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8556,7 +8556,7 @@
     <row r="222">
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. kubernetes 시작하기</t>
+          <t>Ch 02. kubernetes 시작하기 (02:08:47)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8693,7 +8693,7 @@
     <row r="233">
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 03. AWS EKS 알아보기 </t>
+          <t>Ch 03. AWS EKS 알아보기  (01:31:49)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="238">
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. kubernetes 오브젝트</t>
+          <t>Ch 04. kubernetes 오브젝트 (02:08:19)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8955,7 +8955,7 @@
     <row r="254">
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 05. Kubernetes 관련 도구 </t>
+          <t>Ch 05. Kubernetes 관련 도구  (01:43:13)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9056,7 +9056,7 @@
     <row r="262">
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS EKS로 어플리케이션 구축</t>
+          <t>Ch 06. AWS EKS로 어플리케이션 구축 (01:13:01)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9121,7 +9121,7 @@
     <row r="267">
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. AWS EKS로 어플리케이션 운영</t>
+          <t>Ch 07. AWS EKS로 어플리케이션 운영 (03:01:39)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9270,12 +9270,12 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Intensive. AWS EKS 스페셜</t>
+          <t>Intensive. AWS EKS 스페셜 (08:11:53)</t>
         </is>
       </c>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. EKS 소개</t>
+          <t>Ch 01. EKS 소개 (29:13)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9340,7 +9340,7 @@
     <row r="284">
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. EKS Worker Node</t>
+          <t>Ch 02. EKS Worker Node (01:39:09)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9393,7 +9393,7 @@
     <row r="288">
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. EKS 리소스 버전관리</t>
+          <t>Ch 03. EKS 리소스 버전관리 (01:52:08)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9482,7 +9482,7 @@
     <row r="295">
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. EKS 네트워킹</t>
+          <t>Ch 04. EKS 네트워킹 (01:12:13)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9547,7 +9547,7 @@
     <row r="300">
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. EKS 권한관리</t>
+          <t>Ch 05. EKS 권한관리 (01:10:47)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9600,7 +9600,7 @@
     <row r="304">
       <c r="B304" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS 리소스와의 통합</t>
+          <t>Ch 06. AWS 리소스와의 통합 (01:48:23)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -9689,12 +9689,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Part 6. CI/CD(지속적 통합/지속적 제공) 구현하기</t>
+          <t>Part 6. CI/CD(지속적 통합/지속적 제공) 구현하기 (08:24:08)</t>
         </is>
       </c>
       <c r="B311" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. CI/CD란?</t>
+          <t>Ch 01. CI/CD란? (01:33:42)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -9771,7 +9771,7 @@
     <row r="317">
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Github Actions</t>
+          <t>Ch 02. Github Actions (15:54)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -9812,7 +9812,7 @@
     <row r="320">
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. CircleCI</t>
+          <t>Ch 03. CircleCI (24:53)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9853,7 +9853,7 @@
     <row r="323">
       <c r="B323" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Jenkins</t>
+          <t>Ch 04. Jenkins (01:04:37)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9942,7 +9942,7 @@
     <row r="330">
       <c r="B330" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Gitlab &amp; Runner</t>
+          <t>Ch 05. Gitlab &amp; Runner (01:26:43)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10019,7 +10019,7 @@
     <row r="336">
       <c r="B336" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS CodeSeries</t>
+          <t>Ch 06. AWS CodeSeries (01:53:34)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -10096,7 +10096,7 @@
     <row r="342">
       <c r="B342" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. CI/CD 비교</t>
+          <t>Ch 07. CI/CD 비교 (18:43)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -10113,7 +10113,7 @@
     <row r="343">
       <c r="B343" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. GitOps</t>
+          <t>Ch 08. GitOps (33:57)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -10142,7 +10142,7 @@
     <row r="345">
       <c r="B345" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. ArgoCD</t>
+          <t>Ch 09. ArgoCD (52:05)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -10231,12 +10231,12 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Part 7. 어플리케이션 성능테스트 및 모니터링</t>
+          <t>Part 7. 어플리케이션 성능테스트 및 모니터링 (07:03:45)</t>
         </is>
       </c>
       <c r="B352" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 성능테스트 이해하기</t>
+          <t>Ch 01. 성능테스트 이해하기 (24:48)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -10277,7 +10277,7 @@
     <row r="355">
       <c r="B355" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Application에 성능 테스트 해보기</t>
+          <t>Ch 02. Application에 성능 테스트 해보기 (01:06:49)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10366,7 +10366,7 @@
     <row r="362">
       <c r="B362" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 모니터링 이해하기</t>
+          <t>Ch 03. 모니터링 이해하기 (20:14)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10383,7 +10383,7 @@
     <row r="363">
       <c r="B363" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. AWS를 활용한 모니터링</t>
+          <t>Ch 04. AWS를 활용한 모니터링 (52:57)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10424,7 +10424,7 @@
     <row r="366">
       <c r="B366" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 오픈 소스를 활용한 모니터링</t>
+          <t>Ch 05. 오픈 소스를 활용한 모니터링 (02:30:40)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10573,7 +10573,7 @@
     <row r="378">
       <c r="B378" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. SaaS를 활용한 모니터링</t>
+          <t>Ch 06. SaaS를 활용한 모니터링 (01:01:43)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10626,7 +10626,7 @@
     <row r="382">
       <c r="B382" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 모니터링 알람과 자동화</t>
+          <t>Ch 07. 모니터링 알람과 자동화 (46:34)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10667,12 +10667,12 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Part 8. AWS 보안</t>
+          <t>Part 8. AWS 보안 (07:14:27)</t>
         </is>
       </c>
       <c r="B385" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. AWS 보안 Overview</t>
+          <t>Ch 01. AWS 보안 Overview (21:44)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10725,7 +10725,7 @@
     <row r="389">
       <c r="B389" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 02. AWS 접근제어 </t>
+          <t>Ch 02. AWS 접근제어  (02:33:43)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10826,7 +10826,7 @@
     <row r="397">
       <c r="B397" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. AWS 네트워크 보안</t>
+          <t>Ch 03. AWS 네트워크 보안 (01:25:41)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10891,7 +10891,7 @@
     <row r="402">
       <c r="B402" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. AWS 보안 탐지 및 자동화</t>
+          <t>Ch 04. AWS 보안 탐지 및 자동화 (02:18:40)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10992,7 +10992,7 @@
     <row r="410">
       <c r="B410" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 05. DevSecOps on AWS </t>
+          <t>Ch 05. DevSecOps on AWS  (34:39)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11033,12 +11033,12 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Special 1. AWS 마이그레이션</t>
+          <t>Special 1. AWS 마이그레이션 (04:27:35)</t>
         </is>
       </c>
       <c r="B413" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. AWS Migration 전략</t>
+          <t>Ch 01. AWS Migration 전략 (28:10)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11079,7 +11079,7 @@
     <row r="416">
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. aws 마이그레이션 서비스 소개 및 실습</t>
+          <t>Ch 02. aws 마이그레이션 서비스 소개 및 실습 (03:59:25)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11156,12 +11156,12 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Special 2. 트러블 슈팅</t>
+          <t>Special 2. 트러블 슈팅 (04:15:16)</t>
         </is>
       </c>
       <c r="B422" s="1" t="inlineStr">
         <is>
-          <t>Ch 00. 오리엔테이션</t>
+          <t>Ch 00. 오리엔테이션 (03:19)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11178,7 +11178,7 @@
     <row r="423">
       <c r="B423" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 서비스 에러 분석</t>
+          <t>Ch 01. 서비스 에러 분석 (54:49)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11231,7 +11231,7 @@
     <row r="427">
       <c r="B427" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. EC2 장애 분석</t>
+          <t>Ch 02. EC2 장애 분석 (52:30)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11272,7 +11272,7 @@
     <row r="430">
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. EKS 장애 분석</t>
+          <t>Ch 03. EKS 장애 분석 (01:22:45)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11337,7 +11337,7 @@
     <row r="435">
       <c r="B435" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 마이그레이션 에러</t>
+          <t>Ch 04. 마이그레이션 에러 (13:58)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11366,7 +11366,7 @@
     <row r="437">
       <c r="B437" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 사례분석</t>
+          <t>Ch 05. 사례분석 (47:55)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11395,12 +11395,12 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Certified. AWS 자격증 2종 공략하기 (SAA, SAP)</t>
+          <t>Certified. AWS 자격증 2종 공략하기 (SAA, SAP) (03:22:11)</t>
         </is>
       </c>
       <c r="B439" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 보안 아키텍처 설계</t>
+          <t>Ch 01. 보안 아키텍처 설계 (57:25)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11489,7 +11489,7 @@
     <row r="446">
       <c r="B446" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 복원력을 갖춘 아키텍처 설계</t>
+          <t>Ch 02. 복원력을 갖춘 아키텍처 설계 (55:37)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -11590,7 +11590,7 @@
     <row r="454">
       <c r="B454" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 고성능 아키텍처 설계</t>
+          <t>Ch 03. 고성능 아키텍처 설계 (52:01)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -11691,7 +11691,7 @@
     <row r="462">
       <c r="B462" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 비용에 최적화된 아키텍처 설계</t>
+          <t>Ch 04. 비용에 최적화된 아키텍처 설계 (35:42)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -11894,10 +11894,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="49" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="65" customWidth="1" min="1" max="1"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11925,12 +11925,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 비전공자도 할 수 있는 왕초보 통계, 엑셀 데이터 탐색 시작하기</t>
+          <t>Part 1. 비전공자도 할 수 있는 왕초보 통계, 엑셀 데이터 탐색 시작하기 (01:27:16)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 비전공자도 기본적인 통계 기초가 필요한 이유</t>
+          <t>Ch 01. 비전공자도 기본적인 통계 기초가 필요한 이유 (30:16)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11971,7 +11971,7 @@
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 데이터 분석 단계 및 탐색적 데이터 분석(EDA)</t>
+          <t>Ch 02. 데이터 분석 단계 및 탐색적 데이터 분석(EDA) (22:11)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 무작정 따라 하는 엑셀 데이터 탐색 실습</t>
+          <t>Ch 03. 무작정 따라 하는 엑셀 데이터 탐색 실습 (34:49)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12041,12 +12041,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 비전공자도 엑셀만 알아도 시작할 수 있는 데이터 탐색</t>
+          <t>Part 2. 비전공자도 엑셀만 알아도 시작할 수 있는 데이터 탐색 (01:37:24)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 데이터 탐색 사례</t>
+          <t>Ch 01. 데이터 탐색 사례 (38:43)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12111,7 +12111,7 @@
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 데이터 탐색과 통계 필요성</t>
+          <t>Ch 02. 데이터 탐색과 통계 필요성 (15:25)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12128,7 +12128,7 @@
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 차트로 엑셀 데이터 쉽게 탐색하기</t>
+          <t>Ch 03. 차트로 엑셀 데이터 쉽게 탐색하기 (43:16)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12169,12 +12169,12 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 비전공자를 위한 왕초보 기초 통계(고등학교 통계부터 기술통계까지)</t>
+          <t>Part 3. 비전공자를 위한 왕초보 기초 통계(고등학교 통계부터 기술통계까지) (03:35:47)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 왕초보 고등학교 기초통계</t>
+          <t>Ch 01. 왕초보 고등학교 기초통계 (02:13:07)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12287,7 +12287,7 @@
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 기술통계</t>
+          <t>Ch 02. 기술통계 (56:25)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -12352,7 +12352,7 @@
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 회귀분석, 공분산, 상관계수</t>
+          <t>Ch 03. 회귀분석, 공분산, 상관계수 (26:15)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -12393,12 +12393,12 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 기술통계 기초 개념을 엑셀 데이터 탐색에 적용해 보기</t>
+          <t>Part 4. 기술통계 기초 개념을 엑셀 데이터 탐색에 적용해 보기 (01:11:22)</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 대표값으로 데이터 분포 파악하기</t>
+          <t>Ch 01. 대표값으로 데이터 분포 파악하기 (24:06)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -12439,7 +12439,7 @@
     <row r="39">
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 이상치 탐지</t>
+          <t>Ch 02. 이상치 탐지 (26:45)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -12480,7 +12480,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 두 변수의 상관관계 분석하기</t>
+          <t>Ch 03. 두 변수의 상관관계 분석하기 (20:31)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -12509,12 +12509,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 추론통계 맛보기와 공공데이터 셋 탐색해보기</t>
+          <t>Part 5. 추론통계 맛보기와 공공데이터 셋 탐색해보기 (02:18:33)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 추론통계 맛보기</t>
+          <t>Ch 01. 추론통계 맛보기 (01:24:10)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -12603,7 +12603,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 02. 중심극한정리 </t>
+          <t>Ch 02. 중심극한정리  (15:58)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -12620,7 +12620,7 @@
     <row r="52">
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 분포의 모양과 추론통계</t>
+          <t>Ch 03. 분포의 모양과 추론통계 (10:02)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -12637,7 +12637,7 @@
     <row r="53">
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 공공 데이터 셋 탐색 하기</t>
+          <t>Ch 04. 공공 데이터 셋 탐색 하기 (28:23)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12705,10 +12705,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="74" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="79" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12736,12 +12736,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 프로그래밍 기초</t>
+          <t>Part 1. 프로그래밍 기초 (14:52:29)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch01. Python 개요</t>
+          <t>Ch01. Python 개요 (35:30)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12782,7 +12782,7 @@
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Python의 자료형</t>
+          <t>Ch02. Python의 자료형 (01:31:35)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12859,7 +12859,7 @@
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 제어문</t>
+          <t>Ch03. 제어문 (01:06:51)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12924,7 +12924,7 @@
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 함수 및 변수</t>
+          <t>Ch04. 함수 및 변수 (41:42)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12965,7 +12965,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 함수 심화학습</t>
+          <t>Ch05. 함수 심화학습 (44:06)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -13042,7 +13042,7 @@
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 클래스</t>
+          <t>Ch06. 클래스 (01:13:31)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -13107,7 +13107,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 상속과 예외처리</t>
+          <t>Ch07. 상속과 예외처리 (44:28)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -13160,7 +13160,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 파일 입/출력</t>
+          <t>Ch08. 파일 입/출력 (49:42)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -13201,7 +13201,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 병렬처리</t>
+          <t>Ch09. 병렬처리 (01:04:55)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -13230,7 +13230,7 @@
     <row r="39">
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Ch10. DB 연동과 정규식</t>
+          <t>Ch10. DB 연동과 정규식 (01:16:58)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -13271,7 +13271,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch11. numpy와 pandas</t>
+          <t>Ch11. numpy와 pandas (01:17:56)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -13300,7 +13300,7 @@
     <row r="44">
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ch12. (추가강의) Rest API와 Flask</t>
+          <t>Ch12. (추가강의) Rest API와 Flask (54:19)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -13329,7 +13329,7 @@
     <row r="46">
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Ch13. (추가강의) 파이썬의 속도 문제에 대해</t>
+          <t>Ch13. (추가강의) 파이썬의 속도 문제에 대해 (01:13:17)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -13358,7 +13358,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Ch14. (추가강의) 파이썬 수업 총정리</t>
+          <t>Ch14. (추가강의) 파이썬 수업 총정리 (01:37:39)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -13399,12 +13399,12 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 이산수학</t>
+          <t>Part 2. 이산수학 (08:33:55)</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 집합과 논리</t>
+          <t>Ch01. 집합과 논리 (49:55)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -13445,7 +13445,7 @@
     <row r="54">
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 증명</t>
+          <t>Ch02. 증명 (44:29)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -13486,7 +13486,7 @@
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 함수, 수열과 관계</t>
+          <t>Ch03. 함수, 수열과 관계 (47:50)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -13527,7 +13527,7 @@
     <row r="60">
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 알고리즘</t>
+          <t>Ch04. 알고리즘 (47:02)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -13568,7 +13568,7 @@
     <row r="63">
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 정수론 소개</t>
+          <t>Ch05. 정수론 소개 (59:26)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -13609,7 +13609,7 @@
     <row r="66">
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 경우의 수 세기와 비둘기집의 원리</t>
+          <t>Ch06. 경우의 수 세기와 비둘기집의 원리 (35:58)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13662,7 +13662,7 @@
     <row r="70">
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 점화 관계</t>
+          <t>Ch07. 점화 관계 (38:56)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -13691,7 +13691,7 @@
     <row r="72">
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 그래프론</t>
+          <t>Ch08. 그래프론 (53:48)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13732,7 +13732,7 @@
     <row r="75">
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 트리</t>
+          <t>Ch09. 트리 (39:06)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -13785,7 +13785,7 @@
     <row r="79">
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 네트워크 모델</t>
+          <t>Ch10. 네트워크 모델 (25:22)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -13814,7 +13814,7 @@
     <row r="81">
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 부울대수와 조합논리</t>
+          <t>Ch11. 부울대수와 조합논리 (22:20)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -13843,7 +13843,7 @@
     <row r="83">
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Ch12. 형식 언어와 오토마타</t>
+          <t>Ch12. 형식 언어와 오토마타 (49:43)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -13884,12 +13884,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 미적분</t>
+          <t>Part 3. 미적분 (06:20:04)</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 수열과 급수</t>
+          <t>Ch01. 수열과 급수 (56:54)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -13942,7 +13942,7 @@
     <row r="90">
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 함수</t>
+          <t>Ch02. 함수 (51:17)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -14019,7 +14019,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 미분법</t>
+          <t>Ch03. 미분법 (48:45)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -14096,7 +14096,7 @@
     <row r="102">
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 도함수의 활용</t>
+          <t>Ch04. 도함수의 활용 (53:14)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -14161,7 +14161,7 @@
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 적분법</t>
+          <t>Ch05. 적분법 (50:42)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="112">
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 좌표공간과 벡터</t>
+          <t>Ch06. 좌표공간과 벡터 (55:20)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14291,7 +14291,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 다변수 함수와 편미분</t>
+          <t>Ch07. 다변수 함수와 편미분 (01:03:52)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -14368,12 +14368,12 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 컴퓨터 네트워크</t>
+          <t>Part 4. 컴퓨터 네트워크 (09:59:39)</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 컴퓨터 네트워크와 인터넷</t>
+          <t>Ch01. 컴퓨터 네트워크와 인터넷 (58:05)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14450,7 +14450,7 @@
     <row r="129">
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 네트워크 계층별 역할</t>
+          <t>Ch02. 네트워크 계층별 역할 (04:46:37)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14707,7 +14707,7 @@
     <row r="150">
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 네트워크 응용</t>
+          <t>Ch03. 네트워크 응용 (01:31:07)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -14808,7 +14808,7 @@
     <row r="158">
       <c r="B158" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch04. 네트워크 프로그래밍 사례 </t>
+          <t>Ch04. 네트워크 프로그래밍 사례  (02:43:50)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -14981,12 +14981,12 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 컴퓨터 구조</t>
+          <t>Part 5. 컴퓨터 구조 (08:43:44)</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 컴퓨터 시스템 개요</t>
+          <t>Ch01. 컴퓨터 시스템 개요 (47:58)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -15051,7 +15051,7 @@
     <row r="177">
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>Ch02. CPU의 구조와 기능</t>
+          <t>Ch02. CPU의 구조와 기능 (01:07:41)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -15128,7 +15128,7 @@
     <row r="183">
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 기억장치</t>
+          <t>Ch03. 기억장치 (49:31)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -15181,7 +15181,7 @@
     <row r="187">
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 보조저장장치</t>
+          <t>Ch04. 보조저장장치 (02:11:53)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -15246,7 +15246,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 시스템 버스 및 I/O 인터페이스</t>
+          <t>Ch05. 시스템 버스 및 I/O 인터페이스 (01:25:21)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -15311,7 +15311,7 @@
     <row r="197">
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 고성능 컴퓨터시스템 구조</t>
+          <t>Ch06. 고성능 컴퓨터시스템 구조 (01:38:21)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -15364,7 +15364,7 @@
     <row r="201">
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 컴퓨터시스템의 확장</t>
+          <t>Ch07. 컴퓨터시스템의 확장 (42:59)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -15393,12 +15393,12 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Part 6. 자료구조 및 알고리즘</t>
+          <t>Part 6. 자료구조 및 알고리즘 (09:58:39)</t>
         </is>
       </c>
       <c r="B203" s="1" t="inlineStr">
         <is>
-          <t>Ch00. OT</t>
+          <t>Ch00. OT (07:59)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -15415,7 +15415,7 @@
     <row r="204">
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 자료구조 기초</t>
+          <t>Ch01. 자료구조 기초 (22:36)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -15456,7 +15456,7 @@
     <row r="207">
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 리스트</t>
+          <t>Ch02. 리스트 (01:35:00)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -15581,7 +15581,7 @@
     <row r="217">
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 스택</t>
+          <t>Ch03. 스택 (22:39)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -15622,7 +15622,7 @@
     <row r="220">
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 큐</t>
+          <t>Ch04. 큐 (32:02)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -15687,7 +15687,7 @@
     <row r="225">
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 해시</t>
+          <t>Ch05. 해시 (39:19)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="228">
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 정렬</t>
+          <t>Ch06. 정렬 (54:30)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -15793,7 +15793,7 @@
     <row r="233">
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 트리</t>
+          <t>Ch07. 트리 (01:20:21)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -15894,7 +15894,7 @@
     <row r="241">
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 힙</t>
+          <t>Ch08. 힙 (40:22)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -15947,7 +15947,7 @@
     <row r="245">
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 그래프</t>
+          <t>Ch09. 그래프 (01:32:35)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -16072,7 +16072,7 @@
     <row r="255">
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 알고리즘</t>
+          <t>Ch10. 알고리즘 (01:12:20)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -16197,7 +16197,7 @@
     <row r="265">
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>Ch11. (추가강의) LRU</t>
+          <t>Ch11. (추가강의) LRU (38:56)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -16238,12 +16238,12 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Part 7. 객체지향 프로그래밍</t>
+          <t>Part 7. 객체지향 프로그래밍 (08:42:15)</t>
         </is>
       </c>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 객체지향이란 무엇인가요?</t>
+          <t>Ch01. 객체지향이란 무엇인가요? (42:17)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -16284,7 +16284,7 @@
     <row r="271">
       <c r="B271" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 객체지향을 이해하기 위한 요소</t>
+          <t>Ch02. 객체지향을 이해하기 위한 요소 (03:39:18)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -16493,7 +16493,7 @@
     <row r="288">
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 객체지향을 위한 언어의 이해</t>
+          <t>Ch03. 객체지향을 위한 언어의 이해 (02:08:06)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -16630,7 +16630,7 @@
     <row r="299">
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 객체지향 프로그래밍 심화</t>
+          <t>Ch04. 객체지향 프로그래밍 심화 (02:12:34)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -16791,12 +16791,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Part 8. 운영체제</t>
+          <t>Part 8. 운영체제 (08:51:05)</t>
         </is>
       </c>
       <c r="B312" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 운영체제 개요</t>
+          <t>Ch01. 운영체제 개요 (44:45)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -16861,7 +16861,7 @@
     <row r="317">
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 운영체제 구조</t>
+          <t>Ch02. 운영체제 구조 (27:49)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -16902,7 +16902,7 @@
     <row r="320">
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 프로세스 관리</t>
+          <t>Ch03. 프로세스 관리 (01:40:39)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -17003,7 +17003,7 @@
     <row r="328">
       <c r="B328" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 스레드와 동시성</t>
+          <t>Ch04. 스레드와 동시성 (27:04)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -17056,7 +17056,7 @@
     <row r="332">
       <c r="B332" s="1" t="inlineStr">
         <is>
-          <t>Ch05. CPU 스케쥴링</t>
+          <t>Ch05. CPU 스케쥴링 (01:12:39)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -17121,7 +17121,7 @@
     <row r="337">
       <c r="B337" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 프로세스 동기화</t>
+          <t>Ch06. 프로세스 동기화 (59:45)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -17186,7 +17186,7 @@
     <row r="342">
       <c r="B342" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 메인 메모리 / 가상 메모리</t>
+          <t>Ch07. 메인 메모리 / 가상 메모리 (02:04:18)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -17287,7 +17287,7 @@
     <row r="350">
       <c r="B350" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 대용량 저장장치 구조</t>
+          <t>Ch08. 대용량 저장장치 구조 (53:47)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17340,7 +17340,7 @@
     <row r="354">
       <c r="B354" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 보호와 보안</t>
+          <t>Ch09. 보호와 보안 (20:19)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17381,12 +17381,12 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Part 9. 확률 및 통계</t>
+          <t>Part 9. 확률 및 통계 (10:08:16)</t>
         </is>
       </c>
       <c r="B357" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 데이터</t>
+          <t>Ch01. 데이터 (22:20)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17427,7 +17427,7 @@
     <row r="360">
       <c r="B360" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 1차원 데이터 분석</t>
+          <t>Ch02. 1차원 데이터 분석 (01:14:02)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17480,7 +17480,7 @@
     <row r="364">
       <c r="B364" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 2차원 데이터 분석</t>
+          <t>Ch03. 2차원 데이터 분석 (38:44)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17521,7 +17521,7 @@
     <row r="367">
       <c r="B367" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 확률 및 통계</t>
+          <t>Ch04. 확률 및 통계 (45:22)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17574,7 +17574,7 @@
     <row r="371">
       <c r="B371" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 이산 확률 변수</t>
+          <t>Ch05. 이산 확률 변수 (48:18)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -17627,7 +17627,7 @@
     <row r="375">
       <c r="B375" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 이산 확률 분포</t>
+          <t>Ch06. 이산 확률 분포 (37:04)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -17680,7 +17680,7 @@
     <row r="379">
       <c r="B379" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 연속 확률 변수</t>
+          <t>Ch07. 연속 확률 변수 (55:48)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -17733,7 +17733,7 @@
     <row r="383">
       <c r="B383" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 연속 확률 분포</t>
+          <t>Ch08. 연속 확률 분포 (45:21)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -17798,7 +17798,7 @@
     <row r="388">
       <c r="B388" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 독립성</t>
+          <t>Ch09. 독립성 (43:33)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -17839,7 +17839,7 @@
     <row r="391">
       <c r="B391" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 점 추정 &amp; 구간 추정</t>
+          <t>Ch10. 점 추정 &amp; 구간 추정 (45:24)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -17916,7 +17916,7 @@
     <row r="397">
       <c r="B397" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 가설 검정</t>
+          <t>Ch11. 가설 검정 (01:00:19)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -18029,7 +18029,7 @@
     <row r="406">
       <c r="B406" s="1" t="inlineStr">
         <is>
-          <t>Ch12. 회귀 분석</t>
+          <t>Ch12. 회귀 분석 (01:32:01)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -18082,12 +18082,12 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Part 10. 데이터베이스</t>
+          <t>Part 10. 데이터베이스 (08:05:13)</t>
         </is>
       </c>
       <c r="B410" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 데이터베이스 기본 개념</t>
+          <t>Ch01. 데이터베이스 기본 개념 (47:14)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -18140,7 +18140,7 @@
     <row r="414">
       <c r="B414" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 관계형 데이터 모델</t>
+          <t>Ch02. 관계형 데이터 모델 (46:22)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -18193,7 +18193,7 @@
     <row r="418">
       <c r="B418" s="1" t="inlineStr">
         <is>
-          <t>Ch03. SQL 데이터베이스 언어</t>
+          <t>Ch03. SQL 데이터베이스 언어 (01:02:29)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -18246,7 +18246,7 @@
     <row r="422">
       <c r="B422" s="1" t="inlineStr">
         <is>
-          <t>Ch04. SQL 심화</t>
+          <t>Ch04. SQL 심화 (54:19)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -18299,7 +18299,7 @@
     <row r="426">
       <c r="B426" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 데이터베이스 설계 (ER 다이어그램)</t>
+          <t>Ch05. 데이터베이스 설계 (ER 다이어그램) (37:14)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -18352,7 +18352,7 @@
     <row r="430">
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 데이터베이스 설계 (정규화)</t>
+          <t>Ch06. 데이터베이스 설계 (정규화) (42:34)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -18405,7 +18405,7 @@
     <row r="434">
       <c r="B434" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 트랜잭션 시스템</t>
+          <t>Ch07. 트랜잭션 시스템 (51:53)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -18458,7 +18458,7 @@
     <row r="438">
       <c r="B438" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 스토리지와 인덱스</t>
+          <t>Ch08. 스토리지와 인덱스 (47:33)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -18511,7 +18511,7 @@
     <row r="442">
       <c r="B442" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 쿼리 프로세싱과 최적화</t>
+          <t>Ch09. 쿼리 프로세싱과 최적화 (40:55)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -18564,7 +18564,7 @@
     <row r="446">
       <c r="B446" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 데이터베이스 최신 기술</t>
+          <t>Ch10. 데이터베이스 최신 기술 (54:40)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -18617,12 +18617,12 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Part 11. 시스템 프로그래밍</t>
+          <t>Part 11. 시스템 프로그래밍 (11:06:15)</t>
         </is>
       </c>
       <c r="B450" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 시스템 프로그래밍 소개</t>
+          <t>Ch01. 시스템 프로그래밍 소개 (02:51:07)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -18771,7 +18771,7 @@
     <row r="462">
       <c r="B462" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 파일 입출력 시스템</t>
+          <t>Ch02. 파일 입출력 시스템 (02:09:02)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -18896,7 +18896,7 @@
     <row r="472">
       <c r="B472" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 프로세스와 스레드</t>
+          <t>Ch03. 프로세스와 스레드 (02:03:59)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -19009,7 +19009,7 @@
     <row r="481">
       <c r="B481" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 프로세스 간 통신</t>
+          <t>Ch04. 프로세스 간 통신 (04:02:07)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -19194,12 +19194,12 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Part 12. 선형대수학</t>
+          <t>Part 12. 선형대수학 (05:25:37)</t>
         </is>
       </c>
       <c r="B496" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 행렬과 가우스 소거법</t>
+          <t>Ch01. 행렬과 가우스 소거법 (01:23:59)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -19264,7 +19264,7 @@
     <row r="501">
       <c r="B501" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 벡터 공간</t>
+          <t>Ch02. 벡터 공간 (01:12:11)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -19341,7 +19341,7 @@
     <row r="507">
       <c r="B507" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 직교성</t>
+          <t>Ch03. 직교성 (01:03:33)</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -19406,7 +19406,7 @@
     <row r="512">
       <c r="B512" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 행렬식</t>
+          <t>Ch04. 행렬식 (44:54)</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -19459,7 +19459,7 @@
     <row r="516">
       <c r="B516" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 고유값과 고유벡터</t>
+          <t>Ch05. 고유값과 고유벡터 (44:45)</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -19512,7 +19512,7 @@
     <row r="520">
       <c r="B520" s="1" t="inlineStr">
         <is>
-          <t>Ch06. (심화학습) 행렬과 추천 시스템</t>
+          <t>Ch06. (심화학습) 행렬과 추천 시스템 (16:15)</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -19553,12 +19553,12 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Part 13. 인공지능</t>
+          <t>Part 13. 인공지능 (06:15:22)</t>
         </is>
       </c>
       <c r="B523" s="1" t="inlineStr">
         <is>
-          <t>Ch00. OT</t>
+          <t>Ch00. OT (02:14)</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -19575,7 +19575,7 @@
     <row r="524">
       <c r="B524" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 인공지능이란</t>
+          <t>Ch01. 인공지능이란 (30:04)</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -19628,7 +19628,7 @@
     <row r="528">
       <c r="B528" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 인공지능 역사</t>
+          <t>Ch02. 인공지능 역사 (30:12)</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -19681,7 +19681,7 @@
     <row r="532">
       <c r="B532" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 머신러닝</t>
+          <t>Ch03. 머신러닝 (29:02)</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -19734,7 +19734,7 @@
     <row r="536">
       <c r="B536" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 머신러닝 개요</t>
+          <t>Ch04. 머신러닝 개요 (29:02)</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -19775,7 +19775,7 @@
     <row r="539">
       <c r="B539" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 머신러닝 분류</t>
+          <t>Ch05. 머신러닝 분류 (14:25)</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -19840,7 +19840,7 @@
     <row r="544">
       <c r="B544" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 머신러닝 알고리즘 활용 변천사</t>
+          <t>Ch06. 머신러닝 알고리즘 활용 변천사 (30:31)</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -19917,7 +19917,7 @@
     <row r="550">
       <c r="B550" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 딥러닝</t>
+          <t>Ch07. 딥러닝 (29:32)</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19958,7 +19958,7 @@
     <row r="553">
       <c r="B553" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 딥러닝 개요</t>
+          <t>Ch08. 딥러닝 개요 (42:32)</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -20023,7 +20023,7 @@
     <row r="558">
       <c r="B558" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 심층신경망</t>
+          <t>Ch09. 심층신경망 (43:39)</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -20088,7 +20088,7 @@
     <row r="563">
       <c r="B563" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 딥러닝 프레임워크 활용</t>
+          <t>Ch10. 딥러닝 프레임워크 활용 (32:36)</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -20141,7 +20141,7 @@
     <row r="567">
       <c r="B567" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 업계 추천 내용</t>
+          <t>Ch11. 업계 추천 내용 (01:01:33)</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -20194,12 +20194,12 @@
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>Part 14. 머신러닝 심화</t>
+          <t>Part 14. 머신러닝 심화 (08:30:33)</t>
         </is>
       </c>
       <c r="B571" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 머신러닝과 그 사례</t>
+          <t>Ch01. 머신러닝과 그 사례 (01:12:38)</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -20276,7 +20276,7 @@
     <row r="577">
       <c r="B577" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 머신러닝 프로세스</t>
+          <t>Ch02. 머신러닝 프로세스 (54:35)</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -20365,7 +20365,7 @@
     <row r="584">
       <c r="B584" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 분류 모형</t>
+          <t>Ch03. 분류 모형 (52:55)</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20418,7 +20418,7 @@
     <row r="588">
       <c r="B588" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 모형 학습 기초</t>
+          <t>Ch04. 모형 학습 기초 (01:31:56)</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20495,7 +20495,7 @@
     <row r="594">
       <c r="B594" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 서포트 벡터 머신 모형</t>
+          <t>Ch05. 서포트 벡터 머신 모형 (27:29)</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20536,7 +20536,7 @@
     <row r="597">
       <c r="B597" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 결정 트리 모형</t>
+          <t>Ch06. 결정 트리 모형 (27:04)</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20625,7 +20625,7 @@
     <row r="604">
       <c r="B604" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 앙상블 학습 및 랜덤 포레스트</t>
+          <t>Ch07. 앙상블 학습 및 랜덤 포레스트 (01:00:31)</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20690,7 +20690,7 @@
     <row r="609">
       <c r="B609" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 차원 축소</t>
+          <t>Ch08. 차원 축소 (43:36)</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -20731,7 +20731,7 @@
     <row r="612">
       <c r="B612" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 비지도 학습</t>
+          <t>Ch09. 비지도 학습 (36:20)</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -20760,7 +20760,7 @@
     <row r="614">
       <c r="B614" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 분석에 도움되는 꿀팁</t>
+          <t>Ch10. 분석에 도움되는 꿀팁 (43:29)</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -20801,12 +20801,12 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>Part 15. 딥러닝 심화</t>
+          <t>Part 15. 딥러닝 심화 (07:25:06)</t>
         </is>
       </c>
       <c r="B617" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 인공 신경망</t>
+          <t>Ch01. 인공 신경망 (01:08:29)</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -20859,7 +20859,7 @@
     <row r="621">
       <c r="B621" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 심층 신경망 훈련</t>
+          <t>Ch02. 심층 신경망 훈련 (42:43)</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -20912,7 +20912,7 @@
     <row r="625">
       <c r="B625" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 모델 정의 및 훈련</t>
+          <t>Ch03. 모델 정의 및 훈련 (50:12)</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -20965,7 +20965,7 @@
     <row r="629">
       <c r="B629" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 데이터 적재 및 전처리</t>
+          <t>Ch04. 데이터 적재 및 전처리 (19:56)</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21018,7 +21018,7 @@
     <row r="633">
       <c r="B633" s="1" t="inlineStr">
         <is>
-          <t>Ch05. CNN &amp; 컴퓨터 비전</t>
+          <t>Ch05. CNN &amp; 컴퓨터 비전 (01:14:59)</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21071,7 +21071,7 @@
     <row r="637">
       <c r="B637" s="1" t="inlineStr">
         <is>
-          <t>Ch06. RNN &amp; 시계열 분석</t>
+          <t>Ch06. RNN &amp; 시계열 분석 (42:31)</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -21124,7 +21124,7 @@
     <row r="641">
       <c r="B641" s="1" t="inlineStr">
         <is>
-          <t>Ch07. RNN &amp; 자연어 처리</t>
+          <t>Ch07. RNN &amp; 자연어 처리 (24:04)</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -21177,7 +21177,7 @@
     <row r="645">
       <c r="B645" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 오토인코더와 GAN</t>
+          <t>Ch08. 오토인코더와 GAN (53:04)</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -21230,7 +21230,7 @@
     <row r="649">
       <c r="B649" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 강화학습</t>
+          <t>Ch09. 강화학습 (39:00)</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -21307,7 +21307,7 @@
     <row r="655">
       <c r="B655" s="1" t="inlineStr">
         <is>
-          <t>Ch10. XAI</t>
+          <t>Ch10. XAI (30:08)</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -21502,10 +21502,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="63" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="46" customWidth="1" min="1" max="1"/>
+    <col width="57" customWidth="1" min="2" max="2"/>
+    <col width="68" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21533,12 +21533,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part.1 데이터사이언스 기초</t>
+          <t>Part.1 데이터사이언스 기초 (07:10:27)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Pre-Chapter. 강의를 보기 전에 알아야할 것</t>
+          <t>Pre-Chapter. 강의를 보기 전에 알아야할 것 (38:40)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -21579,7 +21579,7 @@
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 데이터 사이언스란?</t>
+          <t>Chapter.01 데이터 사이언스란? (01:41:40)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -21632,7 +21632,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 데이터 엔지니어링이란?</t>
+          <t>Chapter.02 데이터 엔지니어링이란? (01:54:25)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -21697,7 +21697,7 @@
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 Machine Learning Workflow</t>
+          <t>Chapter.03 Machine Learning Workflow (02:55:42)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -21786,12 +21786,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Part.2 데이터 엔지니어링 with SQL</t>
+          <t>Part.2 데이터 엔지니어링 with SQL (23:27:45)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 공공 데이터 소개 및 다운로드</t>
+          <t>Chapter.01 공공 데이터 소개 및 다운로드 (01:09:02)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -21856,7 +21856,7 @@
     <row r="26">
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 데이터 모델링 이론 및 실습</t>
+          <t>Chapter.02 데이터 모델링 이론 및 실습 (02:28:36)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -21969,7 +21969,7 @@
     <row r="35">
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 데이터 모델링</t>
+          <t>Chapter.03 데이터 모델링 (55:08)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -22058,7 +22058,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 데이터베이스 실습 환경 구축</t>
+          <t>Chapter.04 데이터베이스 실습 환경 구축 (01:21:06)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -22135,7 +22135,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 SQL 기초</t>
+          <t>Chapter.05 SQL 기초 (02:04:22)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -22272,7 +22272,7 @@
     <row r="59">
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Chapter.06 SQL 기본</t>
+          <t>Chapter.06 SQL 기본 (02:24:27)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -22481,7 +22481,7 @@
     <row r="76">
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Chapter.07 SQL 중급</t>
+          <t>Chapter.07 SQL 중급 (02:59:16)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -22726,7 +22726,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Chapter.08 SQL 고급</t>
+          <t>Chapter.08 SQL 고급 (03:16:29)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -22983,7 +22983,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Chapter.09 데이터베이스 구축</t>
+          <t>Chapter.09 데이터베이스 구축 (03:56:19)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23240,7 +23240,7 @@
     <row r="138">
       <c r="B138" s="1" t="inlineStr">
         <is>
-          <t>Chapter.10 카카오 API를 이용한 경도 및 위도값 가져오기</t>
+          <t>Chapter.10 카카오 API를 이용한 경도 및 위도값 가져오기 (55:16)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -23329,7 +23329,7 @@
     <row r="145">
       <c r="B145" s="1" t="inlineStr">
         <is>
-          <t>Chapter.11 데이터베이스 활용</t>
+          <t>Chapter.11 데이터베이스 활용 (01:57:44)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -23478,12 +23478,12 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Part.3 파이썬 기초와 데이터분석</t>
+          <t>Part.3 파이썬 기초와 데이터분석 (12:24:37)</t>
         </is>
       </c>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 파이썬 프로그래밍</t>
+          <t>Chapter.01 파이썬 프로그래밍 (05:54:36)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -23668,7 +23668,7 @@
     <row r="172">
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 데이터 분석 라이브러리</t>
+          <t>Chapter.02 데이터 분석 라이브러리 (03:29:08)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -23781,7 +23781,7 @@
     <row r="181">
       <c r="B181" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 탐색적 데이터 분석</t>
+          <t>Chapter.03 탐색적 데이터 분석 (03:00:53)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -23834,12 +23834,12 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Part.4 머신러닝 with Python</t>
+          <t>Part.4 머신러닝 with Python (09:41:47)</t>
         </is>
       </c>
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 머신러닝 기초 개념</t>
+          <t>Chapter.01 머신러닝 기초 개념 (02:03:50)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -23928,7 +23928,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 Machine Learning Workflow</t>
+          <t>Chapter.02 Machine Learning Workflow (37:32)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -23957,7 +23957,7 @@
     <row r="194">
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 Classification</t>
+          <t>Chapter.03 Classification (02:42:38)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -24034,7 +24034,7 @@
     <row r="200">
       <c r="B200" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 Regression</t>
+          <t>Chapter.04 Regression (01:23:11)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -24111,7 +24111,7 @@
     <row r="206">
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 Clustering</t>
+          <t>Chapter.05 Clustering (02:23:11)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="212">
       <c r="B212" s="1" t="inlineStr">
         <is>
-          <t>Chapter.06 실전 머신러닝 프로젝트</t>
+          <t>Chapter.06 실전 머신러닝 프로젝트 (31:25)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24217,12 +24217,12 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Part.5 딥러닝 with Python</t>
+          <t>Part.5 딥러닝 with Python (05:12:42)</t>
         </is>
       </c>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 딥러닝 기초 개념</t>
+          <t>Chapter.01 딥러닝 기초 개념 (01:28:32)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24299,7 +24299,7 @@
     <row r="220">
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 Deep Learning Workflow</t>
+          <t>Chapter.02 Deep Learning Workflow (15:21)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -24328,7 +24328,7 @@
     <row r="222">
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 딥러닝 핵심 알고리즘</t>
+          <t>Chapter.03 딥러닝 핵심 알고리즘 (01:36:05)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -24417,7 +24417,7 @@
     <row r="229">
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 실전 딥러닝 프로젝트</t>
+          <t>Chapter.04 실전 딥러닝 프로젝트 (01:20:48)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24514,10 +24514,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="52" customWidth="1" min="2" max="2"/>
-    <col width="55" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="66" customWidth="1" min="1" max="1"/>
+    <col width="68" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24545,12 +24545,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 파이썬 라이브러리를 활용한 기초 프로젝트</t>
+          <t>Part 1. 파이썬 라이브러리를 활용한 기초 프로젝트 (11:44:59)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 파이썬 라이브러리의 이해</t>
+          <t>Ch01. 파이썬 라이브러리의 이해 (01:46:29)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -24651,7 +24651,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch02. [텍스트] 뉴스 기사 3줄 요약하기</t>
+          <t>Ch02. [텍스트] 뉴스 기사 3줄 요약하기 (01:16:25)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -24740,7 +24740,7 @@
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Ch03. [날짜] 파이썬으로 달력 만들기</t>
+          <t>Ch03. [날짜] 파이썬으로 달력 만들기 (43:40)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -24817,7 +24817,7 @@
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Ch04. [파일/디렉터리] 업무효율 향상을 위한 폴더 관리 프로그램 만들기</t>
+          <t>Ch04. [파일/디렉터리] 업무효율 향상을 위한 폴더 관리 프로그램 만들기 (01:23:22)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -24894,7 +24894,7 @@
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Ch05. [데이터베이스] 쇼핑몰 데이터베이스 만들기</t>
+          <t>Ch05. [데이터베이스] 쇼핑몰 데이터베이스 만들기 (01:06:18)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -24983,7 +24983,7 @@
     <row r="36">
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Ch06. [암호화] 개인정보는 소중해, 메세지 변조 탐지기 만들기</t>
+          <t>Ch06. [암호화] 개인정보는 소중해, 메세지 변조 탐지기 만들기 (47:29)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -25072,7 +25072,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch07. [시스템] N배 빠른 병렬처리 웹 크롤러 만들기 </t>
+          <t>Ch07. [시스템] N배 빠른 병렬처리 웹 크롤러 만들기  (01:21:05)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -25185,7 +25185,7 @@
     <row r="52">
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch08. [서버/통신] 사이트 접속자 수 맞추기 게임 </t>
+          <t>Ch08. [서버/통신] 사이트 접속자 수 맞추기 게임  (56:25)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -25250,7 +25250,7 @@
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Ch09. [인터넷/웹] 최신 뉴스 이메일로 받아보기</t>
+          <t>Ch09. [인터넷/웹] 최신 뉴스 이메일로 받아보기 (01:05:54)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -25339,7 +25339,7 @@
     <row r="64">
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Ch10. [GUI] 블로그 프로그램 만들기</t>
+          <t>Ch10. [GUI] 블로그 프로그램 만들기 (01:17:52)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -25428,12 +25428,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part 2. 게임 프로젝트 </t>
+          <t>Part 2. 게임 프로젝트  (11:46:24)</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 오리엔테이션</t>
+          <t>Ch01. 오리엔테이션 (18:29)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -25462,7 +25462,7 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 행맨 게임 만들기</t>
+          <t>Ch02. 행맨 게임 만들기 (03:44:35)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -25635,7 +25635,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 두더지 잡기 게임 만들기</t>
+          <t>Ch03. 두더지 잡기 게임 만들기 (04:16:59)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -25832,7 +25832,7 @@
     <row r="103">
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 새똥 피하기 게임 만들기</t>
+          <t>Ch04. 새똥 피하기 게임 만들기 (03:26:21)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -25981,12 +25981,12 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Part3. 웹 크롤링 프로젝트</t>
+          <t>Part3. 웹 크롤링 프로젝트 (08:02:18)</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 크롤링 개요</t>
+          <t>Ch01. 크롤링 개요 (01:03:16)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -26087,7 +26087,7 @@
     <row r="123">
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 네이버 금융 크롤링</t>
+          <t>Ch02. 네이버 금융 크롤링 (56:34)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -26152,7 +26152,7 @@
     <row r="128">
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 인스타그램 좋아요, 댓글달기</t>
+          <t>Ch03. 인스타그램 좋아요, 댓글달기 (01:12:05)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -26253,7 +26253,7 @@
     <row r="136">
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Pixabay에서 이미지 수집하기</t>
+          <t>Ch04. Pixabay에서 이미지 수집하기 (41:35)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -26294,7 +26294,7 @@
     <row r="139">
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 네이버 API 활용하기</t>
+          <t>Ch05. 네이버 API 활용하기 (01:34:09)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -26395,7 +26395,7 @@
     <row r="147">
       <c r="B147" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 복잡한 사이트 데이터 수집하기</t>
+          <t>Ch06. 복잡한 사이트 데이터 수집하기 (01:19:02)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -26460,7 +26460,7 @@
     <row r="152">
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>Ch07. Youtube에서 댓글 가져오기</t>
+          <t>Ch07. Youtube에서 댓글 가져오기 (01:15:37)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -26525,12 +26525,12 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Part4. 업무 자동화 프로젝트</t>
+          <t>Part4. 업무 자동화 프로젝트 (10:26:13)</t>
         </is>
       </c>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 엑셀 주간업무계획표 양식 자동화</t>
+          <t>Ch01. 엑셀 주간업무계획표 양식 자동화 (02:07:32)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -26631,7 +26631,7 @@
     <row r="165">
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 쇼핑몰 주문 요청서 분류 자동화 프로젝트</t>
+          <t>Ch02. 쇼핑몰 주문 요청서 분류 자동화 프로젝트 (01:52:54)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -26732,7 +26732,7 @@
     <row r="173">
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 엑셀 파일 읽어서 이메일 보내기</t>
+          <t>Ch03. 엑셀 파일 읽어서 이메일 보내기 (01:11:26)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -26821,7 +26821,7 @@
     <row r="180">
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>Ch04. HTML로 이메일 꾸며서 보내기</t>
+          <t>Ch04. HTML로 이메일 꾸며서 보내기 (43:08)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -26886,7 +26886,7 @@
     <row r="185">
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 첨부파일 포함 목록 만들어서 한번에 전송하기</t>
+          <t>Ch05. 첨부파일 포함 목록 만들어서 한번에 전송하기 (01:09:38)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -26975,7 +26975,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Ch06. PPT로 대량의 라벨 만들기</t>
+          <t>Ch06. PPT로 대량의 라벨 만들기 (01:39:55)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -27088,7 +27088,7 @@
     <row r="201">
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 한 페이지에 여러 개 라벨 만들기</t>
+          <t>Ch07. 한 페이지에 여러 개 라벨 만들기 (38:22)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -27153,7 +27153,7 @@
     <row r="206">
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 여러명에게 카카오톡 메세지 자동으로 보내기</t>
+          <t>Ch08. 여러명에게 카카오톡 메세지 자동으로 보내기 (01:03:18)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -27218,12 +27218,12 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Part5. 데이터 분석 및 시각화 프로젝트</t>
+          <t>Part5. 데이터 분석 및 시각화 프로젝트 (13:22:16)</t>
         </is>
       </c>
       <c r="B211" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 데이터 분석 및 시각화 개요</t>
+          <t>Ch01. 데이터 분석 및 시각화 개요 (46:42)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -27276,7 +27276,7 @@
     <row r="215">
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 판다스 라이브러리로 엑셀의 vlookup및 시트결합 해보기</t>
+          <t>Ch02. 판다스 라이브러리로 엑셀의 vlookup및 시트결합 해보기 (01:19:50)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -27365,7 +27365,7 @@
     <row r="222">
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 프로 야구 데이터를 통한 데이터프레임 다루기</t>
+          <t>Ch03. 프로 야구 데이터를 통한 데이터프레임 다루기 (01:11:22)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -27454,7 +27454,7 @@
     <row r="229">
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch04. 시험성적 처리하기 </t>
+          <t>Ch04. 시험성적 처리하기  (01:12:08)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -27579,7 +27579,7 @@
     <row r="239">
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 기러기 스위스 같은 회문 체크하기</t>
+          <t>Ch05. 기러기 스위스 같은 회문 체크하기 (01:06:40)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27680,7 +27680,7 @@
     <row r="247">
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 타이타닉 원시(raw) 데이터 요약하기</t>
+          <t>Ch06. 타이타닉 원시(raw) 데이터 요약하기 (01:31:00)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -27769,7 +27769,7 @@
     <row r="254">
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 마트 매출 데이터로 피벗된 데이터를 언피벗하기</t>
+          <t>Ch07. 마트 매출 데이터로 피벗된 데이터를 언피벗하기 (56:04)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -27834,7 +27834,7 @@
     <row r="259">
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>Ch08. OECD 국가의 GDP데이터로 실무의 데이터 다루기</t>
+          <t>Ch08. OECD 국가의 GDP데이터로 실무의 데이터 다루기 (33:15)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27887,7 +27887,7 @@
     <row r="263">
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 주식데이터를 통해 groupby 사용하기</t>
+          <t>Ch09. 주식데이터를 통해 groupby 사용하기 (01:13:04)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -27976,7 +27976,7 @@
     <row r="270">
       <c r="B270" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 판다스 스킬업 프로젝트</t>
+          <t>Ch10. 판다스 스킬업 프로젝트 (01:06:07)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -28029,7 +28029,7 @@
     <row r="274">
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 온라인 쇼핑몰 데이터 요약하기</t>
+          <t>Ch11. 온라인 쇼핑몰 데이터 요약하기 (01:03:06)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -28094,7 +28094,7 @@
     <row r="279">
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>Ch12. 축구 A매치 데이터로 다양한 집계하기</t>
+          <t>Ch12. 축구 A매치 데이터로 다양한 집계하기 (34:14)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -28135,7 +28135,7 @@
     <row r="282">
       <c r="B282" s="1" t="inlineStr">
         <is>
-          <t>Ch13. 파리바게뜨와 감탄떡볶이의 거리 구하기</t>
+          <t>Ch13. 파리바게뜨와 감탄떡볶이의 거리 구하기 (48:44)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -28200,12 +28200,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Part6. 머신러닝 프로젝트</t>
+          <t>Part6. 머신러닝 프로젝트 (14:20:19)</t>
         </is>
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 머신러닝이란</t>
+          <t>Ch01. 머신러닝이란 (17:16)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -28282,7 +28282,7 @@
     <row r="293">
       <c r="B293" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Linear Regression: House Rent 금액 예측모델 만들기</t>
+          <t>Ch02. Linear Regression: House Rent 금액 예측모델 만들기 (01:50:01)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -28431,7 +28431,7 @@
     <row r="305">
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>Ch03. Decision Tree: 공유자전거 수요 예측모델 만들기</t>
+          <t>Ch03. Decision Tree: 공유자전거 수요 예측모델 만들기 (01:32:33)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -28568,7 +28568,7 @@
     <row r="316">
       <c r="B316" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Logistic Regression: 직원들의 승진 가능성 예측모델 만들기</t>
+          <t>Ch04. Logistic Regression: 직원들의 승진 가능성 예측모델 만들기 (01:38:02)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -28705,7 +28705,7 @@
     <row r="327">
       <c r="B327" s="1" t="inlineStr">
         <is>
-          <t>Ch05. Random Forest: 호텔 예약 취소 케이스 예측모델 만들기</t>
+          <t>Ch05. Random Forest: 호텔 예약 취소 케이스 예측모델 만들기 (02:11:50)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -28854,7 +28854,7 @@
     <row r="339">
       <c r="B339" s="1" t="inlineStr">
         <is>
-          <t>Ch06. LightGBM: Credit Score 예측모델 만들기</t>
+          <t>Ch06. LightGBM: Credit Score 예측모델 만들기 (02:08:50)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -28979,7 +28979,7 @@
     <row r="349">
       <c r="B349" s="1" t="inlineStr">
         <is>
-          <t>Ch07. KMeans: 군집 프로젝트</t>
+          <t>Ch07. KMeans: 군집 프로젝트 (01:27:45)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -29152,7 +29152,7 @@
     <row r="363">
       <c r="B363" s="1" t="inlineStr">
         <is>
-          <t>Ch08. Survival Analysis - 고객 생존률 분석</t>
+          <t>Ch08. Survival Analysis - 고객 생존률 분석 (45:17)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -29253,7 +29253,7 @@
     <row r="371">
       <c r="B371" s="1" t="inlineStr">
         <is>
-          <t>Ch09. Final Project - Mortgage 승인금액 예측</t>
+          <t>Ch09. Final Project - Mortgage 승인금액 예측 (02:28:45)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -29426,12 +29426,12 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Part7. 웹 개발 프로젝트 - Fastapi를 활용해 이미지 저장 및 서빙하기</t>
+          <t>Part7. 웹 개발 프로젝트 - Fastapi를 활용해 이미지 저장 및 서빙하기 (06:28:38)</t>
         </is>
       </c>
       <c r="B385" s="1" t="inlineStr">
         <is>
-          <t>Ch01. FastAPI 알아보기</t>
+          <t>Ch01. FastAPI 알아보기 (39:35)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -29484,7 +29484,7 @@
     <row r="389">
       <c r="B389" s="1" t="inlineStr">
         <is>
-          <t>Ch02. FastAPI - FastAPI DB 핸들링</t>
+          <t>Ch02. FastAPI - FastAPI DB 핸들링 (01:13:10)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -29561,7 +29561,7 @@
     <row r="395">
       <c r="B395" s="1" t="inlineStr">
         <is>
-          <t>Ch03. FastAPI - API 인증</t>
+          <t>Ch03. FastAPI - API 인증 (01:45:54)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -29638,7 +29638,7 @@
     <row r="401">
       <c r="B401" s="1" t="inlineStr">
         <is>
-          <t>Ch04. FastAPI - 이미지 관리 API 개발</t>
+          <t>Ch04. FastAPI - 이미지 관리 API 개발 (01:53:17)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -29727,7 +29727,7 @@
     <row r="408">
       <c r="B408" s="1" t="inlineStr">
         <is>
-          <t>Ch05. FastAPI - 테스트 및 배포</t>
+          <t>Ch05. FastAPI - 테스트 및 배포 (56:42)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -29780,12 +29780,12 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Part7. 웹 개발 프로젝트 - Django를 활용해 Note App 만들기</t>
+          <t>Part7. 웹 개발 프로젝트 - Django를 활용해 Note App 만들기 (06:06:32)</t>
         </is>
       </c>
       <c r="B412" s="1" t="inlineStr">
         <is>
-          <t>Ch01. Django 시작하기</t>
+          <t>Ch01. Django 시작하기 (37:30)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -29838,7 +29838,7 @@
     <row r="416">
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Django 기본기 다지기</t>
+          <t>Ch02. Django 기본기 다지기 (39:01)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -29879,7 +29879,7 @@
     <row r="419">
       <c r="B419" s="1" t="inlineStr">
         <is>
-          <t>Ch03. Django - Django에서 DB 다루기</t>
+          <t>Ch03. Django - Django에서 DB 다루기 (54:40)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -29944,7 +29944,7 @@
     <row r="424">
       <c r="B424" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Django Front-end</t>
+          <t>Ch04. Django Front-end (02:27:12)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -30069,7 +30069,7 @@
     <row r="434">
       <c r="B434" s="1" t="inlineStr">
         <is>
-          <t>Ch05. Django Back-end</t>
+          <t>Ch05. Django Back-end (54:15)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -30110,7 +30110,7 @@
     <row r="437">
       <c r="B437" s="1" t="inlineStr">
         <is>
-          <t>Ch06. Django - 개발 후 해야할 일</t>
+          <t>Ch06. Django - 개발 후 해야할 일 (33:54)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -30151,12 +30151,12 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Part8. 최종 프로젝트</t>
+          <t>Part8. 최종 프로젝트 (06:03:38)</t>
         </is>
       </c>
       <c r="B440" s="1" t="inlineStr">
         <is>
-          <t>Ch01. Django 세팅하기</t>
+          <t>Ch01. Django 세팅하기 (29:10)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -30197,7 +30197,7 @@
     <row r="443">
       <c r="B443" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Django Basic</t>
+          <t>Ch02. Django Basic (28:19)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -30226,7 +30226,7 @@
     <row r="445">
       <c r="B445" s="1" t="inlineStr">
         <is>
-          <t>Ch03. DB 핸들링 on Django</t>
+          <t>Ch03. DB 핸들링 on Django (42:03)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -30279,7 +30279,7 @@
     <row r="449">
       <c r="B449" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 기상데이터 크롤링</t>
+          <t>Ch04. 기상데이터 크롤링 (32:14)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -30320,7 +30320,7 @@
     <row r="452">
       <c r="B452" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 회귀 모델 예측 - 랜덤 포레스트로 내일 강수 예측 하기</t>
+          <t>Ch05. 회귀 모델 예측 - 랜덤 포레스트로 내일 강수 예측 하기 (33:32)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -30361,7 +30361,7 @@
     <row r="455">
       <c r="B455" s="1" t="inlineStr">
         <is>
-          <t>Ch06. Django Frontend 개발</t>
+          <t>Ch06. Django Frontend 개발 (01:27:09)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -30450,7 +30450,7 @@
     <row r="462">
       <c r="B462" s="1" t="inlineStr">
         <is>
-          <t>Ch07. Django Backend 개발</t>
+          <t>Ch07. Django Backend 개발 (32:26)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -30491,7 +30491,7 @@
     <row r="465">
       <c r="B465" s="1" t="inlineStr">
         <is>
-          <t>Ch08. Django Background Scheduler 작성하기</t>
+          <t>Ch08. Django Background Scheduler 작성하기 (29:42)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -30532,7 +30532,7 @@
     <row r="468">
       <c r="B468" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 테스트 및 배포</t>
+          <t>Ch09. 테스트 및 배포 (49:03)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -30573,12 +30573,12 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>[특별제공] 실무 협업을 위한 Git&amp;Github</t>
+          <t>[특별제공] 실무 협업을 위한 Git&amp;Github (02:22:27)</t>
         </is>
       </c>
       <c r="B471" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 오리엔테이션</t>
+          <t>Ch01. 오리엔테이션 (09:39)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -30607,7 +30607,7 @@
     <row r="473">
       <c r="B473" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Git 설치&amp;설정</t>
+          <t>Ch02. Git 설치&amp;설정 (08:32)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -30636,7 +30636,7 @@
     <row r="475">
       <c r="B475" s="1" t="inlineStr">
         <is>
-          <t>Ch03. Git 첫 걸음</t>
+          <t>Ch03. Git 첫 걸음 (43:51)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -30713,7 +30713,7 @@
     <row r="481">
       <c r="B481" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Git 중급</t>
+          <t>Ch04. Git 중급 (21:46)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -30754,7 +30754,7 @@
     <row r="484">
       <c r="B484" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch05. Git 실무 </t>
+          <t>Ch05. Git 실무  (29:22)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -30819,7 +30819,7 @@
     <row r="489">
       <c r="B489" s="1" t="inlineStr">
         <is>
-          <t>Ch06. Git을 더 깊게 Github로 사용하기</t>
+          <t>Ch06. Git을 더 깊게 Github로 사용하기 (29:17)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -30884,12 +30884,12 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>[특별 제공] 한 번에 끝내는 파이썬 필수 문법</t>
+          <t>[특별 제공] 한 번에 끝내는 파이썬 필수 문법 (10:27:18)</t>
         </is>
       </c>
       <c r="B494" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의소개</t>
+          <t>Ch 01. 강의소개 (11:30)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -30918,7 +30918,7 @@
     <row r="496">
       <c r="B496" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 환경설정</t>
+          <t>Ch 02. 환경설정 (01:00:14)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -30995,7 +30995,7 @@
     <row r="502">
       <c r="B502" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 자료형과 변수</t>
+          <t>Ch 03. 자료형과 변수 (30:15)</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -31024,7 +31024,7 @@
     <row r="504">
       <c r="B504" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 연산과 연산자</t>
+          <t>Ch 04. 연산과 연산자 (41:06)</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -31065,7 +31065,7 @@
     <row r="507">
       <c r="B507" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 제어문</t>
+          <t>Ch 05. 제어문 (02:16:40)</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -31178,7 +31178,7 @@
     <row r="516">
       <c r="B516" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 함수</t>
+          <t>Ch 06. 함수 (44:46)</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -31219,7 +31219,7 @@
     <row r="519">
       <c r="B519" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 딕셔너리와 튜플</t>
+          <t>Ch 07. 딕셔너리와 튜플 (35:57)</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -31248,7 +31248,7 @@
     <row r="521">
       <c r="B521" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 클래스</t>
+          <t>Ch 08. 클래스 (01:18:10)</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -31313,7 +31313,7 @@
     <row r="526">
       <c r="B526" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 모듈과 패키지</t>
+          <t>Ch 09. 모듈과 패키지 (35:30)</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -31354,7 +31354,7 @@
     <row r="529">
       <c r="B529" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. 파일 입출력</t>
+          <t>Ch 10. 파일 입출력 (48:02)</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -31395,7 +31395,7 @@
     <row r="532">
       <c r="B532" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. 예외 처리</t>
+          <t>Ch 11. 예외 처리 (21:22)</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -31424,7 +31424,7 @@
     <row r="534">
       <c r="B534" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. 실전 미니 프로젝트</t>
+          <t>Ch 12. 실전 미니 프로젝트 (01:23:46)</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -31619,10 +31619,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="87" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="1" max="1"/>
+    <col width="61" customWidth="1" min="2" max="2"/>
+    <col width="92" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31650,12 +31650,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part1 파이썬 기본기 다지기</t>
+          <t>Part1 파이썬 기본기 다지기 (04:07:46)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 파이썬에 대한 모든 것</t>
+          <t>Ch01. 파이썬에 대한 모든 것 (20:36)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -31684,7 +31684,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 변수와 자료형</t>
+          <t>Ch02. 변수와 자료형 (01:15:55)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -31761,7 +31761,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 입출력과 제어문</t>
+          <t>Ch03. 입출력과 제어문 (01:20:37)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -31826,7 +31826,7 @@
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 클래스와 모듈</t>
+          <t>Ch04. 클래스와 모듈 (01:10:38)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -31903,12 +31903,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Part2 파이썬 라이브러리 활용</t>
+          <t>Part2 파이썬 라이브러리 활용 (06:07:47)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 파이썬 라이브러리 개념</t>
+          <t>Ch01. 파이썬 라이브러리 개념 (15:16)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -31925,7 +31925,7 @@
     <row r="22">
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 수치계산 라이브러리(NumPy)</t>
+          <t>Ch02. 수치계산 라이브러리(NumPy) (01:10:55)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -31990,7 +31990,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 데이터 처리 라이브러리(Pandas)</t>
+          <t>Ch03. 데이터 처리 라이브러리(Pandas) (01:15:52)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -32031,7 +32031,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 데이터 시각화 라이브러리(Matplotlib, Seaborn)</t>
+          <t>Ch04. 데이터 시각화 라이브러리(Matplotlib, Seaborn) (01:09:57)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -32084,7 +32084,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 웹 데이터 수집 라이브러리(BeautifulSoup)</t>
+          <t>Ch05. 웹 데이터 수집 라이브러리(BeautifulSoup) (01:02:52)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -32137,7 +32137,7 @@
     <row r="38">
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 실무 예제 실습(Netflix 데이터 분석)</t>
+          <t>Ch06. 실무 예제 실습(Netflix 데이터 분석) (01:12:55)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -32220,10 +32220,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="54" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
-    <col width="72" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="70" customWidth="1" min="1" max="1"/>
+    <col width="58" customWidth="1" min="2" max="2"/>
+    <col width="77" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32251,12 +32251,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 파이썬 필수 문법</t>
+          <t>Part 1. 파이썬 필수 문법 (10:28:21)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의소개</t>
+          <t>Ch 01. 강의소개 (11:30)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -32285,7 +32285,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 환경설정</t>
+          <t>Ch 02. 환경설정 (01:00:14)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -32362,7 +32362,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 자료형과 변수</t>
+          <t>Ch 03. 자료형과 변수 (30:15)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -32391,7 +32391,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 연산과 연산자</t>
+          <t>Ch 04. 연산과 연산자 (41:06)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -32432,7 +32432,7 @@
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 제어문</t>
+          <t>Ch 05. 제어문 (02:16:40)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -32545,7 +32545,7 @@
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 함수</t>
+          <t>Ch 06. 함수 (44:46)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -32586,7 +32586,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 딕셔너리와 튜플</t>
+          <t>Ch 07. 딕셔너리와 튜플 (35:57)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -32615,7 +32615,7 @@
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 클래스</t>
+          <t>Ch 08. 클래스 (01:18:10)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -32680,7 +32680,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 모듈과 패키지</t>
+          <t>Ch 09. 모듈과 패키지 (35:30)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -32721,7 +32721,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. 파일 입출력</t>
+          <t>Ch 10. 파일 입출력 (48:02)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -32762,7 +32762,7 @@
     <row r="40">
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. 예외 처리</t>
+          <t>Ch 11. 예외 처리 (21:22)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -32791,7 +32791,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. 실전 미니 프로젝트</t>
+          <t>Ch 12. 실전 미니 프로젝트 (01:24:49)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -32880,12 +32880,12 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 파이썬 심화 문법</t>
+          <t>Part 2. 파이썬 심화 문법 (07:20:07)</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의소개</t>
+          <t>Ch 01. 강의소개 (11:35)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -32926,7 +32926,7 @@
     <row r="52">
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 자료형심화</t>
+          <t>Ch 02. 자료형심화 (01:14:00)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -33015,7 +33015,7 @@
     <row r="59">
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 함수 중급</t>
+          <t>Ch 03. 함수 중급 (49:41)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -33080,7 +33080,7 @@
     <row r="64">
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 클래스</t>
+          <t>Ch 04. 클래스 (01:10:09)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -33145,7 +33145,7 @@
     <row r="69">
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 데이터베이스</t>
+          <t>Ch 05. 데이터베이스 (01:06:34)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -33210,7 +33210,7 @@
     <row r="74">
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 정규표현식</t>
+          <t>Ch 06. 정규표현식 (01:17:39)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -33287,7 +33287,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 동시성과 병렬성</t>
+          <t>Ch 07. 동시성과 병렬성 (29:44)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -33328,7 +33328,7 @@
     <row r="83">
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 함수 고급</t>
+          <t>Ch 08. 함수 고급 (01:00:45)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -33405,12 +33405,12 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 웹 &amp; 프론트엔드 기본</t>
+          <t>Part 3. 웹 &amp; 프론트엔드 기본 (10:20:29)</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의 개요</t>
+          <t>Ch 01. 강의 개요 (19:33)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -33475,7 +33475,7 @@
     <row r="94">
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. HTML</t>
+          <t>Ch 02. HTML (01:05:17)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -33564,7 +33564,7 @@
     <row r="101">
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. CSS</t>
+          <t>Ch 03. CSS (02:17:37)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -33725,7 +33725,7 @@
     <row r="114">
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Bootstrap</t>
+          <t>Ch 04. Bootstrap (01:09:16)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -33814,7 +33814,7 @@
     <row r="121">
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. GitHub 예제</t>
+          <t>Ch 05. GitHub 예제 (04:01:21)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -33999,7 +33999,7 @@
     <row r="136">
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 버전 관리(Git)</t>
+          <t>Ch 06. 버전 관리(Git) (01:27:25)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -34124,12 +34124,12 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 정적 페이지 크롤링 하기</t>
+          <t>Part 4. 정적 페이지 크롤링 하기 (11:44:23)</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 크롤링기초</t>
+          <t>Ch 01. 크롤링기초 (01:59:19)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -34230,7 +34230,7 @@
     <row r="154">
       <c r="B154" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 정적 크롤링</t>
+          <t>Ch 02. 정적 크롤링 (09:45:04)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -34679,12 +34679,12 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 동적 페이지 크롤링 &amp; 업무 자동화</t>
+          <t>Part 5. 동적 페이지 크롤링 &amp; 업무 자동화 (09:20:26)</t>
         </is>
       </c>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 동적 크롤링</t>
+          <t>Ch 01. 동적 크롤링 (09:20:26)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -35049,12 +35049,12 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Part 6. GUI(PySide)로 메일 뷰어 만들기 프로젝트</t>
+          <t>Part 6. GUI(PySide)로 메일 뷰어 만들기 프로젝트 (06:25:34)</t>
         </is>
       </c>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Pyside 들어가기</t>
+          <t>Ch 01. Pyside 들어가기 (01:17:33)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -35131,7 +35131,7 @@
     <row r="227">
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Pyside 위젯</t>
+          <t>Ch 02. Pyside 위젯 (03:45:42)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -35328,7 +35328,7 @@
     <row r="243">
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 메일 viewer 만들어보기</t>
+          <t>Ch 03. 메일 viewer 만들어보기 (01:22:19)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -35393,12 +35393,12 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Part 7. Django 기초</t>
+          <t>Part 7. Django 기초 (05:49:48)</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Django와 친해지기</t>
+          <t>Ch 01. Django와 친해지기 (01:59:25)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -35499,7 +35499,7 @@
     <row r="256">
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Django Built-ins</t>
+          <t>Ch 02. Django Built-ins (01:07:37)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -35564,7 +35564,7 @@
     <row r="261">
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. Django 다뤄보기</t>
+          <t>Ch 03. Django 다뤄보기 (02:42:46)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -35701,12 +35701,12 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Part 8. Django 실전 프로젝트 1 - URL Shortener 서비스</t>
+          <t>Part 8. Django 실전 프로젝트 1 - URL Shortener 서비스 (06:12:24)</t>
         </is>
       </c>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Django 프로젝트 준비</t>
+          <t>Ch 01. Django 프로젝트 준비 (01:03:59)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -35783,7 +35783,7 @@
     <row r="278">
       <c r="B278" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Django API 통신</t>
+          <t>Ch 02. Django API 통신 (58:15)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -35824,7 +35824,7 @@
     <row r="281">
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. Django Third Party Library 사용하기</t>
+          <t>Ch 03. Django Third Party Library 사용하기 (26:10)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -35853,7 +35853,7 @@
     <row r="283">
       <c r="B283" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Django Rest Framwork</t>
+          <t>Ch 04. Django Rest Framwork (01:05:19)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -35930,7 +35930,7 @@
     <row r="289">
       <c r="B289" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Django Templates and Front-end</t>
+          <t>Ch 05. Django Templates and Front-end (01:33:13)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -36007,7 +36007,7 @@
     <row r="295">
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. Django Cache Framework</t>
+          <t>Ch 06. Django Cache Framework (17:18)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -36036,7 +36036,7 @@
     <row r="297">
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. Telegram 사용하기</t>
+          <t>Ch 07. Telegram 사용하기 (26:30)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -36065,7 +36065,7 @@
     <row r="299">
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. Django Deployment</t>
+          <t>Ch 08. Django Deployment (21:40)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -36094,12 +36094,12 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Part 9. Django 실전 프로젝트 2 - URL Shortener 서비스 백오피스</t>
+          <t>Part 9. Django 실전 프로젝트 2 - URL Shortener 서비스 백오피스 (04:07:58)</t>
         </is>
       </c>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Django Backoffice 프로젝트 준비</t>
+          <t>Ch 01. Django Backoffice 프로젝트 준비 (51:39)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -36152,7 +36152,7 @@
     <row r="305">
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Google Analytics</t>
+          <t>Ch 02. Google Analytics (22:57)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -36181,7 +36181,7 @@
     <row r="307">
       <c r="B307" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. Django Template and Frontend</t>
+          <t>Ch 03. Django Template and Frontend (39:29)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -36210,7 +36210,7 @@
     <row r="309">
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Django ORM 심화</t>
+          <t>Ch 04. Django ORM 심화 (48:36)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -36263,7 +36263,7 @@
     <row r="313">
       <c r="B313" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. SSR X CSR</t>
+          <t>Ch 05. SSR X CSR (08:01)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -36280,7 +36280,7 @@
     <row r="314">
       <c r="B314" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 백그라운드 스캐줄러</t>
+          <t>Ch 06. 백그라운드 스캐줄러 (40:10)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -36321,7 +36321,7 @@
     <row r="317">
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 서버 운영과 테스트 코드</t>
+          <t>Ch 07. 서버 운영과 테스트 코드 (37:06)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -36374,12 +36374,12 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Part 10. Flask 기초</t>
+          <t>Part 10. Flask 기초 (06:29:36)</t>
         </is>
       </c>
       <c r="B321" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 프로젝트 소개 및 준비</t>
+          <t>Ch 01. 프로젝트 소개 및 준비 (21:43)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -36420,7 +36420,7 @@
     <row r="324">
       <c r="B324" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 플라스크 기초</t>
+          <t>Ch 02. 플라스크 기초 (01:01:32)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -36497,7 +36497,7 @@
     <row r="330">
       <c r="B330" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 템플릿 엔진 기초</t>
+          <t>Ch 03. 템플릿 엔진 기초 (22:04)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -36526,7 +36526,7 @@
     <row r="332">
       <c r="B332" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. CSRF 방어</t>
+          <t>Ch 04. CSRF 방어 (31:37)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -36555,7 +36555,7 @@
     <row r="334">
       <c r="B334" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 플라스크 라우터 확장</t>
+          <t>Ch 05. 플라스크 라우터 확장 (10:08)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -36572,7 +36572,7 @@
     <row r="335">
       <c r="B335" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 플라스크 메세지 플래싱</t>
+          <t>Ch 06. 플라스크 메세지 플래싱 (12:17)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -36589,7 +36589,7 @@
     <row r="336">
       <c r="B336" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 로그인 기능 구현</t>
+          <t>Ch 07. 로그인 기능 구현 (32:58)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -36630,7 +36630,7 @@
     <row r="339">
       <c r="B339" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 데이터베이스</t>
+          <t>Ch 08. 데이터베이스 (01:03:20)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -36695,7 +36695,7 @@
     <row r="344">
       <c r="B344" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 09. 리팩토링 </t>
+          <t>Ch 09. 리팩토링  (36:40)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -36724,7 +36724,7 @@
     <row r="346">
       <c r="B346" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. Restful API</t>
+          <t>Ch 10. Restful API (09:32)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -36741,7 +36741,7 @@
     <row r="347">
       <c r="B347" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. API 문서자동화</t>
+          <t>Ch 11. API 문서자동화 (34:09)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -36782,7 +36782,7 @@
     <row r="350">
       <c r="B350" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. DB 마이그레이션</t>
+          <t>Ch 12. DB 마이그레이션 (05:52)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -36799,7 +36799,7 @@
     <row r="351">
       <c r="B351" s="1" t="inlineStr">
         <is>
-          <t>Ch 13. Flask Configs</t>
+          <t>Ch 13. Flask Configs (08:23)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -36816,7 +36816,7 @@
     <row r="352">
       <c r="B352" s="1" t="inlineStr">
         <is>
-          <t>Ch 14. 유닛 테스트와 TDD</t>
+          <t>Ch 14. 유닛 테스트와 TDD (39:21)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -36869,12 +36869,12 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Part 11. Flask 프로젝트 - Google Keep 프로젝트</t>
+          <t>Part 11. Flask 프로젝트 - Google Keep 프로젝트 (07:07:45)</t>
         </is>
       </c>
       <c r="B356" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 프런트 기본화면 설명</t>
+          <t>Ch 01. 프런트 기본화면 설명 (22:03)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -36903,7 +36903,7 @@
     <row r="358">
       <c r="B358" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 세션 기반 인증 흐름 구현</t>
+          <t>Ch 02. 세션 기반 인증 흐름 구현 (16:58)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -36932,7 +36932,7 @@
     <row r="360">
       <c r="B360" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 메모 기본 기능 구현</t>
+          <t>Ch 03. 메모 기본 기능 구현 (01:22:27)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -37045,7 +37045,7 @@
     <row r="369">
       <c r="B369" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. ajax CSRF 처리</t>
+          <t>Ch 04. ajax CSRF 처리 (06:40)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -37062,7 +37062,7 @@
     <row r="370">
       <c r="B370" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 메모 기능 업그레이드 - 조회</t>
+          <t>Ch 05. 메모 기능 업그레이드 - 조회 (15:06)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -37091,7 +37091,7 @@
     <row r="372">
       <c r="B372" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 메모 기능 업그레이드 - 이미지</t>
+          <t>Ch 06. 메모 기능 업그레이드 - 이미지 (59:20)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -37156,7 +37156,7 @@
     <row r="377">
       <c r="B377" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 메모 기능 업그레이드 - 삭제</t>
+          <t>Ch 07. 메모 기능 업그레이드 - 삭제 (27:03)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -37197,7 +37197,7 @@
     <row r="380">
       <c r="B380" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 라벨 기본 기능 구현</t>
+          <t>Ch 08. 라벨 기본 기능 구현 (55:14)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -37274,7 +37274,7 @@
     <row r="386">
       <c r="B386" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 메모 라벨링 기능 업데이트</t>
+          <t>Ch 09. 메모 라벨링 기능 업데이트 (41:39)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -37327,7 +37327,7 @@
     <row r="390">
       <c r="B390" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. Flask 배포 스택 구성</t>
+          <t>Ch 10. Flask 배포 스택 구성 (06:20)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -37344,7 +37344,7 @@
     <row r="391">
       <c r="B391" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. 도커라이징</t>
+          <t>Ch 11. 도커라이징 (58:02)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -37397,7 +37397,7 @@
     <row r="395">
       <c r="B395" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. 배포</t>
+          <t>Ch 12. 배포 (36:53)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -37450,12 +37450,12 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Part 12. Fast API 기초</t>
+          <t>Part 12. Fast API 기초 (04:52:08)</t>
         </is>
       </c>
       <c r="B399" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch 01. FastAPI 기본 </t>
+          <t>Ch 01. FastAPI 기본  (02:11:53)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -37556,7 +37556,7 @@
     <row r="407">
       <c r="B407" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. FastAPI 실무</t>
+          <t>Ch 02. FastAPI 실무 (02:40:15)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -37669,12 +37669,12 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Part 13. Fast API 실전 프로젝트 - 퀴즈봇 개발</t>
+          <t>Part 13. Fast API 실전 프로젝트 - 퀴즈봇 개발 (04:21:01)</t>
         </is>
       </c>
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 퀴즈봇 개발</t>
+          <t>Ch 01. 퀴즈봇 개발 (02:30:45)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -37763,7 +37763,7 @@
     <row r="423">
       <c r="B423" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 상용 서비스로 나아가기</t>
+          <t>Ch 02. 상용 서비스로 나아가기 (01:50:16)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -37852,12 +37852,12 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part 14. Django 쇼핑몰 구축 코드 해설 </t>
+          <t>Part 14. Django 쇼핑몰 구축 코드 해설  (46:06)</t>
         </is>
       </c>
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 쇼핑몰 구축 프로젝트</t>
+          <t>Ch 01. 쇼핑몰 구축 프로젝트 (46:06)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -38047,10 +38047,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="63" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="65" customWidth="1" min="2" max="2"/>
+    <col width="68" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38078,12 +38078,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part01. 금융공학 개요</t>
+          <t>Part01. 금융공학 개요 (06:52:32)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 금융시장의 발전</t>
+          <t>Chapter01. 금융시장의 발전 (48:55)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -38112,7 +38112,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 금융시장으로 뛰어든 수학과 공학</t>
+          <t>Chapter02. 금융시장으로 뛰어든 수학과 공학 (01:12:40)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -38165,7 +38165,7 @@
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 금융공학의 역사</t>
+          <t>Chapter03. 금융공학의 역사 (01:25:54)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -38230,7 +38230,7 @@
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 금융공학 모델링 및 데이터사이언스</t>
+          <t>Chapter04. 금융공학 모델링 및 데이터사이언스 (03:25:03)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -38355,12 +38355,12 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Part02. 금융데이터분석을 위한 확률 이해</t>
+          <t>Part02. 금융데이터분석을 위한 확률 이해 (06:10:33)</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 확률, 통계 및 데이터사이언스</t>
+          <t>Chapter01. 확률, 통계 및 데이터사이언스 (47:53)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -38401,7 +38401,7 @@
     <row r="26">
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 사회현상에서 시작된 확률</t>
+          <t>Chapter02. 사회현상에서 시작된 확률 (47:25)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -38442,7 +38442,7 @@
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 나의 데이터는 어떤 확률분포</t>
+          <t>Chapter03. 나의 데이터는 어떤 확률분포 (01:52:05)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -38507,7 +38507,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 반복되는 사건의 실제 확률분포</t>
+          <t>Chapter04. 반복되는 사건의 실제 확률분포 (01:25:20)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -38560,7 +38560,7 @@
     <row r="38">
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 현실확률을 다루는 방법</t>
+          <t>Chapter05. 현실확률을 다루는 방법 (01:17:50)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -38589,12 +38589,12 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Part03. 금융데이터분석을 위한 통계이해</t>
+          <t>Part03. 금융데이터분석을 위한 통계이해 (05:18:54)</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 확률, 통계 및 데이터사이언스</t>
+          <t>Chapter01. 확률, 통계 및 데이터사이언스 (12:28)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -38611,7 +38611,7 @@
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 데이터의 종류 및 용어</t>
+          <t>Chapter02. 데이터의 종류 및 용어 (26:50)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -38640,7 +38640,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 데이터 특성 확인을 위한 기술적분석</t>
+          <t>Chapter03. 데이터 특성 확인을 위한 기술적분석 (01:47:15)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -38705,7 +38705,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 데이터기반 의사결정</t>
+          <t>Chapter04. 데이터기반 의사결정 (02:52:21)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -38830,12 +38830,12 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Part04. 금융기본지식</t>
+          <t>Part04. 금융기본지식 (09:25:21)</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 거시경제 환경 분석</t>
+          <t>Chapter01. 거시경제 환경 분석 (02:03:47)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -38888,7 +38888,7 @@
     <row r="62">
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 기업분석과 재무제표</t>
+          <t>Chapter02. 기업분석과 재무제표 (01:54:25)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -38929,7 +38929,7 @@
     <row r="65">
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 주식분석과 가치평가</t>
+          <t>Chapter03. 주식분석과 가치평가 (01:57:50)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -38982,7 +38982,7 @@
     <row r="69">
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 이자율과 채권 분석</t>
+          <t>Chapter04. 이자율과 채권 분석 (01:41:22)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -39035,7 +39035,7 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 파생상품의 이해</t>
+          <t>Chapter05. 파생상품의 이해 (01:47:57)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -39088,12 +39088,12 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Part05-1. 금융공학을 위한 데이터분석</t>
+          <t>Part05-1. 금융공학을 위한 데이터분석 (07:55:25)</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 의사결정을 위한 알고리즘의 진화</t>
+          <t>Chapter01. 의사결정을 위한 알고리즘의 진화 (01:46:20)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -39170,7 +39170,7 @@
     <row r="83">
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 데이터학습을 위한 알고리즘 종류</t>
+          <t>Chapter02. 데이터학습을 위한 알고리즘 종류 (01:46:45)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -39223,7 +39223,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 데이터이해를 위한 시각화</t>
+          <t>Chapter03. 데이터이해를 위한 시각화 (02:07:51)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -39288,7 +39288,7 @@
     <row r="92">
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 데이터분석 프로그래밍 : 세상 변화를 즐기기 위한 도구</t>
+          <t>Chapter04. 데이터분석 프로그래밍 : 세상 변화를 즐기기 위한 도구 (47:07)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -39329,7 +39329,7 @@
     <row r="95">
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 변화를 즐기기 위한 프로그래밍</t>
+          <t>Chapter05. 변화를 즐기기 위한 프로그래밍 (01:27:22)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -39370,12 +39370,12 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Part05-2. (파이썬기초) 파이썬 도구 익히기</t>
+          <t>Part05-2. (파이썬기초) 파이썬 도구 익히기 (31:09:26)</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. Python 설치하기</t>
+          <t>Chapter01. Python 설치하기 (01:25:00)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -39416,7 +39416,7 @@
     <row r="101">
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. Jupyter Notebook 사용하여 Python 사용</t>
+          <t>Chapter02. Jupyter Notebook 사용하여 Python 사용 (01:20:18)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -39469,7 +39469,7 @@
     <row r="105">
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. Python 입력과 출력 이해</t>
+          <t>Chapter03. Python 입력과 출력 이해 (02:37:28)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -39546,7 +39546,7 @@
     <row r="111">
       <c r="B111" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. Python 입력과 출력을 변수로 사용</t>
+          <t>Chapter04. Python 입력과 출력을 변수로 사용 (01:43:59)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -39611,7 +39611,7 @@
     <row r="116">
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. Python 특정상황과 반복을 적용하기</t>
+          <t>Chapter05. Python 특정상황과 반복을 적용하기 (04:10:32)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -39772,7 +39772,7 @@
     <row r="129">
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. Python으로 자동화 구현하기</t>
+          <t>Chapter06. Python으로 자동화 구현하기 (10:36:06)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -40101,7 +40101,7 @@
     <row r="156">
       <c r="B156" s="1" t="inlineStr">
         <is>
-          <t>Chapter07. 데이터분석 특화 라이브러리 Numpy</t>
+          <t>Chapter07. 데이터분석 특화 라이브러리 Numpy (02:07:44)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -40178,7 +40178,7 @@
     <row r="162">
       <c r="B162" s="1" t="inlineStr">
         <is>
-          <t>Chapter08. 데이터분석 특화 라이브러리 Pandas</t>
+          <t>Chapter08. 데이터분석 특화 라이브러리 Pandas (03:55:43)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -40339,7 +40339,7 @@
     <row r="175">
       <c r="B175" s="1" t="inlineStr">
         <is>
-          <t>Chapter09. 데이터분석 특화 라이브러리 Matplotlib</t>
+          <t>Chapter09. 데이터분석 특화 라이브러리 Matplotlib (03:12:36)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -40428,12 +40428,12 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Part05-3. 데이터분석 싸이클 이해 및 기초분석</t>
+          <t>Part05-3. 데이터분석 싸이클 이해 및 기초분석 (30:02:38)</t>
         </is>
       </c>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 데이터분석 단계 및 데이터사이언티스트 이해</t>
+          <t>Chapter01. 데이터분석 단계 및 데이터사이언티스트 이해 (02:45:17)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -40498,7 +40498,7 @@
     <row r="187">
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 학습알고리즘과 분석라이브러리 정리</t>
+          <t>Chapter02. 학습알고리즘과 분석라이브러리 정리 (03:27:41)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -40623,7 +40623,7 @@
     <row r="197">
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 알고리즘의 데이터 학습을 위한 전처리</t>
+          <t>Chapter03. 알고리즘의 데이터 학습을 위한 전처리 (03:31:53)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -40748,7 +40748,7 @@
     <row r="207">
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 예측문제 해결을 위한 선형회귀분석</t>
+          <t>Chapter04. 예측문제 해결을 위한 선형회귀분석 (07:13:59)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -40957,7 +40957,7 @@
     <row r="224">
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 예측문제 해결을 위한 선형회귀분석 실습</t>
+          <t>Chapter05. 예측문제 해결을 위한 선형회귀분석 실습 (01:58:30)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -41058,7 +41058,7 @@
     <row r="232">
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. 분류문제 해결을 위한 로지스틱회귀분석</t>
+          <t>Chapter06. 분류문제 해결을 위한 로지스틱회귀분석 (02:12:41)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -41147,7 +41147,7 @@
     <row r="239">
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>Chapter07. 분류문제 해결을 위한 로지스틱회귀분석 실습</t>
+          <t>Chapter07. 분류문제 해결을 위한 로지스틱회귀분석 실습 (01:52:31)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -41236,7 +41236,7 @@
     <row r="246">
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>Chapter08. 군집문제 해결을 위한 K-centroid분석</t>
+          <t>Chapter08. 군집문제 해결을 위한 K-centroid분석 (01:32:44)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -41301,7 +41301,7 @@
     <row r="251">
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>Chapter09. 차원변환문제 해결을 위한 PCA분석</t>
+          <t>Chapter09. 차원변환문제 해결을 위한 PCA분석 (03:27:05)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -41402,7 +41402,7 @@
     <row r="259">
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>Chapter10. 군집/차원변환문제 해결을 위한 K-means/PCA분석 실습</t>
+          <t>Chapter10. 군집/차원변환문제 해결을 위한 K-means/PCA분석 실습 (02:00:17)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -41479,12 +41479,12 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Part06. 리스크 퀀트 실무</t>
+          <t>Part06. 리스크 퀀트 실무 (12:21:02)</t>
         </is>
       </c>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 리스크관리 개론</t>
+          <t>Chapter01. 리스크관리 개론 (02:06:33)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -41537,7 +41537,7 @@
     <row r="269">
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 주식파생상품</t>
+          <t>Chapter02. 주식파생상품 (04:03:29)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -41614,7 +41614,7 @@
     <row r="275">
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. Interest Rate Derivatives</t>
+          <t>Chapter03. Interest Rate Derivatives (03:09:13)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -41691,7 +41691,7 @@
     <row r="281">
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. Credit Derivatives</t>
+          <t>Chapter04. Credit Derivatives (01:49:56)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -41732,7 +41732,7 @@
     <row r="284">
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. Value-at-Risk</t>
+          <t>Chapter05. Value-at-Risk (01:11:51)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -41773,12 +41773,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Part07. 퀀트 트레이딩 실무</t>
+          <t>Part07. 퀀트 트레이딩 실무 (40:04:30)</t>
         </is>
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 퀀트 비즈니스 실무와 준비</t>
+          <t>Chapter01. 퀀트 비즈니스 실무와 준비 (06:11:18)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -42047,7 +42047,7 @@
     <row r="309">
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 자산배분 모델링</t>
+          <t>Chapter02. 자산배분 모델링 (20:50:23)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -43180,7 +43180,7 @@
     <row r="403">
       <c r="B403" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 팩터모델링</t>
+          <t>Chapter03. 팩터모델링 (13:02:49)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -43929,12 +43929,12 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Part08. 퀀트 커리어 설계</t>
+          <t>Part08. 퀀트 커리어 설계 (02:31:56)</t>
         </is>
       </c>
       <c r="B465" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 퀀트의 커리어 패스</t>
+          <t>Chapter01. 퀀트의 커리어 패스 (01:38:50)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -44083,7 +44083,7 @@
     <row r="477">
       <c r="B477" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 퀀트의 취업</t>
+          <t>Chapter02. 퀀트의 취업 (40:51)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -44184,7 +44184,7 @@
     <row r="485">
       <c r="B485" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 퀀트 분야의 트렌드</t>
+          <t>Chapter03. 퀀트 분야의 트렌드 (12:15)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -44225,12 +44225,12 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Part09. 머신러닝 알고리즘 기반 분석</t>
+          <t>Part09. 머신러닝 알고리즘 기반 분석 (21:40:45)</t>
         </is>
       </c>
       <c r="B488" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 알고리즘 발전 방향과 비용함수의 구조 이해</t>
+          <t>Chapter01. 알고리즘 발전 방향과 비용함수의 구조 이해 (03:19:24)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -44307,7 +44307,7 @@
     <row r="494">
       <c r="B494" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘</t>
+          <t>Chapter02. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘 (09:32:34)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -44576,7 +44576,7 @@
     <row r="516">
       <c r="B516" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘 실습</t>
+          <t>Chapter03. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘 실습 (59:22)</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -44605,7 +44605,7 @@
     <row r="518">
       <c r="B518" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘</t>
+          <t>Chapter04. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘 (05:45:23)</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -44742,7 +44742,7 @@
     <row r="529">
       <c r="B529" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘 실습</t>
+          <t>Chapter05. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘 실습 (02:04:02)</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -44819,12 +44819,12 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Part10. 시계열 데이터분석 싸이클 이해</t>
+          <t>Part10. 시계열 데이터분석 싸이클 이해 (20:06:31)</t>
         </is>
       </c>
       <c r="B535" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (1)</t>
+          <t>Chapter01. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (1) (02:08:30)</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -44889,7 +44889,7 @@
     <row r="540">
       <c r="B540" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (1)</t>
+          <t>Chapter02. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (1) (01:18:59)</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -44930,7 +44930,7 @@
     <row r="543">
       <c r="B543" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (2)</t>
+          <t>Chapter03. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (2) (01:58:12)</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -44983,7 +44983,7 @@
     <row r="547">
       <c r="B547" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (2)</t>
+          <t>Chapter04. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (2) (02:27:39)</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -45048,7 +45048,7 @@
     <row r="552">
       <c r="B552" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (3)</t>
+          <t>Chapter05. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (3) (52:17)</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -45077,7 +45077,7 @@
     <row r="554">
       <c r="B554" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. 시계열 단변량 선형과정 알고리즘</t>
+          <t>Chapter06. 시계열 단변량 선형과정 알고리즘 (07:21:00)</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -45298,7 +45298,7 @@
     <row r="572">
       <c r="B572" s="1" t="inlineStr">
         <is>
-          <t>Chapter07. 시계열 단변량 선형과정 알고리즘 실습</t>
+          <t>Chapter07. 시계열 단변량 선형과정 알고리즘 실습 (39:14)</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -45327,7 +45327,7 @@
     <row r="574">
       <c r="B574" s="1" t="inlineStr">
         <is>
-          <t>Chapter08. 시계열 다변량 선형과정 알고리즘</t>
+          <t>Chapter08. 시계열 다변량 선형과정 알고리즘 (02:17:33)</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -45416,7 +45416,7 @@
     <row r="581">
       <c r="B581" s="1" t="inlineStr">
         <is>
-          <t>Chapter09. 시계열 비선형과정 딥러닝 알고리즘</t>
+          <t>Chapter09. 시계열 비선형과정 딥러닝 알고리즘 (01:03:07)</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -45457,12 +45457,12 @@
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>Part11. 딥러닝 알고리즘 기반 데이터분석</t>
+          <t>Part11. 딥러닝 알고리즘 기반 데이터분석 (14:42:48)</t>
         </is>
       </c>
       <c r="B584" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 인공지능의 역사로 이해하는 딥러닝의 발전과정과 용어</t>
+          <t>Chapter01. 인공지능의 역사로 이해하는 딥러닝의 발전과정과 용어 (03:10:43)</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -45551,7 +45551,7 @@
     <row r="591">
       <c r="B591" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. Keras 라이브러리 활용 딥러닝 데이터분석 프로세스</t>
+          <t>Chapter02. Keras 라이브러리 활용 딥러닝 데이터분석 프로세스 (01:24:07)</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -45592,7 +45592,7 @@
     <row r="594">
       <c r="B594" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 한계 극복을 통한 딥러닝 알고리즘의 발전과 활용뱡향</t>
+          <t>Chapter03. 한계 극복을 통한 딥러닝 알고리즘의 발전과 활용뱡향 (02:20:41)</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -45669,7 +45669,7 @@
     <row r="600">
       <c r="B600" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 회귀/분류 문제 해결을 위한 머신러닝과 인공신경망 실습</t>
+          <t>Chapter04. 회귀/분류 문제 해결을 위한 머신러닝과 인공신경망 실습 (01:54:09)</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -45734,7 +45734,7 @@
     <row r="605">
       <c r="B605" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. CNN/RNN 알고리즘의 방향 및 구조 이해</t>
+          <t>Chapter05. CNN/RNN 알고리즘의 방향 및 구조 이해 (03:01:24)</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -45787,7 +45787,7 @@
     <row r="609">
       <c r="B609" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. CNN/RNN 알고리즘 활용 회귀/분류 문제해결 실습</t>
+          <t>Chapter06. CNN/RNN 알고리즘 활용 회귀/분류 문제해결 실습 (02:51:44)</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -45968,10 +45968,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="59" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="55" customWidth="1" min="1" max="1"/>
+    <col width="58" customWidth="1" min="2" max="2"/>
+    <col width="64" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45999,12 +45999,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 데이터 분석 첫 걸음 떼기</t>
+          <t>Part 1. 데이터 분석 첫 걸음 떼기 (04:28:31)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표</t>
+          <t>Ch 1. 학습목표 (04:43)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -46021,7 +46021,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 데이터 분석 소개</t>
+          <t>Ch 2. 데이터 분석 소개 (01:26:23)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -46098,7 +46098,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. (실습) 데이터 탐색하기</t>
+          <t>Ch 3. (실습) 데이터 탐색하기 (34:14)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -46151,7 +46151,7 @@
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. (실습) 시계열 데이터와 친해지기</t>
+          <t>Ch 4. (실습) 시계열 데이터와 친해지기 (35:44)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -46240,7 +46240,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. (실습) 시계열 데이터의 EDA</t>
+          <t>Ch 5. (실습) 시계열 데이터의 EDA (01:35:43)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -46305,7 +46305,7 @@
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 요약 및 정리</t>
+          <t>Ch 6. 요약 및 정리 (11:44)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -46334,12 +46334,12 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 머신러닝으로 데이터 실무 맛보기</t>
+          <t>Part 2. 머신러닝으로 데이터 실무 맛보기 (06:04:22)</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표</t>
+          <t>Ch 1. 학습목표 (01:47)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -46356,7 +46356,7 @@
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 예측 모델링 시작하기</t>
+          <t>Ch 2. 예측 모델링 시작하기 (02:47:51)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -46469,7 +46469,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. (실습) 머신러닝 예측 모델 구현하기</t>
+          <t>Ch 3. (실습) 머신러닝 예측 모델 구현하기 (01:04:50)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -46534,7 +46534,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. (실습) 예측 결과 평가하기</t>
+          <t>Ch 4. (실습) 예측 결과 평가하기 (01:03:16)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -46599,7 +46599,7 @@
     <row r="47">
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. (실습) 머신러닝 실전편</t>
+          <t>Ch 5. (실습) 머신러닝 실전편 (01:00:59)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -46652,7 +46652,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 요약 및 정리</t>
+          <t>Ch 6. 요약 및 정리 (05:39)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -46681,12 +46681,12 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 본격 시계열 데이터 분석하기 (단변량 시계열)</t>
+          <t>Part 3. 본격 시계열 데이터 분석하기 (단변량 시계열) (03:05:14)</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습 목표</t>
+          <t>Ch 1. 학습 목표 (04:06)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -46703,7 +46703,7 @@
     <row r="54">
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 시계열 데이터의 속성</t>
+          <t>Ch 2. 시계열 데이터의 속성 (46:23)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -46756,7 +46756,7 @@
     <row r="58">
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. (실습) 시계열 분석 모형 개요</t>
+          <t>Ch 3. (실습) 시계열 분석 모형 개요 (49:29)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -46821,7 +46821,7 @@
     <row r="63">
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. (실습) 시계열 모델링 예시</t>
+          <t>Ch 4. (실습) 시계열 모델링 예시 (01:16:15)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -46910,7 +46910,7 @@
     <row r="70">
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 요약 및 정리</t>
+          <t>Ch 5. 요약 및 정리 (09:01)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -46939,12 +46939,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 데이터 사이언티스트로 도약하기 (다변량 시계열)</t>
+          <t>Part 4. 데이터 사이언티스트로 도약하기 (다변량 시계열) (04:32:28)</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습 목표</t>
+          <t>Ch 1. 학습 목표 (02:35)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -46961,7 +46961,7 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 자본시장 데이터의 수집</t>
+          <t>Ch 2. 자본시장 데이터의 수집 (01:08:05)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -47002,7 +47002,7 @@
     <row r="76">
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. 자본시장 예측의 기초와 응용</t>
+          <t>Ch 3. 자본시장 예측의 기초와 응용 (01:39:09)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -47055,7 +47055,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. 추가 변수를 이용하여 시장 예측하기</t>
+          <t>Ch 4. 추가 변수를 이용하여 시장 예측하기 (01:29:54)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -47108,7 +47108,7 @@
     <row r="84">
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 요약 및 정리</t>
+          <t>Ch 5. 요약 및 정리 (12:45)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -47137,12 +47137,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 딥러닝을 이용하여 정교하게 예측하기</t>
+          <t>Part 5. 딥러닝을 이용하여 정교하게 예측하기 (03:37:40)</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표</t>
+          <t>Ch 1. 학습목표 (05:31)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -47159,7 +47159,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 어서와. 인공신경망은 처음이지?</t>
+          <t>Ch 2. 어서와. 인공신경망은 처음이지? (01:08:24)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -47224,7 +47224,7 @@
     <row r="92">
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. 심층 신경망 (Deep Neural Network)</t>
+          <t>Ch 3. 심층 신경망 (Deep Neural Network) (30:21)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -47277,7 +47277,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. CNN 분류 모형 예시</t>
+          <t>Ch 4. CNN 분류 모형 예시 (42:04)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -47330,7 +47330,7 @@
     <row r="100">
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 딥러닝과 시계열</t>
+          <t>Ch 5. 딥러닝과 시계열 (27:52)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -47371,7 +47371,7 @@
     <row r="103">
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 딥러닝을 이용한 시계열 예측</t>
+          <t>Ch 6. 딥러닝을 이용한 시계열 예측 (26:55)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -47424,7 +47424,7 @@
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>Ch 7. 요약 및 정리</t>
+          <t>Ch 7. 요약 및 정리 (16:33)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -47453,12 +47453,12 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Part 6. 최신 사례로 실습 포트폴리오 확장하기</t>
+          <t>Part 6. 최신 사례로 실습 포트폴리오 확장하기 (03:49:33)</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표와 실습의 주안점 및 데이터 소개</t>
+          <t>Ch 1. 학습목표와 실습의 주안점 및 데이터 소개 (05:45)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -47475,7 +47475,7 @@
     <row r="110">
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 지도학습(1) 예측을 더 쉽게 : 매출 데이터</t>
+          <t>Ch 2. 지도학습(1) 예측을 더 쉽게 : 매출 데이터 (52:03)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -47516,7 +47516,7 @@
     <row r="113">
       <c r="B113" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. 지도학습(2) 예측을 더 쉽게 : 공공 데이터</t>
+          <t>Ch 3. 지도학습(2) 예측을 더 쉽게 : 공공 데이터 (48:29)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -47569,7 +47569,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. 비지도학습(1) 단변량 시계열 클러스터링 : 경제 데이터</t>
+          <t>Ch 4. 비지도학습(1) 단변량 시계열 클러스터링 : 경제 데이터 (01:19:53)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -47622,7 +47622,7 @@
     <row r="121">
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 비지도학습(2) 다변량 시계열 클러스터링 : 센서 데이터</t>
+          <t>Ch 5. 비지도학습(2) 다변량 시계열 클러스터링 : 센서 데이터 (29:21)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -47675,7 +47675,7 @@
     <row r="125">
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 요약 및 정리</t>
+          <t>Ch 6. 요약 및 정리 (14:02)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -47763,10 +47763,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="69" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="63" customWidth="1" min="1" max="1"/>
+    <col width="63" customWidth="1" min="2" max="2"/>
+    <col width="74" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -47794,12 +47794,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. SQL 데이터 수집-분석-시각화 (입문-실습)</t>
+          <t>Part 1. SQL 데이터 수집-분석-시각화 (입문-실습) (32:04:02)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 데이터베이스 개념</t>
+          <t>Chapter 1. 데이터베이스 개념 (01:24:07)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -47852,7 +47852,7 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. 데이터베이스 설치</t>
+          <t>Chapter 2. 데이터베이스 설치 (01:19:44)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -47905,7 +47905,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. SQL 기초 문법</t>
+          <t>Chapter 3. SQL 기초 문법 (03:11:44)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -48018,7 +48018,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Chapter 4. 데이터베이스 및 테이블 제어</t>
+          <t>Chapter 4. 데이터베이스 및 테이블 제어 (01:57:14)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -48083,7 +48083,7 @@
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Chapter 5. SQL Server 자료형</t>
+          <t>Chapter 5. SQL Server 자료형 (01:22:52)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -48124,7 +48124,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Chapter 6. SQL JOIN</t>
+          <t>Chapter 6. SQL JOIN (01:25:38)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -48165,7 +48165,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Chapter 7. SQL 서브쿼리</t>
+          <t>Chapter 7. SQL 서브쿼리 (02:17:04)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -48242,7 +48242,7 @@
     <row r="36">
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Chapter 8. SQL 함수</t>
+          <t>Chapter 8. SQL 함수 (04:03:21)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -48367,7 +48367,7 @@
     <row r="46">
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Chapter 9. 주식 데이터 분석</t>
+          <t>Chapter 9. 주식 데이터 분석 (04:34:38)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -48492,7 +48492,7 @@
     <row r="56">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Chapter 10. 온라인 커머스 매출 분석</t>
+          <t>Chapter 10. 온라인 커머스 매출 분석 (02:27:16)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -48569,7 +48569,7 @@
     <row r="62">
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Chapter 11. 국가 통계 데이터 분석</t>
+          <t>Chapter 11. 국가 통계 데이터 분석 (03:02:23)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -48658,7 +48658,7 @@
     <row r="69">
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Chapter 12. SSRS 리포트 활용</t>
+          <t>Chapter 12. SSRS 리포트 활용 (04:34:59)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -48795,7 +48795,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Chapter 13. SSRS 리포트 만들기</t>
+          <t>Chapter 13. SSRS 리포트 만들기 (23:02)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -48812,12 +48812,12 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Part 2. Excel 대시보드 시각화 (입문-실습)</t>
+          <t>Part 2. Excel 대시보드 시각화 (입문-실습) (07:00:42)</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 엑셀 데이터 시각화 Ⅰ</t>
+          <t>Chapter 1. 엑셀 데이터 시각화 Ⅰ (01:22:16)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -48918,7 +48918,7 @@
     <row r="89">
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드</t>
+          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드 (01:43:44)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -49019,7 +49019,7 @@
     <row r="97">
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. 엑셀 파일을 활용한 디지털 마케팅 대시보드</t>
+          <t>Chapter 3. 엑셀 파일을 활용한 디지털 마케팅 대시보드 (01:45:01)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -49132,7 +49132,7 @@
     <row r="106">
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>Chapter 4. 다양한 데이터와 데이터 모델을 활용한 판매 분석 대시보드</t>
+          <t>Chapter 4. 다양한 데이터와 데이터 모델을 활용한 판매 분석 대시보드 (02:09:41)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -49293,12 +49293,12 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Part 3. Excel 대시보드 시각화 (심화-실습)</t>
+          <t>Part 3. Excel 대시보드 시각화 (심화-실습) (08:53:03)</t>
         </is>
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 엑셀 데이터 시각화 Ⅱ</t>
+          <t>Chapter 1. 엑셀 데이터 시각화 Ⅱ (03:13:17)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -49435,7 +49435,7 @@
     <row r="130">
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. 엑셀 대시보드 디자인 활용법</t>
+          <t>Chapter 2. 엑셀 대시보드 디자인 활용법 (51:54)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -49476,7 +49476,7 @@
     <row r="133">
       <c r="B133" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. 엑셀 대시보드 디자인 심화 실습</t>
+          <t>Chapter 3. 엑셀 대시보드 디자인 심화 실습 (04:47:52)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -49553,12 +49553,12 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Part 4. Tableau 대시보드 시각화 (입문-실습)</t>
+          <t>Part 4. Tableau 대시보드 시각화 (입문-실습) (06:50:09)</t>
         </is>
       </c>
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 태블로 데이터 시각화</t>
+          <t>Chapter 1. 태블로 데이터 시각화 (01:10:28)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -49647,7 +49647,7 @@
     <row r="146">
       <c r="B146" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드</t>
+          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드 (01:14:54)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -49724,7 +49724,7 @@
     <row r="152">
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. 지역별 매출 대시보드</t>
+          <t>Chapter 3. 지역별 매출 대시보드 (01:08:54)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -49813,7 +49813,7 @@
     <row r="159">
       <c r="B159" s="1" t="inlineStr">
         <is>
-          <t>Chapter 4. 비즈니스 KPI 대시보드</t>
+          <t>Chapter 4. 비즈니스 KPI 대시보드 (59:02)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -49890,7 +49890,7 @@
     <row r="165">
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>Chapter 5. 마케팅 퍼널 대시보드</t>
+          <t>Chapter 5. 마케팅 퍼널 대시보드 (01:11:43)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -49991,7 +49991,7 @@
     <row r="173">
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>Chapter 6. HR 성과 관리 대시보드</t>
+          <t>Chapter 6. HR 성과 관리 대시보드 (01:05:08)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -50080,12 +50080,12 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">부록 Part 1. 합격의 하이패스 SQL 과정 - 오라클 실습 환경 구성 </t>
+          <t>부록 Part 1. 합격의 하이패스 SQL 과정 - 오라클 실습 환경 구성  (01:06:16)</t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 오라클/DBeaver 설치</t>
+          <t>Chapter 1. 오라클/DBeaver 설치 (48:34)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -50126,7 +50126,7 @@
     <row r="183">
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. 실습 데이터 입력</t>
+          <t>Chapter 2. 실습 데이터 입력 (17:42)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -50143,12 +50143,12 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>부록 Part 3. 합격의 하이패스 SQLD 과정 - 실전 예상 문제</t>
+          <t>부록 Part 3. 합격의 하이패스 SQLD 과정 - 실전 예상 문제 (05:57:27)</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. SQLD출제예상 1회차</t>
+          <t>Chapter 1. SQLD출제예상 1회차 (02:52:01)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -50273,7 +50273,7 @@
     <row r="194">
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. SQLD출제예상 2회차</t>
+          <t>Chapter 2. SQLD출제예상 2회차 (03:05:26)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -437,10 +437,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="66" customWidth="1" min="2" max="2"/>
-    <col width="71" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="66" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part.1 데이터와 친해지기 (03:15:15)</t>
+          <t>Part.1 데이터와 친해지기</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 일상 생활에서의 데이터 (29:02)</t>
+          <t>Chapter.01 일상 생활에서의 데이터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 기업에서의 데이터 (01:03:22)</t>
+          <t>Chapter.02 기업에서의 데이터</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 데이터 직무 (34:38)</t>
+          <t>Chapter.03 데이터 직무</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -608,7 +608,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 데이터 분석 트렌드 (01:08:13)</t>
+          <t>Chapter.04 데이터 분석 트렌드</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -649,12 +649,12 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Part.2 파이썬 익숙해지기 (07:08:42)</t>
+          <t>Part.2 파이썬 익숙해지기</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 파이썬 시작 (24:46)</t>
+          <t>Chapter.01 파이썬 시작</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 파이썬 기초 자료형 (01:19:52)</t>
+          <t>Chapter.02 파이썬 기초 자료형</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 DataFrame (02:30:58)</t>
+          <t>Chapter.03 DataFrame</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="35">
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 시각화 (01:45:36)</t>
+          <t>Chapter.04 시각화</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 파이썬 예외처리 (10:43)</t>
+          <t>Chapter.05 파이썬 예외처리</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Chapter.06 파이썬 함수 및 입력 (27:58)</t>
+          <t>Chapter.06 파이썬 함수 및 입력</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="45">
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Chapter.07 실전 프로젝트 (28:49)</t>
+          <t>Chapter.07 실전 프로젝트</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1061,12 +1061,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Part.3 통계로 데이터 분석 능숙해지기 (04:39:11)</t>
+          <t>Part.3 통계로 데이터 분석 능숙해지기</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 기초 통계량 (1) 대푯값 (40:36)</t>
+          <t>Chapter.01 기초 통계량 (1) 대푯값</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 기초 통계량 (2) 분산도 (43:00)</t>
+          <t>Chapter.02 기초 통계량 (2) 분산도</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="56">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 기술통계 (29:29)</t>
+          <t>Chapter.03 기술통계</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="61">
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 통계 실험과 유의성검정 (01:19:02)</t>
+          <t>Chapter.04 통계 실험과 유의성검정</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1374,7 +1374,7 @@
     <row r="70">
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 선형회귀분석 (01:27:04)</t>
+          <t>Chapter.05 선형회귀분석</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1427,12 +1427,12 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Part..4 실무 데이터 분석 마스터 (03:09:44)</t>
+          <t>Part..4 실무 데이터 분석 마스터</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 데이터 분석 방법을 공부하기전에 알아야 할 비즈니스 용어 정리 (01:03:41)</t>
+          <t>Chapter.01 데이터 분석 방법을 공부하기전에 알아야 할 비즈니스 용어 정리</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 대표적인 실험방법론 (02:06:03)</t>
+          <t>Chapter.02 대표적인 실험방법론</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>[부록] 커리어 치트키 - 연봉협상 (02:57:10)</t>
+          <t>[부록] 커리어 치트키 - 연봉협상</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>Chapter.00 오리엔테이션 (01:38)</t>
+          <t>Chapter.00 오리엔테이션</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 이직에서의 7가지 System  (01:19:16)</t>
+          <t xml:space="preserve">Chapter.01 이직에서의 7가지 System </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1697,7 +1697,7 @@
     <row r="94">
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 현 직장에서의 5가지 System  (44:40)</t>
+          <t xml:space="preserve">Chapter.02 현 직장에서의 5가지 System </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1762,7 +1762,7 @@
     <row r="99">
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 실전   (51:36)</t>
+          <t xml:space="preserve">Chapter.03 실전  </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -1860,10 +1860,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
-    <col width="55" customWidth="1" min="2" max="2"/>
-    <col width="108" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="44" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="103" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1891,12 +1891,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 데이터 엔지니어링과 분산처리 기본 개념 (47:30)</t>
+          <t>Part 1. 데이터 엔지니어링과 분산처리 기본 개념</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ch01. 데이터 엔지니어링과 분산처리 기본 개념 (47:30)</t>
+          <t>ch01. 데이터 엔지니어링과 분산처리 기본 개념</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1973,12 +1973,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Part 2. Kafka 이해하기 (03:34:26)</t>
+          <t>Part 2. Kafka 이해하기</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>ch01. Kafka란? (14:19)</t>
+          <t>ch01. Kafka란?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2007,7 +2007,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ch02. Kafka의 구조 (42:30)</t>
+          <t>ch02. Kafka의 구조</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>ch03. Kafka 프로듀서 (18:29)</t>
+          <t>ch03. Kafka 프로듀서</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2125,7 +2125,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>ch04. Kafka 컨슈머 (22:07)</t>
+          <t>ch04. Kafka 컨슈머</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>ch05. Kafka 설치 (47:18)</t>
+          <t>ch05. Kafka 설치</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>ch06. Kafka 브로커 실행하기 (55:08)</t>
+          <t>ch06. Kafka 브로커 실행하기</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>ch07. Kafka Producer 설정 (14:35)</t>
+          <t>ch07. Kafka Producer 설정</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2289,12 +2289,12 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Part 3. ElasticSearch, ELK스택 (05:11:45)</t>
+          <t>Part 3. ElasticSearch, ELK스택</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>ch01. ElasticSearch란? (18:02)</t>
+          <t>ch01. ElasticSearch란?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2335,7 +2335,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>ch02. ElasticSearch의 기본 구성 (18:17)</t>
+          <t>ch02. ElasticSearch의 기본 구성</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>ch03. AWS EC2에 ElasticSearch 설치하기 (55:31)</t>
+          <t>ch03. AWS EC2에 ElasticSearch 설치하기</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>ch04. ElasticSearch 모니터링 (05:35)</t>
+          <t>ch04. ElasticSearch 모니터링</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>ch05. ElasticSearch TLS 적용하기 (22:59)</t>
+          <t>ch05. ElasticSearch TLS 적용하기</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="45">
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>ch06. AWS EC2에 Kibana 설치하기 (27:08)</t>
+          <t>ch06. AWS EC2에 Kibana 설치하기</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>ch07. ElasticSearch API (31:06)</t>
+          <t>ch07. ElasticSearch API</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>ch08. ElasticSearch Aggregation (30:30)</t>
+          <t>ch08. ElasticSearch Aggregation</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="54">
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>ch9. ElasticSearch Mapping API (09:32)</t>
+          <t>ch9. ElasticSearch Mapping API</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="56">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>ch10. AWS EC2에 Logstash 설치하기 (24:49)</t>
+          <t>ch10. AWS EC2에 Logstash 설치하기</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="58">
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>ch11. Filebeat와 Logstash로 데이터 전송하기 (35:11)</t>
+          <t>ch11. Filebeat와 Logstash로 데이터 전송하기</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2709,7 +2709,7 @@
     <row r="61">
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>ch12.Text Tokenizer, Nori (33:05)</t>
+          <t>ch12.Text Tokenizer, Nori</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Part 4. Workflow Orchestration, Airflow (03:47:39)</t>
+          <t>Part 4. Workflow Orchestration, Airflow</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>ch01. Airflow란? (01:01:38)</t>
+          <t>ch01. Airflow란?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="72">
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>ch02. AWS EC2에 Airflow 설치하기 (01:41:10)</t>
+          <t>ch02. AWS EC2에 Airflow 설치하기</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2945,7 +2945,7 @@
     <row r="79">
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>ch03. Kubernetes에 Airflow 설치하기 (01:04:51)</t>
+          <t>ch03. Kubernetes에 Airflow 설치하기</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3022,12 +3022,12 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 실전 프로젝트 (01:28:23)</t>
+          <t>Part 5. 실전 프로젝트</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>ch01. 스트리밍 데이터 파이프라인 구성하기 (42:11)</t>
+          <t>ch01. 스트리밍 데이터 파이프라인 구성하기</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="89">
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>ch02. 배치 데이터 파이프라인 구성하기 (46:12)</t>
+          <t>ch02. 배치 데이터 파이프라인 구성하기</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3145,12 +3145,12 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Part6. Kubernetes (01:19:39)</t>
+          <t>Part6. Kubernetes</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>ch01. Kubernetes란? (11:22)</t>
+          <t>ch01. Kubernetes란?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3179,7 +3179,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>ch02. Kubernetes의 기본 개념과 구성 (52:53)</t>
+          <t>ch02. Kubernetes의 기본 개념과 구성</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="102">
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>ch03. Kubernetes 기타 개념 (15:24)</t>
+          <t>ch03. Kubernetes 기타 개념</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3285,12 +3285,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Part 8. Hadoop이란? (01:15:11)</t>
+          <t>Part 8. Hadoop이란?</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>ch01. Hadoop 개요 (14:11)</t>
+          <t>ch01. Hadoop 개요</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="105">
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>ch02. Hadoop의 핵심 구성 요소 (27:32)</t>
+          <t>ch02. Hadoop의 핵심 구성 요소</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>ch03. Hadoop 에코시스템 프레임워크 둘러보기 (33:28)</t>
+          <t>ch03. Hadoop 에코시스템 프레임워크 둘러보기</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3401,12 +3401,12 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Part 9. Apache Spark (11:07:50)</t>
+          <t>Part 9. Apache Spark</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>ch01. 스파크 개요 (46:46)</t>
+          <t>ch01. 스파크 개요</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3459,7 +3459,7 @@
     <row r="116">
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>ch02. RDD (01:21:32)</t>
+          <t>ch02. RDD</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3524,7 +3524,7 @@
     <row r="121">
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>ch03. SparkSQL, DataFrame, Dataset (01:41:50)</t>
+          <t>ch03. SparkSQL, DataFrame, Dataset</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3601,7 +3601,7 @@
     <row r="127">
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>ch04. RDD, SparkSQL, DataFrame 비교 (04:03)</t>
+          <t>ch04. RDD, SparkSQL, DataFrame 비교</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="128">
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>ch05. 스파크 심층 분석 (02:37:54)</t>
+          <t>ch05. 스파크 심층 분석</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3803,7 +3803,7 @@
     <row r="143">
       <c r="B143" s="1" t="inlineStr">
         <is>
-          <t>ch06. Partitioning (01:09:01)</t>
+          <t>ch06. Partitioning</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="149">
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>ch07. 스파크 실무 팁 (54:28)</t>
+          <t>ch07. 스파크 실무 팁</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="152">
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>ch08. Spark Streaming (02:32:16)</t>
+          <t>ch08. Spark Streaming</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4022,12 +4022,12 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Part 10. 컬럼 기반의 NoSQL (02:42:30)</t>
+          <t>Part 10. 컬럼 기반의 NoSQL</t>
         </is>
       </c>
       <c r="B160" s="1" t="inlineStr">
         <is>
-          <t>ch01. 컬럼 기반 NoSQL 개요 (17:46)</t>
+          <t>ch01. 컬럼 기반 NoSQL 개요</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="161">
       <c r="B161" s="1" t="inlineStr">
         <is>
-          <t>ch02. Cassandra (02:24:44)</t>
+          <t>ch02. Cassandra</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4157,12 +4157,12 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Part 11 . File System (23:21)</t>
+          <t>Part 11 . File System</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
         <is>
-          <t>ch01. 파일 시스템 개요 (23:21)</t>
+          <t>ch01. 파일 시스템 개요</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4191,12 +4191,12 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Part 12 . 이커머스 상품 데이터 파이프라인 구축 실습 (01:48:22)</t>
+          <t>Part 12 . 이커머스 상품 데이터 파이프라인 구축 실습</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>ch01. 로컬 파이프라인 구축 (01:30:07)</t>
+          <t>ch01. 로컬 파이프라인 구축</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4362,10 +4362,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="56" customWidth="1" min="1" max="1"/>
-    <col width="51" customWidth="1" min="2" max="2"/>
-    <col width="110" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="105" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4393,12 +4393,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part1.자연어란? 지금까지의 히스토리 (01:12:46)</t>
+          <t>Part1.자연어란? 지금까지의 히스토리</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>CH01.자연어를 컴퓨터가 이해하는 법 (11:16)</t>
+          <t>CH01.자연어를 컴퓨터가 이해하는 법</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4415,7 +4415,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>CH02.자연어처리 모델 히스토리 (01:01:30)</t>
+          <t>CH02.자연어처리 모델 히스토리</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4456,12 +4456,12 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Part2.새로운 패러다임: 사전 학습 모델 (01:45:44)</t>
+          <t>Part2.새로운 패러다임: 사전 학습 모델</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>CH01.Pretrained Language Model (01:45:44)</t>
+          <t>CH01.Pretrained Language Model</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4514,12 +4514,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Part3.ChatGPT 파헤치기 (01:55:43)</t>
+          <t>Part3.ChatGPT 파헤치기</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>CH01.ChatGPT 개요 (25:01)</t>
+          <t>CH01.ChatGPT 개요</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT 동작방식 (01:30:42)</t>
+          <t>CH02.ChatGPT 동작방식</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4601,12 +4601,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Part4.ChatGPT와 관련있는 다른 연구들 (02:29:28)</t>
+          <t>Part4.ChatGPT와 관련있는 다른 연구들</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>CH01.대규모 언어모델 관련 연구 (01:30:53)</t>
+          <t>CH01.대규모 언어모델 관련 연구</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4659,7 +4659,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT 관련 연구 (58:35)</t>
+          <t>CH02.ChatGPT 관련 연구</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4724,12 +4724,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Part5.ChatGPT와 연관모델들은 어떻게 사용되고 있을까? (01:12:17)</t>
+          <t>Part5.ChatGPT와 연관모델들은 어떻게 사용되고 있을까?</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>CH01.ChatGPT의 관련 서비스 (22:20)</t>
+          <t>CH01.ChatGPT의 관련 서비스</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4770,7 +4770,7 @@
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT와 관련 사례 (33:59)</t>
+          <t>CH02.ChatGPT와 관련 사례</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4799,7 +4799,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>CH03.ChatGPT와 같은 모델 사용 (15:58)</t>
+          <t>CH03.ChatGPT와 같은 모델 사용</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4828,12 +4828,12 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Part6.한국의 기업들은 어떻게 대응하고 있을까 (01:00:08)</t>
+          <t>Part6.한국의 기업들은 어떻게 대응하고 있을까</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>CH01. 한국의 빅모델 현황 (01:00:08)</t>
+          <t>CH01. 한국의 빅모델 현황</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Part7.최종 ChatGPT 정리 (28:17)</t>
+          <t>Part7.최종 ChatGPT 정리</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>CH01.ChatGPT에 대한 사람들의 관심 (05:59)</t>
+          <t>CH01.ChatGPT에 대한 사람들의 관심</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4908,7 +4908,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>CH02.ChatGPT 정리 (22:18)</t>
+          <t>CH02.ChatGPT 정리</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4937,12 +4937,12 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Part8.GPT-4의 등장 (02:07:08)</t>
+          <t>Part8.GPT-4의 등장</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>CH01.GPT-4 리뷰 (02:07:08)</t>
+          <t>CH01.GPT-4 리뷰</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5007,12 +5007,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>특별부록. PPO 이론과 구현 (50:47)</t>
+          <t>특별부록. PPO 이론과 구현</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>CH01. PPO (50:47)</t>
+          <t>CH01. PPO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5083,10 +5083,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="54" customWidth="1" min="1" max="1"/>
-    <col width="58" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5114,12 +5114,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 01. Auto-GPT와 친해지기 (01:47:49)</t>
+          <t>Part 01. Auto-GPT와 친해지기</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter 01. Introduction (04:18)</t>
+          <t>Chapter 01. Introduction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5136,7 +5136,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Chapter  02. Auto-GPT의 등장 배경과 원리 (01:03:36)</t>
+          <t>Chapter  02. Auto-GPT의 등장 배경과 원리</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5177,7 +5177,7 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Chapter  03. Auto-GPT 맛보기 (39:55)</t>
+          <t>Chapter  03. Auto-GPT 맛보기</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5230,12 +5230,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Part 02. 초간단 파이썬 프로그래밍 기초 (02:58:38)</t>
+          <t>Part 02. 초간단 파이썬 프로그래밍 기초</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. 파이썬 소개 (37:44)</t>
+          <t>Chapter  01. 파이썬 소개</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Chapter  02. 파이썬 필수 기초 (02:20:54)</t>
+          <t>Chapter  02. 파이썬 필수 기초</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5341,12 +5341,12 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Part 03. ChatGPT와 친해지기 (01:59:08)</t>
+          <t>Part 03. ChatGPT와 친해지기</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. OpenAI API 사용하기 (46:59)</t>
+          <t>Chapter  01. OpenAI API 사용하기</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5375,7 +5375,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Chapter  02. AI 서비스를 만들기 위한 기초 라이브러리 (19:41)</t>
+          <t>Chapter  02. AI 서비스를 만들기 위한 기초 라이브러리</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="22">
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Chapter  03. OpenAI API를 활용한 AI 서비스 만들기 (52:28)</t>
+          <t>Chapter  03. OpenAI API를 활용한 AI 서비스 만들기</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5445,12 +5445,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Part 04. Auto-GPT를 활용한 AI 서비스 만들기 (03:18:29)</t>
+          <t>Part 04. Auto-GPT를 활용한 AI 서비스 만들기</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. Auto-GPT를 활용한 AI 서비스 만들기 (03:18:29)</t>
+          <t>Chapter  01. Auto-GPT를 활용한 AI 서비스 만들기</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Part 05. AI 서비스를 AWS에 배포하기 (01:04:18)</t>
+          <t>Part 05. AI 서비스를 AWS에 배포하기</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Chapter 01.  내가 만든 AI 서비스를 AWS에 배포하기 (01:04:18)</t>
+          <t>Chapter 01.  내가 만든 AI 서비스를 AWS에 배포하기</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5609,12 +5609,12 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Part 06. 자율 AI Agent + α (12:41)</t>
+          <t>Part 06. 자율 AI Agent + α</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Chapter  01. 유용한 자율 AI Agent 알아보기 (12:41)</t>
+          <t>Chapter  01. 유용한 자율 AI Agent 알아보기</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5690,10 +5690,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="58" customWidth="1" min="1" max="1"/>
-    <col width="51" customWidth="1" min="2" max="2"/>
-    <col width="80" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="75" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5721,12 +5721,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. AWS와 DevOps 기초 (03:28:09)</t>
+          <t>Part 1. AWS와 DevOps 기초</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 클라우드 서비스 개요 (18:59)</t>
+          <t>Ch 01. 클라우드 서비스 개요</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5815,7 +5815,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. AWS 서비스 개요 (14:04)</t>
+          <t>Ch 02. AWS 서비스 개요</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. AWS 주요 서비스 소개 (44:48)</t>
+          <t>Ch 03. AWS 주요 서비스 소개</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5933,7 +5933,7 @@
     <row r="18">
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. AWS공동 책임 모델 &amp; 규정 준수 프로그램 (06:05)</t>
+          <t>Ch 04. AWS공동 책임 모델 &amp; 규정 준수 프로그램</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5962,7 +5962,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. AWS 비용 체계 (14:31)</t>
+          <t>Ch 05. AWS 비용 체계</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6015,7 +6015,7 @@
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS 계정 생성 실습 하기 (24:54)</t>
+          <t>Ch 06. AWS 계정 생성 실습 하기</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6092,7 +6092,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. AWS 콘솔 및 aws cli사용 하기 (48:40)</t>
+          <t>Ch 07. AWS 콘솔 및 aws cli사용 하기</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6181,7 +6181,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. DevOps기초 (36:08)</t>
+          <t>Ch 08. DevOps기초</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6270,12 +6270,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Part 2. AWS 아키텍처 설계 기본 (07:49:38)</t>
+          <t>Part 2. AWS 아키텍처 설계 기본</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. AWS 아키텍팅 하기 전에 알아야 할 것들 (16:30)</t>
+          <t>Ch 01. AWS 아키텍팅 하기 전에 알아야 할 것들</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6316,7 +6316,7 @@
     <row r="47">
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 네트워크 기초 (16:32)</t>
+          <t>Ch 02. 네트워크 기초</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="53">
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. VPC 실습하기 (50:28)</t>
+          <t>Ch 03. VPC 실습하기</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6458,7 +6458,7 @@
     <row r="58">
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 소규모 서비스 구축 해보기 (02:06:59)</t>
+          <t>Ch 04. 소규모 서비스 구축 해보기</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6583,7 +6583,7 @@
     <row r="68">
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. AWS Autoscaling Group 개요 (07:44)</t>
+          <t>Ch 05. AWS Autoscaling Group 개요</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6636,7 +6636,7 @@
     <row r="72">
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. Autoscaling Group 실습 (43:54)</t>
+          <t>Ch 06. Autoscaling Group 실습</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6749,7 +6749,7 @@
     <row r="81">
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 중규모 서비스 구축해보기(컨테이너 사용) (01:52:04)</t>
+          <t>Ch 07. 중규모 서비스 구축해보기(컨테이너 사용)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6946,7 +6946,7 @@
     <row r="97">
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 서비스 운영 (01:35:27)</t>
+          <t>Ch 08. 서비스 운영</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7035,12 +7035,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Part 3. AWS 아키텍처 설계 심화 (06:11:51)</t>
+          <t>Part 3. AWS 아키텍처 설계 심화</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 마이크로 서비스 아키텍처란? (01:02:03)</t>
+          <t>Ch 01. 마이크로 서비스 아키텍처란?</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7117,7 +7117,7 @@
     <row r="110">
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 마이크로 서비스 아키텍처 구현해보기 (01:11:53)</t>
+          <t>Ch 02. 마이크로 서비스 아키텍처 구현해보기</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7206,7 +7206,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 마이크로 서비스 간 데이터 통신 (42:09)</t>
+          <t>Ch 03. 마이크로 서비스 간 데이터 통신</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7319,7 +7319,7 @@
     <row r="126">
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 마이크로 서비스 배포 자동화 (39:10)</t>
+          <t>Ch 04. 마이크로 서비스 배포 자동화</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7396,7 +7396,7 @@
     <row r="132">
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 서버리스 아키텍처란? (36:03)</t>
+          <t>Ch 05. 서버리스 아키텍처란?</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -7461,7 +7461,7 @@
     <row r="137">
       <c r="B137" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 서버리스 아키텍처 구현해보기 (31:38)</t>
+          <t>Ch 06. 서버리스 아키텍처 구현해보기</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7526,7 +7526,7 @@
     <row r="142">
       <c r="B142" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. Lambda Deep-dive (43:05)</t>
+          <t>Ch 07. Lambda Deep-dive</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7615,7 +7615,7 @@
     <row r="149">
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 서비리스 아키텍처와 데이터 (45:50)</t>
+          <t>Ch 08. 서비리스 아키텍처와 데이터</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7680,12 +7680,12 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 코드를 통한 인프라 관리(IaC) (09:58:52)</t>
+          <t>Part 4. 코드를 통한 인프라 관리(IaC)</t>
         </is>
       </c>
       <c r="B154" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 코드형 인프라(IaC)란? (34:26)</t>
+          <t>Ch 01. 코드형 인프라(IaC)란?</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="158">
       <c r="B158" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 실습을 위한 기본 개발환경 구성 (24:59)</t>
+          <t>Ch 02. 실습을 위한 기본 개발환경 구성</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7851,7 +7851,7 @@
     <row r="167">
       <c r="B167" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. CloudFormation/SAM (58:22)</t>
+          <t>Ch 03. CloudFormation/SAM</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7964,7 +7964,7 @@
     <row r="176">
       <c r="B176" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Terraform (04:47:38)</t>
+          <t>Ch 04. Terraform</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8161,7 +8161,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Ansible (01:59:47)</t>
+          <t>Ch 05. Ansible</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8322,7 +8322,7 @@
     <row r="205">
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS CDKTF (58:03)</t>
+          <t>Ch 06. AWS CDKTF</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8375,7 +8375,7 @@
     <row r="209">
       <c r="B209" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. IaC 비교 (15:37)</t>
+          <t>Ch 07. IaC 비교</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8392,12 +8392,12 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>mini. Golang으로 구현하는 서버리스 프레임워크 실습 (02:22:58)</t>
+          <t>mini. Golang으로 구현하는 서버리스 프레임워크 실습</t>
         </is>
       </c>
       <c r="B210" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 서버리스 프레임워크를 활용한 자동화 (02:22:58)</t>
+          <t>Ch 01. 서버리스 프레임워크를 활용한 자동화</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8498,12 +8498,12 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Part 5. Docker와 실전 Kubernetes on AWS (13:09:06)</t>
+          <t>Part 5. Docker와 실전 Kubernetes on AWS</t>
         </is>
       </c>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. docker 개요  (01:22:18)</t>
+          <t xml:space="preserve">Ch 01. docker 개요 </t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8556,7 +8556,7 @@
     <row r="222">
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. kubernetes 시작하기 (02:08:47)</t>
+          <t>Ch 02. kubernetes 시작하기</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8693,7 +8693,7 @@
     <row r="233">
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. AWS EKS 알아보기  (01:31:49)</t>
+          <t xml:space="preserve">Ch 03. AWS EKS 알아보기 </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="238">
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. kubernetes 오브젝트 (02:08:19)</t>
+          <t>Ch 04. kubernetes 오브젝트</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8955,7 +8955,7 @@
     <row r="254">
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Kubernetes 관련 도구  (01:43:13)</t>
+          <t xml:space="preserve">Ch 05. Kubernetes 관련 도구 </t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9056,7 +9056,7 @@
     <row r="262">
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS EKS로 어플리케이션 구축 (01:13:01)</t>
+          <t>Ch 06. AWS EKS로 어플리케이션 구축</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9121,7 +9121,7 @@
     <row r="267">
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. AWS EKS로 어플리케이션 운영 (03:01:39)</t>
+          <t>Ch 07. AWS EKS로 어플리케이션 운영</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9270,12 +9270,12 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Intensive. AWS EKS 스페셜 (08:11:53)</t>
+          <t>Intensive. AWS EKS 스페셜</t>
         </is>
       </c>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. EKS 소개 (29:13)</t>
+          <t>Ch 01. EKS 소개</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9340,7 +9340,7 @@
     <row r="284">
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. EKS Worker Node (01:39:09)</t>
+          <t>Ch 02. EKS Worker Node</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9393,7 +9393,7 @@
     <row r="288">
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. EKS 리소스 버전관리 (01:52:08)</t>
+          <t>Ch 03. EKS 리소스 버전관리</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9482,7 +9482,7 @@
     <row r="295">
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. EKS 네트워킹 (01:12:13)</t>
+          <t>Ch 04. EKS 네트워킹</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9547,7 +9547,7 @@
     <row r="300">
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. EKS 권한관리 (01:10:47)</t>
+          <t>Ch 05. EKS 권한관리</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9600,7 +9600,7 @@
     <row r="304">
       <c r="B304" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS 리소스와의 통합 (01:48:23)</t>
+          <t>Ch 06. AWS 리소스와의 통합</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -9689,12 +9689,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Part 6. CI/CD(지속적 통합/지속적 제공) 구현하기 (08:24:08)</t>
+          <t>Part 6. CI/CD(지속적 통합/지속적 제공) 구현하기</t>
         </is>
       </c>
       <c r="B311" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. CI/CD란? (01:33:42)</t>
+          <t>Ch 01. CI/CD란?</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -9771,7 +9771,7 @@
     <row r="317">
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Github Actions (15:54)</t>
+          <t>Ch 02. Github Actions</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -9812,7 +9812,7 @@
     <row r="320">
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. CircleCI (24:53)</t>
+          <t>Ch 03. CircleCI</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9853,7 +9853,7 @@
     <row r="323">
       <c r="B323" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Jenkins (01:04:37)</t>
+          <t>Ch 04. Jenkins</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9942,7 +9942,7 @@
     <row r="330">
       <c r="B330" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Gitlab &amp; Runner (01:26:43)</t>
+          <t>Ch 05. Gitlab &amp; Runner</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10019,7 +10019,7 @@
     <row r="336">
       <c r="B336" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. AWS CodeSeries (01:53:34)</t>
+          <t>Ch 06. AWS CodeSeries</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -10096,7 +10096,7 @@
     <row r="342">
       <c r="B342" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. CI/CD 비교 (18:43)</t>
+          <t>Ch 07. CI/CD 비교</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -10113,7 +10113,7 @@
     <row r="343">
       <c r="B343" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. GitOps (33:57)</t>
+          <t>Ch 08. GitOps</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -10142,7 +10142,7 @@
     <row r="345">
       <c r="B345" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. ArgoCD (52:05)</t>
+          <t>Ch 09. ArgoCD</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -10231,12 +10231,12 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Part 7. 어플리케이션 성능테스트 및 모니터링 (07:03:45)</t>
+          <t>Part 7. 어플리케이션 성능테스트 및 모니터링</t>
         </is>
       </c>
       <c r="B352" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 성능테스트 이해하기 (24:48)</t>
+          <t>Ch 01. 성능테스트 이해하기</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -10277,7 +10277,7 @@
     <row r="355">
       <c r="B355" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Application에 성능 테스트 해보기 (01:06:49)</t>
+          <t>Ch 02. Application에 성능 테스트 해보기</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10366,7 +10366,7 @@
     <row r="362">
       <c r="B362" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 모니터링 이해하기 (20:14)</t>
+          <t>Ch 03. 모니터링 이해하기</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10383,7 +10383,7 @@
     <row r="363">
       <c r="B363" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. AWS를 활용한 모니터링 (52:57)</t>
+          <t>Ch 04. AWS를 활용한 모니터링</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10424,7 +10424,7 @@
     <row r="366">
       <c r="B366" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 오픈 소스를 활용한 모니터링 (02:30:40)</t>
+          <t>Ch 05. 오픈 소스를 활용한 모니터링</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10573,7 +10573,7 @@
     <row r="378">
       <c r="B378" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. SaaS를 활용한 모니터링 (01:01:43)</t>
+          <t>Ch 06. SaaS를 활용한 모니터링</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10626,7 +10626,7 @@
     <row r="382">
       <c r="B382" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 모니터링 알람과 자동화 (46:34)</t>
+          <t>Ch 07. 모니터링 알람과 자동화</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10667,12 +10667,12 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Part 8. AWS 보안 (07:14:27)</t>
+          <t>Part 8. AWS 보안</t>
         </is>
       </c>
       <c r="B385" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. AWS 보안 Overview (21:44)</t>
+          <t>Ch 01. AWS 보안 Overview</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10725,7 +10725,7 @@
     <row r="389">
       <c r="B389" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. AWS 접근제어  (02:33:43)</t>
+          <t xml:space="preserve">Ch 02. AWS 접근제어 </t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10826,7 +10826,7 @@
     <row r="397">
       <c r="B397" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. AWS 네트워크 보안 (01:25:41)</t>
+          <t>Ch 03. AWS 네트워크 보안</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10891,7 +10891,7 @@
     <row r="402">
       <c r="B402" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. AWS 보안 탐지 및 자동화 (02:18:40)</t>
+          <t>Ch 04. AWS 보안 탐지 및 자동화</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10992,7 +10992,7 @@
     <row r="410">
       <c r="B410" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. DevSecOps on AWS  (34:39)</t>
+          <t xml:space="preserve">Ch 05. DevSecOps on AWS </t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11033,12 +11033,12 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Special 1. AWS 마이그레이션 (04:27:35)</t>
+          <t>Special 1. AWS 마이그레이션</t>
         </is>
       </c>
       <c r="B413" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. AWS Migration 전략 (28:10)</t>
+          <t>Ch 01. AWS Migration 전략</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11079,7 +11079,7 @@
     <row r="416">
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. aws 마이그레이션 서비스 소개 및 실습 (03:59:25)</t>
+          <t>Ch 02. aws 마이그레이션 서비스 소개 및 실습</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11156,12 +11156,12 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Special 2. 트러블 슈팅 (04:15:16)</t>
+          <t>Special 2. 트러블 슈팅</t>
         </is>
       </c>
       <c r="B422" s="1" t="inlineStr">
         <is>
-          <t>Ch 00. 오리엔테이션 (03:19)</t>
+          <t>Ch 00. 오리엔테이션</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11178,7 +11178,7 @@
     <row r="423">
       <c r="B423" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 서비스 에러 분석 (54:49)</t>
+          <t>Ch 01. 서비스 에러 분석</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11231,7 +11231,7 @@
     <row r="427">
       <c r="B427" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. EC2 장애 분석 (52:30)</t>
+          <t>Ch 02. EC2 장애 분석</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11272,7 +11272,7 @@
     <row r="430">
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. EKS 장애 분석 (01:22:45)</t>
+          <t>Ch 03. EKS 장애 분석</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11337,7 +11337,7 @@
     <row r="435">
       <c r="B435" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 마이그레이션 에러 (13:58)</t>
+          <t>Ch 04. 마이그레이션 에러</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11366,7 +11366,7 @@
     <row r="437">
       <c r="B437" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 사례분석 (47:55)</t>
+          <t>Ch 05. 사례분석</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11395,12 +11395,12 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Certified. AWS 자격증 2종 공략하기 (SAA, SAP) (03:22:11)</t>
+          <t>Certified. AWS 자격증 2종 공략하기 (SAA, SAP)</t>
         </is>
       </c>
       <c r="B439" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 보안 아키텍처 설계 (57:25)</t>
+          <t>Ch 01. 보안 아키텍처 설계</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11489,7 +11489,7 @@
     <row r="446">
       <c r="B446" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 복원력을 갖춘 아키텍처 설계 (55:37)</t>
+          <t>Ch 02. 복원력을 갖춘 아키텍처 설계</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -11590,7 +11590,7 @@
     <row r="454">
       <c r="B454" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 고성능 아키텍처 설계 (52:01)</t>
+          <t>Ch 03. 고성능 아키텍처 설계</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -11691,7 +11691,7 @@
     <row r="462">
       <c r="B462" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 비용에 최적화된 아키텍처 설계 (35:42)</t>
+          <t>Ch 04. 비용에 최적화된 아키텍처 설계</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -11894,10 +11894,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="65" customWidth="1" min="1" max="1"/>
-    <col width="52" customWidth="1" min="2" max="2"/>
-    <col width="53" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="49" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11925,12 +11925,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 비전공자도 할 수 있는 왕초보 통계, 엑셀 데이터 탐색 시작하기 (01:27:16)</t>
+          <t>Part 1. 비전공자도 할 수 있는 왕초보 통계, 엑셀 데이터 탐색 시작하기</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 비전공자도 기본적인 통계 기초가 필요한 이유 (30:16)</t>
+          <t>Ch 01. 비전공자도 기본적인 통계 기초가 필요한 이유</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11971,7 +11971,7 @@
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 데이터 분석 단계 및 탐색적 데이터 분석(EDA) (22:11)</t>
+          <t>Ch 02. 데이터 분석 단계 및 탐색적 데이터 분석(EDA)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 무작정 따라 하는 엑셀 데이터 탐색 실습 (34:49)</t>
+          <t>Ch 03. 무작정 따라 하는 엑셀 데이터 탐색 실습</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12041,12 +12041,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 비전공자도 엑셀만 알아도 시작할 수 있는 데이터 탐색 (01:37:24)</t>
+          <t>Part 2. 비전공자도 엑셀만 알아도 시작할 수 있는 데이터 탐색</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 데이터 탐색 사례 (38:43)</t>
+          <t>Ch 01. 데이터 탐색 사례</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12111,7 +12111,7 @@
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 데이터 탐색과 통계 필요성 (15:25)</t>
+          <t>Ch 02. 데이터 탐색과 통계 필요성</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12128,7 +12128,7 @@
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 차트로 엑셀 데이터 쉽게 탐색하기 (43:16)</t>
+          <t>Ch 03. 차트로 엑셀 데이터 쉽게 탐색하기</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12169,12 +12169,12 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 비전공자를 위한 왕초보 기초 통계(고등학교 통계부터 기술통계까지) (03:35:47)</t>
+          <t>Part 3. 비전공자를 위한 왕초보 기초 통계(고등학교 통계부터 기술통계까지)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 왕초보 고등학교 기초통계 (02:13:07)</t>
+          <t>Ch 01. 왕초보 고등학교 기초통계</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12287,7 +12287,7 @@
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 기술통계 (56:25)</t>
+          <t>Ch 02. 기술통계</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -12352,7 +12352,7 @@
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 회귀분석, 공분산, 상관계수 (26:15)</t>
+          <t>Ch 03. 회귀분석, 공분산, 상관계수</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -12393,12 +12393,12 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 기술통계 기초 개념을 엑셀 데이터 탐색에 적용해 보기 (01:11:22)</t>
+          <t>Part 4. 기술통계 기초 개념을 엑셀 데이터 탐색에 적용해 보기</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 대표값으로 데이터 분포 파악하기 (24:06)</t>
+          <t>Ch 01. 대표값으로 데이터 분포 파악하기</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -12439,7 +12439,7 @@
     <row r="39">
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 이상치 탐지 (26:45)</t>
+          <t>Ch 02. 이상치 탐지</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -12480,7 +12480,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 두 변수의 상관관계 분석하기 (20:31)</t>
+          <t>Ch 03. 두 변수의 상관관계 분석하기</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -12509,12 +12509,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 추론통계 맛보기와 공공데이터 셋 탐색해보기 (02:18:33)</t>
+          <t>Part 5. 추론통계 맛보기와 공공데이터 셋 탐색해보기</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 추론통계 맛보기 (01:24:10)</t>
+          <t>Ch 01. 추론통계 맛보기</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -12603,7 +12603,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 중심극한정리  (15:58)</t>
+          <t xml:space="preserve">Ch 02. 중심극한정리 </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -12620,7 +12620,7 @@
     <row r="52">
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 분포의 모양과 추론통계 (10:02)</t>
+          <t>Ch 03. 분포의 모양과 추론통계</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -12637,7 +12637,7 @@
     <row r="53">
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 공공 데이터 셋 탐색 하기 (28:23)</t>
+          <t>Ch 04. 공공 데이터 셋 탐색 하기</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12705,10 +12705,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
-    <col width="79" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="74" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12736,12 +12736,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 프로그래밍 기초 (14:52:29)</t>
+          <t>Part 1. 프로그래밍 기초</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch01. Python 개요 (35:30)</t>
+          <t>Ch01. Python 개요</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12782,7 +12782,7 @@
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Python의 자료형 (01:31:35)</t>
+          <t>Ch02. Python의 자료형</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12859,7 +12859,7 @@
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 제어문 (01:06:51)</t>
+          <t>Ch03. 제어문</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12924,7 +12924,7 @@
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 함수 및 변수 (41:42)</t>
+          <t>Ch04. 함수 및 변수</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12965,7 +12965,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 함수 심화학습 (44:06)</t>
+          <t>Ch05. 함수 심화학습</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -13042,7 +13042,7 @@
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 클래스 (01:13:31)</t>
+          <t>Ch06. 클래스</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -13107,7 +13107,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 상속과 예외처리 (44:28)</t>
+          <t>Ch07. 상속과 예외처리</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -13160,7 +13160,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 파일 입/출력 (49:42)</t>
+          <t>Ch08. 파일 입/출력</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -13201,7 +13201,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 병렬처리 (01:04:55)</t>
+          <t>Ch09. 병렬처리</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -13230,7 +13230,7 @@
     <row r="39">
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Ch10. DB 연동과 정규식 (01:16:58)</t>
+          <t>Ch10. DB 연동과 정규식</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -13271,7 +13271,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch11. numpy와 pandas (01:17:56)</t>
+          <t>Ch11. numpy와 pandas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -13300,7 +13300,7 @@
     <row r="44">
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ch12. (추가강의) Rest API와 Flask (54:19)</t>
+          <t>Ch12. (추가강의) Rest API와 Flask</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -13329,7 +13329,7 @@
     <row r="46">
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Ch13. (추가강의) 파이썬의 속도 문제에 대해 (01:13:17)</t>
+          <t>Ch13. (추가강의) 파이썬의 속도 문제에 대해</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -13358,7 +13358,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Ch14. (추가강의) 파이썬 수업 총정리 (01:37:39)</t>
+          <t>Ch14. (추가강의) 파이썬 수업 총정리</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -13399,12 +13399,12 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 이산수학 (08:33:55)</t>
+          <t>Part 2. 이산수학</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 집합과 논리 (49:55)</t>
+          <t>Ch01. 집합과 논리</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -13445,7 +13445,7 @@
     <row r="54">
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 증명 (44:29)</t>
+          <t>Ch02. 증명</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -13486,7 +13486,7 @@
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 함수, 수열과 관계 (47:50)</t>
+          <t>Ch03. 함수, 수열과 관계</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -13527,7 +13527,7 @@
     <row r="60">
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 알고리즘 (47:02)</t>
+          <t>Ch04. 알고리즘</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -13568,7 +13568,7 @@
     <row r="63">
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 정수론 소개 (59:26)</t>
+          <t>Ch05. 정수론 소개</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -13609,7 +13609,7 @@
     <row r="66">
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 경우의 수 세기와 비둘기집의 원리 (35:58)</t>
+          <t>Ch06. 경우의 수 세기와 비둘기집의 원리</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13662,7 +13662,7 @@
     <row r="70">
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 점화 관계 (38:56)</t>
+          <t>Ch07. 점화 관계</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -13691,7 +13691,7 @@
     <row r="72">
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 그래프론 (53:48)</t>
+          <t>Ch08. 그래프론</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13732,7 +13732,7 @@
     <row r="75">
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 트리 (39:06)</t>
+          <t>Ch09. 트리</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -13785,7 +13785,7 @@
     <row r="79">
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 네트워크 모델 (25:22)</t>
+          <t>Ch10. 네트워크 모델</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -13814,7 +13814,7 @@
     <row r="81">
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 부울대수와 조합논리 (22:20)</t>
+          <t>Ch11. 부울대수와 조합논리</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -13843,7 +13843,7 @@
     <row r="83">
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Ch12. 형식 언어와 오토마타 (49:43)</t>
+          <t>Ch12. 형식 언어와 오토마타</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -13884,12 +13884,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 미적분 (06:20:04)</t>
+          <t>Part 3. 미적분</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 수열과 급수 (56:54)</t>
+          <t>Ch01. 수열과 급수</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -13942,7 +13942,7 @@
     <row r="90">
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 함수 (51:17)</t>
+          <t>Ch02. 함수</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -14019,7 +14019,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 미분법 (48:45)</t>
+          <t>Ch03. 미분법</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -14096,7 +14096,7 @@
     <row r="102">
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 도함수의 활용 (53:14)</t>
+          <t>Ch04. 도함수의 활용</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -14161,7 +14161,7 @@
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 적분법 (50:42)</t>
+          <t>Ch05. 적분법</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="112">
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 좌표공간과 벡터 (55:20)</t>
+          <t>Ch06. 좌표공간과 벡터</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14291,7 +14291,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 다변수 함수와 편미분 (01:03:52)</t>
+          <t>Ch07. 다변수 함수와 편미분</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -14368,12 +14368,12 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 컴퓨터 네트워크 (09:59:39)</t>
+          <t>Part 4. 컴퓨터 네트워크</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 컴퓨터 네트워크와 인터넷 (58:05)</t>
+          <t>Ch01. 컴퓨터 네트워크와 인터넷</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14450,7 +14450,7 @@
     <row r="129">
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 네트워크 계층별 역할 (04:46:37)</t>
+          <t>Ch02. 네트워크 계층별 역할</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14707,7 +14707,7 @@
     <row r="150">
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 네트워크 응용 (01:31:07)</t>
+          <t>Ch03. 네트워크 응용</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -14808,7 +14808,7 @@
     <row r="158">
       <c r="B158" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 네트워크 프로그래밍 사례  (02:43:50)</t>
+          <t xml:space="preserve">Ch04. 네트워크 프로그래밍 사례 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -14981,12 +14981,12 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 컴퓨터 구조 (08:43:44)</t>
+          <t>Part 5. 컴퓨터 구조</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 컴퓨터 시스템 개요 (47:58)</t>
+          <t>Ch01. 컴퓨터 시스템 개요</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -15051,7 +15051,7 @@
     <row r="177">
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>Ch02. CPU의 구조와 기능 (01:07:41)</t>
+          <t>Ch02. CPU의 구조와 기능</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -15128,7 +15128,7 @@
     <row r="183">
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 기억장치 (49:31)</t>
+          <t>Ch03. 기억장치</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -15181,7 +15181,7 @@
     <row r="187">
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 보조저장장치 (02:11:53)</t>
+          <t>Ch04. 보조저장장치</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -15246,7 +15246,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 시스템 버스 및 I/O 인터페이스 (01:25:21)</t>
+          <t>Ch05. 시스템 버스 및 I/O 인터페이스</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -15311,7 +15311,7 @@
     <row r="197">
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 고성능 컴퓨터시스템 구조 (01:38:21)</t>
+          <t>Ch06. 고성능 컴퓨터시스템 구조</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -15364,7 +15364,7 @@
     <row r="201">
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 컴퓨터시스템의 확장 (42:59)</t>
+          <t>Ch07. 컴퓨터시스템의 확장</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -15393,12 +15393,12 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Part 6. 자료구조 및 알고리즘 (09:58:39)</t>
+          <t>Part 6. 자료구조 및 알고리즘</t>
         </is>
       </c>
       <c r="B203" s="1" t="inlineStr">
         <is>
-          <t>Ch00. OT (07:59)</t>
+          <t>Ch00. OT</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -15415,7 +15415,7 @@
     <row r="204">
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 자료구조 기초 (22:36)</t>
+          <t>Ch01. 자료구조 기초</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -15456,7 +15456,7 @@
     <row r="207">
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 리스트 (01:35:00)</t>
+          <t>Ch02. 리스트</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -15581,7 +15581,7 @@
     <row r="217">
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 스택 (22:39)</t>
+          <t>Ch03. 스택</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -15622,7 +15622,7 @@
     <row r="220">
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 큐 (32:02)</t>
+          <t>Ch04. 큐</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -15687,7 +15687,7 @@
     <row r="225">
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 해시 (39:19)</t>
+          <t>Ch05. 해시</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="228">
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 정렬 (54:30)</t>
+          <t>Ch06. 정렬</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -15793,7 +15793,7 @@
     <row r="233">
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 트리 (01:20:21)</t>
+          <t>Ch07. 트리</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -15894,7 +15894,7 @@
     <row r="241">
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 힙 (40:22)</t>
+          <t>Ch08. 힙</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -15947,7 +15947,7 @@
     <row r="245">
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 그래프 (01:32:35)</t>
+          <t>Ch09. 그래프</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -16072,7 +16072,7 @@
     <row r="255">
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 알고리즘 (01:12:20)</t>
+          <t>Ch10. 알고리즘</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -16197,7 +16197,7 @@
     <row r="265">
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>Ch11. (추가강의) LRU (38:56)</t>
+          <t>Ch11. (추가강의) LRU</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -16238,12 +16238,12 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Part 7. 객체지향 프로그래밍 (08:42:15)</t>
+          <t>Part 7. 객체지향 프로그래밍</t>
         </is>
       </c>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 객체지향이란 무엇인가요? (42:17)</t>
+          <t>Ch01. 객체지향이란 무엇인가요?</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -16284,7 +16284,7 @@
     <row r="271">
       <c r="B271" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 객체지향을 이해하기 위한 요소 (03:39:18)</t>
+          <t>Ch02. 객체지향을 이해하기 위한 요소</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -16493,7 +16493,7 @@
     <row r="288">
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 객체지향을 위한 언어의 이해 (02:08:06)</t>
+          <t>Ch03. 객체지향을 위한 언어의 이해</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -16630,7 +16630,7 @@
     <row r="299">
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 객체지향 프로그래밍 심화 (02:12:34)</t>
+          <t>Ch04. 객체지향 프로그래밍 심화</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -16791,12 +16791,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Part 8. 운영체제 (08:51:05)</t>
+          <t>Part 8. 운영체제</t>
         </is>
       </c>
       <c r="B312" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 운영체제 개요 (44:45)</t>
+          <t>Ch01. 운영체제 개요</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -16861,7 +16861,7 @@
     <row r="317">
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 운영체제 구조 (27:49)</t>
+          <t>Ch02. 운영체제 구조</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -16902,7 +16902,7 @@
     <row r="320">
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 프로세스 관리 (01:40:39)</t>
+          <t>Ch03. 프로세스 관리</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -17003,7 +17003,7 @@
     <row r="328">
       <c r="B328" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 스레드와 동시성 (27:04)</t>
+          <t>Ch04. 스레드와 동시성</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -17056,7 +17056,7 @@
     <row r="332">
       <c r="B332" s="1" t="inlineStr">
         <is>
-          <t>Ch05. CPU 스케쥴링 (01:12:39)</t>
+          <t>Ch05. CPU 스케쥴링</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -17121,7 +17121,7 @@
     <row r="337">
       <c r="B337" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 프로세스 동기화 (59:45)</t>
+          <t>Ch06. 프로세스 동기화</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -17186,7 +17186,7 @@
     <row r="342">
       <c r="B342" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 메인 메모리 / 가상 메모리 (02:04:18)</t>
+          <t>Ch07. 메인 메모리 / 가상 메모리</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -17287,7 +17287,7 @@
     <row r="350">
       <c r="B350" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 대용량 저장장치 구조 (53:47)</t>
+          <t>Ch08. 대용량 저장장치 구조</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17340,7 +17340,7 @@
     <row r="354">
       <c r="B354" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 보호와 보안 (20:19)</t>
+          <t>Ch09. 보호와 보안</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17381,12 +17381,12 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Part 9. 확률 및 통계 (10:08:16)</t>
+          <t>Part 9. 확률 및 통계</t>
         </is>
       </c>
       <c r="B357" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 데이터 (22:20)</t>
+          <t>Ch01. 데이터</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17427,7 +17427,7 @@
     <row r="360">
       <c r="B360" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 1차원 데이터 분석 (01:14:02)</t>
+          <t>Ch02. 1차원 데이터 분석</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17480,7 +17480,7 @@
     <row r="364">
       <c r="B364" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 2차원 데이터 분석 (38:44)</t>
+          <t>Ch03. 2차원 데이터 분석</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17521,7 +17521,7 @@
     <row r="367">
       <c r="B367" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 확률 및 통계 (45:22)</t>
+          <t>Ch04. 확률 및 통계</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17574,7 +17574,7 @@
     <row r="371">
       <c r="B371" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 이산 확률 변수 (48:18)</t>
+          <t>Ch05. 이산 확률 변수</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -17627,7 +17627,7 @@
     <row r="375">
       <c r="B375" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 이산 확률 분포 (37:04)</t>
+          <t>Ch06. 이산 확률 분포</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -17680,7 +17680,7 @@
     <row r="379">
       <c r="B379" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 연속 확률 변수 (55:48)</t>
+          <t>Ch07. 연속 확률 변수</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -17733,7 +17733,7 @@
     <row r="383">
       <c r="B383" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 연속 확률 분포 (45:21)</t>
+          <t>Ch08. 연속 확률 분포</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -17798,7 +17798,7 @@
     <row r="388">
       <c r="B388" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 독립성 (43:33)</t>
+          <t>Ch09. 독립성</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -17839,7 +17839,7 @@
     <row r="391">
       <c r="B391" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 점 추정 &amp; 구간 추정 (45:24)</t>
+          <t>Ch10. 점 추정 &amp; 구간 추정</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -17916,7 +17916,7 @@
     <row r="397">
       <c r="B397" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 가설 검정 (01:00:19)</t>
+          <t>Ch11. 가설 검정</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -18029,7 +18029,7 @@
     <row r="406">
       <c r="B406" s="1" t="inlineStr">
         <is>
-          <t>Ch12. 회귀 분석 (01:32:01)</t>
+          <t>Ch12. 회귀 분석</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -18082,12 +18082,12 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Part 10. 데이터베이스 (08:05:13)</t>
+          <t>Part 10. 데이터베이스</t>
         </is>
       </c>
       <c r="B410" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 데이터베이스 기본 개념 (47:14)</t>
+          <t>Ch01. 데이터베이스 기본 개념</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -18140,7 +18140,7 @@
     <row r="414">
       <c r="B414" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 관계형 데이터 모델 (46:22)</t>
+          <t>Ch02. 관계형 데이터 모델</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -18193,7 +18193,7 @@
     <row r="418">
       <c r="B418" s="1" t="inlineStr">
         <is>
-          <t>Ch03. SQL 데이터베이스 언어 (01:02:29)</t>
+          <t>Ch03. SQL 데이터베이스 언어</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -18246,7 +18246,7 @@
     <row r="422">
       <c r="B422" s="1" t="inlineStr">
         <is>
-          <t>Ch04. SQL 심화 (54:19)</t>
+          <t>Ch04. SQL 심화</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -18299,7 +18299,7 @@
     <row r="426">
       <c r="B426" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 데이터베이스 설계 (ER 다이어그램) (37:14)</t>
+          <t>Ch05. 데이터베이스 설계 (ER 다이어그램)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -18352,7 +18352,7 @@
     <row r="430">
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 데이터베이스 설계 (정규화) (42:34)</t>
+          <t>Ch06. 데이터베이스 설계 (정규화)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -18405,7 +18405,7 @@
     <row r="434">
       <c r="B434" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 트랜잭션 시스템 (51:53)</t>
+          <t>Ch07. 트랜잭션 시스템</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -18458,7 +18458,7 @@
     <row r="438">
       <c r="B438" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 스토리지와 인덱스 (47:33)</t>
+          <t>Ch08. 스토리지와 인덱스</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -18511,7 +18511,7 @@
     <row r="442">
       <c r="B442" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 쿼리 프로세싱과 최적화 (40:55)</t>
+          <t>Ch09. 쿼리 프로세싱과 최적화</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -18564,7 +18564,7 @@
     <row r="446">
       <c r="B446" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 데이터베이스 최신 기술 (54:40)</t>
+          <t>Ch10. 데이터베이스 최신 기술</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -18617,12 +18617,12 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Part 11. 시스템 프로그래밍 (11:06:15)</t>
+          <t>Part 11. 시스템 프로그래밍</t>
         </is>
       </c>
       <c r="B450" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 시스템 프로그래밍 소개 (02:51:07)</t>
+          <t>Ch01. 시스템 프로그래밍 소개</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -18771,7 +18771,7 @@
     <row r="462">
       <c r="B462" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 파일 입출력 시스템 (02:09:02)</t>
+          <t>Ch02. 파일 입출력 시스템</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -18896,7 +18896,7 @@
     <row r="472">
       <c r="B472" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 프로세스와 스레드 (02:03:59)</t>
+          <t>Ch03. 프로세스와 스레드</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -19009,7 +19009,7 @@
     <row r="481">
       <c r="B481" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 프로세스 간 통신 (04:02:07)</t>
+          <t>Ch04. 프로세스 간 통신</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -19194,12 +19194,12 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Part 12. 선형대수학 (05:25:37)</t>
+          <t>Part 12. 선형대수학</t>
         </is>
       </c>
       <c r="B496" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 행렬과 가우스 소거법 (01:23:59)</t>
+          <t>Ch01. 행렬과 가우스 소거법</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -19264,7 +19264,7 @@
     <row r="501">
       <c r="B501" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 벡터 공간 (01:12:11)</t>
+          <t>Ch02. 벡터 공간</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -19341,7 +19341,7 @@
     <row r="507">
       <c r="B507" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 직교성 (01:03:33)</t>
+          <t>Ch03. 직교성</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -19406,7 +19406,7 @@
     <row r="512">
       <c r="B512" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 행렬식 (44:54)</t>
+          <t>Ch04. 행렬식</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -19459,7 +19459,7 @@
     <row r="516">
       <c r="B516" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 고유값과 고유벡터 (44:45)</t>
+          <t>Ch05. 고유값과 고유벡터</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -19512,7 +19512,7 @@
     <row r="520">
       <c r="B520" s="1" t="inlineStr">
         <is>
-          <t>Ch06. (심화학습) 행렬과 추천 시스템 (16:15)</t>
+          <t>Ch06. (심화학습) 행렬과 추천 시스템</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -19553,12 +19553,12 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Part 13. 인공지능 (06:15:22)</t>
+          <t>Part 13. 인공지능</t>
         </is>
       </c>
       <c r="B523" s="1" t="inlineStr">
         <is>
-          <t>Ch00. OT (02:14)</t>
+          <t>Ch00. OT</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -19575,7 +19575,7 @@
     <row r="524">
       <c r="B524" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 인공지능이란 (30:04)</t>
+          <t>Ch01. 인공지능이란</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -19628,7 +19628,7 @@
     <row r="528">
       <c r="B528" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 인공지능 역사 (30:12)</t>
+          <t>Ch02. 인공지능 역사</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -19681,7 +19681,7 @@
     <row r="532">
       <c r="B532" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 머신러닝 (29:02)</t>
+          <t>Ch03. 머신러닝</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -19734,7 +19734,7 @@
     <row r="536">
       <c r="B536" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 머신러닝 개요 (29:02)</t>
+          <t>Ch04. 머신러닝 개요</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -19775,7 +19775,7 @@
     <row r="539">
       <c r="B539" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 머신러닝 분류 (14:25)</t>
+          <t>Ch05. 머신러닝 분류</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -19840,7 +19840,7 @@
     <row r="544">
       <c r="B544" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 머신러닝 알고리즘 활용 변천사 (30:31)</t>
+          <t>Ch06. 머신러닝 알고리즘 활용 변천사</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -19917,7 +19917,7 @@
     <row r="550">
       <c r="B550" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 딥러닝 (29:32)</t>
+          <t>Ch07. 딥러닝</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19958,7 +19958,7 @@
     <row r="553">
       <c r="B553" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 딥러닝 개요 (42:32)</t>
+          <t>Ch08. 딥러닝 개요</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -20023,7 +20023,7 @@
     <row r="558">
       <c r="B558" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 심층신경망 (43:39)</t>
+          <t>Ch09. 심층신경망</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -20088,7 +20088,7 @@
     <row r="563">
       <c r="B563" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 딥러닝 프레임워크 활용 (32:36)</t>
+          <t>Ch10. 딥러닝 프레임워크 활용</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -20141,7 +20141,7 @@
     <row r="567">
       <c r="B567" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 업계 추천 내용 (01:01:33)</t>
+          <t>Ch11. 업계 추천 내용</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -20194,12 +20194,12 @@
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>Part 14. 머신러닝 심화 (08:30:33)</t>
+          <t>Part 14. 머신러닝 심화</t>
         </is>
       </c>
       <c r="B571" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 머신러닝과 그 사례 (01:12:38)</t>
+          <t>Ch01. 머신러닝과 그 사례</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -20276,7 +20276,7 @@
     <row r="577">
       <c r="B577" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 머신러닝 프로세스 (54:35)</t>
+          <t>Ch02. 머신러닝 프로세스</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -20365,7 +20365,7 @@
     <row r="584">
       <c r="B584" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 분류 모형 (52:55)</t>
+          <t>Ch03. 분류 모형</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20418,7 +20418,7 @@
     <row r="588">
       <c r="B588" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 모형 학습 기초 (01:31:56)</t>
+          <t>Ch04. 모형 학습 기초</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20495,7 +20495,7 @@
     <row r="594">
       <c r="B594" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 서포트 벡터 머신 모형 (27:29)</t>
+          <t>Ch05. 서포트 벡터 머신 모형</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20536,7 +20536,7 @@
     <row r="597">
       <c r="B597" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 결정 트리 모형 (27:04)</t>
+          <t>Ch06. 결정 트리 모형</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20625,7 +20625,7 @@
     <row r="604">
       <c r="B604" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 앙상블 학습 및 랜덤 포레스트 (01:00:31)</t>
+          <t>Ch07. 앙상블 학습 및 랜덤 포레스트</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20690,7 +20690,7 @@
     <row r="609">
       <c r="B609" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 차원 축소 (43:36)</t>
+          <t>Ch08. 차원 축소</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -20731,7 +20731,7 @@
     <row r="612">
       <c r="B612" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 비지도 학습 (36:20)</t>
+          <t>Ch09. 비지도 학습</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -20760,7 +20760,7 @@
     <row r="614">
       <c r="B614" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 분석에 도움되는 꿀팁 (43:29)</t>
+          <t>Ch10. 분석에 도움되는 꿀팁</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -20801,12 +20801,12 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>Part 15. 딥러닝 심화 (07:25:06)</t>
+          <t>Part 15. 딥러닝 심화</t>
         </is>
       </c>
       <c r="B617" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 인공 신경망 (01:08:29)</t>
+          <t>Ch01. 인공 신경망</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -20859,7 +20859,7 @@
     <row r="621">
       <c r="B621" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 심층 신경망 훈련 (42:43)</t>
+          <t>Ch02. 심층 신경망 훈련</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -20912,7 +20912,7 @@
     <row r="625">
       <c r="B625" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 모델 정의 및 훈련 (50:12)</t>
+          <t>Ch03. 모델 정의 및 훈련</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -20965,7 +20965,7 @@
     <row r="629">
       <c r="B629" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 데이터 적재 및 전처리 (19:56)</t>
+          <t>Ch04. 데이터 적재 및 전처리</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21018,7 +21018,7 @@
     <row r="633">
       <c r="B633" s="1" t="inlineStr">
         <is>
-          <t>Ch05. CNN &amp; 컴퓨터 비전 (01:14:59)</t>
+          <t>Ch05. CNN &amp; 컴퓨터 비전</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21071,7 +21071,7 @@
     <row r="637">
       <c r="B637" s="1" t="inlineStr">
         <is>
-          <t>Ch06. RNN &amp; 시계열 분석 (42:31)</t>
+          <t>Ch06. RNN &amp; 시계열 분석</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -21124,7 +21124,7 @@
     <row r="641">
       <c r="B641" s="1" t="inlineStr">
         <is>
-          <t>Ch07. RNN &amp; 자연어 처리 (24:04)</t>
+          <t>Ch07. RNN &amp; 자연어 처리</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -21177,7 +21177,7 @@
     <row r="645">
       <c r="B645" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 오토인코더와 GAN (53:04)</t>
+          <t>Ch08. 오토인코더와 GAN</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -21230,7 +21230,7 @@
     <row r="649">
       <c r="B649" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 강화학습 (39:00)</t>
+          <t>Ch09. 강화학습</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -21307,7 +21307,7 @@
     <row r="655">
       <c r="B655" s="1" t="inlineStr">
         <is>
-          <t>Ch10. XAI (30:08)</t>
+          <t>Ch10. XAI</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -21502,10 +21502,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="46" customWidth="1" min="1" max="1"/>
-    <col width="57" customWidth="1" min="2" max="2"/>
-    <col width="68" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="63" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21533,12 +21533,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part.1 데이터사이언스 기초 (07:10:27)</t>
+          <t>Part.1 데이터사이언스 기초</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Pre-Chapter. 강의를 보기 전에 알아야할 것 (38:40)</t>
+          <t>Pre-Chapter. 강의를 보기 전에 알아야할 것</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -21579,7 +21579,7 @@
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 데이터 사이언스란? (01:41:40)</t>
+          <t>Chapter.01 데이터 사이언스란?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -21632,7 +21632,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 데이터 엔지니어링이란? (01:54:25)</t>
+          <t>Chapter.02 데이터 엔지니어링이란?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -21697,7 +21697,7 @@
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 Machine Learning Workflow (02:55:42)</t>
+          <t>Chapter.03 Machine Learning Workflow</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -21786,12 +21786,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Part.2 데이터 엔지니어링 with SQL (23:27:45)</t>
+          <t>Part.2 데이터 엔지니어링 with SQL</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 공공 데이터 소개 및 다운로드 (01:09:02)</t>
+          <t>Chapter.01 공공 데이터 소개 및 다운로드</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -21856,7 +21856,7 @@
     <row r="26">
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 데이터 모델링 이론 및 실습 (02:28:36)</t>
+          <t>Chapter.02 데이터 모델링 이론 및 실습</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -21969,7 +21969,7 @@
     <row r="35">
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 데이터 모델링 (55:08)</t>
+          <t>Chapter.03 데이터 모델링</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -22058,7 +22058,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 데이터베이스 실습 환경 구축 (01:21:06)</t>
+          <t>Chapter.04 데이터베이스 실습 환경 구축</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -22135,7 +22135,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 SQL 기초 (02:04:22)</t>
+          <t>Chapter.05 SQL 기초</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -22272,7 +22272,7 @@
     <row r="59">
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Chapter.06 SQL 기본 (02:24:27)</t>
+          <t>Chapter.06 SQL 기본</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -22481,7 +22481,7 @@
     <row r="76">
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Chapter.07 SQL 중급 (02:59:16)</t>
+          <t>Chapter.07 SQL 중급</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -22726,7 +22726,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Chapter.08 SQL 고급 (03:16:29)</t>
+          <t>Chapter.08 SQL 고급</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -22983,7 +22983,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Chapter.09 데이터베이스 구축 (03:56:19)</t>
+          <t>Chapter.09 데이터베이스 구축</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23240,7 +23240,7 @@
     <row r="138">
       <c r="B138" s="1" t="inlineStr">
         <is>
-          <t>Chapter.10 카카오 API를 이용한 경도 및 위도값 가져오기 (55:16)</t>
+          <t>Chapter.10 카카오 API를 이용한 경도 및 위도값 가져오기</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -23329,7 +23329,7 @@
     <row r="145">
       <c r="B145" s="1" t="inlineStr">
         <is>
-          <t>Chapter.11 데이터베이스 활용 (01:57:44)</t>
+          <t>Chapter.11 데이터베이스 활용</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -23478,12 +23478,12 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Part.3 파이썬 기초와 데이터분석 (12:24:37)</t>
+          <t>Part.3 파이썬 기초와 데이터분석</t>
         </is>
       </c>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 파이썬 프로그래밍 (05:54:36)</t>
+          <t>Chapter.01 파이썬 프로그래밍</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -23668,7 +23668,7 @@
     <row r="172">
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 데이터 분석 라이브러리 (03:29:08)</t>
+          <t>Chapter.02 데이터 분석 라이브러리</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -23781,7 +23781,7 @@
     <row r="181">
       <c r="B181" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 탐색적 데이터 분석 (03:00:53)</t>
+          <t>Chapter.03 탐색적 데이터 분석</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -23834,12 +23834,12 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Part.4 머신러닝 with Python (09:41:47)</t>
+          <t>Part.4 머신러닝 with Python</t>
         </is>
       </c>
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 머신러닝 기초 개념 (02:03:50)</t>
+          <t>Chapter.01 머신러닝 기초 개념</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -23928,7 +23928,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 Machine Learning Workflow (37:32)</t>
+          <t>Chapter.02 Machine Learning Workflow</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -23957,7 +23957,7 @@
     <row r="194">
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 Classification (02:42:38)</t>
+          <t>Chapter.03 Classification</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -24034,7 +24034,7 @@
     <row r="200">
       <c r="B200" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 Regression (01:23:11)</t>
+          <t>Chapter.04 Regression</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -24111,7 +24111,7 @@
     <row r="206">
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>Chapter.05 Clustering (02:23:11)</t>
+          <t>Chapter.05 Clustering</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="212">
       <c r="B212" s="1" t="inlineStr">
         <is>
-          <t>Chapter.06 실전 머신러닝 프로젝트 (31:25)</t>
+          <t>Chapter.06 실전 머신러닝 프로젝트</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24217,12 +24217,12 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Part.5 딥러닝 with Python (05:12:42)</t>
+          <t>Part.5 딥러닝 with Python</t>
         </is>
       </c>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>Chapter.01 딥러닝 기초 개념 (01:28:32)</t>
+          <t>Chapter.01 딥러닝 기초 개념</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24299,7 +24299,7 @@
     <row r="220">
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>Chapter.02 Deep Learning Workflow (15:21)</t>
+          <t>Chapter.02 Deep Learning Workflow</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -24328,7 +24328,7 @@
     <row r="222">
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Chapter.03 딥러닝 핵심 알고리즘 (01:36:05)</t>
+          <t>Chapter.03 딥러닝 핵심 알고리즘</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -24417,7 +24417,7 @@
     <row r="229">
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>Chapter.04 실전 딥러닝 프로젝트 (01:20:48)</t>
+          <t>Chapter.04 실전 딥러닝 프로젝트</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24514,10 +24514,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="66" customWidth="1" min="1" max="1"/>
-    <col width="68" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24545,12 +24545,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 파이썬 라이브러리를 활용한 기초 프로젝트 (11:44:59)</t>
+          <t>Part 1. 파이썬 라이브러리를 활용한 기초 프로젝트</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 파이썬 라이브러리의 이해 (01:46:29)</t>
+          <t>Ch01. 파이썬 라이브러리의 이해</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -24651,7 +24651,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch02. [텍스트] 뉴스 기사 3줄 요약하기 (01:16:25)</t>
+          <t>Ch02. [텍스트] 뉴스 기사 3줄 요약하기</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -24740,7 +24740,7 @@
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Ch03. [날짜] 파이썬으로 달력 만들기 (43:40)</t>
+          <t>Ch03. [날짜] 파이썬으로 달력 만들기</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -24817,7 +24817,7 @@
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Ch04. [파일/디렉터리] 업무효율 향상을 위한 폴더 관리 프로그램 만들기 (01:23:22)</t>
+          <t>Ch04. [파일/디렉터리] 업무효율 향상을 위한 폴더 관리 프로그램 만들기</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -24894,7 +24894,7 @@
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Ch05. [데이터베이스] 쇼핑몰 데이터베이스 만들기 (01:06:18)</t>
+          <t>Ch05. [데이터베이스] 쇼핑몰 데이터베이스 만들기</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -24983,7 +24983,7 @@
     <row r="36">
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Ch06. [암호화] 개인정보는 소중해, 메세지 변조 탐지기 만들기 (47:29)</t>
+          <t>Ch06. [암호화] 개인정보는 소중해, 메세지 변조 탐지기 만들기</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -25072,7 +25072,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Ch07. [시스템] N배 빠른 병렬처리 웹 크롤러 만들기  (01:21:05)</t>
+          <t xml:space="preserve">Ch07. [시스템] N배 빠른 병렬처리 웹 크롤러 만들기 </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -25185,7 +25185,7 @@
     <row r="52">
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Ch08. [서버/통신] 사이트 접속자 수 맞추기 게임  (56:25)</t>
+          <t xml:space="preserve">Ch08. [서버/통신] 사이트 접속자 수 맞추기 게임 </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -25250,7 +25250,7 @@
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Ch09. [인터넷/웹] 최신 뉴스 이메일로 받아보기 (01:05:54)</t>
+          <t>Ch09. [인터넷/웹] 최신 뉴스 이메일로 받아보기</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -25339,7 +25339,7 @@
     <row r="64">
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Ch10. [GUI] 블로그 프로그램 만들기 (01:17:52)</t>
+          <t>Ch10. [GUI] 블로그 프로그램 만들기</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -25428,12 +25428,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 게임 프로젝트  (11:46:24)</t>
+          <t xml:space="preserve">Part 2. 게임 프로젝트 </t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 오리엔테이션 (18:29)</t>
+          <t>Ch01. 오리엔테이션</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -25462,7 +25462,7 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 행맨 게임 만들기 (03:44:35)</t>
+          <t>Ch02. 행맨 게임 만들기</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -25635,7 +25635,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 두더지 잡기 게임 만들기 (04:16:59)</t>
+          <t>Ch03. 두더지 잡기 게임 만들기</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -25832,7 +25832,7 @@
     <row r="103">
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 새똥 피하기 게임 만들기 (03:26:21)</t>
+          <t>Ch04. 새똥 피하기 게임 만들기</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -25981,12 +25981,12 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Part3. 웹 크롤링 프로젝트 (08:02:18)</t>
+          <t>Part3. 웹 크롤링 프로젝트</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 크롤링 개요 (01:03:16)</t>
+          <t>Ch01. 크롤링 개요</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -26087,7 +26087,7 @@
     <row r="123">
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 네이버 금융 크롤링 (56:34)</t>
+          <t>Ch02. 네이버 금융 크롤링</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -26152,7 +26152,7 @@
     <row r="128">
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 인스타그램 좋아요, 댓글달기 (01:12:05)</t>
+          <t>Ch03. 인스타그램 좋아요, 댓글달기</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -26253,7 +26253,7 @@
     <row r="136">
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Pixabay에서 이미지 수집하기 (41:35)</t>
+          <t>Ch04. Pixabay에서 이미지 수집하기</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -26294,7 +26294,7 @@
     <row r="139">
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 네이버 API 활용하기 (01:34:09)</t>
+          <t>Ch05. 네이버 API 활용하기</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -26395,7 +26395,7 @@
     <row r="147">
       <c r="B147" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 복잡한 사이트 데이터 수집하기 (01:19:02)</t>
+          <t>Ch06. 복잡한 사이트 데이터 수집하기</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -26460,7 +26460,7 @@
     <row r="152">
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>Ch07. Youtube에서 댓글 가져오기 (01:15:37)</t>
+          <t>Ch07. Youtube에서 댓글 가져오기</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -26525,12 +26525,12 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Part4. 업무 자동화 프로젝트 (10:26:13)</t>
+          <t>Part4. 업무 자동화 프로젝트</t>
         </is>
       </c>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 엑셀 주간업무계획표 양식 자동화 (02:07:32)</t>
+          <t>Ch01. 엑셀 주간업무계획표 양식 자동화</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -26631,7 +26631,7 @@
     <row r="165">
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 쇼핑몰 주문 요청서 분류 자동화 프로젝트 (01:52:54)</t>
+          <t>Ch02. 쇼핑몰 주문 요청서 분류 자동화 프로젝트</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -26732,7 +26732,7 @@
     <row r="173">
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 엑셀 파일 읽어서 이메일 보내기 (01:11:26)</t>
+          <t>Ch03. 엑셀 파일 읽어서 이메일 보내기</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -26821,7 +26821,7 @@
     <row r="180">
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>Ch04. HTML로 이메일 꾸며서 보내기 (43:08)</t>
+          <t>Ch04. HTML로 이메일 꾸며서 보내기</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -26886,7 +26886,7 @@
     <row r="185">
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 첨부파일 포함 목록 만들어서 한번에 전송하기 (01:09:38)</t>
+          <t>Ch05. 첨부파일 포함 목록 만들어서 한번에 전송하기</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -26975,7 +26975,7 @@
     <row r="192">
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Ch06. PPT로 대량의 라벨 만들기 (01:39:55)</t>
+          <t>Ch06. PPT로 대량의 라벨 만들기</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -27088,7 +27088,7 @@
     <row r="201">
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 한 페이지에 여러 개 라벨 만들기 (38:22)</t>
+          <t>Ch07. 한 페이지에 여러 개 라벨 만들기</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -27153,7 +27153,7 @@
     <row r="206">
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>Ch08. 여러명에게 카카오톡 메세지 자동으로 보내기 (01:03:18)</t>
+          <t>Ch08. 여러명에게 카카오톡 메세지 자동으로 보내기</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -27218,12 +27218,12 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Part5. 데이터 분석 및 시각화 프로젝트 (13:22:16)</t>
+          <t>Part5. 데이터 분석 및 시각화 프로젝트</t>
         </is>
       </c>
       <c r="B211" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 데이터 분석 및 시각화 개요 (46:42)</t>
+          <t>Ch01. 데이터 분석 및 시각화 개요</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -27276,7 +27276,7 @@
     <row r="215">
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 판다스 라이브러리로 엑셀의 vlookup및 시트결합 해보기 (01:19:50)</t>
+          <t>Ch02. 판다스 라이브러리로 엑셀의 vlookup및 시트결합 해보기</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -27365,7 +27365,7 @@
     <row r="222">
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 프로 야구 데이터를 통한 데이터프레임 다루기 (01:11:22)</t>
+          <t>Ch03. 프로 야구 데이터를 통한 데이터프레임 다루기</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -27454,7 +27454,7 @@
     <row r="229">
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 시험성적 처리하기  (01:12:08)</t>
+          <t xml:space="preserve">Ch04. 시험성적 처리하기 </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -27579,7 +27579,7 @@
     <row r="239">
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 기러기 스위스 같은 회문 체크하기 (01:06:40)</t>
+          <t>Ch05. 기러기 스위스 같은 회문 체크하기</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27680,7 +27680,7 @@
     <row r="247">
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 타이타닉 원시(raw) 데이터 요약하기 (01:31:00)</t>
+          <t>Ch06. 타이타닉 원시(raw) 데이터 요약하기</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -27769,7 +27769,7 @@
     <row r="254">
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>Ch07. 마트 매출 데이터로 피벗된 데이터를 언피벗하기 (56:04)</t>
+          <t>Ch07. 마트 매출 데이터로 피벗된 데이터를 언피벗하기</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -27834,7 +27834,7 @@
     <row r="259">
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>Ch08. OECD 국가의 GDP데이터로 실무의 데이터 다루기 (33:15)</t>
+          <t>Ch08. OECD 국가의 GDP데이터로 실무의 데이터 다루기</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -27887,7 +27887,7 @@
     <row r="263">
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 주식데이터를 통해 groupby 사용하기 (01:13:04)</t>
+          <t>Ch09. 주식데이터를 통해 groupby 사용하기</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -27976,7 +27976,7 @@
     <row r="270">
       <c r="B270" s="1" t="inlineStr">
         <is>
-          <t>Ch10. 판다스 스킬업 프로젝트 (01:06:07)</t>
+          <t>Ch10. 판다스 스킬업 프로젝트</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -28029,7 +28029,7 @@
     <row r="274">
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>Ch11. 온라인 쇼핑몰 데이터 요약하기 (01:03:06)</t>
+          <t>Ch11. 온라인 쇼핑몰 데이터 요약하기</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -28094,7 +28094,7 @@
     <row r="279">
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>Ch12. 축구 A매치 데이터로 다양한 집계하기 (34:14)</t>
+          <t>Ch12. 축구 A매치 데이터로 다양한 집계하기</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -28135,7 +28135,7 @@
     <row r="282">
       <c r="B282" s="1" t="inlineStr">
         <is>
-          <t>Ch13. 파리바게뜨와 감탄떡볶이의 거리 구하기 (48:44)</t>
+          <t>Ch13. 파리바게뜨와 감탄떡볶이의 거리 구하기</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -28200,12 +28200,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Part6. 머신러닝 프로젝트 (14:20:19)</t>
+          <t>Part6. 머신러닝 프로젝트</t>
         </is>
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 머신러닝이란 (17:16)</t>
+          <t>Ch01. 머신러닝이란</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -28282,7 +28282,7 @@
     <row r="293">
       <c r="B293" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Linear Regression: House Rent 금액 예측모델 만들기 (01:50:01)</t>
+          <t>Ch02. Linear Regression: House Rent 금액 예측모델 만들기</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -28431,7 +28431,7 @@
     <row r="305">
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>Ch03. Decision Tree: 공유자전거 수요 예측모델 만들기 (01:32:33)</t>
+          <t>Ch03. Decision Tree: 공유자전거 수요 예측모델 만들기</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -28568,7 +28568,7 @@
     <row r="316">
       <c r="B316" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Logistic Regression: 직원들의 승진 가능성 예측모델 만들기 (01:38:02)</t>
+          <t>Ch04. Logistic Regression: 직원들의 승진 가능성 예측모델 만들기</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -28705,7 +28705,7 @@
     <row r="327">
       <c r="B327" s="1" t="inlineStr">
         <is>
-          <t>Ch05. Random Forest: 호텔 예약 취소 케이스 예측모델 만들기 (02:11:50)</t>
+          <t>Ch05. Random Forest: 호텔 예약 취소 케이스 예측모델 만들기</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -28854,7 +28854,7 @@
     <row r="339">
       <c r="B339" s="1" t="inlineStr">
         <is>
-          <t>Ch06. LightGBM: Credit Score 예측모델 만들기 (02:08:50)</t>
+          <t>Ch06. LightGBM: Credit Score 예측모델 만들기</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -28979,7 +28979,7 @@
     <row r="349">
       <c r="B349" s="1" t="inlineStr">
         <is>
-          <t>Ch07. KMeans: 군집 프로젝트 (01:27:45)</t>
+          <t>Ch07. KMeans: 군집 프로젝트</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -29152,7 +29152,7 @@
     <row r="363">
       <c r="B363" s="1" t="inlineStr">
         <is>
-          <t>Ch08. Survival Analysis - 고객 생존률 분석 (45:17)</t>
+          <t>Ch08. Survival Analysis - 고객 생존률 분석</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -29253,7 +29253,7 @@
     <row r="371">
       <c r="B371" s="1" t="inlineStr">
         <is>
-          <t>Ch09. Final Project - Mortgage 승인금액 예측 (02:28:45)</t>
+          <t>Ch09. Final Project - Mortgage 승인금액 예측</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -29426,12 +29426,12 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Part7. 웹 개발 프로젝트 - Fastapi를 활용해 이미지 저장 및 서빙하기 (06:28:38)</t>
+          <t>Part7. 웹 개발 프로젝트 - Fastapi를 활용해 이미지 저장 및 서빙하기</t>
         </is>
       </c>
       <c r="B385" s="1" t="inlineStr">
         <is>
-          <t>Ch01. FastAPI 알아보기 (39:35)</t>
+          <t>Ch01. FastAPI 알아보기</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -29484,7 +29484,7 @@
     <row r="389">
       <c r="B389" s="1" t="inlineStr">
         <is>
-          <t>Ch02. FastAPI - FastAPI DB 핸들링 (01:13:10)</t>
+          <t>Ch02. FastAPI - FastAPI DB 핸들링</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -29561,7 +29561,7 @@
     <row r="395">
       <c r="B395" s="1" t="inlineStr">
         <is>
-          <t>Ch03. FastAPI - API 인증 (01:45:54)</t>
+          <t>Ch03. FastAPI - API 인증</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -29638,7 +29638,7 @@
     <row r="401">
       <c r="B401" s="1" t="inlineStr">
         <is>
-          <t>Ch04. FastAPI - 이미지 관리 API 개발 (01:53:17)</t>
+          <t>Ch04. FastAPI - 이미지 관리 API 개발</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -29727,7 +29727,7 @@
     <row r="408">
       <c r="B408" s="1" t="inlineStr">
         <is>
-          <t>Ch05. FastAPI - 테스트 및 배포 (56:42)</t>
+          <t>Ch05. FastAPI - 테스트 및 배포</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -29780,12 +29780,12 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Part7. 웹 개발 프로젝트 - Django를 활용해 Note App 만들기 (06:06:32)</t>
+          <t>Part7. 웹 개발 프로젝트 - Django를 활용해 Note App 만들기</t>
         </is>
       </c>
       <c r="B412" s="1" t="inlineStr">
         <is>
-          <t>Ch01. Django 시작하기 (37:30)</t>
+          <t>Ch01. Django 시작하기</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -29838,7 +29838,7 @@
     <row r="416">
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Django 기본기 다지기 (39:01)</t>
+          <t>Ch02. Django 기본기 다지기</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -29879,7 +29879,7 @@
     <row r="419">
       <c r="B419" s="1" t="inlineStr">
         <is>
-          <t>Ch03. Django - Django에서 DB 다루기 (54:40)</t>
+          <t>Ch03. Django - Django에서 DB 다루기</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -29944,7 +29944,7 @@
     <row r="424">
       <c r="B424" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Django Front-end (02:27:12)</t>
+          <t>Ch04. Django Front-end</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -30069,7 +30069,7 @@
     <row r="434">
       <c r="B434" s="1" t="inlineStr">
         <is>
-          <t>Ch05. Django Back-end (54:15)</t>
+          <t>Ch05. Django Back-end</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -30110,7 +30110,7 @@
     <row r="437">
       <c r="B437" s="1" t="inlineStr">
         <is>
-          <t>Ch06. Django - 개발 후 해야할 일 (33:54)</t>
+          <t>Ch06. Django - 개발 후 해야할 일</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -30151,12 +30151,12 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Part8. 최종 프로젝트 (06:03:38)</t>
+          <t>Part8. 최종 프로젝트</t>
         </is>
       </c>
       <c r="B440" s="1" t="inlineStr">
         <is>
-          <t>Ch01. Django 세팅하기 (29:10)</t>
+          <t>Ch01. Django 세팅하기</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -30197,7 +30197,7 @@
     <row r="443">
       <c r="B443" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Django Basic (28:19)</t>
+          <t>Ch02. Django Basic</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -30226,7 +30226,7 @@
     <row r="445">
       <c r="B445" s="1" t="inlineStr">
         <is>
-          <t>Ch03. DB 핸들링 on Django (42:03)</t>
+          <t>Ch03. DB 핸들링 on Django</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -30279,7 +30279,7 @@
     <row r="449">
       <c r="B449" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 기상데이터 크롤링 (32:14)</t>
+          <t>Ch04. 기상데이터 크롤링</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -30320,7 +30320,7 @@
     <row r="452">
       <c r="B452" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 회귀 모델 예측 - 랜덤 포레스트로 내일 강수 예측 하기 (33:32)</t>
+          <t>Ch05. 회귀 모델 예측 - 랜덤 포레스트로 내일 강수 예측 하기</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -30361,7 +30361,7 @@
     <row r="455">
       <c r="B455" s="1" t="inlineStr">
         <is>
-          <t>Ch06. Django Frontend 개발 (01:27:09)</t>
+          <t>Ch06. Django Frontend 개발</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -30450,7 +30450,7 @@
     <row r="462">
       <c r="B462" s="1" t="inlineStr">
         <is>
-          <t>Ch07. Django Backend 개발 (32:26)</t>
+          <t>Ch07. Django Backend 개발</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -30491,7 +30491,7 @@
     <row r="465">
       <c r="B465" s="1" t="inlineStr">
         <is>
-          <t>Ch08. Django Background Scheduler 작성하기 (29:42)</t>
+          <t>Ch08. Django Background Scheduler 작성하기</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -30532,7 +30532,7 @@
     <row r="468">
       <c r="B468" s="1" t="inlineStr">
         <is>
-          <t>Ch09. 테스트 및 배포 (49:03)</t>
+          <t>Ch09. 테스트 및 배포</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -30573,12 +30573,12 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>[특별제공] 실무 협업을 위한 Git&amp;Github (02:22:27)</t>
+          <t>[특별제공] 실무 협업을 위한 Git&amp;Github</t>
         </is>
       </c>
       <c r="B471" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 오리엔테이션 (09:39)</t>
+          <t>Ch01. 오리엔테이션</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -30607,7 +30607,7 @@
     <row r="473">
       <c r="B473" s="1" t="inlineStr">
         <is>
-          <t>Ch02. Git 설치&amp;설정 (08:32)</t>
+          <t>Ch02. Git 설치&amp;설정</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -30636,7 +30636,7 @@
     <row r="475">
       <c r="B475" s="1" t="inlineStr">
         <is>
-          <t>Ch03. Git 첫 걸음 (43:51)</t>
+          <t>Ch03. Git 첫 걸음</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -30713,7 +30713,7 @@
     <row r="481">
       <c r="B481" s="1" t="inlineStr">
         <is>
-          <t>Ch04. Git 중급 (21:46)</t>
+          <t>Ch04. Git 중급</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -30754,7 +30754,7 @@
     <row r="484">
       <c r="B484" s="1" t="inlineStr">
         <is>
-          <t>Ch05. Git 실무  (29:22)</t>
+          <t xml:space="preserve">Ch05. Git 실무 </t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -30819,7 +30819,7 @@
     <row r="489">
       <c r="B489" s="1" t="inlineStr">
         <is>
-          <t>Ch06. Git을 더 깊게 Github로 사용하기 (29:17)</t>
+          <t>Ch06. Git을 더 깊게 Github로 사용하기</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -30884,12 +30884,12 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>[특별 제공] 한 번에 끝내는 파이썬 필수 문법 (10:27:18)</t>
+          <t>[특별 제공] 한 번에 끝내는 파이썬 필수 문법</t>
         </is>
       </c>
       <c r="B494" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의소개 (11:30)</t>
+          <t>Ch 01. 강의소개</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -30918,7 +30918,7 @@
     <row r="496">
       <c r="B496" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 환경설정 (01:00:14)</t>
+          <t>Ch 02. 환경설정</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -30995,7 +30995,7 @@
     <row r="502">
       <c r="B502" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 자료형과 변수 (30:15)</t>
+          <t>Ch 03. 자료형과 변수</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -31024,7 +31024,7 @@
     <row r="504">
       <c r="B504" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 연산과 연산자 (41:06)</t>
+          <t>Ch 04. 연산과 연산자</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -31065,7 +31065,7 @@
     <row r="507">
       <c r="B507" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 제어문 (02:16:40)</t>
+          <t>Ch 05. 제어문</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -31178,7 +31178,7 @@
     <row r="516">
       <c r="B516" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 함수 (44:46)</t>
+          <t>Ch 06. 함수</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -31219,7 +31219,7 @@
     <row r="519">
       <c r="B519" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 딕셔너리와 튜플 (35:57)</t>
+          <t>Ch 07. 딕셔너리와 튜플</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -31248,7 +31248,7 @@
     <row r="521">
       <c r="B521" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 클래스 (01:18:10)</t>
+          <t>Ch 08. 클래스</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -31313,7 +31313,7 @@
     <row r="526">
       <c r="B526" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 모듈과 패키지 (35:30)</t>
+          <t>Ch 09. 모듈과 패키지</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -31354,7 +31354,7 @@
     <row r="529">
       <c r="B529" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. 파일 입출력 (48:02)</t>
+          <t>Ch 10. 파일 입출력</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -31395,7 +31395,7 @@
     <row r="532">
       <c r="B532" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. 예외 처리 (21:22)</t>
+          <t>Ch 11. 예외 처리</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -31424,7 +31424,7 @@
     <row r="534">
       <c r="B534" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. 실전 미니 프로젝트 (01:23:46)</t>
+          <t>Ch 12. 실전 미니 프로젝트</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -31619,10 +31619,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39" customWidth="1" min="1" max="1"/>
-    <col width="61" customWidth="1" min="2" max="2"/>
-    <col width="92" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="87" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31650,12 +31650,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part1 파이썬 기본기 다지기 (04:07:46)</t>
+          <t>Part1 파이썬 기본기 다지기</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 파이썬에 대한 모든 것 (20:36)</t>
+          <t>Ch01. 파이썬에 대한 모든 것</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -31684,7 +31684,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 변수와 자료형 (01:15:55)</t>
+          <t>Ch02. 변수와 자료형</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -31761,7 +31761,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 입출력과 제어문 (01:20:37)</t>
+          <t>Ch03. 입출력과 제어문</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -31826,7 +31826,7 @@
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 클래스와 모듈 (01:10:38)</t>
+          <t>Ch04. 클래스와 모듈</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -31903,12 +31903,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Part2 파이썬 라이브러리 활용 (06:07:47)</t>
+          <t>Part2 파이썬 라이브러리 활용</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 파이썬 라이브러리 개념 (15:16)</t>
+          <t>Ch01. 파이썬 라이브러리 개념</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -31925,7 +31925,7 @@
     <row r="22">
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Ch02. 수치계산 라이브러리(NumPy) (01:10:55)</t>
+          <t>Ch02. 수치계산 라이브러리(NumPy)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -31990,7 +31990,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ch03. 데이터 처리 라이브러리(Pandas) (01:15:52)</t>
+          <t>Ch03. 데이터 처리 라이브러리(Pandas)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -32031,7 +32031,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Ch04. 데이터 시각화 라이브러리(Matplotlib, Seaborn) (01:09:57)</t>
+          <t>Ch04. 데이터 시각화 라이브러리(Matplotlib, Seaborn)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -32084,7 +32084,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Ch05. 웹 데이터 수집 라이브러리(BeautifulSoup) (01:02:52)</t>
+          <t>Ch05. 웹 데이터 수집 라이브러리(BeautifulSoup)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -32137,7 +32137,7 @@
     <row r="38">
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Ch06. 실무 예제 실습(Netflix 데이터 분석) (01:12:55)</t>
+          <t>Ch06. 실무 예제 실습(Netflix 데이터 분석)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -32220,10 +32220,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="70" customWidth="1" min="1" max="1"/>
-    <col width="58" customWidth="1" min="2" max="2"/>
-    <col width="77" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="54" customWidth="1" min="1" max="1"/>
+    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="72" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32251,12 +32251,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 파이썬 필수 문법 (10:28:21)</t>
+          <t>Part 1. 파이썬 필수 문법</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의소개 (11:30)</t>
+          <t>Ch 01. 강의소개</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -32285,7 +32285,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 환경설정 (01:00:14)</t>
+          <t>Ch 02. 환경설정</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -32362,7 +32362,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 자료형과 변수 (30:15)</t>
+          <t>Ch 03. 자료형과 변수</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -32391,7 +32391,7 @@
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 연산과 연산자 (41:06)</t>
+          <t>Ch 04. 연산과 연산자</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -32432,7 +32432,7 @@
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 제어문 (02:16:40)</t>
+          <t>Ch 05. 제어문</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -32545,7 +32545,7 @@
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 함수 (44:46)</t>
+          <t>Ch 06. 함수</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -32586,7 +32586,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 딕셔너리와 튜플 (35:57)</t>
+          <t>Ch 07. 딕셔너리와 튜플</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -32615,7 +32615,7 @@
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 클래스 (01:18:10)</t>
+          <t>Ch 08. 클래스</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -32680,7 +32680,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 모듈과 패키지 (35:30)</t>
+          <t>Ch 09. 모듈과 패키지</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -32721,7 +32721,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. 파일 입출력 (48:02)</t>
+          <t>Ch 10. 파일 입출력</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -32762,7 +32762,7 @@
     <row r="40">
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. 예외 처리 (21:22)</t>
+          <t>Ch 11. 예외 처리</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -32791,7 +32791,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. 실전 미니 프로젝트 (01:24:49)</t>
+          <t>Ch 12. 실전 미니 프로젝트</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -32880,12 +32880,12 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 파이썬 심화 문법 (07:20:07)</t>
+          <t>Part 2. 파이썬 심화 문법</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의소개 (11:35)</t>
+          <t>Ch 01. 강의소개</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -32926,7 +32926,7 @@
     <row r="52">
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 자료형심화 (01:14:00)</t>
+          <t>Ch 02. 자료형심화</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -33015,7 +33015,7 @@
     <row r="59">
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 함수 중급 (49:41)</t>
+          <t>Ch 03. 함수 중급</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -33080,7 +33080,7 @@
     <row r="64">
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. 클래스 (01:10:09)</t>
+          <t>Ch 04. 클래스</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -33145,7 +33145,7 @@
     <row r="69">
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 데이터베이스 (01:06:34)</t>
+          <t>Ch 05. 데이터베이스</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -33210,7 +33210,7 @@
     <row r="74">
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 정규표현식 (01:17:39)</t>
+          <t>Ch 06. 정규표현식</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -33287,7 +33287,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 동시성과 병렬성 (29:44)</t>
+          <t>Ch 07. 동시성과 병렬성</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -33328,7 +33328,7 @@
     <row r="83">
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 함수 고급 (01:00:45)</t>
+          <t>Ch 08. 함수 고급</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -33405,12 +33405,12 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 웹 &amp; 프론트엔드 기본 (10:20:29)</t>
+          <t>Part 3. 웹 &amp; 프론트엔드 기본</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 강의 개요 (19:33)</t>
+          <t>Ch 01. 강의 개요</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -33475,7 +33475,7 @@
     <row r="94">
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. HTML (01:05:17)</t>
+          <t>Ch 02. HTML</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -33564,7 +33564,7 @@
     <row r="101">
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. CSS (02:17:37)</t>
+          <t>Ch 03. CSS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -33725,7 +33725,7 @@
     <row r="114">
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Bootstrap (01:09:16)</t>
+          <t>Ch 04. Bootstrap</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -33814,7 +33814,7 @@
     <row r="121">
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. GitHub 예제 (04:01:21)</t>
+          <t>Ch 05. GitHub 예제</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -33999,7 +33999,7 @@
     <row r="136">
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 버전 관리(Git) (01:27:25)</t>
+          <t>Ch 06. 버전 관리(Git)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -34124,12 +34124,12 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 정적 페이지 크롤링 하기 (11:44:23)</t>
+          <t>Part 4. 정적 페이지 크롤링 하기</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 크롤링기초 (01:59:19)</t>
+          <t>Ch 01. 크롤링기초</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -34230,7 +34230,7 @@
     <row r="154">
       <c r="B154" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 정적 크롤링 (09:45:04)</t>
+          <t>Ch 02. 정적 크롤링</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -34679,12 +34679,12 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 동적 페이지 크롤링 &amp; 업무 자동화 (09:20:26)</t>
+          <t>Part 5. 동적 페이지 크롤링 &amp; 업무 자동화</t>
         </is>
       </c>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 동적 크롤링 (09:20:26)</t>
+          <t>Ch 01. 동적 크롤링</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -35049,12 +35049,12 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Part 6. GUI(PySide)로 메일 뷰어 만들기 프로젝트 (06:25:34)</t>
+          <t>Part 6. GUI(PySide)로 메일 뷰어 만들기 프로젝트</t>
         </is>
       </c>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Pyside 들어가기 (01:17:33)</t>
+          <t>Ch 01. Pyside 들어가기</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -35131,7 +35131,7 @@
     <row r="227">
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Pyside 위젯 (03:45:42)</t>
+          <t>Ch 02. Pyside 위젯</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -35328,7 +35328,7 @@
     <row r="243">
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 메일 viewer 만들어보기 (01:22:19)</t>
+          <t>Ch 03. 메일 viewer 만들어보기</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -35393,12 +35393,12 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Part 7. Django 기초 (05:49:48)</t>
+          <t>Part 7. Django 기초</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Django와 친해지기 (01:59:25)</t>
+          <t>Ch 01. Django와 친해지기</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -35499,7 +35499,7 @@
     <row r="256">
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Django Built-ins (01:07:37)</t>
+          <t>Ch 02. Django Built-ins</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -35564,7 +35564,7 @@
     <row r="261">
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. Django 다뤄보기 (02:42:46)</t>
+          <t>Ch 03. Django 다뤄보기</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -35701,12 +35701,12 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Part 8. Django 실전 프로젝트 1 - URL Shortener 서비스 (06:12:24)</t>
+          <t>Part 8. Django 실전 프로젝트 1 - URL Shortener 서비스</t>
         </is>
       </c>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Django 프로젝트 준비 (01:03:59)</t>
+          <t>Ch 01. Django 프로젝트 준비</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -35783,7 +35783,7 @@
     <row r="278">
       <c r="B278" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Django API 통신 (58:15)</t>
+          <t>Ch 02. Django API 통신</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -35824,7 +35824,7 @@
     <row r="281">
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. Django Third Party Library 사용하기 (26:10)</t>
+          <t>Ch 03. Django Third Party Library 사용하기</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -35853,7 +35853,7 @@
     <row r="283">
       <c r="B283" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Django Rest Framwork (01:05:19)</t>
+          <t>Ch 04. Django Rest Framwork</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -35930,7 +35930,7 @@
     <row r="289">
       <c r="B289" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. Django Templates and Front-end (01:33:13)</t>
+          <t>Ch 05. Django Templates and Front-end</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -36007,7 +36007,7 @@
     <row r="295">
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. Django Cache Framework (17:18)</t>
+          <t>Ch 06. Django Cache Framework</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -36036,7 +36036,7 @@
     <row r="297">
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. Telegram 사용하기 (26:30)</t>
+          <t>Ch 07. Telegram 사용하기</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -36065,7 +36065,7 @@
     <row r="299">
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. Django Deployment (21:40)</t>
+          <t>Ch 08. Django Deployment</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -36094,12 +36094,12 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Part 9. Django 실전 프로젝트 2 - URL Shortener 서비스 백오피스 (04:07:58)</t>
+          <t>Part 9. Django 실전 프로젝트 2 - URL Shortener 서비스 백오피스</t>
         </is>
       </c>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. Django Backoffice 프로젝트 준비 (51:39)</t>
+          <t>Ch 01. Django Backoffice 프로젝트 준비</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -36152,7 +36152,7 @@
     <row r="305">
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. Google Analytics (22:57)</t>
+          <t>Ch 02. Google Analytics</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -36181,7 +36181,7 @@
     <row r="307">
       <c r="B307" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. Django Template and Frontend (39:29)</t>
+          <t>Ch 03. Django Template and Frontend</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -36210,7 +36210,7 @@
     <row r="309">
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. Django ORM 심화 (48:36)</t>
+          <t>Ch 04. Django ORM 심화</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -36263,7 +36263,7 @@
     <row r="313">
       <c r="B313" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. SSR X CSR (08:01)</t>
+          <t>Ch 05. SSR X CSR</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -36280,7 +36280,7 @@
     <row r="314">
       <c r="B314" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 백그라운드 스캐줄러 (40:10)</t>
+          <t>Ch 06. 백그라운드 스캐줄러</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -36321,7 +36321,7 @@
     <row r="317">
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 서버 운영과 테스트 코드 (37:06)</t>
+          <t>Ch 07. 서버 운영과 테스트 코드</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -36374,12 +36374,12 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Part 10. Flask 기초 (06:29:36)</t>
+          <t>Part 10. Flask 기초</t>
         </is>
       </c>
       <c r="B321" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 프로젝트 소개 및 준비 (21:43)</t>
+          <t>Ch 01. 프로젝트 소개 및 준비</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -36420,7 +36420,7 @@
     <row r="324">
       <c r="B324" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 플라스크 기초 (01:01:32)</t>
+          <t>Ch 02. 플라스크 기초</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -36497,7 +36497,7 @@
     <row r="330">
       <c r="B330" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 템플릿 엔진 기초 (22:04)</t>
+          <t>Ch 03. 템플릿 엔진 기초</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -36526,7 +36526,7 @@
     <row r="332">
       <c r="B332" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. CSRF 방어 (31:37)</t>
+          <t>Ch 04. CSRF 방어</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -36555,7 +36555,7 @@
     <row r="334">
       <c r="B334" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 플라스크 라우터 확장 (10:08)</t>
+          <t>Ch 05. 플라스크 라우터 확장</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -36572,7 +36572,7 @@
     <row r="335">
       <c r="B335" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 플라스크 메세지 플래싱 (12:17)</t>
+          <t>Ch 06. 플라스크 메세지 플래싱</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -36589,7 +36589,7 @@
     <row r="336">
       <c r="B336" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 로그인 기능 구현 (32:58)</t>
+          <t>Ch 07. 로그인 기능 구현</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -36630,7 +36630,7 @@
     <row r="339">
       <c r="B339" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 데이터베이스 (01:03:20)</t>
+          <t>Ch 08. 데이터베이스</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -36695,7 +36695,7 @@
     <row r="344">
       <c r="B344" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 리팩토링  (36:40)</t>
+          <t xml:space="preserve">Ch 09. 리팩토링 </t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -36724,7 +36724,7 @@
     <row r="346">
       <c r="B346" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. Restful API (09:32)</t>
+          <t>Ch 10. Restful API</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -36741,7 +36741,7 @@
     <row r="347">
       <c r="B347" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. API 문서자동화 (34:09)</t>
+          <t>Ch 11. API 문서자동화</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -36782,7 +36782,7 @@
     <row r="350">
       <c r="B350" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. DB 마이그레이션 (05:52)</t>
+          <t>Ch 12. DB 마이그레이션</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -36799,7 +36799,7 @@
     <row r="351">
       <c r="B351" s="1" t="inlineStr">
         <is>
-          <t>Ch 13. Flask Configs (08:23)</t>
+          <t>Ch 13. Flask Configs</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -36816,7 +36816,7 @@
     <row r="352">
       <c r="B352" s="1" t="inlineStr">
         <is>
-          <t>Ch 14. 유닛 테스트와 TDD (39:21)</t>
+          <t>Ch 14. 유닛 테스트와 TDD</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -36869,12 +36869,12 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Part 11. Flask 프로젝트 - Google Keep 프로젝트 (07:07:45)</t>
+          <t>Part 11. Flask 프로젝트 - Google Keep 프로젝트</t>
         </is>
       </c>
       <c r="B356" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 프런트 기본화면 설명 (22:03)</t>
+          <t>Ch 01. 프런트 기본화면 설명</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -36903,7 +36903,7 @@
     <row r="358">
       <c r="B358" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 세션 기반 인증 흐름 구현 (16:58)</t>
+          <t>Ch 02. 세션 기반 인증 흐름 구현</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -36932,7 +36932,7 @@
     <row r="360">
       <c r="B360" s="1" t="inlineStr">
         <is>
-          <t>Ch 03. 메모 기본 기능 구현 (01:22:27)</t>
+          <t>Ch 03. 메모 기본 기능 구현</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -37045,7 +37045,7 @@
     <row r="369">
       <c r="B369" s="1" t="inlineStr">
         <is>
-          <t>Ch 04. ajax CSRF 처리 (06:40)</t>
+          <t>Ch 04. ajax CSRF 처리</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -37062,7 +37062,7 @@
     <row r="370">
       <c r="B370" s="1" t="inlineStr">
         <is>
-          <t>Ch 05. 메모 기능 업그레이드 - 조회 (15:06)</t>
+          <t>Ch 05. 메모 기능 업그레이드 - 조회</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -37091,7 +37091,7 @@
     <row r="372">
       <c r="B372" s="1" t="inlineStr">
         <is>
-          <t>Ch 06. 메모 기능 업그레이드 - 이미지 (59:20)</t>
+          <t>Ch 06. 메모 기능 업그레이드 - 이미지</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -37156,7 +37156,7 @@
     <row r="377">
       <c r="B377" s="1" t="inlineStr">
         <is>
-          <t>Ch 07. 메모 기능 업그레이드 - 삭제 (27:03)</t>
+          <t>Ch 07. 메모 기능 업그레이드 - 삭제</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -37197,7 +37197,7 @@
     <row r="380">
       <c r="B380" s="1" t="inlineStr">
         <is>
-          <t>Ch 08. 라벨 기본 기능 구현 (55:14)</t>
+          <t>Ch 08. 라벨 기본 기능 구현</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -37274,7 +37274,7 @@
     <row r="386">
       <c r="B386" s="1" t="inlineStr">
         <is>
-          <t>Ch 09. 메모 라벨링 기능 업데이트 (41:39)</t>
+          <t>Ch 09. 메모 라벨링 기능 업데이트</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -37327,7 +37327,7 @@
     <row r="390">
       <c r="B390" s="1" t="inlineStr">
         <is>
-          <t>Ch 10. Flask 배포 스택 구성 (06:20)</t>
+          <t>Ch 10. Flask 배포 스택 구성</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -37344,7 +37344,7 @@
     <row r="391">
       <c r="B391" s="1" t="inlineStr">
         <is>
-          <t>Ch 11. 도커라이징 (58:02)</t>
+          <t>Ch 11. 도커라이징</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -37397,7 +37397,7 @@
     <row r="395">
       <c r="B395" s="1" t="inlineStr">
         <is>
-          <t>Ch 12. 배포 (36:53)</t>
+          <t>Ch 12. 배포</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -37450,12 +37450,12 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Part 12. Fast API 기초 (04:52:08)</t>
+          <t>Part 12. Fast API 기초</t>
         </is>
       </c>
       <c r="B399" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. FastAPI 기본  (02:11:53)</t>
+          <t xml:space="preserve">Ch 01. FastAPI 기본 </t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -37556,7 +37556,7 @@
     <row r="407">
       <c r="B407" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. FastAPI 실무 (02:40:15)</t>
+          <t>Ch 02. FastAPI 실무</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -37669,12 +37669,12 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Part 13. Fast API 실전 프로젝트 - 퀴즈봇 개발 (04:21:01)</t>
+          <t>Part 13. Fast API 실전 프로젝트 - 퀴즈봇 개발</t>
         </is>
       </c>
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 퀴즈봇 개발 (02:30:45)</t>
+          <t>Ch 01. 퀴즈봇 개발</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -37763,7 +37763,7 @@
     <row r="423">
       <c r="B423" s="1" t="inlineStr">
         <is>
-          <t>Ch 02. 상용 서비스로 나아가기 (01:50:16)</t>
+          <t>Ch 02. 상용 서비스로 나아가기</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -37852,12 +37852,12 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Part 14. Django 쇼핑몰 구축 코드 해설  (46:06)</t>
+          <t xml:space="preserve">Part 14. Django 쇼핑몰 구축 코드 해설 </t>
         </is>
       </c>
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>Ch 01. 쇼핑몰 구축 프로젝트 (46:06)</t>
+          <t>Ch 01. 쇼핑몰 구축 프로젝트</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -38047,10 +38047,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="65" customWidth="1" min="2" max="2"/>
-    <col width="68" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="49" customWidth="1" min="2" max="2"/>
+    <col width="63" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38078,12 +38078,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part01. 금융공학 개요 (06:52:32)</t>
+          <t>Part01. 금융공학 개요</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 금융시장의 발전 (48:55)</t>
+          <t>Chapter01. 금융시장의 발전</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -38112,7 +38112,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 금융시장으로 뛰어든 수학과 공학 (01:12:40)</t>
+          <t>Chapter02. 금융시장으로 뛰어든 수학과 공학</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -38165,7 +38165,7 @@
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 금융공학의 역사 (01:25:54)</t>
+          <t>Chapter03. 금융공학의 역사</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -38230,7 +38230,7 @@
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 금융공학 모델링 및 데이터사이언스 (03:25:03)</t>
+          <t>Chapter04. 금융공학 모델링 및 데이터사이언스</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -38355,12 +38355,12 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Part02. 금융데이터분석을 위한 확률 이해 (06:10:33)</t>
+          <t>Part02. 금융데이터분석을 위한 확률 이해</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 확률, 통계 및 데이터사이언스 (47:53)</t>
+          <t>Chapter01. 확률, 통계 및 데이터사이언스</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -38401,7 +38401,7 @@
     <row r="26">
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 사회현상에서 시작된 확률 (47:25)</t>
+          <t>Chapter02. 사회현상에서 시작된 확률</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -38442,7 +38442,7 @@
     <row r="29">
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 나의 데이터는 어떤 확률분포 (01:52:05)</t>
+          <t>Chapter03. 나의 데이터는 어떤 확률분포</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -38507,7 +38507,7 @@
     <row r="34">
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 반복되는 사건의 실제 확률분포 (01:25:20)</t>
+          <t>Chapter04. 반복되는 사건의 실제 확률분포</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -38560,7 +38560,7 @@
     <row r="38">
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 현실확률을 다루는 방법 (01:17:50)</t>
+          <t>Chapter05. 현실확률을 다루는 방법</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -38589,12 +38589,12 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Part03. 금융데이터분석을 위한 통계이해 (05:18:54)</t>
+          <t>Part03. 금융데이터분석을 위한 통계이해</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 확률, 통계 및 데이터사이언스 (12:28)</t>
+          <t>Chapter01. 확률, 통계 및 데이터사이언스</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -38611,7 +38611,7 @@
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 데이터의 종류 및 용어 (26:50)</t>
+          <t>Chapter02. 데이터의 종류 및 용어</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -38640,7 +38640,7 @@
     <row r="43">
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 데이터 특성 확인을 위한 기술적분석 (01:47:15)</t>
+          <t>Chapter03. 데이터 특성 확인을 위한 기술적분석</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -38705,7 +38705,7 @@
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 데이터기반 의사결정 (02:52:21)</t>
+          <t>Chapter04. 데이터기반 의사결정</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -38830,12 +38830,12 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Part04. 금융기본지식 (09:25:21)</t>
+          <t>Part04. 금융기본지식</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 거시경제 환경 분석 (02:03:47)</t>
+          <t>Chapter01. 거시경제 환경 분석</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -38888,7 +38888,7 @@
     <row r="62">
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 기업분석과 재무제표 (01:54:25)</t>
+          <t>Chapter02. 기업분석과 재무제표</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -38929,7 +38929,7 @@
     <row r="65">
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 주식분석과 가치평가 (01:57:50)</t>
+          <t>Chapter03. 주식분석과 가치평가</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -38982,7 +38982,7 @@
     <row r="69">
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 이자율과 채권 분석 (01:41:22)</t>
+          <t>Chapter04. 이자율과 채권 분석</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -39035,7 +39035,7 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 파생상품의 이해 (01:47:57)</t>
+          <t>Chapter05. 파생상품의 이해</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -39088,12 +39088,12 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Part05-1. 금융공학을 위한 데이터분석 (07:55:25)</t>
+          <t>Part05-1. 금융공학을 위한 데이터분석</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 의사결정을 위한 알고리즘의 진화 (01:46:20)</t>
+          <t>Chapter01. 의사결정을 위한 알고리즘의 진화</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -39170,7 +39170,7 @@
     <row r="83">
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 데이터학습을 위한 알고리즘 종류 (01:46:45)</t>
+          <t>Chapter02. 데이터학습을 위한 알고리즘 종류</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -39223,7 +39223,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 데이터이해를 위한 시각화 (02:07:51)</t>
+          <t>Chapter03. 데이터이해를 위한 시각화</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -39288,7 +39288,7 @@
     <row r="92">
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 데이터분석 프로그래밍 : 세상 변화를 즐기기 위한 도구 (47:07)</t>
+          <t>Chapter04. 데이터분석 프로그래밍 : 세상 변화를 즐기기 위한 도구</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -39329,7 +39329,7 @@
     <row r="95">
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 변화를 즐기기 위한 프로그래밍 (01:27:22)</t>
+          <t>Chapter05. 변화를 즐기기 위한 프로그래밍</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -39370,12 +39370,12 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Part05-2. (파이썬기초) 파이썬 도구 익히기 (31:09:26)</t>
+          <t>Part05-2. (파이썬기초) 파이썬 도구 익히기</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. Python 설치하기 (01:25:00)</t>
+          <t>Chapter01. Python 설치하기</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -39416,7 +39416,7 @@
     <row r="101">
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. Jupyter Notebook 사용하여 Python 사용 (01:20:18)</t>
+          <t>Chapter02. Jupyter Notebook 사용하여 Python 사용</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -39469,7 +39469,7 @@
     <row r="105">
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. Python 입력과 출력 이해 (02:37:28)</t>
+          <t>Chapter03. Python 입력과 출력 이해</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -39546,7 +39546,7 @@
     <row r="111">
       <c r="B111" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. Python 입력과 출력을 변수로 사용 (01:43:59)</t>
+          <t>Chapter04. Python 입력과 출력을 변수로 사용</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -39611,7 +39611,7 @@
     <row r="116">
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. Python 특정상황과 반복을 적용하기 (04:10:32)</t>
+          <t>Chapter05. Python 특정상황과 반복을 적용하기</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -39772,7 +39772,7 @@
     <row r="129">
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. Python으로 자동화 구현하기 (10:36:06)</t>
+          <t>Chapter06. Python으로 자동화 구현하기</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -40101,7 +40101,7 @@
     <row r="156">
       <c r="B156" s="1" t="inlineStr">
         <is>
-          <t>Chapter07. 데이터분석 특화 라이브러리 Numpy (02:07:44)</t>
+          <t>Chapter07. 데이터분석 특화 라이브러리 Numpy</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -40178,7 +40178,7 @@
     <row r="162">
       <c r="B162" s="1" t="inlineStr">
         <is>
-          <t>Chapter08. 데이터분석 특화 라이브러리 Pandas (03:55:43)</t>
+          <t>Chapter08. 데이터분석 특화 라이브러리 Pandas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -40339,7 +40339,7 @@
     <row r="175">
       <c r="B175" s="1" t="inlineStr">
         <is>
-          <t>Chapter09. 데이터분석 특화 라이브러리 Matplotlib (03:12:36)</t>
+          <t>Chapter09. 데이터분석 특화 라이브러리 Matplotlib</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -40428,12 +40428,12 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Part05-3. 데이터분석 싸이클 이해 및 기초분석 (30:02:38)</t>
+          <t>Part05-3. 데이터분석 싸이클 이해 및 기초분석</t>
         </is>
       </c>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 데이터분석 단계 및 데이터사이언티스트 이해 (02:45:17)</t>
+          <t>Chapter01. 데이터분석 단계 및 데이터사이언티스트 이해</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -40498,7 +40498,7 @@
     <row r="187">
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 학습알고리즘과 분석라이브러리 정리 (03:27:41)</t>
+          <t>Chapter02. 학습알고리즘과 분석라이브러리 정리</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -40623,7 +40623,7 @@
     <row r="197">
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 알고리즘의 데이터 학습을 위한 전처리 (03:31:53)</t>
+          <t>Chapter03. 알고리즘의 데이터 학습을 위한 전처리</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -40748,7 +40748,7 @@
     <row r="207">
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 예측문제 해결을 위한 선형회귀분석 (07:13:59)</t>
+          <t>Chapter04. 예측문제 해결을 위한 선형회귀분석</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -40957,7 +40957,7 @@
     <row r="224">
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 예측문제 해결을 위한 선형회귀분석 실습 (01:58:30)</t>
+          <t>Chapter05. 예측문제 해결을 위한 선형회귀분석 실습</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -41058,7 +41058,7 @@
     <row r="232">
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. 분류문제 해결을 위한 로지스틱회귀분석 (02:12:41)</t>
+          <t>Chapter06. 분류문제 해결을 위한 로지스틱회귀분석</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -41147,7 +41147,7 @@
     <row r="239">
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>Chapter07. 분류문제 해결을 위한 로지스틱회귀분석 실습 (01:52:31)</t>
+          <t>Chapter07. 분류문제 해결을 위한 로지스틱회귀분석 실습</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -41236,7 +41236,7 @@
     <row r="246">
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>Chapter08. 군집문제 해결을 위한 K-centroid분석 (01:32:44)</t>
+          <t>Chapter08. 군집문제 해결을 위한 K-centroid분석</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -41301,7 +41301,7 @@
     <row r="251">
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>Chapter09. 차원변환문제 해결을 위한 PCA분석 (03:27:05)</t>
+          <t>Chapter09. 차원변환문제 해결을 위한 PCA분석</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -41402,7 +41402,7 @@
     <row r="259">
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>Chapter10. 군집/차원변환문제 해결을 위한 K-means/PCA분석 실습 (02:00:17)</t>
+          <t>Chapter10. 군집/차원변환문제 해결을 위한 K-means/PCA분석 실습</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -41479,12 +41479,12 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Part06. 리스크 퀀트 실무 (12:21:02)</t>
+          <t>Part06. 리스크 퀀트 실무</t>
         </is>
       </c>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 리스크관리 개론 (02:06:33)</t>
+          <t>Chapter01. 리스크관리 개론</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -41537,7 +41537,7 @@
     <row r="269">
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 주식파생상품 (04:03:29)</t>
+          <t>Chapter02. 주식파생상품</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -41614,7 +41614,7 @@
     <row r="275">
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. Interest Rate Derivatives (03:09:13)</t>
+          <t>Chapter03. Interest Rate Derivatives</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -41691,7 +41691,7 @@
     <row r="281">
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. Credit Derivatives (01:49:56)</t>
+          <t>Chapter04. Credit Derivatives</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -41732,7 +41732,7 @@
     <row r="284">
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. Value-at-Risk (01:11:51)</t>
+          <t>Chapter05. Value-at-Risk</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -41773,12 +41773,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Part07. 퀀트 트레이딩 실무 (40:04:30)</t>
+          <t>Part07. 퀀트 트레이딩 실무</t>
         </is>
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 퀀트 비즈니스 실무와 준비 (06:11:18)</t>
+          <t>Chapter01. 퀀트 비즈니스 실무와 준비</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -42047,7 +42047,7 @@
     <row r="309">
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 자산배분 모델링 (20:50:23)</t>
+          <t>Chapter02. 자산배분 모델링</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -43180,7 +43180,7 @@
     <row r="403">
       <c r="B403" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 팩터모델링 (13:02:49)</t>
+          <t>Chapter03. 팩터모델링</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -43929,12 +43929,12 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Part08. 퀀트 커리어 설계 (02:31:56)</t>
+          <t>Part08. 퀀트 커리어 설계</t>
         </is>
       </c>
       <c r="B465" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 퀀트의 커리어 패스 (01:38:50)</t>
+          <t>Chapter01. 퀀트의 커리어 패스</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -44083,7 +44083,7 @@
     <row r="477">
       <c r="B477" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 퀀트의 취업 (40:51)</t>
+          <t>Chapter02. 퀀트의 취업</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -44184,7 +44184,7 @@
     <row r="485">
       <c r="B485" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 퀀트 분야의 트렌드 (12:15)</t>
+          <t>Chapter03. 퀀트 분야의 트렌드</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -44225,12 +44225,12 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Part09. 머신러닝 알고리즘 기반 분석 (21:40:45)</t>
+          <t>Part09. 머신러닝 알고리즘 기반 분석</t>
         </is>
       </c>
       <c r="B488" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 알고리즘 발전 방향과 비용함수의 구조 이해 (03:19:24)</t>
+          <t>Chapter01. 알고리즘 발전 방향과 비용함수의 구조 이해</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -44307,7 +44307,7 @@
     <row r="494">
       <c r="B494" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘 (09:32:34)</t>
+          <t>Chapter02. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -44576,7 +44576,7 @@
     <row r="516">
       <c r="B516" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘 실습 (59:22)</t>
+          <t>Chapter03. 회귀/분류 문제 해결을 위한 머신러닝 알고리즘 실습</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -44605,7 +44605,7 @@
     <row r="518">
       <c r="B518" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘 (05:45:23)</t>
+          <t>Chapter04. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -44742,7 +44742,7 @@
     <row r="529">
       <c r="B529" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘 실습 (02:04:02)</t>
+          <t>Chapter05. 군집화/차원변환 문제 해결을 위한 머신러닝 알고리즘 실습</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -44819,12 +44819,12 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Part10. 시계열 데이터분석 싸이클 이해 (20:06:31)</t>
+          <t>Part10. 시계열 데이터분석 싸이클 이해</t>
         </is>
       </c>
       <c r="B535" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (1) (02:08:30)</t>
+          <t>Chapter01. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (1)</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -44889,7 +44889,7 @@
     <row r="540">
       <c r="B540" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (1) (01:18:59)</t>
+          <t>Chapter02. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (1)</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -44930,7 +44930,7 @@
     <row r="543">
       <c r="B543" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (2) (01:58:12)</t>
+          <t>Chapter03. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (2)</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -44983,7 +44983,7 @@
     <row r="547">
       <c r="B547" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (2) (02:27:39)</t>
+          <t>Chapter04. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 (2)</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -45048,7 +45048,7 @@
     <row r="552">
       <c r="B552" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (3) (52:17)</t>
+          <t>Chapter05. 시계열 알고리즘 학습을 위한 시계열데이터 전처리 실습 (3)</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -45077,7 +45077,7 @@
     <row r="554">
       <c r="B554" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. 시계열 단변량 선형과정 알고리즘 (07:21:00)</t>
+          <t>Chapter06. 시계열 단변량 선형과정 알고리즘</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -45298,7 +45298,7 @@
     <row r="572">
       <c r="B572" s="1" t="inlineStr">
         <is>
-          <t>Chapter07. 시계열 단변량 선형과정 알고리즘 실습 (39:14)</t>
+          <t>Chapter07. 시계열 단변량 선형과정 알고리즘 실습</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -45327,7 +45327,7 @@
     <row r="574">
       <c r="B574" s="1" t="inlineStr">
         <is>
-          <t>Chapter08. 시계열 다변량 선형과정 알고리즘 (02:17:33)</t>
+          <t>Chapter08. 시계열 다변량 선형과정 알고리즘</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -45416,7 +45416,7 @@
     <row r="581">
       <c r="B581" s="1" t="inlineStr">
         <is>
-          <t>Chapter09. 시계열 비선형과정 딥러닝 알고리즘 (01:03:07)</t>
+          <t>Chapter09. 시계열 비선형과정 딥러닝 알고리즘</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -45457,12 +45457,12 @@
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>Part11. 딥러닝 알고리즘 기반 데이터분석 (14:42:48)</t>
+          <t>Part11. 딥러닝 알고리즘 기반 데이터분석</t>
         </is>
       </c>
       <c r="B584" s="1" t="inlineStr">
         <is>
-          <t>Chapter01. 인공지능의 역사로 이해하는 딥러닝의 발전과정과 용어 (03:10:43)</t>
+          <t>Chapter01. 인공지능의 역사로 이해하는 딥러닝의 발전과정과 용어</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -45551,7 +45551,7 @@
     <row r="591">
       <c r="B591" s="1" t="inlineStr">
         <is>
-          <t>Chapter02. Keras 라이브러리 활용 딥러닝 데이터분석 프로세스 (01:24:07)</t>
+          <t>Chapter02. Keras 라이브러리 활용 딥러닝 데이터분석 프로세스</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -45592,7 +45592,7 @@
     <row r="594">
       <c r="B594" s="1" t="inlineStr">
         <is>
-          <t>Chapter03. 한계 극복을 통한 딥러닝 알고리즘의 발전과 활용뱡향 (02:20:41)</t>
+          <t>Chapter03. 한계 극복을 통한 딥러닝 알고리즘의 발전과 활용뱡향</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -45669,7 +45669,7 @@
     <row r="600">
       <c r="B600" s="1" t="inlineStr">
         <is>
-          <t>Chapter04. 회귀/분류 문제 해결을 위한 머신러닝과 인공신경망 실습 (01:54:09)</t>
+          <t>Chapter04. 회귀/분류 문제 해결을 위한 머신러닝과 인공신경망 실습</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -45734,7 +45734,7 @@
     <row r="605">
       <c r="B605" s="1" t="inlineStr">
         <is>
-          <t>Chapter05. CNN/RNN 알고리즘의 방향 및 구조 이해 (03:01:24)</t>
+          <t>Chapter05. CNN/RNN 알고리즘의 방향 및 구조 이해</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -45787,7 +45787,7 @@
     <row r="609">
       <c r="B609" s="1" t="inlineStr">
         <is>
-          <t>Chapter06. CNN/RNN 알고리즘 활용 회귀/분류 문제해결 실습 (02:51:44)</t>
+          <t>Chapter06. CNN/RNN 알고리즘 활용 회귀/분류 문제해결 실습</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -45968,10 +45968,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="55" customWidth="1" min="1" max="1"/>
-    <col width="58" customWidth="1" min="2" max="2"/>
-    <col width="64" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="59" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45999,12 +45999,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. 데이터 분석 첫 걸음 떼기 (04:28:31)</t>
+          <t>Part 1. 데이터 분석 첫 걸음 떼기</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표 (04:43)</t>
+          <t>Ch 1. 학습목표</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -46021,7 +46021,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 데이터 분석 소개 (01:26:23)</t>
+          <t>Ch 2. 데이터 분석 소개</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -46098,7 +46098,7 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. (실습) 데이터 탐색하기 (34:14)</t>
+          <t>Ch 3. (실습) 데이터 탐색하기</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -46151,7 +46151,7 @@
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. (실습) 시계열 데이터와 친해지기 (35:44)</t>
+          <t>Ch 4. (실습) 시계열 데이터와 친해지기</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -46240,7 +46240,7 @@
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. (실습) 시계열 데이터의 EDA (01:35:43)</t>
+          <t>Ch 5. (실습) 시계열 데이터의 EDA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -46305,7 +46305,7 @@
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 요약 및 정리 (11:44)</t>
+          <t>Ch 6. 요약 및 정리</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -46334,12 +46334,12 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Part 2. 머신러닝으로 데이터 실무 맛보기 (06:04:22)</t>
+          <t>Part 2. 머신러닝으로 데이터 실무 맛보기</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표 (01:47)</t>
+          <t>Ch 1. 학습목표</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -46356,7 +46356,7 @@
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 예측 모델링 시작하기 (02:47:51)</t>
+          <t>Ch 2. 예측 모델링 시작하기</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -46469,7 +46469,7 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. (실습) 머신러닝 예측 모델 구현하기 (01:04:50)</t>
+          <t>Ch 3. (실습) 머신러닝 예측 모델 구현하기</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -46534,7 +46534,7 @@
     <row r="42">
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. (실습) 예측 결과 평가하기 (01:03:16)</t>
+          <t>Ch 4. (실습) 예측 결과 평가하기</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -46599,7 +46599,7 @@
     <row r="47">
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. (실습) 머신러닝 실전편 (01:00:59)</t>
+          <t>Ch 5. (실습) 머신러닝 실전편</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -46652,7 +46652,7 @@
     <row r="51">
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 요약 및 정리 (05:39)</t>
+          <t>Ch 6. 요약 및 정리</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -46681,12 +46681,12 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Part 3. 본격 시계열 데이터 분석하기 (단변량 시계열) (03:05:14)</t>
+          <t>Part 3. 본격 시계열 데이터 분석하기 (단변량 시계열)</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습 목표 (04:06)</t>
+          <t>Ch 1. 학습 목표</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -46703,7 +46703,7 @@
     <row r="54">
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 시계열 데이터의 속성 (46:23)</t>
+          <t>Ch 2. 시계열 데이터의 속성</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -46756,7 +46756,7 @@
     <row r="58">
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. (실습) 시계열 분석 모형 개요 (49:29)</t>
+          <t>Ch 3. (실습) 시계열 분석 모형 개요</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -46821,7 +46821,7 @@
     <row r="63">
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. (실습) 시계열 모델링 예시 (01:16:15)</t>
+          <t>Ch 4. (실습) 시계열 모델링 예시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -46910,7 +46910,7 @@
     <row r="70">
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 요약 및 정리 (09:01)</t>
+          <t>Ch 5. 요약 및 정리</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -46939,12 +46939,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Part 4. 데이터 사이언티스트로 도약하기 (다변량 시계열) (04:32:28)</t>
+          <t>Part 4. 데이터 사이언티스트로 도약하기 (다변량 시계열)</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습 목표 (02:35)</t>
+          <t>Ch 1. 학습 목표</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -46961,7 +46961,7 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 자본시장 데이터의 수집 (01:08:05)</t>
+          <t>Ch 2. 자본시장 데이터의 수집</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -47002,7 +47002,7 @@
     <row r="76">
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. 자본시장 예측의 기초와 응용 (01:39:09)</t>
+          <t>Ch 3. 자본시장 예측의 기초와 응용</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -47055,7 +47055,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. 추가 변수를 이용하여 시장 예측하기 (01:29:54)</t>
+          <t>Ch 4. 추가 변수를 이용하여 시장 예측하기</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -47108,7 +47108,7 @@
     <row r="84">
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 요약 및 정리 (12:45)</t>
+          <t>Ch 5. 요약 및 정리</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -47137,12 +47137,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 딥러닝을 이용하여 정교하게 예측하기 (03:37:40)</t>
+          <t>Part 5. 딥러닝을 이용하여 정교하게 예측하기</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표 (05:31)</t>
+          <t>Ch 1. 학습목표</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -47159,7 +47159,7 @@
     <row r="87">
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 어서와. 인공신경망은 처음이지? (01:08:24)</t>
+          <t>Ch 2. 어서와. 인공신경망은 처음이지?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -47224,7 +47224,7 @@
     <row r="92">
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. 심층 신경망 (Deep Neural Network) (30:21)</t>
+          <t>Ch 3. 심층 신경망 (Deep Neural Network)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -47277,7 +47277,7 @@
     <row r="96">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. CNN 분류 모형 예시 (42:04)</t>
+          <t>Ch 4. CNN 분류 모형 예시</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -47330,7 +47330,7 @@
     <row r="100">
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 딥러닝과 시계열 (27:52)</t>
+          <t>Ch 5. 딥러닝과 시계열</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -47371,7 +47371,7 @@
     <row r="103">
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 딥러닝을 이용한 시계열 예측 (26:55)</t>
+          <t>Ch 6. 딥러닝을 이용한 시계열 예측</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -47424,7 +47424,7 @@
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>Ch 7. 요약 및 정리 (16:33)</t>
+          <t>Ch 7. 요약 및 정리</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -47453,12 +47453,12 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Part 6. 최신 사례로 실습 포트폴리오 확장하기 (03:49:33)</t>
+          <t>Part 6. 최신 사례로 실습 포트폴리오 확장하기</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>Ch 1. 학습목표와 실습의 주안점 및 데이터 소개 (05:45)</t>
+          <t>Ch 1. 학습목표와 실습의 주안점 및 데이터 소개</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -47475,7 +47475,7 @@
     <row r="110">
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>Ch 2. 지도학습(1) 예측을 더 쉽게 : 매출 데이터 (52:03)</t>
+          <t>Ch 2. 지도학습(1) 예측을 더 쉽게 : 매출 데이터</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -47516,7 +47516,7 @@
     <row r="113">
       <c r="B113" s="1" t="inlineStr">
         <is>
-          <t>Ch 3. 지도학습(2) 예측을 더 쉽게 : 공공 데이터 (48:29)</t>
+          <t>Ch 3. 지도학습(2) 예측을 더 쉽게 : 공공 데이터</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -47569,7 +47569,7 @@
     <row r="117">
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Ch 4. 비지도학습(1) 단변량 시계열 클러스터링 : 경제 데이터 (01:19:53)</t>
+          <t>Ch 4. 비지도학습(1) 단변량 시계열 클러스터링 : 경제 데이터</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -47622,7 +47622,7 @@
     <row r="121">
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>Ch 5. 비지도학습(2) 다변량 시계열 클러스터링 : 센서 데이터 (29:21)</t>
+          <t>Ch 5. 비지도학습(2) 다변량 시계열 클러스터링 : 센서 데이터</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -47675,7 +47675,7 @@
     <row r="125">
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>Ch 6. 요약 및 정리 (14:02)</t>
+          <t>Ch 6. 요약 및 정리</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -47763,10 +47763,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="63" customWidth="1" min="1" max="1"/>
-    <col width="63" customWidth="1" min="2" max="2"/>
-    <col width="74" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="47" customWidth="1" min="1" max="1"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="69" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -47794,12 +47794,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Part 1. SQL 데이터 수집-분석-시각화 (입문-실습) (32:04:02)</t>
+          <t>Part 1. SQL 데이터 수집-분석-시각화 (입문-실습)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 데이터베이스 개념 (01:24:07)</t>
+          <t>Chapter 1. 데이터베이스 개념</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -47852,7 +47852,7 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. 데이터베이스 설치 (01:19:44)</t>
+          <t>Chapter 2. 데이터베이스 설치</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -47905,7 +47905,7 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. SQL 기초 문법 (03:11:44)</t>
+          <t>Chapter 3. SQL 기초 문법</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -48018,7 +48018,7 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Chapter 4. 데이터베이스 및 테이블 제어 (01:57:14)</t>
+          <t>Chapter 4. 데이터베이스 및 테이블 제어</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -48083,7 +48083,7 @@
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Chapter 5. SQL Server 자료형 (01:22:52)</t>
+          <t>Chapter 5. SQL Server 자료형</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -48124,7 +48124,7 @@
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Chapter 6. SQL JOIN (01:25:38)</t>
+          <t>Chapter 6. SQL JOIN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -48165,7 +48165,7 @@
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Chapter 7. SQL 서브쿼리 (02:17:04)</t>
+          <t>Chapter 7. SQL 서브쿼리</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -48242,7 +48242,7 @@
     <row r="36">
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Chapter 8. SQL 함수 (04:03:21)</t>
+          <t>Chapter 8. SQL 함수</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -48367,7 +48367,7 @@
     <row r="46">
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Chapter 9. 주식 데이터 분석 (04:34:38)</t>
+          <t>Chapter 9. 주식 데이터 분석</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -48492,7 +48492,7 @@
     <row r="56">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Chapter 10. 온라인 커머스 매출 분석 (02:27:16)</t>
+          <t>Chapter 10. 온라인 커머스 매출 분석</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -48569,7 +48569,7 @@
     <row r="62">
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Chapter 11. 국가 통계 데이터 분석 (03:02:23)</t>
+          <t>Chapter 11. 국가 통계 데이터 분석</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -48658,7 +48658,7 @@
     <row r="69">
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Chapter 12. SSRS 리포트 활용 (04:34:59)</t>
+          <t>Chapter 12. SSRS 리포트 활용</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -48795,7 +48795,7 @@
     <row r="80">
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Chapter 13. SSRS 리포트 만들기 (23:02)</t>
+          <t>Chapter 13. SSRS 리포트 만들기</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -48812,12 +48812,12 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Part 2. Excel 대시보드 시각화 (입문-실습) (07:00:42)</t>
+          <t>Part 2. Excel 대시보드 시각화 (입문-실습)</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 엑셀 데이터 시각화 Ⅰ (01:22:16)</t>
+          <t>Chapter 1. 엑셀 데이터 시각화 Ⅰ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -48918,7 +48918,7 @@
     <row r="89">
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드 (01:43:44)</t>
+          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -49019,7 +49019,7 @@
     <row r="97">
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. 엑셀 파일을 활용한 디지털 마케팅 대시보드 (01:45:01)</t>
+          <t>Chapter 3. 엑셀 파일을 활용한 디지털 마케팅 대시보드</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -49132,7 +49132,7 @@
     <row r="106">
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>Chapter 4. 다양한 데이터와 데이터 모델을 활용한 판매 분석 대시보드 (02:09:41)</t>
+          <t>Chapter 4. 다양한 데이터와 데이터 모델을 활용한 판매 분석 대시보드</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -49293,12 +49293,12 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Part 3. Excel 대시보드 시각화 (심화-실습) (08:53:03)</t>
+          <t>Part 3. Excel 대시보드 시각화 (심화-실습)</t>
         </is>
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 엑셀 데이터 시각화 Ⅱ (03:13:17)</t>
+          <t>Chapter 1. 엑셀 데이터 시각화 Ⅱ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -49435,7 +49435,7 @@
     <row r="130">
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. 엑셀 대시보드 디자인 활용법 (51:54)</t>
+          <t>Chapter 2. 엑셀 대시보드 디자인 활용법</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -49476,7 +49476,7 @@
     <row r="133">
       <c r="B133" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. 엑셀 대시보드 디자인 심화 실습 (04:47:52)</t>
+          <t>Chapter 3. 엑셀 대시보드 디자인 심화 실습</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -49553,12 +49553,12 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Part 4. Tableau 대시보드 시각화 (입문-실습) (06:50:09)</t>
+          <t>Part 4. Tableau 대시보드 시각화 (입문-실습)</t>
         </is>
       </c>
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 태블로 데이터 시각화 (01:10:28)</t>
+          <t>Chapter 1. 태블로 데이터 시각화</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -49647,7 +49647,7 @@
     <row r="146">
       <c r="B146" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드 (01:14:54)</t>
+          <t>Chapter 2. SQL 서버 데이터를 활용한 주식 트래킹 대시보드</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -49724,7 +49724,7 @@
     <row r="152">
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>Chapter 3. 지역별 매출 대시보드 (01:08:54)</t>
+          <t>Chapter 3. 지역별 매출 대시보드</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -49813,7 +49813,7 @@
     <row r="159">
       <c r="B159" s="1" t="inlineStr">
         <is>
-          <t>Chapter 4. 비즈니스 KPI 대시보드 (59:02)</t>
+          <t>Chapter 4. 비즈니스 KPI 대시보드</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -49890,7 +49890,7 @@
     <row r="165">
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>Chapter 5. 마케팅 퍼널 대시보드 (01:11:43)</t>
+          <t>Chapter 5. 마케팅 퍼널 대시보드</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -49991,7 +49991,7 @@
     <row r="173">
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>Chapter 6. HR 성과 관리 대시보드 (01:05:08)</t>
+          <t>Chapter 6. HR 성과 관리 대시보드</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -50080,12 +50080,12 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>부록 Part 1. 합격의 하이패스 SQL 과정 - 오라클 실습 환경 구성  (01:06:16)</t>
+          <t xml:space="preserve">부록 Part 1. 합격의 하이패스 SQL 과정 - 오라클 실습 환경 구성 </t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. 오라클/DBeaver 설치 (48:34)</t>
+          <t>Chapter 1. 오라클/DBeaver 설치</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -50126,7 +50126,7 @@
     <row r="183">
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. 실습 데이터 입력 (17:42)</t>
+          <t>Chapter 2. 실습 데이터 입력</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -50143,12 +50143,12 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>부록 Part 3. 합격의 하이패스 SQLD 과정 - 실전 예상 문제 (05:57:27)</t>
+          <t>부록 Part 3. 합격의 하이패스 SQLD 과정 - 실전 예상 문제</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. SQLD출제예상 1회차 (02:52:01)</t>
+          <t>Chapter 1. SQLD출제예상 1회차</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -50273,7 +50273,7 @@
     <row r="194">
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>Chapter 2. SQLD출제예상 2회차 (03:05:26)</t>
+          <t>Chapter 2. SQLD출제예상 2회차</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -21,6 +21,7 @@
     <sheet name="알아서일하는진짜인공지능AutoGPT서" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="한번에끝내는AWS기반아키텍처설계와De" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="데이터분석을위한기초통계완전정복" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="개발자취업합격패스With코딩테스트기술" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12691,6 +12692,4381 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D337"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="75" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대주제(Part)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>중주제(Chapter)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>소주제(Clip)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>강의 시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>part1. 자료구조 이론 (09:56:27)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01. 오리엔테이션 (09:53)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01. 강의 소개 및 학습 방법</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02. 자료구조와 알고리즘의 이해 (14:47)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01. 자료구조와 알고리즘이란</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 강의 환경 준비 (33:16)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01. 파이썬, 주피터 노트북 설치 - MAC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02. 파이썬, 주피터 노트북 설치 - Window</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>03. 주피터 노트북 사용법</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Ch 04. 자료구조 (배열) (28:48)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01. 배열</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02. 파이썬과 배열</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Ch 05. 자료구조 (큐) (29:39)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01. 큐 (Quene) -1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02. 큐 (Quene) -2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Ch 06. 자료구조 (스택) (30:59)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01. 스택 (Stack)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Ch 07. 자료구조 (링크드리스트) (01:41:01)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01. 링크드 리스트 (Linked List) -1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>02. 링크드 리스트 (Linked List) -2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>03. 링크드 리스트 (Linked List) -3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>04. 링크드 리스트 (Linked List) -4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Ch 08. 알고리즘 복잡도 표현 기법 (44:40)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01. 시간 복잡도 - 알고리즘 복잡도 표현 방법- 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>02. 시간 복잡도 - 알고리즘 복잡도 표현 방법- 2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Ch 09. 자료구조 (해쉬) (01:44:13)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01. 해쉬 테이블 - 1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>02. 해쉬 테이블 - 2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>03. 해쉬 테이블 - 3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>04. 해쉬 테이블 - 4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>05. 해쉬 테이블 - 5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Ch 10. 자료구조 (트리) (01:54:47)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01. 트리(Tree) - 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>02. 트리(Tree) - 2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>03. 트리(Tree) - 3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>04. 트리(Tree) - 4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>05. 트리(Tree) - 5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>06. 트리(Tree) - 6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>07. 트리(Tree) - 7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08. 트리(Tree) - 8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Ch 11. 자료구조 (힙) (01:24:24)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01. 힙 구조</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>02. 힙 구조 파이썬 구현 - 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>03. 힙 구조 파이썬 구현 - 2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>04. 힙에 데이터 삭제 구현</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>30:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Part2. 알고리즘 이론 (12:34:50)</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Ch 12. 기본 정렬 알고리즘  (01:44:00)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01. 정렬 알고리즘 개요</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>02. 버블 정렬 - 1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>03. 버블 정렬 - 2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>04. 삽입 정렬</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>05. 선택 정렬</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>06. 참고, 공간복잡도</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>07. 참고, 공간복잡도 - 2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Ch 13. 재귀 용법 (49:46)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01. 알고리즘 해결에 중요한 재귀 호출 이해</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>02. 알고리즘 해결에 중요한 재귀 호출 예제와 실습</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>03. 알고리즘 해결에 중요한 재귀 호출 예제와 실습 - 2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Ch 14. 동적 계획법과 분할 정복 (01:06:58)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01. 동적 계획법과 분할 정복</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>02. 동적 계획법 관련 코딩 테스트 연습</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>03. 동적 계획법 관련 코딩 테스트 연습문제1 풀이</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>04. 동적 계획법 관련 코딩 테스트 연습문제2 풀이</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Ch 15. 고급 정렬 알고리즘 (01:17:47)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>01. 퀵 정렬</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>28:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>02. 병합 정렬</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>03. 병합 정렬 - 2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>04. 병합 정렬 - 3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>05. 병합 정렬 - 4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Ch 16. 탐색 알고리즘 (54:56)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01. 이진 탐색 - 1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>02. 이진 탐색 - 2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>03. 이진 탐색 - 3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>04. 순차 탐색</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>05. 탐색 알고리즘 관련 코딩 테스트 연습문제 풀이</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Ch 17. 그래프 이해와 자료 구조 (30:13)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01. 그래프 이해와 자료 구조</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>02. 그래프 종류와 자료 구조</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Ch 18. 그래프 기본 탐색 알고리즘 (50:43)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01. 너비 우선 탐색(BFS) - 1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>02. 너비 우선 탐색(BFS) - 2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>03. 너비 우선 탐색(BFS) - 3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>04. 깊이 우선 탐색(DFS)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Ch 19. 탐욕 알고리즘 (56:27)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>01. 탐욕 알고리즘의 이해</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>02. 탐욕 알고리즘 예제와 실습</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>03. 탐욕 알고리즘 관련 코딩 테스트 연습문제 풀이</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Ch 20. 그래프 고급 탐색 알고리즘 (01:14:38)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01. 최단 경로 알고리즘 이해 - 1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>02. 최단 경로 알고리즘 이해 - 2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>03. 최단 경로 알고리즘 이해 - 3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>04. 다익스트라 알고리즘 파이썬 구현 - 1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>05. 다익스트라 알고리즘 파이썬 구현 - 2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>06. 시간 복잡도</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Ch 21. 최소 신장 트리의 이해 (02:06:07)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01. 최소신장트리와 크루스칼 알고리즘 이해</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>02. 크루스칼 알고리즘과 Union Find 알고리즘의 이해</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>03. 크루스칼 알고리즘 코드 작성</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>04. 크루스칼 알고리즘 시간 복잡도 이해</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>05. 프림 알고리즘의 이해</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>06. 프림 알고리즘 코드를 위한 파이썬 라이브러리 사용법 이해</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>07. 프림 알고리즘 코드 작성</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>08. 참고- 개선된 프림 알고리즘 이해</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Ch 22. 백트래킹 (55:25)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01. 백트래킹 기법의 이해</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>02. N Queen 문제 이해</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>03. N Queen 문제 파이썬 코드 작성 - 1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>04. N Queen 문제 파이썬 코드 작성 - 2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Ch 23. 자료구조와 알고리즘 정리 (07:50)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>01. 필수 자료구조와 알고리즘 정리</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Part3. 코딩테스트 문제 풀이 (21:11:05)</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Ch01. 자료구조  (03:07:27)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01. 기본 자료구조 - 기초 문제풀이 </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>02. 기본 자료구조 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>03. 고급 자료구조 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>04. 기본 자료구조 - 핵심 유형 문제 풀이-1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>05. 기본 자료구조 - 핵심 유형 문제 풀이-2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>06. 기본 자료구조 - 핵심 유형 문제 풀이-3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>07. 고급 자료구조 - 핵심 유형 문제 풀이-1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>08. 고급 자료구조 - 핵심 유형 문제 풀이-2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>09. 고급 자료구조 - 핵심 유형 문제 풀이-3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Ch02. 알고리즘 (09:06:31)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01. 기본 정렬 알고리즘 - 기초 문제풀이</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>02.기본 정렬 알고리즘 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>03. 재귀 호출 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>04. 고급 정렬 알고리즘 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>05. 기본 탐색 알고리즘 - 기초 문제풀이</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>06. 기본 탐색 알고리즘 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>07. 고급 탐색 알고리즘 - 기초 문제풀이</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>08. 고급 탐색 알고리즘 - 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>09. 동적 프로그래밍 - 01. 기초 문제풀이</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10. 동적 프로그래밍 - 02. 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>11. 그래프 기본 탐색 알고리즘 - 01. 기초 문제풀이</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>12. 그래프 기본 탐색 알고리즘 - 02. 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>13. 그래프 고급 탐색 알고리즘 - 01. 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>14. 탐욕 알고리즘 - 01. 기초 문제풀이</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>15. 탐욕 알고리즘 - 02. 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>16. 백 트래킹 - 01. 핵심 유형 문제풀이</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>17. 정렬 알고리즘 - 핵심 유형 문제 풀이(1)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>18. 정렬 알고리즘 - 핵심 유형 문제 풀이(2)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>19. DFS를 활용한 그래프 탐색 알고리즘 - 핵심 유형 문제 풀이(1)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>20. DFS를 활용한 그래프 탐색 알고리즘 - 핵심 유형 문제 풀이(2)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>21. BFS를 활용한 그래프 탐색 알고리즘 - 핵심 유형 문제 풀이(3)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>22. BFS를 활용한 그래프 탐색 알고리즘 - 핵심 유형 문제 풀이(4)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>23. BFS를 활용한 그래프 탐색 알고리즘 - 핵심 유형 문제 풀이(5)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>24. 그리디 알고리즘 - 핵심 유형 문제 풀이(1)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>16:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>25. 그리디 알고리즘 - 핵심 유형 문제 풀이(2)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>26. 그리디 알고리즘 - 핵심 유형 문제 풀이(3)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>18:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>27. 최단 경로 알고리즘 - 핵심 유형 문제 풀이(1)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>28. 최단 경로 알고리즘 - 핵심 유형 문제 풀이(2)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03. 최신 코딩 테스트 기출 문제 풀이 (02:07:41)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01. 코딩 테스트 대비 핵심 알고리즘 (1)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>02. 코딩 테스트 대비 핵심 알고리즘 (2)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>03. 코딩 테스트 대비 핵심 알고리즘 (3)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>04. 코딩 테스트 대비 핵심 알고리즘(4)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>20:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>05. 코딩 테스트 대비 핵심 알고리즘(5)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>06. 코딩 테스트 대비 핵심 알고리즘(6)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>Ch 04. 개발형 코딩 테스트 문제 풀이 (02:56:45)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01. 기초 개발 지식 공부하기 - 서버와 클라이언트</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>6:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>02. 기초 개발 지식 공부하기 - 서버로 요청 보내기(GET, POST 등)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>03. 기초 개발 지식 공부하기 - 데이터 형식 다루기(JSON)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>9:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>04. 기초 개발 지식 공부하기 - Python 라이브러리를 활용한 API 호출(서버와의 통신) 방법</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>05. 실전 개발형 코딩 테스트 문제 풀이 ① - 문제 설명</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>9:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>06. 실전 개발형 코딩 테스트 문제 풀이 ① - 서버 환경 구축하기</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>7:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>07. 실전 개발형 코딩 테스트 문제 풀이 ① - 문제 풀이를 위한 설계</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>08. 실전 개발형 코딩 테스트 문제 풀이 ① - 문제 풀이 1)</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>8:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>09. 실전 개발형 코딩 테스트 문제 풀이 ① - 문제 풀이 2)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>8:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>10. 실전 개발형 코딩 테스트 문제 풀이 ② - 문제 설명</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>11. 실전 개발형 코딩 테스트 문제 풀이 ② - 서버 환경 구축하기</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>7:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>12. 실전 개발형 코딩 테스트 문제 풀이 ② - 문제 풀이를 위한 설계</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>9:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>13. 실전 개발형 코딩 테스트 문제 풀이 ② - 문제 풀이 1)</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>9:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>14. 실전 개발형 코딩 테스트 문제 풀이 ② - 문제 풀이 2)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>15. 실전 개발형 코딩 테스트 문제 풀이 ③ - 문제 설명</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>16. 실전 개발형 코딩 테스트 문제 풀이 ③ - 서버 환경 구축하기</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>6:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>17. 실전 개발형 코딩 테스트 문제 풀이 ③ - 문제 풀이를 위한 설계</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>18. 실전 개발형 코딩 테스트 문제 풀이 ③ - 문제 풀이 1)</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>6:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>19. 실전 개발형 코딩 테스트 문제 풀이 ③ - 문제 풀이 2)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>Ch 05. SQL 코딩 테스트 문제 풀이 (03:15:29)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>01. SQL 기초 문법 1) 데이터베이스와 MySQL 개요</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>02. SQL 기초 문법 2) 데이터베이스와 테이블 관리</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>13:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>03. SQL 기초 문법 3) INSERT, DELETE, UPDATE-</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>8:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>04. SQL 기초 문법 4) SELECT</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>05. SQL 기초 문법 5)연산자와 자료형</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>06. SQL 기초 문법 6) 함수와 조건문</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07. 실전 SQL 코딩 테스트 문제 풀이 1) 소개 및 문제 1번 </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>08. 실전 SQL 코딩 테스트 문제 풀이 2) 문제 2~3번</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>9:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>09. 실전 SQL 코딩 테스트 문제 풀이 3) 문제 4~7번</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>10. 실전 SQL 코딩 테스트 문제 풀이 4) 문제 8번~14번</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>11. 실전 SQL 코딩 테스트 문제 풀이 5) 문제 15~20번</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>12. 실전 SQL 코딩 테스트 문제 풀이 6) 문제 21번~ 29번</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>13. 실전 SQL 코딩 테스트 문제 풀이 7) 소개 및 문제 1번~ 2번</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>14. 실전 SQL 코딩 테스트 문제 풀이 8) 소개 및 문제 3~7번</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>Ch 06. 파이썬 문법집 부록 (37:12)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>01. 코딩 테스트를 위한 Python 문법 핵심 요약 1강)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>02. 코딩 테스트를 위한 Python 문법 핵심 요약 2강)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>03. 코딩 테스트를 위한 Python 문법 핵심 요약 3강</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Part 5. 기술면접 &amp; CS지식 (18:57:32)</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>Ch01. 강사소개 및 기술면접 팁 (09:18)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>01. 간단한 강사소개 및 기술 면접의 주요 팁</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>9:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>Ch02. DB (01:57:06)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>01. DB 분야의 주요 질문사항</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>02. 데이터 독립성</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>5:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>03. DBMS의 정의(주요기능, 특징, 질의어처리기, 트랜잭션관리자, 사전)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>5:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>04. RDBMS의 질의어(DDL, DCL, DML)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>05. RBDMS 트랜잭션 정의(ACID, 동시성제어)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>06. 조인의 개념 및 종류(left, right, full outer join)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>07. NoSQL 개념(BASE, 종류, key-value, 그래프, 문서기반)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>08. 데이터 무결성(키, 참조, 기본키, 외래키, 슈퍼키, 후보키)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>8:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>09. 정규화(이상현상, 1,2,3,차 정규화)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>10. 반정규화(목적, 방법, 절차, 수직, 수평분할, 중복)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>11. 인덱스 개념, 원리, 목적, 유형, B 트리)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>Ch03. SW 공학 (04:17:34)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>01. SW 분야의 주요 질문 사항</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>02. SW 공학의 의의 (필요성, 목적, 패러다임, SDLC모형, 방법론)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>03. 애자일 프로세스 1 (Scrum, XP, TDD, 개념, 특징)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>03. 애자일 프로세스 2 (Scrum, XP, TDD, 개념, 특징)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>14:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>03. 애자일 프로세스 3 (Scrum, XP, TDD, 개념, 특징)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>04. 알고리즘과 자료구조 (1)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>8:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>04. 알고리즘과 자료구조 (2)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>05. 객체지향 설계의 원리(캡슐화,다형성,상속,정보은닉, SOLID, 디자인패턴)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>06. 디자인 패턴 (GoF 23개)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>07. UML(유스케이스,클래스,시퀀스,상태다이어그램)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>08. SW테스트의 원리(개념,목적, 원리, 기법, 블랙박스,화이트박스 구조기반, 명세기반)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>09. 리팩토링(개념, 필요성, 코드스멜, 리팩토링 방법 예시)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>9:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>10. 요구사항 관리(요구공학, 추적 메트릭스)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>6:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>11. SW 형상관리 (베이스라인, 형상관리 활동, svn, git)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>12. 오픈소스 라이선스 개념 및 종류(GPL, LGPL, MPL, Apache)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>9:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>13. MSA (1)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>13. MSA (2)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>14. Web Application 구조</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>9:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>15. 프론트와 백앤드 (SPA , ES6, Springboot등)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>Ch04. AI (01:03:08)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>01. AI 의 주요 질문 사항</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>7:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>02. AI 의 기본 개념, 원리, 딥러닝</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>7:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>03. 자연어 처리(NLP)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>04. CNN, RNN,LSTM</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>7:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>05. 머신러닝 (지도학습,비지도학습, 강화학습)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>5:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>06. 데이터셋(학습데이터, validation set)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>5:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>07. Overfit,Underfit 개념, 해결방안</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>6:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>08. 활성화 함수 개념 및 종류(스탭, 시그모이드, ReLU, AutoML)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>09. 인공지능 윤리</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>8:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>Ch05. 컴퓨터 구조 &amp; 운영 체제 (02:06:01)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>01. 컴퓨터구조와 OS 주요 질문 사항</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>8:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>02. OS 개념 및 종류</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>6:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>03. 리눅스 시스템과 기본 명령어</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>04. CPU 스케쥴링 (기법, 종류)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>05. Disk 스케쥴링 (기법, 종류)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>7:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>06. 가상메모리</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>07. 프로세스와 스레드</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>8:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>08. 교착상태</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>8:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>09. 세마포어와 뮤텍스</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>6:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>10. 단편화와 버디메모리 할당</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>9:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>11. 인터럽트</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>9:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>12. 우선순위 역전현상</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>13. Locality와 Thrashing</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>8:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>Ch06. 네트워크 (01:19:43)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>01. 네트워크의 주요 질문 사항</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>8:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>02. 네트워크 구성 및 종류</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>7:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>03. 네트워크 계층별 장비-</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>7:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>04. OSI 7Layer와 TCP.IP</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>05. http2와 상태코드</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>06. subnetting</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>07. superneting</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>08. VPN의 개념과 종류</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>6:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>Ch07. 보안 (01:22:04)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>01. 보안 분야 주요 질문사항</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>7:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>02. 정보보안의 개념 및 목표(무결성,가용성, 기밀성, 인증,부인방지)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>8:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>03. 암호화</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>04. 전자서명과 전자봉투</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>05. DDOS의  개념과 종류</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>8:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>06. 악성 코드</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>6:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>07. 시큐어코딩(웹취약점 점검, OWASP top 10)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>15:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>08. 개인정보보호법</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>12:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>Ch08. DevOps (55:15)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>01. DevOps 분야 주요 질문 항목</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>7:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>02. DevOps 개념과 목표</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>9:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>03. CICD 개념과 도구</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>6:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04. Docker </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>9:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>05. 클라우드의 개념(AWS, GCP)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>7:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>06. Restful API 설계 기법</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>Ch09. 기술 외 공통 면접 질문 (52:12)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>01. 기술 외 공통 면접 주요 질문 사항</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>02. 프로젝트 관리</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>03. 일정관리(개념, 기법, 단축기법)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>9:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>04. 위험관리(정성적, 정량적 관리기법)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>05. UX-UI 설계의 기법 및 웹접근성</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>7:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>Ch10. 기술 면접 가이드 (04:55:11)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 01 기술면접 강의 목표</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 02 채용 프로세스 이해</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>6:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 03 최근 기술면접 형태 이해</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>01. 이력서 작성 요령과 팁 - 01 채용 공고 이해와 팁</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>01. 이력서 작성 요령과 팁 - 02 채용 공고 기반, 이력서_발표자료 작성 팁</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 01 자기소개 주요 문항 예시</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>9:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 01 CS 기본 지식 주요 문항 예시</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>8:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 04 실제 녹음한 면접 기반, 답변 팁3</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 01 프로그래밍 언어별_각 IT 분야별 문항 예시</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>4:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>04. 프로그래밍 언어별_각 IT 분 야별 예시 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 04 실제 녹음한 면접 기반, 답변 팁3</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>8:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 05 각 분야별 주요 후보 문항</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 01 손코딩 문항 예시</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 02 실제 녹음한 면접 기반, 단계별 답변 팁1</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>05.  손코딩 관련 주요 문항 및 단계별 답변 팁 - 03 실제 녹음한 면접 기반, 단계별 답변 팁2</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>9:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 04 손코딩 문항 예시2 및 답변 팁</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 05 손코딩 문항 예시3 및 답변 팁</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 06 손코딩 문항 예시4 및 답변 팁</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>06. 신입 기술면접 가이드라인 총정리 - 01 신입 기술면접 준비 총정리</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>5:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>Part 6. 네카라쿠배 합격자 노하우 (11:20:58)</t>
+        </is>
+      </c>
+      <c r="B270" s="1" t="inlineStr">
+        <is>
+          <t>네카라쿠배 - 이동현 개발자 (02:28:59)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>01. 강사 소개 및 강의 소개</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>4:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>02. 강사의 취업준비 스토리 - 공모전</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>3:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>03. 강사의 취업준비 스토리 - 인턴</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>6:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>04. 공개채용과 수시채용의 차이점과 지원전략</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>7:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>05. 서류 준비 방법</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>14:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>06. 포트폴리오 준비 방법 1 - 토이프로젝트</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>07. 포트폴리오 준비 방법 2 - Github &amp; Blog</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>08. 포트폴리오 준비 방법 3 - 기술경험 제대로 작성하기</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>09. 코딩테스트 준비 방법</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>10. 기술면접 준비 방법</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>11. 면접이 힘들 때</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>12. 탈락했을 때</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>7:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="1" t="inlineStr">
+        <is>
+          <t>카카오 - 김평안 개발자 (01:57:51)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>01. 강사 소개 및 강의 소개</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>3:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>02. 강사의 취뽀 이야기</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>7:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>03. Github, 블로그로 공부하기</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>8:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>04. 프로젝트, 스터디 시작하기</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>6:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>05. 면접관의 입장 알아보기</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>4:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>06. 카카오 공채 길라잡이</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>8:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>07. 서류 전형팁</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>8:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>08. 이력서 만들기</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>6:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>09. 코딩 테스트 팁</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>7:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>10. 기술 면접 팁</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>8:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>11. 면접 경험 이야기</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>8:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>12. 모의 질문, 모범 답안 - 1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>13. 모의 질문, 모범답안 - 2</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>8:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>14. 컬쳐핏 면접 팁</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>9:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>15. 카카오 개발자의 일상 및 업무 프로세스</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>5:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>16. 신입으로서 가져야할 마음가짐</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>3:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>17. 함께하고 싶은 개발자   응원 메세지</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>1:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" s="1" t="inlineStr">
+        <is>
+          <t>라인 - 서용준 개발자 (02:02:04)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>01. 강사 소개</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>5:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>02. 합격까지 얼마나 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>03. 현직자 입장에서 추천하는 취업 준비 방법은</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>9:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>04. LINE은 개발자를 어떻게 채용하나요</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>5:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>05. 서류는 어떻게 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>4:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>06. 포트폴리오는 어떻게 만드셨나요</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>7:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>07. 코딩테스트는 어떻게 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>08. 기술 면접은 어떻게 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>09. LINE은 면접에서 어떤 걸 물어보나요</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>10. 다른 회사 면접도 경험해보셨나요</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>5:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>11. LINE에서 개발자는 어떻게 일하나요</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>9:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>12. 개발자를 해도 될까요</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" s="1" t="inlineStr">
+        <is>
+          <t>네카라쿠배 - 개발자 P (03:05:10)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>01. 강사 소개 및 취업 준비 과정</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>7:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>02. 채용 전형 미리보기</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>03. Git, Blog 시작하기</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>7:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>04. 스터디, 프로젝트 시작하기</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>05. 서류 준비 1 - 자기소개서 편</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>06. 서류 준비 2 - 포트폴리오 편</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>07. 코딩테스트 준비</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>08. 면접 준비 1 - CS 기술 면접 편</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>6:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>09. 면접 준비 2 - 프로젝트 경험 편</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>6:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>10. 면접 준비 3 - 꿀팁 이것만은 꼭 준비하자</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>9:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>11. 기술 면접</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>12. 프로젝트 면접</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>7:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>13. 인성 면접, 컬쳐핏 면접</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>14. 강의를 마치며</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" s="1" t="inlineStr">
+        <is>
+          <t>우아한형제들 - 김경준 개발자 (01:46:54)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>01. 강사 및 강의소개</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>6:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>02. 취업 과정</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>4:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>03. 우아한테크코스_우아한 형제들 합격 과정</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>04. 성장을 위한 피드백</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>05. 야생학습</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>06. 컴포트존에서 벗어나기</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>6:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>07. 프로젝트</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>08. 질문을 유도하는 자기소개서</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>8:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>09. 기술 면접</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>7:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>10. 꼬리 질문이 나오는 이유</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>8:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>11. 배민다움</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>7:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>12. 기능 조직과 목적 조직</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>6:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>13. MSA_Cloud Service</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>9:56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B167:B177"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A87:A165"/>
+    <mergeCell ref="B227:B234"/>
+    <mergeCell ref="B96:B123"/>
+    <mergeCell ref="B282:B298"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B130:B148"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="B246:B269"/>
+    <mergeCell ref="B219:B226"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B197:B205"/>
+    <mergeCell ref="B311:B324"/>
+    <mergeCell ref="B86"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B178:B196"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B149:B162"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A166:A269"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B166"/>
+    <mergeCell ref="B299:B310"/>
+    <mergeCell ref="B206:B218"/>
+    <mergeCell ref="B325:B337"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="A270:A337"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B270:B281"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A35:A86"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -22,6 +22,7 @@
     <sheet name="한번에끝내는AWS기반아키텍처설계와De" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="데이터분석을위한기초통계완전정복" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="개발자취업합격패스With코딩테스트기술" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="14일만에만드는스타벅스웹사이트with" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17067,6 +17068,1723 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="55" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대주제(Part)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>중주제(Chapter)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>소주제(Clip)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>강의 시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Part 1. HTML/CSS/JS로 만드는 스타벅스 웹사이트 (22:53:00)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ch 1. 개요 (50:05)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01. 첫 인사 및 강의 개요</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02. HTML,CSS 그리고 JS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03. 웹앱의 동작원리</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>04. 웹 표준과 브라우저</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05. 웹에서 사용하는 이미지</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06. 특수 기호</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07. 오픈소스 라이선스</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Ch 2. VS Code (42:15)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01. 설치 및 실행</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02. 파일 생성과 삭제</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>03. 한글화</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>04. 정리된 코드 만들기(Beautify)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>05. 태그 이름을 한 번에 변경(Auto Rename Tag)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>06. 브라우저에 출력(Live Server)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07. 단축키 &amp; 공백2로 만들기</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Ch 3. 무작정 시작하기 (01:31:55)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01. Doctype(DTD)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>02. HTML, HEAD, BODY</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>03. CSS,JS 연결하기</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>04. 정보를 의미하는 태그 살펴보기</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05. 화면에 이미지 출력하기</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>06. 상대 경로와 절대 경로</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07. 페이지를 나누고 연결(링크)하기</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08. 모든 파일 공백 크기 설정</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>09. 개발자 도구 사용하기</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Ch 4. 웹에서 시작하기 (19:37)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>01. Codepen.io 소개</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>02. 브라우저 스타일 초기화</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>03. Emmet</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Ch 5. HTML 개요 (33:27)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>01. 기본 문법</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>02. 부모와 자식 관계의 이해</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>03. 빈 태그</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>04. 글자와 상자</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Ch 6. HTML 핵심 정리 (01:08:42)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01. 핵심 요소 정리</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>02. 핵심 요소 출력 연습</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>03. 주석</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>04. 전역 속성</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Ch 7. CSS 개요 (01:52:12)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01. 기본 문법, 주석</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>02. 선언 방식</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>03. 선택자_기본</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>04. 선택자_복합</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>05. 선택자_가상 클래스 (1)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>06. 선택자_가상 클래스 (2)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>07. 선택자_가장 요소</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08. 선택자_속성</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>09. 스타일 상속</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10. 선택자 우선순위</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Ch 8. CSS 속성 (05:43:32)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>01. 개요</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>02. 너비(width, height)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>03. CSS 단위</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>04. 외부 여백(margin)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>05. 내부 여백(padding)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>06. 테두리 선(border)과 색상 표현</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>07. 모서리 둥글게(border-radius)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>08. 크기 계산(box-sizing)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>09. 넘침 제어(overflow)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10. 출력 특성(display)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>11. 투명도</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12. 글꼴</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>13. 문자</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>14. 배경</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15. 배치 (1)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>16. 배치 (2)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>17. 배치 (3)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>18. 플렉스(정렬) Container (1)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>19. 플렉스(정렬) Container (2)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>20. 플렉스(정렬) Items</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>21. 전환</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>22. 변환 (1)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>23. 변환 (2)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>24. Overwatch 캐릭터 선택 예제 (1)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>25. Overwatch 캐릭터 선택 예제 (2)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Ch 9. JS 선행 (01:56:22)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01. 개요</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>02. 데이터 종류</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>03. 변수, 예약어</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>04. 함수</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>05. 조건문</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>06. DOM API (1)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>07. DOM API (2)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>08. 메소드 체이닝</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>09. 질의응답</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Ch 10. 스타벅스 예제 (08:14:53)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01. 시작하기 - 프로젝트 시작, 스타일 초기화, 파비콘</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>02. 시작하기 - 오픈그래프와 트위터 카드</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>03. 시작하기 - Google Fonts</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>04. 시작하기 - Google Material Icons</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>05. 헤더와 드롭다운 메뉴 - 로고</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>06. 헤더와 드롭다운 메뉴 - 서브 메뉴</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>07. 헤더와 드롭다운 메뉴 - 검색</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>08. 헤더와 드롭다운 메뉴 - 메인 메뉴 (1)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>09. 헤더와 드롭다운 메뉴 - 메인 메뉴 (2)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>10. 헤더와 드롭다운 메뉴 - BEM</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>11. 헤더와 드롭다운 메뉴 - 전역 배지(GSAP) (1)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12. 헤더와 드롭다운 메뉴 - 전역 배지(GSAP) (2)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>13. 순차적 애니메이션 - 전역 버튼 스타일 (1)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14. 순차적 애니메이션 - 전역 버튼 스타일 (2)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>15. 순차적 애니메이션 - 순차적으로 요소 보이기</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>16. 요소 슬라이드 - 공지사항</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>17. Swiper.js 라이브러리 버전 확인하기</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18. 요소 슬라이드 - 수직 슬라이드(Swiper)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>19. 요소 슬라이드 - 요소 가운데 배치</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20. 요소 슬라이드 - 프로모션 이미지 슬라이드 (1)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>21. 요소 슬라이드 - 프로모션 이미지 슬라이드 (2)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>16:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>22. 요소 슬라이드 - 슬라이드 영역 토글</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>23. 유튜브 영상 배경 - 리워즈</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>24. 유튜브 영상 배경 - Youtube iframe API (1)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>25. 유튜브 영상 배경 - Youtube iframe API (2)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>26. 유튜브 영상 배경 - 반복 애니메이션</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>27. 고정 이미지 배경</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>28. 3D 애니메이션</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>29. 스크롤 위치 계산 애니메이션 (1)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>30. 스크롤 위치 계산 애니메이션 (2)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>31. 다중 요소 슬라이드</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>32. 푸터</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>33. 페이지 상단으로 이동(ScrollTo)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Part 2. Git을 활용한 버전관리 (03:09:49)</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Ch 1. 버전관리 (02:29:47)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01. 개요(Git, GitHub)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>02. 스타벅스 예제 GitHub 업로드(Push)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>03. 버전 생성과 업로드의 이해</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>04. Netlify 지속적인 배포</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>6:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>05. 수정사항 버전 생성(Commit)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>06. 로그인 브랜치(Branch)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>07. 로그인 페이지 개발(1)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>08. 로그인 페이지 개발(2)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>09. 로그인 브랜치 병합(Pull Request)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>10. 프로젝트 복제(Clone)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>6:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>11. 연습-버전 되돌리기(Reset)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>12. 연습-다른 환경에서 시작하기</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>9:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>13. 연습-충돌(Conflict), 로컬 병합(Merge)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>Ch 2. Markdown (40:02)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01. 개요</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>02. 제목, 문장, 줄바꿈</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>03. 강조, 목록</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>7:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>04. 링크, 이미지</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>05. 인용문, 코드 강조</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>06. 표</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>07. 원시 HTML, 수평선</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>08. 원격 저장소에 Push</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3:02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="B113:B125"/>
+    <mergeCell ref="B126:B133"/>
+    <mergeCell ref="A113:A133"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A2:A112"/>
+    <mergeCell ref="B80:B112"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B46:B70"/>
+    <mergeCell ref="B28:B31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -23,6 +23,8 @@
     <sheet name="데이터분석을위한기초통계완전정복" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="개발자취업합격패스With코딩테스트기술" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="14일만에만드는스타벅스웹사이트with" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="50개프로젝트로완벽하게끝내는머신러닝S" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="실무문제해결을위한데이터사이언스" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18785,6 +18787,7647 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D537"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="55" customWidth="1" min="1" max="1"/>
+    <col width="78" customWidth="1" min="2" max="2"/>
+    <col width="75" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대주제(Part)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>중주제(Chapter)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>소주제(Clip)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>강의 시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Part 1. 실무 중심의 데이터 분석 방법 (08:21:15)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 01. Introduction to Data Analytics (01:12:26)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CH01-01.과거부터 현재까지 전반적인 AI_머신러닝 흐름</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CH01-02. 실제 현업에서는</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CH01-03. 기업에서 데이터 분석이 실패하는 이유</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CH01-04.기업에서 데이터 분석이 성공한 사례</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 02. Basic of Data Analytics (03:43:31)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CH02-01. 머신러닝으로 접근하는 문제들 (1)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CH02-02. 머신러닝으로 접근하는 문제들 (2)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CH02-03. Data Cleaning</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CH02-04.FeatureEngineering</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CH02-05.FeatureSelection</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CH02-06.Data Sampling</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CH02-07. SupervisedUnsupervised Learning</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CH02-08.Regression</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CH02-09. Classification</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CH02-10. Clustering</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CH02-11. TranValidationTest</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CH02-12. CrossValidation</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CH02-13. OverUnderFitting</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CH02-14. Model Metric</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CH02-15. Visualization</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 03. Basic of Python (02:49:46)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CH03-01. Google Colab 사용방법 및 Tip</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CH03-02. Anaconda 설치 및 Python 환경 설정</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CH03-03.Python 기본함수</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CH03-04. if,for,while,try except</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CH03-05. numpy, pandas</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CH03-06. DataHandling(1)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CH03-07. DataHandling(2)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CH03-08. matplotlib</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CH03-09. 대용량 데이터 다루기</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 04. Data Loading from Cloud(AWS) (35:32)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CH04-01. Public Cloud 소개</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CH04-02. 왜 분석가도 Cloud를</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CH04-03. Data loading from S3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Part 2. 현업 문제해결 유형별 머신러닝 알고리즘 (18:40:02)</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 01. Regression Problem (03:23:04)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CH01-01. Loss Function 설명</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CH01-02. β(계수) 추정 법</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CH01-03. Model 평가 및 지표 해석</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CH01-04. Feature Selection 기법 소개</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CH01-05. Penalty Term</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CH01-06. Regularized Model-Ridge</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CH01-07.Regularized Model-Ridge Code 실습</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>32:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CH01-08. Regularized Model-LASSO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CH01-09. Regularized Model-LASSO Code 실습</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CH01-10. Regularized Model-ElasticNet</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CH01-11. Regularized Model-ElasticNet Code 실습</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 02. Classification Problem (05:28:16)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CH02-01. Loss Function 설명</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CH02-02. Decision Tree 원리</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CH02-03. Model 평가 및 지표 해석</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CH02-04. Ensemble 정의</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CH02-05. Ensemble 종류 (Bagging, Boosting, Stacking)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CH02-06. Random Forest 설명 (1)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CH02-07. Random Forest 설명 (2)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CH02-08. Random Forest Code 실습</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>37:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CH02-09. Adaboost 설명</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CH02-10. Adaboost Code 실습</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CH02-11. Gradient Boosting Machine 설명 (1)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CH02-12. Gradient Boosting Machine 설명 (2)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CH02-13. Gradient Boosting Machine Code 실습</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CH02-14. XGBoost 설명 (1)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CH02-15. XGBoost 설명 (2)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CH02-16. XGBoost Code 실습</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CH02-17. LightGBM 설명</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CH02-18. LightGBM Code 실습</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 03. eXplainable Method (01:51:17)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CH03-01. Black Box 설명</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CH03-02. Interpretable Machine Learning 소개</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CH03-03. Global vs Local Feature Importance Score</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CH03-04. LIME 설명</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>28:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CH03-05. SHAP 설명</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CH03-06. SHAP Code 실습</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 04. Clustering (02:38:16)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CH04-01. Distance 개념 설명</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CH04-02. K-means 설명</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CH04-03. K-means Code 실습</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CH04-04. Hierarchical Clustering 설명</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CH04-05. Hierarchical Clustering Code 실습</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CH04-06. Spectral Clustering 설명</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CH04-07. Spectral Clustering Code 실습</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CH04-08. DBSCAN 설명</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CH04-09. DBSCAN Code 실습</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CH04-10. HDBSCAN 설명</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CH04-11. HDBSCAN Code 실습</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CH04-12. Clustering 평가 지표</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 05. Dimensionality Reduction (02:06:44)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CH05-01. 차원의 저주 설명</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>27:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CH05-02. PCA 설명</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CH05-03. PCA Code 실습</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CH05-04. T-SNE 설명</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CH05-05. T-SNE Code 실습</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CH05-06. Autoencoder 설명</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CH05-07. Autoencoder Code 실습</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 06. Anomaly Detection (03:12:25)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CH06-01. 3-sigma Rule &amp; Box plot 설명</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CH06-02. 3-sigma Rule &amp; Box plot Code 실습</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CH06-03. LOF 설명</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CH06-04. LOF Code 실습</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CH06-05. Isolation Forest 설명</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CH06-06. Isolation Forest Code 실습</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CH06-07. Robust Random Cut Forest 설명</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>16:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CH06-08. Robust Random Cut Forest Code 실습</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CH06-09. One-class SVM 설명</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CH06-10. One-class SVM Code 실습</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CH06-11. Dimensionality Reduction 기법 활용한 이상치 탐지</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Part 3. 데이터 분석 프로세스 (step by step) (06:09:40)</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 01. 데이터 분석 프로세스 기획 (42:51)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CH01-01.문제해결 프로세스 단계 소개</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CH01-02.문제해결 프로세스 정의 및 실습</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 02. Data Readiness Check &amp; Sampling (01:24:31)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CH02-01.Data Info check</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CH02-02.Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CH02-03.Data Sampling (1)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CH02-04.Data Sampling (2)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 03. Data Mart &amp; Feature Engineering (01:22:55)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CH03-01.Data Mart 기획 및 설계</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CH03-02.Data 추출 및 Mart  개발</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CH03-03.Integer Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CH03-04.Categoical Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 04. Data Modeling &amp; Evaluation (01:38:08)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CH04-01.모델링을 위한 데이터 사전 준비</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CH04-02.Model Selection</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CH04-03.모델링 및 성능 비교 (1)</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CH04-04.모델링 및 성능 비교 (2)</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CH04-05.Model evaluation</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 05. Modeling tuning &amp; Operation (01:01:15)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CH05-01.Hyper parameter tuning</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CH05-02.Model explanation</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CH05-03.Modeling operation</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Part 4. 머신러닝 실전 프로젝트 (100:02:28)</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 01. 의류 판매량 예측 모델 (01:55:35)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CH01-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CH01-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CH01-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CH01-04. 데이터 전처리 및 EDA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CH01-05. 모델링(1)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CH01-06. 모델링(2)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CH01-07. Summary</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 02.병원을 재방하는 고객들의 특성 분석 및 재방 예측 모델 (02:13:24)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CH02-01. 문제 상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CH02-02. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CH02-03. 데이터 전처리 및 모델링(1)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CH02-04. 데이터 전처리 및 모델링(2)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CH02-05. 데이터 전처리 및 모델링(3)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CH02-06. 에러 분석(1)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CH02-07. 에러 분석(2)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CH02-08. 에러 분석(3)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>14:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 03. 자녀의 IQ와 부모의 IQ는 상관이 있을까? (01:59:30)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CH03-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CH03-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CH03-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CH03-04. 데이터 전처리 및 EDA(1)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>14:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CH03-05. 데이터 전처리 및 EDA(2)</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CH03-06. Cross validation(1)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CH03-07. Cross validation(2)</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CH03-08. Summary</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 04. 공기질 데이터 분석 (02:02:31)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CH04-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CH04-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>9:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CH04-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CH04-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>9:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CH04-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CH04-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CH04-07. Data Visualization</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CH04-08. Modeling</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CH04-09. Model Evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 05. 유방암 환자 분류 예측 (02:22:06)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CH05 -01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CH05-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>9:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CH05-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CH05-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CH05-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CH05-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>7:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CH05-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>45:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CH05-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 06. 어떤 애완동물이 빨리 입양될까? (02:07:34)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CH06.-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CH06-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CH06-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CH06-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>CH06-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>CH06-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CH06-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>CH06-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 07. 신용카드 이상거래 탐지 모델 (02:10:35)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>CH07-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>CH07-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>CH07-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>CH07-04. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>CH07-05. Modeling(1)</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>CH07-06. Modeling(2)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>CH07-07. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>CH07-08. Model evaluation and summary</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 08. 공조기기 전력 사용 상태 분석 (01:50:21)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CH08-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>9:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>CH08-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>7:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>CH08-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>CH08-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>CH08-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>CH08-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>CH08-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>CH08-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 09. 가스 공급량 분석 및 예측 모델 (01:49:19)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>CH09-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>CH09-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>10:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>CH09-03. 문제 해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CH09-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CH09-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CH09-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>CH09-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>CH09-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>14:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 10. 도로 교통량 분석 및 예측 모델 (01:48:52)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CH10-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>CH10-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>CH10-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CH10-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CH10-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>9:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>CH10-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>CH10-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>CH10-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 11. 전동기 고장 분석 및 예측 모델 (02:06:10)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CH11-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>CH11-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>CH11-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>CH11-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>12:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>CH11-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>CH11-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>16:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>CH11-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>CH11-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 12. 빛을 전기로 전환하는 태양광 패널 고효율/저효율 원인분석 (02:25:04)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CH12-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>CH12-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>CH12-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>CH12-04.Data Info Check</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>CH12-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>CH12-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>CH12-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>CH12-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 13. 금융 보이스피싱 실시간 탐지 (02:12:37)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>CH13-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>CH13-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>7:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>CH13-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>CH13-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>CH13-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>CH13-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>CH13-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>CH13-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 14. 반도체 웨이퍼 칩 Multi-output to Single-output 변환 분석 (02:11:10)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>CH14-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>CH14-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>CH14-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>CH14-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>CH14-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>CH14-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>CH14-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>15:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>CH14-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 15. 심장 질환 분석 및 예측 (02:09:47)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>CH15-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>CH15-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>11:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>CH15-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CH15-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>CH15-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>CH15-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CH15-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>CH15-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 16. 센서 데이터를 활용한 생활 가전 제품 사용자 패턴 군집화 (02:01:19)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>CH16-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>CH16-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>CH16-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>CH16-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>CH16-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>5:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>CH16-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>CH16-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>CH16-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 17. 부동산 가격 예측 및 원인 분석 (02:06:43)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>CH17-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>29:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CH17-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>8:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>CH17-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>10:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>CH17-04. Data Info Check</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>CH17-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>5:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>CH17-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>CH17-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>CH17-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 18. 현업 분석 시 유용하게 활용될 Data Visualization (02:12:53)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>CH18-01. Data Visualization01</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CH18-02. Data Visualization02</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CH18-03. Data Visualization03</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>CH18-04. Data Visualization04</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>CH18-05. Data Visualization05</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>CH18-06. Data Visualization06</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>CH18-07. Data Visualization07</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>CH18-08. Data Visualization08</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 19. Machine Oil Status(오일 상태) 분류 (02:13:50)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CH19-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CH19-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>CH19-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>CH19-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>CH19-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CH19-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>CH19-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>CH19-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 20. 시설 예지 보전  (02:00:43)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>CH20-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>8:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>CH20-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>CH20-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CH20-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>CH20-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>CH20-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>CH20-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>20:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>CH20-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 21. 센서 안테나 성능 예측 및 진단 (02:02:59)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>CH21-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>CH21-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>CH21-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>CH21-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>CH21-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>CH21-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>CH21-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CH21-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 22. 기계 설비 전력 사용 상태 진단 (02:00:12)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CH22-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>CH22-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CH22-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>CH22-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>CH22-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>CH22-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>CH22-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>CH22-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 23. 지하철 상하차 혼잡시간 이상 탐지 (02:00:02)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>CH23-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>CH23-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>CH23-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>9:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>CH23-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>CH23-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>CH23-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>CH23-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>CH23-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>13:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 24. 범죄 체포 건수 유형별 분석 (01:58:33)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>CH24-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>9:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>CH24-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>CH24-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>CH24-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>CH24-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>15:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>CH24-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>14:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>CH24-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>CH24-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 25. Twitch Streamer(스트리머) 분석 (01:59:10)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>CH25-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>9:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>CH25-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>10:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>CH25-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>CH25-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>CH25-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>CH25-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>CH25-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>CH25-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>13:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 26. 임금(Wage) 예측 및 주요 변수 탐색 (01:59:19)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>CH26-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>9:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>CH26-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>10:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>CH26-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>CH26-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>CH26-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>CH26-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>CH26-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>CH26-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 27. 여가시간 이용 선호공간 탐색 (01:58:19)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>CH27-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>CH27-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>9:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>CH27-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>CH27-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>CH27-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>CH27-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>CH27-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>CH27-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 28. 신용카드 연체 예측 (02:01:43)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>CH28-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>CH28-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>9:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>CH28-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>CH28-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>20:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>CH28-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>CH28-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>CH28-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>CH28-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 29. Integer &amp; Categorical Feature 활용 분류 (01:51:43)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>CH29-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>CH29-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>CH29-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>9:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>CH29-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>CH29-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>CH29-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>CH29-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>CH29-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 30. Bus delay(버스 지연) 영향 요인 분석 (01:59:25)</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>CH30-01. 문제상황 및 데이터 살펴보기</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>CH30-02. Data Spec Check</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>9:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>CH30-03. 문제해결 프로세스 정의</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>CH30-04. Data Info check</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>CH30-05. Data Readiness Check</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>17:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>CH30-06. Feature Engineering</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>CH30-07. Modeling</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>CH30-08. Model evaluation and Summary</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 31. Blog Content 데이터 분석과 포털 사이트 경쟁력 강화 (02:16:29)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>CH31-01. 분석개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>CH31-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>CH31-03. EDA_종속변수 탐색</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>CH31-04. EDA 독립변수 탐색</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>28:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>CH31-05. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>15:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>CH31-06. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>CH31-07. Insight</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>4:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" s="1" t="inlineStr">
+        <is>
+          <t>Chapter  32. 산업 가스 데이터 분석과 회귀 분석 (01:38:10)</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>CH32-01. 데이터소개와 분석 개요</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>9:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>CH32-02. Data PreProcessing (1)</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>4:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>CH32-03. EDA_종속변수</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>CH32-04. EDA 독립변수</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>CH32-05. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>CH32-06. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>CH32-07. Insight</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>4:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 33. 항공기 지연 시간 분석과 예측 (02:06:05)</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>CH33-01. 데이터소개와 분석 개요</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>CH33-02. Data PreProcessing (1)</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>35:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>CH33-03. Data Type and Summary</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>8:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>CH33-04. Data EDA</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>CH33-05. Data PreProcessing (2)</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>CH33-06. Model분석</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>CH33-07. Insight 정리</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>3:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 34. 반도체 공정 시스템 데이터 분석과 시스템 개선 (02:25:15)</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>CH34-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>CH34-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>8:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>CH34-03. Data Summary</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>CH34-04. Data EDA_종속변수와 독립변수</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>CH34-05. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>CH34-06. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>CH34-07. Insight</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>4:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 35. 해외 신용 데이터 분석 (02:12:16)</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>CH35-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>CH35-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>8:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>CH35-03. EDA 종속변수 탐색</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>7:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>CH35-04. EDA 독립변수(categorical 데이터) 탐색</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>CH35-05. EDA 독립변수(Numerical 데이터) 탐색</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>35:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>CH35-06. EDA with Pandas Profiling</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>CH35-07. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>CH35-08. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>CH35-09. Insight</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 36. HR 데이터 분석과 기여도 예측 (02:23:09)</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>CH36-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>CH36-02. EDA 데이터 타입과 요약</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>15:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>CH36-03. EDA 종속 변수 분석</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>CH36-04. EDA 독립 변수(Categorical 데이터) 분석</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>36:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>CH36-05. EDA 독립 변수(Numerical 데이터) 분석</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>28:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>CH36-06. EDA 독립 변수(Numerical 데이터) 분석 (2)</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>3:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>CH36-07. EDA with pandas profiling</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>7:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="C400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CH36-08. Data Processing </t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>CH36-09. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>CH36-10. Insight</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 37. Wine 품질 데이터 분석과 품질 예측 (02:03:24)</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>CH37-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>CH37-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>CH37-03. EDA 종속 변수 분석</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>5:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>CH37-04. EDA 독립 변수(Categorical 데이터) 분석</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>CH37-05. EDA 독립 변수(Numerical 데이터) 분석</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>CH37-06. EDA with pandas profiling</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>5:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>CH37-07. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>CH37-08. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>CH37-09. Insight</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>3:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 38. Online News 데이터 분석과 News 콘텐츠 품질 개선 (01:35:27)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>CH38-01. 분석 개요와 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>CH38-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>CH38-03. EDA 종속 변수 분석</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>7:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>CH38-04. EDA 독립 변수(Categorical 데이터) 분석</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>CH38-05. EDA 독립 변수(Numerical 데이터) 분석</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>CH38-06. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>CH38-07. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>CH38-08. Insight</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>2:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 39. E-Commerce 고객 상품 구매 예측 (01:30:49)</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>CH39-01. 데이터분석과 개요</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>CH39-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>CH39-03. 데이터 EDA</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>CH39-04. 데이터 EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>6:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>CH39-05. Data Preprocessing (2)</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>CH39-06. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>CH39-07. Insight and Review</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 40. BRT 대중 교통량 데이터의 시각화와 분석 (01:18:05)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>CH40-01. 데이터분석과 개요</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>CH40-02. Data Preprocessing 1</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>CH40-03. Data EDA_Categorical Data</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>CH40-04. Data EDA_Numerical Data</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>CH40-05. Data Preprocessing 2</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>9:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>CH40-06. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>5:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>CH40-07. Insight and Review</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>1:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 41. 은행 데이터 분석과 파산 가능성 예측 (02:08:33)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>CH41-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>CH41-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>CH41-03. EDA_종속변수와 categorical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>CH41-04. EDA_numerical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>CH41-05. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>CH41-06. ML analysis</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>33:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>CH41-07. Insight</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>2:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="B441" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 42. 플랫폼 서비스 고객의 데이터 분석과 이탈율(Churn rate)  +분석 (01:57:02)</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>CH42-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>CH42-02. Data EDA Basic</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>5:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>CH42-03. Data Processing 1</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>8:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>CH42-04. EDA_categorical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>CH42-05. EDA_numerical 데이터 분석 1</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>CH42-06. EDA_numerical 데이터 분석 2</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>4:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>CH42-07. EDA_numerical 데이터 분석 3</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>6:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>CH42-08. EDA_numerical 데이터 분석 4</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>9:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>CH42-09. EDA_pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>3:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>CH42-10. Data Processing 2</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>9:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>CH42-11. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>CH42-12. Insight</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 43. 산업 시설 전력 사용 데이터 분석과 전력 생산 최적화 (01:15:53)</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>CH43-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>CH43-02. Data Load</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>1:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>CH43-03. Data Processing</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>8:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>CH43-04. Data EDA</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>34:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>CH43-05. EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>4:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>CH43-06. Data Processing 2</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>4:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>CH43-07. Insight</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>1:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>CH43-08. Model Analysis</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>9:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="B461" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 44. 킥보드 Sharing 데이터 분석과 킥보드 수 최적화 (02:02:23)</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>CH44-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>CH44-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>CH44-03. EDA Categorical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>CH44-04. EDA Numerical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>CH44-05. EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>9:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>CH44-06. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>CH44-07. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>CH44-08. Insight</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>2:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 45. 은행 고객 데이터 분석을 통한 마케팅 타겟 선정 (02:16:47)</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>CH45-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>CH45-02. Data Load</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>7:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>CH45-03. Data Processing 1</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>1:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>CH45-04. Data Type and Summary</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>4:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>CH45-05. EDA_categorical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>CH45-06. EDA_numerical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>CH45-07. EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>9:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>CH45-08. Data Processing 2</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>CH45-09. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>28:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>CH45-10. Insight</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>3:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 46. 신용 카드 고객 데이터 분석과 신용도 예측 (02:20:09)</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>CH46-01. 데이터분석과 개요</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>CH46-02. Data Preprocessing (1)</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>31:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>CH46-03. EDA_Categorical Data</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>28:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>CH46-04. EDA_Numerical Data</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>CH46-05. EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>7:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>CH46-06. Data Preprocessing (2)</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>CH46-07. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>CH46-08. review</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>2:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 47. IOT기기 해킹 공격 분석과 예측 (01:49:59)</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>CH47-01. 데이터 분석과 개요</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>18:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>CH47-02. Data Preprocessing (1)</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>CH47-03. EDA Categorical Data</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>CH47-04. EDA Numerical Data</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>CH47-05. Data Preprocessing (2)</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>CH47-06. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>CH47-07. reivew</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>2:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 48. 직원 데이터 분석과 근로 생산성 예측 (01:57:41)</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>CH48-01. 분석 개요와 데이터 확인</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>CH48-02. Data Processing (1)</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>9:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>CH48-03. Data Type and Sum mary</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>4:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>CH48-04. EDA_cateogircal 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>28:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>CH48-05. EDA_numerical 데이터 분석</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>CH48-06. EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>7:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>CH48-07. Data Processing (2)</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>CH48-08. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>CH48-09. insight</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>2:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="B503" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 49. 제품 데이터 분석(PDM) 분석과 분류 (01:23:11)</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>CH49-01. 데이터 분석 개요와 분석</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>8:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>CH49-02. Data Preprocessing (1)</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>7:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>CH49-03. EDA Categorical Data</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>CH49-04. EDA Numerical Data</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>CH49-05. EDA with pandasprofiling</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>5:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>CH49-06. Data Preprocessing (2)</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>7:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>CH49-07. ML Analaysis</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>CH49-08. review</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>1:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 50. E-Commerce 행동 데이터 분석 (01:30:13)</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>CH50-01. 데이터분석과개요</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>CH50-02. Data PreProcessing (1)</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>CH50-03. EDA_Categorical Data</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>CH50-04. EDA_Numeriacal Data</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>4:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>CH50-05. Data EDA with Pandas Profiling</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>6:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>CH50-06. Data PreProcessing (2)</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>CH50-07. ML Analysis</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>CH50-08. Review</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>2:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>Part 5. 머신러닝 상품화를 위한 MLOps (06:47:07)</t>
+        </is>
+      </c>
+      <c r="B519" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 01. 머신러닝 상품화를 위한 기술 (02:10:24)</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>CH01-01.ML Lifecycle은 어떻게 구성되는가</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>37:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>CH01-02.MLOPS의 등장과 핵심 기능</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>CH01-03.MLOps의 도구와 플랫폼들</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>CH01-04.여러 단계로 나눌 수 있는 MLOps 구현 수준</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>CH01-05.사례를 통한 MLOps 이해하기</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>CH01-06.MLOps를 지원하는 기술과 플랫폼 Part 1</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>CH01-07.MLOps를 지원하는 기술과 플랫폼 Part 2</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>CH01-08.우리가 집중할 MLOps 기능과 범위</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>6:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 02. MLFlow를 활용한 MLOPS (02:29:55)</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>CH01-01.MLFlow란 무엇인가?</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>CH01-02.MLFlow 실습 (1) : MLFlow 설치와 환경 구축</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>CH01-03.MLFlow 실습 (2) : 데이터 전처리와 EDA</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>CH01-04.MLFlow 실습 (3) : Model 학습과 성능 개선</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>42:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>CH01-05.MLFlow 실습 (4) : Model Selection과 Model Registry</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>33:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>CH01-06.MLFlow 실습 (5) : Model Serving</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>18:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 03. SageMaker를 활용한 ML Pipeline for MLOps (02:06:48)</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>CH01-01.SageMaker란 무엇인가</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>CH01-02.SageMaker 실습 (1) : Free Account 신청 및 환경 설정</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>CH01-03.SageMaker 실습 (2) : Pipeline 구성을 위한 Step 설명 및 실습</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>CH01-04.Sage Maker 실습 (3) : Pipeline Step 구성</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>54:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>CH01-05.Sage Maker 실습 (4) : Pipeline Monitoring과 Trouble Shooting</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>3:37</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="B340:B347"/>
+    <mergeCell ref="B469:B478"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="B377:B383"/>
+    <mergeCell ref="B68:B79"/>
+    <mergeCell ref="B204:B211"/>
+    <mergeCell ref="B44:B61"/>
+    <mergeCell ref="B324:B331"/>
+    <mergeCell ref="B503:B510"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B393:B402"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="B236:B243"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B292:B299"/>
+    <mergeCell ref="B268:B275"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="B479:B486"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="B276:B283"/>
+    <mergeCell ref="B252:B259"/>
+    <mergeCell ref="B363:B369"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B487:B493"/>
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B332:B339"/>
+    <mergeCell ref="B434:B440"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="B139:B147"/>
+    <mergeCell ref="A116:A518"/>
+    <mergeCell ref="B244:B251"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="B384:B392"/>
+    <mergeCell ref="B441:B452"/>
+    <mergeCell ref="B356:B362"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="B403:B411"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="B412:B419"/>
+    <mergeCell ref="B461:B468"/>
+    <mergeCell ref="B308:B315"/>
+    <mergeCell ref="B420:B426"/>
+    <mergeCell ref="A519:A537"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="A98:A115"/>
+    <mergeCell ref="B519:B526"/>
+    <mergeCell ref="B370:B376"/>
+    <mergeCell ref="B348:B355"/>
+    <mergeCell ref="B527:B532"/>
+    <mergeCell ref="B196:B203"/>
+    <mergeCell ref="B316:B323"/>
+    <mergeCell ref="A33:A97"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B494:B502"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B533:B537"/>
+    <mergeCell ref="B453:B460"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="B284:B291"/>
+    <mergeCell ref="B511:B518"/>
+    <mergeCell ref="B260:B267"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="B427:B433"/>
+    <mergeCell ref="B300:B307"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대주제(Part)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>중주제(Chapter)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>소주제(Clip)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>강의 시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>(부록) 파이썬 기초 및 데이터분석 (10:21:59)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01_인트로 (24:06)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CH01_01. 과정 소개</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CH01_02. colab 소개</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02_파이썬 기초 (02:30:27)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CH02_01. 파이썬의 특징</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CH02_02. 변수</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CH02_03. 자료형_숫자형</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CH02_04. 자료형_문자형</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CH02_05. 자료형_리스트</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CH02_06. 자료형_튜플</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CH02_07. 자료형_딕셔너리</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CH02_08. 자료형_셋</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CH02_09. 제어문_for</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CH02_10. 제어문_while</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CH02_11. 제어문_if</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CH02_12. List Comprehension</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CH02_13. 함수</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CH02_14. 외부 라이브러리 사용</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03_데이터 전처리 (03:35:05)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CH03_01. 데이터 프레임 생성</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CH03_02. 칼럼명 추출 변경</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CH03_03. copy를 이용한 데이터 복사</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CH03_04. 시리즈</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CH03_05. loc과 iloc을 이용한 원하는 위치의 데이터 추출</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CH03_06. 조건에 맞는 데이터 추출</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CH03_07. 정렬</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CH03_08. 결측값 처리</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CH03_09. 타입 변환</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CH03_10. 레코드, 칼럼 추가 삭제</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CH03_11. apply.map을 활용한 데이터 변환</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CH03_12. 데이터프레임 결합_상하결합</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CH03_13. 데이터 프레임 결합_좌우결합</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CH03_14. 그룹화</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CH03_15. 피벗테이블</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CH03_16. 파일호출_저장</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Ch 04_데이터 시각화 (02:16:18)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CH04_01. matplotlib 을 이용한 단일 차트 그리기</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CH04_02. 여러 데이터를 한 차트에 그리기</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CH04_03. subplot_subplots 를 이용한 여러개의 차트 그리기</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CH04_04. load_dataset 을 이용한 데이터 셋 불러오기</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CH04_05. barplot을 이용한 막대그래프 그리기</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CH04_06. countplot을 이용한 막대그래프 그리기</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CH04_07. scatterplot을 이용한 산점도 그리기</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CH04_08. lineplot을 이용한 선도표 그리기</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CH04_09. heatmap을 이용한 히트맵 그리기</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CH04_10. pie를 이용한 원형차트 그리기</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CH04_11. boxplot을 이용한 상자 수염 그림 그리기</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CH04_12. displot_histplot 을 이용한 히스토그램 그리기</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CH04_13. pandas-profiling 을 통한 EDA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Ch 05_한걸음 더 나아가기 (01:36:03)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CH05_01. 머신러닝 소개</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CH05_02. 데이터 전처리</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CH05_03. 머신러닝 모델 구성 및 결과 검증</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CH05_04. 다양한 머신러닝 기술</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CH05_05. 딥러닝 소개</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CH05_06. numpy 를 이용한 행렬 연산</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CH05_07. 딥러닝 모델 구성 및 결과 검증</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CH05_08. 머신러닝_딥러닝의 한계</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4:36</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="A2:A54"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B47:B54"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -25,6 +25,7 @@
     <sheet name="14일만에만드는스타벅스웹사이트with" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="50개프로젝트로완벽하게끝내는머신러닝S" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="실무문제해결을위한데이터사이언스" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="처음부터시작하는딥러닝유치원" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26428,6 +26429,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대주제(Part)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>중주제(Chapter)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>소주제(Clip)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>강의 시간</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/lecture.xlsx
+++ b/lecture.xlsx
@@ -1857,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3290,1062 +3290,1098 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
+          <t>Part 7. 강의 소개 및 개발 환경 구성 (08:45)</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Part 7. 강의 소개 및 개발 환경 구성 (08:45)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CH01-01. 강의소개 - 강의 소개 및 목차 안내</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CH01-02. 분산 시스템(빅데이터 시스템)의 요구 사항 정리</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
           <t>Part 8. Hadoop이란? (01:15:11)</t>
         </is>
       </c>
-      <c r="B104" s="1" t="inlineStr">
+      <c r="B106" s="1" t="inlineStr">
         <is>
           <t>ch01. Hadoop 개요 (14:11)</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>CH01-01. Hadoop이란</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>14:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>ch02. Hadoop의 핵심 구성 요소 (27:32)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CH02-01. Hadoop의 핵심 구성 요소 1) - HDFS (파일 시스템)</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>CH02-02. Hadoop의 핵심 구성 요소 2) - MapReduce (배치 처리 알고리즘)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>13:22</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>ch03. Hadoop 에코시스템 프레임워크 둘러보기 (33:28)</t>
+          <t>ch02. Hadoop의 핵심 구성 요소 (27:32)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CH03-01. Hadoop 에코시스템 프레임워크 둘러보기 1) - Hbase (데이터베이스)</t>
+          <t>CH02-01. Hadoop의 핵심 구성 요소 1) - HDFS (파일 시스템)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6:20</t>
+          <t>14:10</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="C108" t="inlineStr">
         <is>
-          <t>CH03-02. Hadoop 에코시스템 프레임워크 둘러보기 2) - Yarn (리소스 매니저)</t>
+          <t>CH02-02. Hadoop의 핵심 구성 요소 2) - MapReduce (배치 처리 알고리즘)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6:17</t>
+          <t>13:22</t>
         </is>
       </c>
     </row>
     <row r="109">
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>ch03. Hadoop 에코시스템 프레임워크 둘러보기 (33:28)</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CH03-03. Hadoop 에코시스템 프레임워크 둘러보기 3) - Zookeeper (분산 코디네이터)</t>
+          <t>CH03-01. Hadoop 에코시스템 프레임워크 둘러보기 1) - Hbase (데이터베이스)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>4:39</t>
+          <t>6:20</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="C110" t="inlineStr">
         <is>
-          <t>CH03-04. Hadoop 에코시스템 프레임워크 둘러보 - Avro(데이터 직렬화)</t>
+          <t>CH03-02. Hadoop 에코시스템 프레임워크 둘러보기 2) - Yarn (리소스 매니저)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4:27</t>
+          <t>6:17</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="C111" t="inlineStr">
         <is>
-          <t>CH03-05. Hadoop 에코시스템 프레임워크 둘러보기 5) - Hive (데이터 분석)</t>
+          <t>CH03-03. Hadoop 에코시스템 프레임워크 둘러보기 3) - Zookeeper (분산 코디네이터)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>4:39</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>Part 9. Apache Spark (11:07:50)</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <t>ch01. 스파크 개요 (46:46)</t>
-        </is>
-      </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CH01-01. Apache Spark란</t>
+          <t>CH03-04. Hadoop 에코시스템 프레임워크 둘러보 - Avro(데이터 직렬화)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6:28</t>
+          <t>4:27</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="C113" t="inlineStr">
         <is>
-          <t>CH01-02. 로컬 환경에 스파크 설치 및 워드 카운트 예제 실행</t>
+          <t>CH03-05. Hadoop 에코시스템 프레임워크 둘러보기 5) - Hive (데이터 분석)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>28:10</t>
+          <t>11:45</t>
         </is>
       </c>
     </row>
     <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Part 9. Apache Spark (11:07:50)</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>ch01. 스파크 개요 (46:46)</t>
+        </is>
+      </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CH01-03. 스파크 애플리케이션의 구성 요소</t>
+          <t>CH01-01. Apache Spark란</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>5:30</t>
+          <t>6:28</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="C115" t="inlineStr">
         <is>
-          <t>CH01-04. Transformation, Action, Lazy Evaluation의 개념</t>
+          <t>CH01-02. 로컬 환경에 스파크 설치 및 워드 카운트 예제 실행</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>6:38</t>
+          <t>28:10</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <t>ch02. RDD (01:21:32)</t>
-        </is>
-      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CH02-01. 스파크 RDD란</t>
+          <t>CH01-03. 스파크 애플리케이션의 구성 요소</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2:09</t>
+          <t>5:30</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="C117" t="inlineStr">
         <is>
-          <t>ch02_02_RDD-RDD 실습 로그 집계 파이프라인 만들기-map, filter, reduce, group by</t>
+          <t>CH01-04. Transformation, Action, Lazy Evaluation의 개념</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>28:14</t>
+          <t>6:38</t>
         </is>
       </c>
     </row>
     <row r="118">
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>ch02. RDD (01:21:32)</t>
+        </is>
+      </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ch02_03_RDD  - RDD 실습 - join</t>
+          <t>CH02-01. 스파크 RDD란</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>2:09</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="C119" t="inlineStr">
         <is>
-          <t>ch02_04_RDD  - RDD 실습 - 실전 예제(F사의 강의별 랭킹 데이터 만들기) - Part 1</t>
+          <t>ch02_02_RDD-RDD 실습 로그 집계 파이프라인 만들기-map, filter, reduce, group by</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>28:14</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="C120" t="inlineStr">
         <is>
-          <t>ch02_05_RDD  - RDD 실습 - 실전 예제(F사의 강의별 랭킹 데이터 만들기) - Part 2</t>
+          <t>ch02_03_RDD  - RDD 실습 - join</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>13:23</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>ch03. SparkSQL, DataFrame, Dataset (01:41:50)</t>
-        </is>
-      </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CH03-01. 스파크 SQL,Dataframe,Dataset이란</t>
+          <t>ch02_04_RDD  - RDD 실습 - 실전 예제(F사의 강의별 랭킹 데이터 만들기) - Part 1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>19:56</t>
+          <t>19:26</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="C122" t="inlineStr">
         <is>
-          <t>ch03_02_SparkSQL,Dataframe,Dataset - SQL 실습 - 로그 집계 파이프라인 만들기 - Dataframe API</t>
+          <t>ch02_05_RDD  - RDD 실습 - 실전 예제(F사의 강의별 랭킹 데이터 만들기) - Part 2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>26:13</t>
+          <t>18:20</t>
         </is>
       </c>
     </row>
     <row r="123">
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>ch03. SparkSQL, DataFrame, Dataset (01:41:50)</t>
+        </is>
+      </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ch03_03_SparkSQL,Dataframe,Dataset - 스파크 DataFrame, Dataset, SQL 실습 - 로그 집계 파이프라인 만들기 - SQL API</t>
+          <t>CH03-01. 스파크 SQL,Dataframe,Dataset이란</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>19:56</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="C124" t="inlineStr">
         <is>
-          <t>ch03_04_SparkSQL,Dataframe,Dataset - 스파크 DataFrame, Dataset, SQL 실습-로그 집계 파이프라인 만들기 - join</t>
+          <t>ch03_02_SparkSQL,Dataframe,Dataset - SQL 실습 - 로그 집계 파이프라인 만들기 - Dataframe API</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>26:13</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="C125" t="inlineStr">
         <is>
-          <t>ch03_05_SparkSQL,Dataframe,Dataset SQL 실습-로그 집계 파이프라인 만들기-실전 예제 1</t>
+          <t>ch03_03_SparkSQL,Dataframe,Dataset - 스파크 DataFrame, Dataset, SQL 실습 - 로그 집계 파이프라인 만들기 - SQL API</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>14:07</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="C126" t="inlineStr">
         <is>
+          <t>ch03_04_SparkSQL,Dataframe,Dataset - 스파크 DataFrame, Dataset, SQL 실습-로그 집계 파이프라인 만들기 - join</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ch03_05_SparkSQL,Dataframe,Dataset SQL 실습-로그 집계 파이프라인 만들기-실전 예제 1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
           <t>ch03_06_SparkSQL,Dataframe,Dataset - 스파크 DataFrame, Dataset, SQL 실습-로그 집계 파이프라인 만들기-udf(사용자 정의 함수)</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>12:04</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="B127" s="1" t="inlineStr">
+    <row r="129">
+      <c r="B129" s="1" t="inlineStr">
         <is>
           <t>ch04. RDD, SparkSQL, DataFrame 비교 (04:03)</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>CH04-01. RDD, SparkSQL, DataFrame 비교 - RDD, DataFrame 언제 사용해야 하는가</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>4:03</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="B128" s="1" t="inlineStr">
+    <row r="130">
+      <c r="B130" s="1" t="inlineStr">
         <is>
           <t>ch05. 스파크 심층 분석 (02:37:54)</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>CH05-01. 스파크 심층 분석 - 스파크 클러스터, 런타임 아키텍처에 대한 이해</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>8:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>CH05-02. 스파크 심층 분석 - spark0submit 주요 파라미터 확인</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>6:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CH05-03. 스파크 심층 분석 - Deploy mode -cluster, client mode</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>8:36</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="C131" t="inlineStr">
         <is>
-          <t>CH05-04. 스파크 심층 분석 - 스파크 - action, stage, shuffle, task, slot 확인 실습</t>
+          <t>CH05-02. 스파크 심층 분석 - spark0submit 주요 파라미터 확인</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>6:55</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="C132" t="inlineStr">
         <is>
-          <t>CH05-05. 스파크 심층 분석 - Join의 종류</t>
+          <t>CH05-03. 스파크 심층 분석 - Deploy mode -cluster, client mode</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>22:34</t>
+          <t>8:36</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="C133" t="inlineStr">
         <is>
-          <t>CH05-06. 스파크 심층 분석 - 스파크에서의 메모리 할당</t>
+          <t>CH05-04. 스파크 심층 분석 - 스파크 - action, stage, shuffle, task, slot 확인 실습</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5:51</t>
+          <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="C134" t="inlineStr">
         <is>
-          <t>CH05-07. 스파크 심층 분석 - 스파크 메모리 관리</t>
+          <t>CH05-05. 스파크 심층 분석 - Join의 종류</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>22:34</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="C135" t="inlineStr">
         <is>
-          <t>CH05-08. 스파크 심층 분석 - Repartition, Coalesce에 대한 이해</t>
+          <t>CH05-06. 스파크 심층 분석 - 스파크에서의 메모리 할당</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>5:51</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="C136" t="inlineStr">
         <is>
-          <t>CH05-09. 스파크 심층 분석 - Caching, Persistence에 대한 이해</t>
+          <t>CH05-07. 스파크 심층 분석 - 스파크 메모리 관리</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>15:29</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="C137" t="inlineStr">
         <is>
-          <t>CH05-10. 스파크 심층 분석- Shared variable(Accumulator, Broadcast variable)에 대한 이해</t>
+          <t>CH05-08. 스파크 심층 분석 - Repartition, Coalesce에 대한 이해</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>14:32</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="C138" t="inlineStr">
         <is>
-          <t>CH05_11.스파크 심층 분석 - 스파크 Query Plan</t>
+          <t>CH05-09. 스파크 심층 분석 - Caching, Persistence에 대한 이해</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5:29</t>
+          <t>11:24</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="C139" t="inlineStr">
         <is>
-          <t>CH05_12.스파크 심층 분석 - Dynamic resource allocation</t>
+          <t>CH05-10. 스파크 심층 분석- Shared variable(Accumulator, Broadcast variable)에 대한 이해</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>7:50</t>
+          <t>10:11</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="C140" t="inlineStr">
         <is>
-          <t>CH05_13.스파크 심층 분석 - Spark Scheduler에 대한 이해</t>
+          <t>CH05_11.스파크 심층 분석 - 스파크 Query Plan</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4:34</t>
+          <t>5:29</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="C141" t="inlineStr">
         <is>
-          <t>CH05_14.스파크 심층 분석 - (Spark 3.0  ) AQE - Adaptive Query Execution에 대한 이해_1</t>
+          <t>CH05_12.스파크 심층 분석 - Dynamic resource allocation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>6:04</t>
+          <t>7:50</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="C142" t="inlineStr">
         <is>
-          <t>CH05_15.스파크 심층 분석 - (Spark 3.0 ) DPP - Dynamic Partition Pruning에 대한 이해</t>
+          <t>CH05_13.스파크 심층 분석 - Spark Scheduler에 대한 이해</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>4:34</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="1" t="inlineStr">
-        <is>
-          <t>ch06. Partitioning (01:09:01)</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CH06_01. Partitioning 개요,  중요성</t>
+          <t>CH05_14.스파크 심층 분석 - (Spark 3.0  ) AQE - Adaptive Query Execution에 대한 이해_1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>6:04</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="C144" t="inlineStr">
         <is>
-          <t>CH06_02. Custom Partitioner</t>
+          <t>CH05_15.스파크 심층 분석 - (Spark 3.0 ) DPP - Dynamic Partition Pruning에 대한 이해</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>9:45</t>
+          <t>12:05</t>
         </is>
       </c>
     </row>
     <row r="145">
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>ch06. Partitioning (01:09:01)</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>CH06_03. partition by vs bucket by</t>
+          <t>CH06_01. Partitioning 개요,  중요성</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>20:55</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="C146" t="inlineStr">
         <is>
-          <t>CH06_04. Input Partitions From Data Files</t>
+          <t>CH06_02. Custom Partitioner</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>9:45</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="C147" t="inlineStr">
         <is>
-          <t>CH06_05. Partitioning during Spark Transformations</t>
+          <t>CH06_03. partition by vs bucket by</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>9:21</t>
+          <t>12:54</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="C148" t="inlineStr">
         <is>
-          <t>CH06_06. Partitioning to Output Files</t>
+          <t>CH06_04. Input Partitions From Data Files</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3:06</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="B149" s="1" t="inlineStr">
-        <is>
-          <t>ch07. 스파크 실무 팁 (54:28)</t>
-        </is>
-      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CH07_01. 데이터 파이프라인 운영시 발생했던 스파크 에러들에 관한 case study</t>
+          <t>CH06_05. Partitioning during Spark Transformations</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>9:10</t>
+          <t>9:21</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="C150" t="inlineStr">
         <is>
+          <t>CH06_06. Partitioning to Output Files</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t>ch07. 스파크 실무 팁 (54:28)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CH07_01. 데이터 파이프라인 운영시 발생했던 스파크 에러들에 관한 case study</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>9:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr">
+        <is>
           <t>CH07_02. 스파크 튜닝 팁</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>14:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>CH07_03. Spark Unit test 작성</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>30:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" s="1" t="inlineStr">
-        <is>
-          <t>ch08. Spark Streaming (02:32:16)</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>CH08_01. Spark Structured Streaming이란</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>9:39</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="C153" t="inlineStr">
         <is>
-          <t>CH08_02. Spark Structured Streaming 실시간 로그 집계 파이프라인 만들기 Part1</t>
+          <t>CH07_03. Spark Unit test 작성</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>30:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>ch08. Spark Streaming (02:32:16)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CH08_01. Spark Structured Streaming이란</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>9:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>CH08_03. Structured Streaming 실습 - 실시간 로그 집계 파이프라인 만들기 Part 2)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>22:00</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="C155" t="inlineStr">
         <is>
-          <t>CH08_04. Dstream이란?</t>
+          <t>CH08_02. Spark Structured Streaming 실시간 로그 집계 파이프라인 만들기 Part1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>9:39</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="C156" t="inlineStr">
         <is>
-          <t>CH08_05. Dstream 실습 - 로그 집계 파이프라인 만들기 Part 1)</t>
+          <t>CH08_03. Structured Streaming 실습 - 실시간 로그 집계 파이프라인 만들기 Part 2)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>22:16</t>
+          <t>22:00</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="C157" t="inlineStr">
         <is>
-          <t>CH08_06. Dstream 실습 - 로그 집계 파이프라인 만들기 Part 2)</t>
+          <t>CH08_04. Dstream이란?</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>13:41</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="C158" t="inlineStr">
         <is>
-          <t>CH08_07. Event Time windows, Processing Time Windows 실습</t>
+          <t>CH08_05. Dstream 실습 - 로그 집계 파이프라인 만들기 Part 1)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>42:36</t>
+          <t>22:16</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="C159" t="inlineStr">
         <is>
+          <t>CH08_06. Dstream 실습 - 로그 집계 파이프라인 만들기 Part 2)</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>CH08_07. Event Time windows, Processing Time Windows 실습</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>42:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="inlineStr">
+        <is>
           <t>CH08_08. Watermarking 개념 및 실습</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>17:24</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
         <is>
           <t>Part 10. 컬럼 기반의 NoSQL (02:42:30)</t>
         </is>
       </c>
-      <c r="B160" s="1" t="inlineStr">
+      <c r="B162" s="1" t="inlineStr">
         <is>
           <t>ch01. 컬럼 기반 NoSQL 개요 (17:46)</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>CH1_01. 컬럼 기반 NoSQL 을 사용하는 이유</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>17:46</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="1" t="inlineStr">
+    <row r="163">
+      <c r="B163" s="1" t="inlineStr">
         <is>
           <t>ch02. Cassandra (02:24:44)</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>CH02_01. Cassandra 개요</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>15:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>CH02_02. Cassandra Data Model</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>CH02_03. CQL (Cassandra Query Language) 소개</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>33:13</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="C164" t="inlineStr">
         <is>
-          <t>CH02_04. CQL에서 Partition Key, Clustering Key의 제약 조건</t>
+          <t>CH02_02. Cassandra Data Model</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>22:42</t>
+          <t>9:30</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="C165" t="inlineStr">
         <is>
-          <t>CH02_05. CQL에서 Secondary index의 제약 조건</t>
+          <t>CH02_03. CQL (Cassandra Query Language) 소개</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>33:13</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="C166" t="inlineStr">
         <is>
-          <t>CH02_06. Consistency</t>
+          <t>CH02_04. CQL에서 Partition Key, Clustering Key의 제약 조건</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>22:42</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="C167" t="inlineStr">
         <is>
-          <t>CH02_07. Storage Component의 종류</t>
+          <t>CH02_05. CQL에서 Secondary index의 제약 조건</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>26:22</t>
+          <t>10:02</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="C168" t="inlineStr">
         <is>
-          <t>CH02_08. 데이터 쓰기 과정</t>
+          <t>CH02_06. Consistency</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3:19</t>
+          <t>18:31</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="C169" t="inlineStr">
         <is>
-          <t>CH02_09. 데이터 읽기 과정</t>
+          <t>CH02_07. Storage Component의 종류</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>5:08</t>
+          <t>26:22</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Part 11 . File System (23:21)</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="inlineStr">
-        <is>
-          <t>ch01. 파일 시스템 개요 (23:21)</t>
-        </is>
-      </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>CH01_01. 컬럼 기반의 파일 포맷 - Apache parquet</t>
+          <t>CH02_08. 데이터 쓰기 과정</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>3:19</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="C171" t="inlineStr">
         <is>
-          <t>CH01_02. Data warehouse, lake, lakehouse 개념 소개 및 비교</t>
+          <t>CH02_09. 데이터 읽기 과정</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6:36</t>
+          <t>5:08</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Part 12 . 이커머스 상품 데이터 파이프라인 구축 실습 (01:48:22)</t>
+          <t>Part 11 . File System (23:21)</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>ch01. 로컬 파이프라인 구축 (01:30:07)</t>
+          <t>ch01. 파일 시스템 개요 (23:21)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CH01_01. 요구 조건 정의</t>
+          <t>CH01_01. 컬럼 기반의 파일 포맷 - Apache parquet</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>16:45</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="C173" t="inlineStr">
         <is>
-          <t>CH01_02. Spark 코드 작성 Part 1)</t>
+          <t>CH01_02. Data warehouse, lake, lakehouse 개념 소개 및 비교</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>6:36</t>
         </is>
       </c>
     </row>
     <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>Part 12 . 이커머스 상품 데이터 파이프라인 구축 실습 (01:48:22)</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t>ch01. 로컬 파이프라인 구축 (01:30:07)</t>
+        </is>
+      </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CH01_03. Spark 코드 작성Part 2)</t>
+          <t>CH01_01. 요구 조건 정의</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>13:28</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175" t="inlineStr">
         <is>
-          <t>CH01_04. Spark 코드 작성 Part 3)</t>
+          <t>CH01_02. Spark 코드 작성 Part 1)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176" t="inlineStr">
         <is>
-          <t>CH01_05. Cassandra에 데이터 쓰기</t>
+          <t>CH01_03. Spark 코드 작성Part 2)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>16:23</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="C177" t="inlineStr">
         <is>
+          <t>CH01_04. Spark 코드 작성 Part 3)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>CH01_05. Cassandra에 데이터 쓰기</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="inlineStr">
+        <is>
           <t>CH01_06. Apache Iceberg에 데이터 쓰기</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>19:37</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="B178" t="inlineStr">
+    <row r="180">
+      <c r="B180" t="inlineStr">
         <is>
           <t>ch02. AWS EMR에 배포</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>CH02_01. AWS EMR에서 Spark application 실행</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
     <mergeCell ref="A8:A30"/>
-    <mergeCell ref="B161:B169"/>
-    <mergeCell ref="B127"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A180"/>
+    <mergeCell ref="B154:B161"/>
+    <mergeCell ref="A114:A161"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B64:B71"/>
     <mergeCell ref="B30"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B118:B122"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B102:B103"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A64:A84"/>
-    <mergeCell ref="B104"/>
-    <mergeCell ref="B160"/>
     <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B105:B106"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B145:B150"/>
     <mergeCell ref="B96:B101"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B130:B144"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B106"/>
+    <mergeCell ref="B129"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B152:B159"/>
+    <mergeCell ref="B107:B108"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A94:A103"/>
+    <mergeCell ref="B172:B173"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B109:B113"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B174:B179"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B128:B142"/>
     <mergeCell ref="B42"/>
-    <mergeCell ref="B172:B177"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A112:A159"/>
+    <mergeCell ref="B163:B171"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="A31:A63"/>
-    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="B151:B153"/>
     <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A106:A113"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A160:A169"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B162"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B123:B128"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B79:B84"/>
   </mergeCells>
@@ -12702,7 +12738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14869,2203 +14905,2755 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Part 5. 기술면접 &amp; CS지식 (18:57:32)</t>
+          <t>Part4. 실전 코딩테스트 문제풀이 (08:58:08)</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
         <is>
-          <t>Ch01. 강사소개 및 기술면접 팁 (09:18)</t>
+          <t>Part4. 실전 코딩테스트 문제풀이 (08:58:08)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>01. 간단한 강사소개 및 기술 면접의 주요 팁</t>
+          <t>01. 코딩테스트란</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>9:18</t>
+          <t>3:23</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="B167" s="1" t="inlineStr">
-        <is>
-          <t>Ch02. DB (01:57:06)</t>
-        </is>
-      </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>01. DB 분야의 주요 질문사항</t>
+          <t>02. 코딩테스트 분석하기 - 1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5:24</t>
+          <t>11:13</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="C168" t="inlineStr">
         <is>
-          <t>02. 데이터 독립성</t>
+          <t>03. 코딩테스트 분석하기 - 2</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>5:29</t>
+          <t>7:50</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="C169" t="inlineStr">
         <is>
-          <t>03. DBMS의 정의(주요기능, 특징, 질의어처리기, 트랜잭션관리자, 사전)</t>
+          <t>04. 개인 역량 분석하기</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>5:35</t>
+          <t>7:18</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="C170" t="inlineStr">
         <is>
-          <t>04. RDBMS의 질의어(DDL, DCL, DML)</t>
+          <t>05. 구현이란</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>3:59</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="C171" t="inlineStr">
         <is>
-          <t>05. RBDMS 트랜잭션 정의(ACID, 동시성제어)</t>
+          <t>06. 자료형의 기본 활용과 Tip - 1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>11:48</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="C172" t="inlineStr">
         <is>
-          <t>06. 조인의 개념 및 종류(left, right, full outer join)</t>
+          <t>07. 자료형의 기본 활용과 Tip - 2</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>15:47</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="C173" t="inlineStr">
         <is>
-          <t>07. NoSQL 개념(BASE, 종류, key-value, 그래프, 문서기반)</t>
+          <t>08. vscode setting</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>7:18</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="C174" t="inlineStr">
         <is>
-          <t>08. 데이터 무결성(키, 참조, 기본키, 외래키, 슈퍼키, 후보키)</t>
+          <t>09. 문제풀이 A - 행복</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>8:10</t>
+          <t>7:03</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="C175" t="inlineStr">
         <is>
-          <t>09. 정규화(이상현상, 1,2,3,차 정규화)</t>
+          <t>10. 문제풀이 B - 수빈이와 수열</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>5:58</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="C176" t="inlineStr">
         <is>
-          <t>10. 반정규화(목적, 방법, 절차, 수직, 수평분할, 중복)</t>
+          <t>11. 문제풀이 C - 이름궁합 테스트</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:27</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="C177" t="inlineStr">
         <is>
-          <t>11. 인덱스 개념, 원리, 목적, 유형, B 트리)</t>
+          <t>12. 문제풀이 D - 보너스 점수</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>6:10</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="1" t="inlineStr">
-        <is>
-          <t>Ch03. SW 공학 (04:17:34)</t>
-        </is>
-      </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>01. SW 분야의 주요 질문 사항</t>
+          <t>13. 매개변수의 이해와 구조화</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>14:42</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="C179" t="inlineStr">
         <is>
-          <t>02. SW 공학의 의의 (필요성, 목적, 패러다임, SDLC모형, 방법론)</t>
+          <t>14. 매개변수의 이해와 구조화 문제풀이 1 - 수 찾기</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>6:21</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="C180" t="inlineStr">
         <is>
-          <t>03. 애자일 프로세스 1 (Scrum, XP, TDD, 개념, 특징)</t>
+          <t>15. 매개변수의 이해와 구조화 문제풀이 2- 걸그룹 마스터 준석이</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>8:39</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" t="inlineStr">
         <is>
-          <t>03. 애자일 프로세스 2 (Scrum, XP, TDD, 개념, 특징)</t>
+          <t>16. 매개변수의 이해와 구조화 문제풀이 3 - APC는 왜 서브태스크 대회가 되었을까</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="C182" t="inlineStr">
         <is>
-          <t>03. 애자일 프로세스 3 (Scrum, XP, TDD, 개념, 특징)</t>
+          <t>17. 매개변수의 이해와 구조화 문제풀이1- The candy war</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:50</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="C183" t="inlineStr">
         <is>
-          <t>04. 알고리즘과 자료구조 (1)</t>
+          <t>18. 매개변수의 이해와 구조화 문제풀이2 - Mixing Milk</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>8:06</t>
+          <t>10:32</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="C184" t="inlineStr">
         <is>
-          <t>04. 알고리즘과 자료구조 (2)</t>
+          <t>19. 매개변수의 이해와 구조화 문제풀이3 - Z</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>15:49</t>
+          <t>10:24</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="C185" t="inlineStr">
         <is>
-          <t>05. 객체지향 설계의 원리(캡슐화,다형성,상속,정보은닉, SOLID, 디자인패턴)</t>
+          <t>20. 예외처리 - 예외처리</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>16:42</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="C186" t="inlineStr">
         <is>
-          <t>06. 디자인 패턴 (GoF 23개)</t>
+          <t>21. 문제풀이 1 - 주사위 세개, 주사위 네개</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>11:49</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="C187" t="inlineStr">
         <is>
-          <t>07. UML(유스케이스,클래스,시퀀스,상태다이어그램)</t>
+          <t>22. 문제풀이 2- 두개의 손</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>8:53</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="C188" t="inlineStr">
         <is>
-          <t>08. SW테스트의 원리(개념,목적, 원리, 기법, 블랙박스,화이트박스 구조기반, 명세기반)</t>
+          <t>23. 문제풀이 3 - 단어 뒤집기 2</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>15:07</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="C189" t="inlineStr">
         <is>
-          <t>09. 리팩토링(개념, 필요성, 코드스멜, 리팩토링 방법 예시)</t>
+          <t>24. 방향벡터- 01. 방향벡터</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>9:37</t>
+          <t>8:22</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="C190" t="inlineStr">
         <is>
-          <t>10. 요구사항 관리(요구공학, 추적 메트릭스)</t>
+          <t>25. 방향벡터 문제 풀이 1- 늑대와 양</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>6:47</t>
+          <t>10:06</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="C191" t="inlineStr">
         <is>
-          <t>11. SW 형상관리 (베이스라인, 형상관리 활동, svn, git)</t>
+          <t>26. 방향벡터 문제 풀이 1 - 꽃길</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>16:38</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="C192" t="inlineStr">
         <is>
-          <t>12. 오픈소스 라이선스 개념 및 종류(GPL, LGPL, MPL, Apache)</t>
+          <t>27. 코딩테스트 유형별 분석(탐색) - 01. 탐색의 개념과 유형</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>9:17</t>
+          <t>10:24</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193" t="inlineStr">
         <is>
-          <t>13. MSA (1)</t>
+          <t>28. 코딩테스트 유형별 분석(탐색) - 02. 문제풀이 A - 유기농 배추</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>19:57</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="C194" t="inlineStr">
         <is>
-          <t>13. MSA (2)</t>
+          <t>29. 코딩테스트 유형별 분석(탐색) - 03. 문제풀이 B - MooyoMooyo</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>28:43</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="C195" t="inlineStr">
         <is>
-          <t>14. Web Application 구조</t>
+          <t>30. 코딩테스트 유형별 분석(탐색) - 04. 문제풀이 C - 2048</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>9:52</t>
+          <t>25:18</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="C196" t="inlineStr">
         <is>
-          <t>15. 프론트와 백앤드 (SPA , ES6, Springboot등)</t>
+          <t>31. 코딩테스트 유형별 분석(탐색) - 05. 문제풀이 D - 배열 돌리기 4</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>28:24</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="B197" s="1" t="inlineStr">
-        <is>
-          <t>Ch04. AI (01:03:08)</t>
-        </is>
-      </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>01. AI 의 주요 질문 사항</t>
+          <t>32. 코딩테스트 유형별 분석 (동적계획법) - 01. DP이론</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>7:06</t>
+          <t>7:22</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="C198" t="inlineStr">
         <is>
-          <t>02. AI 의 기본 개념, 원리, 딥러닝</t>
+          <t>33. 코딩테스트 유형별 분석 (동적계획법) - 02. 문제풀이 A - 정수 삼각형</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>7:10</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="C199" t="inlineStr">
         <is>
-          <t>03. 자연어 처리(NLP)</t>
+          <t>34. 코딩테스트 유형별 분석 (동적계획법) - 03. 문제풀이 B - 가장 큰 증가 부분 수열</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>17:58</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="C200" t="inlineStr">
         <is>
-          <t>04. CNN, RNN,LSTM</t>
+          <t>35. 코딩테스트 유형별 분석 (동적계획법) - 04. 문제풀이 C - 2차원 배열의 합</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>7:51</t>
+          <t>15:41</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="C201" t="inlineStr">
         <is>
-          <t>05. 머신러닝 (지도학습,비지도학습, 강화학습)</t>
+          <t>36. 코딩테스트 유형별 분석 (동적계획법) - 05. 문제풀이 D - 가장 큰 정사각형</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>5:37</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="C202" t="inlineStr">
         <is>
-          <t>06. 데이터셋(학습데이터, validation set)</t>
+          <t>37. 코딩테스트 유형별 분석 (동적계획법) - 06. 문제풀이 E - 본대 산책</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>5:10</t>
+          <t>13:17</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="C203" t="inlineStr">
         <is>
-          <t>07. Overfit,Underfit 개념, 해결방안</t>
+          <t>38. 코딩테스트 유형별 분석 (동적계획법) - 07. 문제풀이 F - 파일 합치기</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>6:21</t>
+          <t>20:04</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="C204" t="inlineStr">
         <is>
-          <t>08. 활성화 함수 개념 및 종류(스탭, 시그모이드, ReLU, AutoML)</t>
+          <t>39. 코딩테스트 유형별 분석 (탐욕 알고리즘) - 01. 문제풀이 A - 뒤집기</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>4:53</t>
+          <t>6:57</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="C205" t="inlineStr">
         <is>
-          <t>09. 인공지능 윤리</t>
+          <t>40. 코딩테스트 유형별 분석 (탐욕 알고리즘) - 02. 문제풀이 B - 근우의 다이어리 꾸미기</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>8:03</t>
+          <t>7:18</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="B206" s="1" t="inlineStr">
-        <is>
-          <t>Ch05. 컴퓨터 구조 &amp; 운영 체제 (02:06:01)</t>
-        </is>
-      </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>01. 컴퓨터구조와 OS 주요 질문 사항</t>
+          <t>41. 코딩테스트 유형별 분석 (탐욕 알고리즘) - 03. 문제풀이 C - 저울</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>8:42</t>
+          <t>7:34</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" t="inlineStr">
         <is>
-          <t>02. OS 개념 및 종류</t>
+          <t>42. 코딩테스트 유형별 분석 (탐욕 알고리즘) - 04. 문제풀이 D - 행렬</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>6:42</t>
+          <t>9:09</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="C208" t="inlineStr">
         <is>
-          <t>03. 리눅스 시스템과 기본 명령어</t>
+          <t>43. 코딩테스트 유형별 분석 (탐욕 알고리즘) - 05. 문제풀이 E - 소수의 곱</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>8:57</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="C209" t="inlineStr">
         <is>
-          <t>04. CPU 스케쥴링 (기법, 종류)</t>
+          <t>44. 코딩테스트 유형별 분석 (수학) - 01. 수학이론 - 1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>10:23</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" t="inlineStr">
         <is>
-          <t>05. Disk 스케쥴링 (기법, 종류)</t>
+          <t>45. 코딩테스트 유형별 분석 (수학) - 02. 수학이론 - 2</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>7:41</t>
+          <t>13:26</t>
         </is>
       </c>
     </row>
     <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>Part 5. 기술면접 &amp; CS지식 (18:57:32)</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>Ch01. 강사소개 및 기술면접 팁 (09:18)</t>
+        </is>
+      </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>06. 가상메모리</t>
+          <t>01. 간단한 강사소개 및 기술 면접의 주요 팁</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>9:18</t>
         </is>
       </c>
     </row>
     <row r="212">
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>Ch02. DB (01:57:06)</t>
+        </is>
+      </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>07. 프로세스와 스레드</t>
+          <t>01. DB 분야의 주요 질문사항</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>8:02</t>
+          <t>5:24</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="C213" t="inlineStr">
         <is>
-          <t>08. 교착상태</t>
+          <t>02. 데이터 독립성</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>8:24</t>
+          <t>5:29</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="C214" t="inlineStr">
         <is>
-          <t>09. 세마포어와 뮤텍스</t>
+          <t>03. DBMS의 정의(주요기능, 특징, 질의어처리기, 트랜잭션관리자, 사전)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>6:03</t>
+          <t>5:35</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="C215" t="inlineStr">
         <is>
-          <t>10. 단편화와 버디메모리 할당</t>
+          <t>04. RDBMS의 질의어(DDL, DCL, DML)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>9:54</t>
+          <t>10:42</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="C216" t="inlineStr">
         <is>
-          <t>11. 인터럽트</t>
+          <t>05. RBDMS 트랜잭션 정의(ACID, 동시성제어)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>9:29</t>
+          <t>18:40</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="C217" t="inlineStr">
         <is>
-          <t>12. 우선순위 역전현상</t>
+          <t>06. 조인의 개념 및 종류(left, right, full outer join)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>15:49</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="C218" t="inlineStr">
         <is>
-          <t>13. Locality와 Thrashing</t>
+          <t>07. NoSQL 개념(BASE, 종류, key-value, 그래프, 문서기반)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>8:32</t>
+          <t>10:41</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="B219" s="1" t="inlineStr">
-        <is>
-          <t>Ch06. 네트워크 (01:19:43)</t>
-        </is>
-      </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>01. 네트워크의 주요 질문 사항</t>
+          <t>08. 데이터 무결성(키, 참조, 기본키, 외래키, 슈퍼키, 후보키)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>8:31</t>
+          <t>8:10</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="C220" t="inlineStr">
         <is>
-          <t>02. 네트워크 구성 및 종류</t>
+          <t>09. 정규화(이상현상, 1,2,3,차 정규화)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>7:55</t>
+          <t>11:52</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="C221" t="inlineStr">
         <is>
-          <t>03. 네트워크 계층별 장비-</t>
+          <t>10. 반정규화(목적, 방법, 절차, 수직, 수평분할, 중복)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>7:09</t>
+          <t>10:25</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="C222" t="inlineStr">
         <is>
-          <t>04. OSI 7Layer와 TCP.IP</t>
+          <t>11. 인덱스 개념, 원리, 목적, 유형, B 트리)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>14:19</t>
         </is>
       </c>
     </row>
     <row r="223">
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>Ch03. SW 공학 (04:17:34)</t>
+        </is>
+      </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>05. http2와 상태코드</t>
+          <t>01. SW 분야의 주요 질문 사항</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>13:37</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="C224" t="inlineStr">
         <is>
-          <t>06. subnetting</t>
+          <t>02. SW 공학의 의의 (필요성, 목적, 패러다임, SDLC모형, 방법론)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:14</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="C225" t="inlineStr">
         <is>
-          <t>07. superneting</t>
+          <t>03. 애자일 프로세스 1 (Scrum, XP, TDD, 개념, 특징)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>18:58</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="C226" t="inlineStr">
         <is>
-          <t>08. VPN의 개념과 종류</t>
+          <t>03. 애자일 프로세스 2 (Scrum, XP, TDD, 개념, 특징)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>6:23</t>
+          <t>14:52</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="B227" s="1" t="inlineStr">
-        <is>
-          <t>Ch07. 보안 (01:22:04)</t>
-        </is>
-      </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>01. 보안 분야 주요 질문사항</t>
+          <t>03. 애자일 프로세스 3 (Scrum, XP, TDD, 개념, 특징)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>7:57</t>
+          <t>15:30</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="C228" t="inlineStr">
         <is>
-          <t>02. 정보보안의 개념 및 목표(무결성,가용성, 기밀성, 인증,부인방지)</t>
+          <t>04. 알고리즘과 자료구조 (1)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>8:16</t>
+          <t>8:06</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="C229" t="inlineStr">
         <is>
-          <t>03. 암호화</t>
+          <t>04. 알고리즘과 자료구조 (2)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>15:49</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="C230" t="inlineStr">
         <is>
-          <t>04. 전자서명과 전자봉투</t>
+          <t>05. 객체지향 설계의 원리(캡슐화,다형성,상속,정보은닉, SOLID, 디자인패턴)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:41</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="C231" t="inlineStr">
         <is>
-          <t>05. DDOS의  개념과 종류</t>
+          <t>06. 디자인 패턴 (GoF 23개)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>8:03</t>
+          <t>18:09</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="C232" t="inlineStr">
         <is>
-          <t>06. 악성 코드</t>
+          <t>07. UML(유스케이스,클래스,시퀀스,상태다이어그램)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>6:14</t>
+          <t>17:56</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="C233" t="inlineStr">
         <is>
-          <t>07. 시큐어코딩(웹취약점 점검, OWASP top 10)</t>
+          <t>08. SW테스트의 원리(개념,목적, 원리, 기법, 블랙박스,화이트박스 구조기반, 명세기반)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>22:20</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="C234" t="inlineStr">
         <is>
-          <t>08. 개인정보보호법</t>
+          <t>09. 리팩토링(개념, 필요성, 코드스멜, 리팩토링 방법 예시)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>9:37</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="B235" s="1" t="inlineStr">
-        <is>
-          <t>Ch08. DevOps (55:15)</t>
-        </is>
-      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>01. DevOps 분야 주요 질문 항목</t>
+          <t>10. 요구사항 관리(요구공학, 추적 메트릭스)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>7:29</t>
+          <t>6:47</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="C236" t="inlineStr">
         <is>
-          <t>02. DevOps 개념과 목표</t>
+          <t>11. SW 형상관리 (베이스라인, 형상관리 활동, svn, git)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>9:17</t>
+          <t>13:31</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="C237" t="inlineStr">
         <is>
-          <t>03. CICD 개념과 도구</t>
+          <t>12. 오픈소스 라이선스 개념 및 종류(GPL, LGPL, MPL, Apache)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>6:16</t>
+          <t>9:17</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">04. Docker </t>
+          <t>13. MSA (1)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>9:19</t>
+          <t>13:53</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="C239" t="inlineStr">
         <is>
-          <t>05. 클라우드의 개념(AWS, GCP)</t>
+          <t>13. MSA (2)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>7:48</t>
+          <t>10:25</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="C240" t="inlineStr">
         <is>
-          <t>06. Restful API 설계 기법</t>
+          <t>14. Web Application 구조</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>9:52</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="B241" s="1" t="inlineStr">
-        <is>
-          <t>Ch09. 기술 외 공통 면접 질문 (52:12)</t>
-        </is>
-      </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>01. 기술 외 공통 면접 주요 질문 사항</t>
+          <t>15. 프론트와 백앤드 (SPA , ES6, Springboot등)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>14:00</t>
         </is>
       </c>
     </row>
     <row r="242">
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>Ch04. AI (01:03:08)</t>
+        </is>
+      </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>02. 프로젝트 관리</t>
+          <t>01. AI 의 주요 질문 사항</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>7:06</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="C243" t="inlineStr">
         <is>
-          <t>03. 일정관리(개념, 기법, 단축기법)</t>
+          <t>02. AI 의 기본 개념, 원리, 딥러닝</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>9:55</t>
+          <t>7:10</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="C244" t="inlineStr">
         <is>
-          <t>04. 위험관리(정성적, 정량적 관리기법)</t>
+          <t>03. 자연어 처리(NLP)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:57</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="C245" t="inlineStr">
         <is>
-          <t>05. UX-UI 설계의 기법 및 웹접근성</t>
+          <t>04. CNN, RNN,LSTM</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>7:10</t>
+          <t>7:51</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="B246" s="1" t="inlineStr">
-        <is>
-          <t>Ch10. 기술 면접 가이드 (04:55:11)</t>
-        </is>
-      </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 01 기술면접 강의 목표</t>
+          <t>05. 머신러닝 (지도학습,비지도학습, 강화학습)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>5:37</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="C247" t="inlineStr">
         <is>
-          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 02 채용 프로세스 이해</t>
+          <t>06. 데이터셋(학습데이터, validation set)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>6:19</t>
+          <t>5:10</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="C248" t="inlineStr">
         <is>
-          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 03 최근 기술면접 형태 이해</t>
+          <t>07. Overfit,Underfit 개념, 해결방안</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>6:21</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="C249" t="inlineStr">
         <is>
-          <t>01. 이력서 작성 요령과 팁 - 01 채용 공고 이해와 팁</t>
+          <t>08. 활성화 함수 개념 및 종류(스탭, 시그모이드, ReLU, AutoML)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>4:53</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="C250" t="inlineStr">
         <is>
-          <t>01. 이력서 작성 요령과 팁 - 02 채용 공고 기반, 이력서_발표자료 작성 팁</t>
+          <t>09. 인공지능 윤리</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>8:03</t>
         </is>
       </c>
     </row>
     <row r="251">
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>Ch05. 컴퓨터 구조 &amp; 운영 체제 (02:06:01)</t>
+        </is>
+      </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 01 자기소개 주요 문항 예시</t>
+          <t>01. 컴퓨터구조와 OS 주요 질문 사항</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>8:42</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="C252" t="inlineStr">
         <is>
-          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
+          <t>02. OS 개념 및 종류</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>9:08</t>
+          <t>6:42</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="C253" t="inlineStr">
         <is>
-          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
+          <t>03. 리눅스 시스템과 기본 명령어</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:35</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="C254" t="inlineStr">
         <is>
-          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 01 CS 기본 지식 주요 문항 예시</t>
+          <t>04. CPU 스케쥴링 (기법, 종류)</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>8:04</t>
+          <t>17:56</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="C255" t="inlineStr">
         <is>
-          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
+          <t>05. Disk 스케쥴링 (기법, 종류)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>7:41</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="C256" t="inlineStr">
         <is>
-          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
+          <t>06. 가상메모리</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>11:31</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="C257" t="inlineStr">
         <is>
-          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 04 실제 녹음한 면접 기반, 답변 팁3</t>
+          <t>07. 프로세스와 스레드</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>8:02</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="C258" t="inlineStr">
         <is>
-          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 01 프로그래밍 언어별_각 IT 분야별 문항 예시</t>
+          <t>08. 교착상태</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>4:32</t>
+          <t>8:24</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="C259" t="inlineStr">
         <is>
-          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
+          <t>09. 세마포어와 뮤텍스</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>6:03</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="C260" t="inlineStr">
         <is>
-          <t>04. 프로그래밍 언어별_각 IT 분 야별 예시 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
+          <t>10. 단편화와 버디메모리 할당</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>9:54</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="C261" t="inlineStr">
         <is>
-          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 04 실제 녹음한 면접 기반, 답변 팁3</t>
+          <t>11. 인터럽트</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>8:20</t>
+          <t>9:29</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="C262" t="inlineStr">
         <is>
-          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 05 각 분야별 주요 후보 문항</t>
+          <t>12. 우선순위 역전현상</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>9:30</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="C263" t="inlineStr">
         <is>
-          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 01 손코딩 문항 예시</t>
+          <t>13. Locality와 Thrashing</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>8:32</t>
         </is>
       </c>
     </row>
     <row r="264">
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>Ch06. 네트워크 (01:19:43)</t>
+        </is>
+      </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 02 실제 녹음한 면접 기반, 단계별 답변 팁1</t>
+          <t>01. 네트워크의 주요 질문 사항</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>8:31</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="C265" t="inlineStr">
         <is>
-          <t>05.  손코딩 관련 주요 문항 및 단계별 답변 팁 - 03 실제 녹음한 면접 기반, 단계별 답변 팁2</t>
+          <t>02. 네트워크 구성 및 종류</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>9:42</t>
+          <t>7:55</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="C266" t="inlineStr">
         <is>
-          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 04 손코딩 문항 예시2 및 답변 팁</t>
+          <t>03. 네트워크 계층별 장비-</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>22:13</t>
+          <t>7:09</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="C267" t="inlineStr">
         <is>
-          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 05 손코딩 문항 예시3 및 답변 팁</t>
+          <t>04. OSI 7Layer와 TCP.IP</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>11:23</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="C268" t="inlineStr">
         <is>
-          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 06 손코딩 문항 예시4 및 답변 팁</t>
+          <t>05. http2와 상태코드</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>11:16</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="C269" t="inlineStr">
         <is>
-          <t>06. 신입 기술면접 가이드라인 총정리 - 01 신입 기술면접 준비 총정리</t>
+          <t>06. subnetting</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>5:02</t>
+          <t>15:13</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="inlineStr">
-        <is>
-          <t>Part 6. 네카라쿠배 합격자 노하우 (11:20:58)</t>
-        </is>
-      </c>
-      <c r="B270" s="1" t="inlineStr">
-        <is>
-          <t>네카라쿠배 - 이동현 개발자 (02:28:59)</t>
-        </is>
-      </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>01. 강사 소개 및 강의 소개</t>
+          <t>07. superneting</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>4:32</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="C271" t="inlineStr">
         <is>
-          <t>02. 강사의 취업준비 스토리 - 공모전</t>
+          <t>08. VPN의 개념과 종류</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>3:51</t>
+          <t>6:23</t>
         </is>
       </c>
     </row>
     <row r="272">
+      <c r="B272" s="1" t="inlineStr">
+        <is>
+          <t>Ch07. 보안 (01:22:04)</t>
+        </is>
+      </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>03. 강사의 취업준비 스토리 - 인턴</t>
+          <t>01. 보안 분야 주요 질문사항</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>6:29</t>
+          <t>7:57</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="C273" t="inlineStr">
         <is>
-          <t>04. 공개채용과 수시채용의 차이점과 지원전략</t>
+          <t>02. 정보보안의 개념 및 목표(무결성,가용성, 기밀성, 인증,부인방지)</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>7:59</t>
+          <t>8:16</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="C274" t="inlineStr">
         <is>
-          <t>05. 서류 준비 방법</t>
+          <t>03. 암호화</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>11:33</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="C275" t="inlineStr">
         <is>
-          <t>06. 포트폴리오 준비 방법 1 - 토이프로젝트</t>
+          <t>04. 전자서명과 전자봉투</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>11:29</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="C276" t="inlineStr">
         <is>
-          <t>07. 포트폴리오 준비 방법 2 - Github &amp; Blog</t>
+          <t>05. DDOS의  개념과 종류</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>8:03</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="C277" t="inlineStr">
         <is>
-          <t>08. 포트폴리오 준비 방법 3 - 기술경험 제대로 작성하기</t>
+          <t>06. 악성 코드</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>6:14</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="C278" t="inlineStr">
         <is>
-          <t>09. 코딩테스트 준비 방법</t>
+          <t>07. 시큐어코딩(웹취약점 점검, OWASP top 10)</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>15:43</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="C279" t="inlineStr">
         <is>
-          <t>10. 기술면접 준비 방법</t>
+          <t>08. 개인정보보호법</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>12:49</t>
         </is>
       </c>
     </row>
     <row r="280">
+      <c r="B280" s="1" t="inlineStr">
+        <is>
+          <t>Ch08. DevOps (55:15)</t>
+        </is>
+      </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>11. 면접이 힘들 때</t>
+          <t>01. DevOps 분야 주요 질문 항목</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>7:29</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="C281" t="inlineStr">
         <is>
-          <t>12. 탈락했을 때</t>
+          <t>02. DevOps 개념과 목표</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>7:12</t>
+          <t>9:17</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="B282" s="1" t="inlineStr">
-        <is>
-          <t>카카오 - 김평안 개발자 (01:57:51)</t>
-        </is>
-      </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>01. 강사 소개 및 강의 소개</t>
+          <t>03. CICD 개념과 도구</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>3:02</t>
+          <t>6:16</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="C283" t="inlineStr">
         <is>
-          <t>02. 강사의 취뽀 이야기</t>
+          <t xml:space="preserve">04. Docker </t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>7:41</t>
+          <t>9:19</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="C284" t="inlineStr">
         <is>
-          <t>03. Github, 블로그로 공부하기</t>
+          <t>05. 클라우드의 개념(AWS, GCP)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>8:51</t>
+          <t>7:48</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="C285" t="inlineStr">
         <is>
-          <t>04. 프로젝트, 스터디 시작하기</t>
+          <t>06. Restful API 설계 기법</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>6:04</t>
+          <t>15:06</t>
         </is>
       </c>
     </row>
     <row r="286">
+      <c r="B286" s="1" t="inlineStr">
+        <is>
+          <t>Ch09. 기술 외 공통 면접 질문 (52:12)</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>05. 면접관의 입장 알아보기</t>
+          <t>01. 기술 외 공통 면접 주요 질문 사항</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>4:28</t>
+          <t>12:25</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="C287" t="inlineStr">
         <is>
-          <t>06. 카카오 공채 길라잡이</t>
+          <t>02. 프로젝트 관리</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>8:05</t>
+          <t>11:07</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="C288" t="inlineStr">
         <is>
-          <t>07. 서류 전형팁</t>
+          <t>03. 일정관리(개념, 기법, 단축기법)</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>8:49</t>
+          <t>9:55</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="C289" t="inlineStr">
         <is>
-          <t>08. 이력서 만들기</t>
+          <t>04. 위험관리(정성적, 정량적 관리기법)</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>6:29</t>
+          <t>11:35</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="C290" t="inlineStr">
         <is>
-          <t>09. 코딩 테스트 팁</t>
+          <t>05. UX-UI 설계의 기법 및 웹접근성</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>7:32</t>
+          <t>7:10</t>
         </is>
       </c>
     </row>
     <row r="291">
+      <c r="B291" s="1" t="inlineStr">
+        <is>
+          <t>Ch10. 기술 면접 가이드 (04:55:11)</t>
+        </is>
+      </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>10. 기술 면접 팁</t>
+          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 01 기술면접 강의 목표</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>8:26</t>
+          <t>11:31</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="C292" t="inlineStr">
         <is>
-          <t>11. 면접 경험 이야기</t>
+          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 02 채용 프로세스 이해</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>8:55</t>
+          <t>6:19</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="C293" t="inlineStr">
         <is>
-          <t>12. 모의 질문, 모범 답안 - 1</t>
+          <t>00. 신입 기술면접 가이드라인 오리엔테이션 - 03 최근 기술면접 형태 이해</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>18:19</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="C294" t="inlineStr">
         <is>
-          <t>13. 모의 질문, 모범답안 - 2</t>
+          <t>01. 이력서 작성 요령과 팁 - 01 채용 공고 이해와 팁</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>8:38</t>
+          <t>18:54</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="C295" t="inlineStr">
         <is>
-          <t>14. 컬쳐핏 면접 팁</t>
+          <t>01. 이력서 작성 요령과 팁 - 02 채용 공고 기반, 이력서_발표자료 작성 팁</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>9:07</t>
+          <t>13:46</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="C296" t="inlineStr">
         <is>
-          <t>15. 카카오 개발자의 일상 및 업무 프로세스</t>
+          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 01 자기소개 주요 문항 예시</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>5:23</t>
+          <t>10:08</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="C297" t="inlineStr">
         <is>
-          <t>16. 신입으로서 가져야할 마음가짐</t>
+          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>3:34</t>
+          <t>9:08</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="C298" t="inlineStr">
         <is>
-          <t>17. 함께하고 싶은 개발자   응원 메세지</t>
+          <t>02. 자기소개 관련 주요 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>1:42</t>
+          <t>11:25</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="B299" s="1" t="inlineStr">
-        <is>
-          <t>라인 - 서용준 개발자 (02:02:04)</t>
-        </is>
-      </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>01. 강사 소개</t>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 01 CS 기본 지식 주요 문항 예시</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>5:38</t>
+          <t>8:04</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="C300" t="inlineStr">
         <is>
-          <t>02. 합격까지 얼마나 준비하셨나요</t>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:54</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="C301" t="inlineStr">
         <is>
-          <t>03. 현직자 입장에서 추천하는 취업 준비 방법은</t>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>9:09</t>
+          <t>10:19</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="C302" t="inlineStr">
         <is>
-          <t>04. LINE은 개발자를 어떻게 채용하나요</t>
+          <t>03. CS 기본 지식 관련 주요 문항 및 답변 팁 - 04 실제 녹음한 면접 기반, 답변 팁3</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>5:17</t>
+          <t>12:23</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="C303" t="inlineStr">
         <is>
-          <t>05. 서류는 어떻게 준비하셨나요</t>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 01 프로그래밍 언어별_각 IT 분야별 문항 예시</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>4:57</t>
+          <t>4:32</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="C304" t="inlineStr">
         <is>
-          <t>06. 포트폴리오는 어떻게 만드셨나요</t>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 02 실제 녹음한 면접 기반, 답변 팁1</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>7:32</t>
+          <t>13:25</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="C305" t="inlineStr">
         <is>
-          <t>07. 코딩테스트는 어떻게 준비하셨나요</t>
+          <t>04. 프로그래밍 언어별_각 IT 분 야별 예시 문항 및 답변 팁 - 03 실제 녹음한 면접 기반, 답변 팁2</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:31</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>08. 기술 면접은 어떻게 준비하셨나요</t>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 04 실제 녹음한 면접 기반, 답변 팁3</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>8:20</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>09. LINE은 면접에서 어떤 걸 물어보나요</t>
+          <t>04. 프로그래밍 언어별_각 IT 분야별 예시 문항 및 답변 팁 - 05 각 분야별 주요 후보 문항</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>12:40</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>10. 다른 회사 면접도 경험해보셨나요</t>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 01 손코딩 문항 예시</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5:24</t>
+          <t>12:56</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>11. LINE에서 개발자는 어떻게 일하나요</t>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 02 실제 녹음한 면접 기반, 단계별 답변 팁1</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>9:38</t>
+          <t>17:08</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>12. 개발자를 해도 될까요</t>
+          <t>05.  손코딩 관련 주요 문항 및 단계별 답변 팁 - 03 실제 녹음한 면접 기반, 단계별 답변 팁2</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>9:42</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="B311" s="1" t="inlineStr">
-        <is>
-          <t>네카라쿠배 - 개발자 P (03:05:10)</t>
-        </is>
-      </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>01. 강사 소개 및 취업 준비 과정</t>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 04 손코딩 문항 예시2 및 답변 팁</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>7:23</t>
+          <t>22:13</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>02. 채용 전형 미리보기</t>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 05 손코딩 문항 예시3 및 답변 팁</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>17:07</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>03. Git, Blog 시작하기</t>
+          <t>05. 손코딩 관련 주요 문항 및 단계별 답변 팁 - 06 손코딩 문항 예시4 및 답변 팁</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>7:29</t>
+          <t>14:25</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>04. 스터디, 프로젝트 시작하기</t>
+          <t>06. 신입 기술면접 가이드라인 총정리 - 01 신입 기술면접 준비 총정리</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>5:02</t>
         </is>
       </c>
     </row>
     <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>Part 6. 네카라쿠배 합격자 노하우 (11:20:58)</t>
+        </is>
+      </c>
+      <c r="B315" s="1" t="inlineStr">
+        <is>
+          <t>네카라쿠배 - 이동현 개발자 (02:28:59)</t>
+        </is>
+      </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>05. 서류 준비 1 - 자기소개서 편</t>
+          <t>01. 강사 소개 및 강의 소개</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>4:32</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>06. 서류 준비 2 - 포트폴리오 편</t>
+          <t>02. 강사의 취업준비 스토리 - 공모전</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>3:51</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>07. 코딩테스트 준비</t>
+          <t>03. 강사의 취업준비 스토리 - 인턴</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>6:29</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>08. 면접 준비 1 - CS 기술 면접 편</t>
+          <t>04. 공개채용과 수시채용의 차이점과 지원전략</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>6:53</t>
+          <t>7:59</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>09. 면접 준비 2 - 프로젝트 경험 편</t>
+          <t>05. 서류 준비 방법</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>6:01</t>
+          <t>14:28</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>10. 면접 준비 3 - 꿀팁 이것만은 꼭 준비하자</t>
+          <t>06. 포트폴리오 준비 방법 1 - 토이프로젝트</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>9:42</t>
+          <t>17:52</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>11. 기술 면접</t>
+          <t>07. 포트폴리오 준비 방법 2 - Github &amp; Blog</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>22:49</t>
+          <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>12. 프로젝트 면접</t>
+          <t>08. 포트폴리오 준비 방법 3 - 기술경험 제대로 작성하기</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>7:03</t>
+          <t>17:02</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>13. 인성 면접, 컬쳐핏 면접</t>
+          <t>09. 코딩테스트 준비 방법</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>25:26</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>14. 강의를 마치며</t>
+          <t>10. 기술면접 준비 방법</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>30:34</t>
+          <t>19:14</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="B325" s="1" t="inlineStr">
-        <is>
-          <t>우아한형제들 - 김경준 개발자 (01:46:54)</t>
-        </is>
-      </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>01. 강사 및 강의소개</t>
+          <t>11. 면접이 힘들 때</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>6:24</t>
+          <t>14:25</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>02. 취업 과정</t>
+          <t>12. 탈락했을 때</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>4:55</t>
+          <t>7:12</t>
         </is>
       </c>
     </row>
     <row r="327">
+      <c r="B327" s="1" t="inlineStr">
+        <is>
+          <t>카카오 - 김평안 개발자 (01:57:51)</t>
+        </is>
+      </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>03. 우아한테크코스_우아한 형제들 합격 과정</t>
+          <t>01. 강사 소개 및 강의 소개</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>3:02</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>04. 성장을 위한 피드백</t>
+          <t>02. 강사의 취뽀 이야기</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>8:53</t>
+          <t>7:41</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>05. 야생학습</t>
+          <t>03. Github, 블로그로 공부하기</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>8:51</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>06. 컴포트존에서 벗어나기</t>
+          <t>04. 프로젝트, 스터디 시작하기</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>6:40</t>
+          <t>6:04</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>07. 프로젝트</t>
+          <t>05. 면접관의 입장 알아보기</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>4:28</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>08. 질문을 유도하는 자기소개서</t>
+          <t>06. 카카오 공채 길라잡이</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>8:45</t>
+          <t>8:05</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>09. 기술 면접</t>
+          <t>07. 서류 전형팁</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>7:44</t>
+          <t>8:49</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>10. 꼬리 질문이 나오는 이유</t>
+          <t>08. 이력서 만들기</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>8:35</t>
+          <t>6:29</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>11. 배민다움</t>
+          <t>09. 코딩 테스트 팁</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>7:15</t>
+          <t>7:32</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>12. 기능 조직과 목적 조직</t>
+          <t>10. 기술 면접 팁</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>6:18</t>
+          <t>8:26</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
+          <t>11. 면접 경험 이야기</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>8:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>12. 모의 질문, 모범 답안 - 1</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>13. 모의 질문, 모범답안 - 2</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>8:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>14. 컬쳐핏 면접 팁</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>9:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>15. 카카오 개발자의 일상 및 업무 프로세스</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>5:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>16. 신입으로서 가져야할 마음가짐</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>3:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>17. 함께하고 싶은 개발자   응원 메세지</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>1:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" s="1" t="inlineStr">
+        <is>
+          <t>라인 - 서용준 개발자 (02:02:04)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>01. 강사 소개</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>5:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>02. 합격까지 얼마나 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>03. 현직자 입장에서 추천하는 취업 준비 방법은</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>9:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>04. LINE은 개발자를 어떻게 채용하나요</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>5:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>05. 서류는 어떻게 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>4:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>06. 포트폴리오는 어떻게 만드셨나요</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>7:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>07. 코딩테스트는 어떻게 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>08. 기술 면접은 어떻게 준비하셨나요</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>09. LINE은 면접에서 어떤 걸 물어보나요</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>10. 다른 회사 면접도 경험해보셨나요</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>5:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>11. LINE에서 개발자는 어떻게 일하나요</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>9:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>12. 개발자를 해도 될까요</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" s="1" t="inlineStr">
+        <is>
+          <t>네카라쿠배 - 개발자 P (03:05:10)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>01. 강사 소개 및 취업 준비 과정</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>7:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>02. 채용 전형 미리보기</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>03. Git, Blog 시작하기</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>7:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>04. 스터디, 프로젝트 시작하기</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>05. 서류 준비 1 - 자기소개서 편</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>06. 서류 준비 2 - 포트폴리오 편</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>07. 코딩테스트 준비</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>08. 면접 준비 1 - CS 기술 면접 편</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>6:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>09. 면접 준비 2 - 프로젝트 경험 편</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>6:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>10. 면접 준비 3 - 꿀팁 이것만은 꼭 준비하자</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>9:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>11. 기술 면접</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>12. 프로젝트 면접</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>7:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>13. 인성 면접, 컬쳐핏 면접</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>14. 강의를 마치며</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" s="1" t="inlineStr">
+        <is>
+          <t>우아한형제들 - 김경준 개발자 (01:46:54)</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>01. 강사 및 강의소개</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>6:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>02. 취업 과정</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>4:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>03. 우아한테크코스_우아한 형제들 합격 과정</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>04. 성장을 위한 피드백</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>05. 야생학습</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>06. 컴포트존에서 벗어나기</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>6:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>07. 프로젝트</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>08. 질문을 유도하는 자기소개서</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>8:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>09. 기술 면접</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>7:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>10. 꼬리 질문이 나오는 이유</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>8:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>11. 배민다움</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>7:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>12. 기능 조직과 목적 조직</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>6:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="C382" t="inlineStr">
+        <is>
           <t>13. MSA_Cloud Service</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
+      <c r="D382" t="inlineStr">
         <is>
           <t>9:56</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="51">
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B167:B177"/>
+    <mergeCell ref="A315:A382"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B280:B285"/>
+    <mergeCell ref="B344:B355"/>
     <mergeCell ref="A87:A165"/>
-    <mergeCell ref="B227:B234"/>
+    <mergeCell ref="B315:B326"/>
     <mergeCell ref="B96:B123"/>
-    <mergeCell ref="B282:B298"/>
+    <mergeCell ref="B291:B314"/>
+    <mergeCell ref="B327:B343"/>
     <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="B356:B369"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B87:B95"/>
     <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="A211:A314"/>
+    <mergeCell ref="B223:B241"/>
     <mergeCell ref="A2:A34"/>
     <mergeCell ref="B82:B85"/>
     <mergeCell ref="B130:B148"/>
+    <mergeCell ref="B264:B271"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="B246:B269"/>
-    <mergeCell ref="B219:B226"/>
+    <mergeCell ref="A166:A210"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B197:B205"/>
-    <mergeCell ref="B311:B324"/>
+    <mergeCell ref="B286:B290"/>
+    <mergeCell ref="B272:B279"/>
     <mergeCell ref="B86"/>
     <mergeCell ref="B11"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="B178:B196"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B149:B162"/>
     <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A166:A269"/>
+    <mergeCell ref="B251:B263"/>
+    <mergeCell ref="B212:B222"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B166"/>
-    <mergeCell ref="B299:B310"/>
-    <mergeCell ref="B206:B218"/>
-    <mergeCell ref="B325:B337"/>
+    <mergeCell ref="B166:B210"/>
+    <mergeCell ref="B242:B250"/>
     <mergeCell ref="B74:B81"/>
     <mergeCell ref="B124:B129"/>
-    <mergeCell ref="A270:A337"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B270:B281"/>
+    <mergeCell ref="B370:B382"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A35:A86"/>
+    <mergeCell ref="B211"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18794,7 +19382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D537"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25628,8 +26216,54 @@
         </is>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>Part 6. 현직자 특강 (01:01:14)</t>
+        </is>
+      </c>
+      <c r="B538" s="1" t="inlineStr">
+        <is>
+          <t>Part 6. 현직자 특강 (01:01:14)</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>CH01-01.데이터 분석 직무 소개</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>CH01-02.이력서 작성 노하우</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>CH01-03.포트폴리오 작성 노하우</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>20:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="75">
     <mergeCell ref="B340:B347"/>
     <mergeCell ref="B469:B478"/>
     <mergeCell ref="B188:B195"/>
@@ -25640,6 +26274,7 @@
     <mergeCell ref="B324:B331"/>
     <mergeCell ref="B503:B510"/>
     <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A538:A540"/>
     <mergeCell ref="B393:B402"/>
     <mergeCell ref="B123:B130"/>
     <mergeCell ref="B212:B219"/>
@@ -25697,6 +26332,7 @@
     <mergeCell ref="B533:B537"/>
     <mergeCell ref="B453:B460"/>
     <mergeCell ref="B164:B171"/>
+    <mergeCell ref="B538:B540"/>
     <mergeCell ref="B284:B291"/>
     <mergeCell ref="B511:B518"/>
     <mergeCell ref="B260:B267"/>
@@ -25714,7 +26350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25722,9 +26358,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="72" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -25753,677 +26389,1529 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(부록) 파이썬 기초 및 데이터분석 (10:21:59)</t>
+          <t>CH01. 커널기반 학습 (02:46:44)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Ch 01_인트로 (24:06)</t>
+          <t>CH01. 커널기반 학습 (02:46:44)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CH01_01. 과정 소개</t>
+          <t>CH01_01. 이론적 배경</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6:01</t>
+          <t>30:21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>CH01_02. colab 소개</t>
+          <t>CH01_02. Support Vector Machine - Linear &amp; Hard Margin - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>27:34</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Ch 02_파이썬 기초 (02:30:27)</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CH02_01. 파이썬의 특징</t>
+          <t>CH01_02. Support Vector Machine - Linear &amp; Hard Margin - 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5:33</t>
+          <t>30:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>CH02_02. 변수</t>
+          <t>CH01_03. Support Vector Machine - Non-linear &amp; Soft Margin - 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8:45</t>
+          <t>25:23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>CH02_03. 자료형_숫자형</t>
+          <t>CH01_03. Support Vector Machine - Non-linear &amp; Soft Margin - 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>28:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>CH02_04. 자료형_문자형</t>
+          <t>CH01_04. Support Vector Regression</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>24:18</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CH02. 이상치 탐지 (04:01:03)</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>CH02. 이상치 탐지 (04:01:03)</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CH02_05. 자료형_리스트</t>
+          <t>CH02_01. 개요</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>38:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>CH02_06. 자료형_튜플</t>
+          <t>CH02_02. 밀도기반 이상치탐지 1 Gauss &amp; MoG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4:40</t>
+          <t>34:30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>CH02_07. 자료형_딕셔너리</t>
+          <t>CH02_03. 밀도기반 이상치탐지 2 Parzen Window</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8:53</t>
+          <t>30:57</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>CH02_08. 자료형_셋</t>
+          <t>CH02_04. 밀도 기반 이상치탐지 3 LOF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7:05</t>
+          <t>30:37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>CH02_09. 제어문_for</t>
+          <t>CH02_05. 모델 기반 이상치탐지 1 Auto-Encoder</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>22:23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>CH02_10. 제어문_while</t>
+          <t>CH02_06. 모델 기반 이상치탐지 2 1-SVM &amp; SVDD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>48:37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>CH02_11. 제어문_if</t>
+          <t>CH02_07. 모델 기반 이상치탐지3  Isolation Forest</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>35:32</t>
         </is>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CH03. 앙상블 (04:31:59)</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>CH03. 앙상블 (04:31:59)</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CH02_12. List Comprehension</t>
+          <t>CH03_01. 개요 및 Bias-Variance Decomposition - 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7:31</t>
+          <t>16:53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>CH02_13. 함수</t>
+          <t>CH03_01. 개요 및 Bias-Variance Decomposition - 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9:34</t>
+          <t>33:21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>CH02_14. 외부 라이브러리 사용</t>
+          <t>CH03_02. 앙상블 기법 1 배깅</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7:20</t>
+          <t>34:51</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Ch 03_데이터 전처리 (03:35:05)</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CH03_01. 데이터 프레임 생성</t>
+          <t>CH03_03. 앙상블 기법 2 랜덤 포레스트</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>24:48</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>CH03_02. 칼럼명 추출 변경</t>
+          <t>CH03_04. 앙상블 기법 3 AdaBoost</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7:02</t>
+          <t>30:39</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>CH03_03. copy를 이용한 데이터 복사</t>
+          <t>CH03_05. 앙상블 기법 4 Gradient Boosting Machine</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7:05</t>
+          <t>24:44</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>CH03_04. 시리즈</t>
+          <t>CH03_06. 앙상블 기법 5 XGBoost</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7:41</t>
+          <t>21:43</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>CH03_05. loc과 iloc을 이용한 원하는 위치의 데이터 추출</t>
+          <t>CH03_07. 앙상블 기법 6 LightGBM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>20:46</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>CH03_06. 조건에 맞는 데이터 추출</t>
+          <t>CH03_08. 앙상블 기법 7 CatBoost - 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>30:57</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>CH03_07. 정렬</t>
+          <t>CH03_08. 앙상블 기법 7 CatBoost - 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>33:17</t>
         </is>
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CH04. 파이썬 실습(1) 커널기반 학습 (01:18:02)</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>CH04. 파이썬 실습(1) 커널기반 학습 (01:18:02)</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CH03_08. 결측값 처리</t>
+          <t>CH04_01. Linear SVM 예제</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>14:12</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>CH03_09. 타입 변환</t>
+          <t>CH04_02. Kernel SVM 꽃 종류 예측 실습</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>30:27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>CH03_10. 레코드, 칼럼 추가 삭제</t>
+          <t>CH04_03. Kernel SVM 유방암 예측 실습</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>CH03_11. apply.map을 활용한 데이터 변환</t>
+          <t>CH04_04. SVR 예제</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>7:53</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>CH03_12. 데이터프레임 결합_상하결합</t>
+          <t>CH04_05. SVR 대출금리 예측 실습</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8:27</t>
+          <t>8:10</t>
         </is>
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>CH05. 파이썬 실습(2) 이상탐지 (52:46)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>CH05. 파이썬 실습(2) 이상탐지 (52:46)</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CH03_13. 데이터 프레임 결합_좌우결합</t>
+          <t>CH05_01. 가우시안 모델 실습</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>23:49</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>CH03_14. 그룹화</t>
+          <t>CH05_02. Parzen window 모델 실습</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>3:51</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>CH03_15. 피벗테이블</t>
+          <t>CH05_03. Local outlier factor 모델 실습</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>3:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>CH03_16. 파일호출_저장</t>
+          <t>CH05_04. Autoencoder 모델 실습</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>8:03</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>Ch 04_데이터 시각화 (02:16:18)</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CH04_01. matplotlib 을 이용한 단일 차트 그리기</t>
+          <t>CH05_05. oneclass SVM 모델 실습(1)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>5:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>CH04_02. 여러 데이터를 한 차트에 그리기</t>
+          <t>CH05_05. oneclass SVM 모델 실습(2)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8:32</t>
+          <t>2:49</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>CH04_03. subplot_subplots 를 이용한 여러개의 차트 그리기</t>
+          <t>CH05_06. Isolation Forest 모델 실습</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>4:57</t>
         </is>
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>CH06. 파이썬 실습(3) 앙상블 (44:30)</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CH06. 파이썬 실습(3) 앙상블 (44:30)</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CH04_04. load_dataset 을 이용한 데이터 셋 불러오기</t>
+          <t>CH06_01. Bagging&amp;Random forest 모델 실습</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7:34</t>
+          <t>20:15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>CH04_05. barplot을 이용한 막대그래프 그리기</t>
+          <t>CH06_02. AdaBoost&amp;Gradient boosting machine 모델 실습</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>7:48</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>CH04_06. countplot을 이용한 막대그래프 그리기</t>
+          <t>CH06_03. XGBoost&amp;LightGBM&amp;CatBoost 모델 실습</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>16:27</t>
         </is>
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>CH07. 심층 신경망(딥러닝) - CNN (02:57:52)</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CH07. 심층 신경망(딥러닝) - CNN (02:57:52)</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CH04_07. scatterplot을 이용한 산점도 그리기</t>
+          <t>CH07_01. 심층 신경망 개요</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>39:57</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>CH04_08. lineplot을 이용한 선도표 그리기</t>
+          <t>CH07_02. 합성곱 신경망(CNN) - Convolution, Pooling, Activation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8:19</t>
+          <t>48:51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>CH04_09. heatmap을 이용한 히트맵 그리기</t>
+          <t>CH07_03. 대표적 CNN 구조 1 - AlexNet, VGGNet, GoogLeNet</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>26:34</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>CH04_10. pie를 이용한 원형차트 그리기</t>
+          <t>CH07_04. 대표적 CNN 구조 2 - ResNet, DenseNet</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7:23</t>
+          <t>28:56</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>CH04_11. boxplot을 이용한 상자 수염 그림 그리기</t>
+          <t>CH07_05. CNN Localization - Class Activation Map</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8:34</t>
+          <t>33:34</t>
         </is>
       </c>
     </row>
     <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>CH08. 심층 신경망(딥러닝) - RNN (01:30:01)</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>CH08. 심층 신경망(딥러닝) - RNN (01:30:01)</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CH04_12. displot_histplot 을 이용한 히스토그램 그리기</t>
+          <t>CH08_01. RNN 개요 및 기본구조</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>28:34</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>CH04_13. pandas-profiling 을 통한 EDA</t>
+          <t>CH08_02. LSTM, GRU, Bi-directional RNN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8:40</t>
+          <t>37:27</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>Ch 05_한걸음 더 나아가기 (01:36:03)</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CH05_01. 머신러닝 소개</t>
+          <t>CH08_03. Attention in RNN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4:17</t>
+          <t>24:00</t>
         </is>
       </c>
     </row>
     <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>CH09. 심층 신경망(딥러닝) - Auto-Encoder (31:56)</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>CH09. 심층 신경망(딥러닝) - Auto-Encoder (31:56)</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CH05_02. 데이터 전처리</t>
+          <t>CH09_01. Auto-Encoder</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21:01</t>
+          <t>31:56</t>
         </is>
       </c>
     </row>
     <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>CH10. 파이썬 실습(4) CNN (01:30:55)</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>CH10. 파이썬 실습(4) CNN (01:30:55)</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CH05_03. 머신러닝 모델 구성 및 결과 검증</t>
+          <t>CH10_01. 텐서 개념 및 연산 소개</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>17:01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
-          <t>CH05_04. 다양한 머신러닝 기술</t>
+          <t>CH10_02. 기본 perceptron</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>CH05_05. 딥러닝 소개</t>
+          <t>CH10_03. 다층 perceptron을 활용한 MNIST 이미지 분류</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5:58</t>
+          <t>19:46</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="C52" t="inlineStr">
         <is>
-          <t>CH05_06. numpy 를 이용한 행렬 연산</t>
+          <t>CH10_04. 1d Convolution</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>12:58</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="C53" t="inlineStr">
         <is>
-          <t>CH05_07. 딥러닝 모델 구성 및 결과 검증</t>
+          <t>CH10_05. 2d Convolution</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>19:09</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="inlineStr">
         <is>
+          <t>CH10_06. CAM</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>CH11. 파이썬 실습(5) RNN (01:37:49)</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>CH11. 파이썬 실습(5) RNN (01:37:49)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CH11_01. data 구성 설명</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CH11_02. basic RNN cell</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CH11_03. LSTM cell</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>40:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CH11_04. 이미지 분류</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>CH12. 파이썬 실습(6) Auto-Encoder (23:22)</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CH12. 파이썬 실습(6) Auto-Encoder (23:22)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CH12_01. 기본 Auto-Encoder</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CH12_02. Convolutional Auto-Encoder</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>(부록) 파이썬 기초 및 데이터분석 (10:21:59)</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Ch 01_인트로 (24:06)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CH01_01. 과정 소개</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CH01_02. colab 소개</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>Ch 02_파이썬 기초 (02:30:27)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CH02_01. 파이썬의 특징</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CH02_02. 변수</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CH02_03. 자료형_숫자형</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CH02_04. 자료형_문자형</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CH02_05. 자료형_리스트</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CH02_06. 자료형_튜플</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CH02_07. 자료형_딕셔너리</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CH02_08. 자료형_셋</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CH02_09. 제어문_for</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CH02_10. 제어문_while</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CH02_11. 제어문_if</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CH02_12. List Comprehension</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CH02_13. 함수</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CH02_14. 외부 라이브러리 사용</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Ch 03_데이터 전처리 (03:35:05)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CH03_01. 데이터 프레임 생성</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CH03_02. 칼럼명 추출 변경</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CH03_03. copy를 이용한 데이터 복사</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CH03_04. 시리즈</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CH03_05. loc과 iloc을 이용한 원하는 위치의 데이터 추출</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CH03_06. 조건에 맞는 데이터 추출</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CH03_07. 정렬</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CH03_08. 결측값 처리</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CH03_09. 타입 변환</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CH03_10. 레코드, 칼럼 추가 삭제</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CH03_11. apply.map을 활용한 데이터 변환</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CH03_12. 데이터프레임 결합_상하결합</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CH03_13. 데이터 프레임 결합_좌우결합</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CH03_14. 그룹화</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CH03_15. 피벗테이블</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CH03_16. 파일호출_저장</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Ch 04_데이터 시각화 (02:16:18)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CH04_01. matplotlib 을 이용한 단일 차트 그리기</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CH04_02. 여러 데이터를 한 차트에 그리기</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CH04_03. subplot_subplots 를 이용한 여러개의 차트 그리기</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CH04_04. load_dataset 을 이용한 데이터 셋 불러오기</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CH04_05. barplot을 이용한 막대그래프 그리기</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CH04_06. countplot을 이용한 막대그래프 그리기</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CH04_07. scatterplot을 이용한 산점도 그리기</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CH04_08. lineplot을 이용한 선도표 그리기</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CH04_09. heatmap을 이용한 히트맵 그리기</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CH04_10. pie를 이용한 원형차트 그리기</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CH04_11. boxplot을 이용한 상자 수염 그림 그리기</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CH04_12. displot_histplot 을 이용한 히스토그램 그리기</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CH04_13. pandas-profiling 을 통한 EDA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>Ch 05_한걸음 더 나아가기 (01:36:03)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CH05_01. 머신러닝 소개</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CH05_02. 데이터 전처리</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CH05_03. 머신러닝 모델 구성 및 결과 검증</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CH05_04. 다양한 머신러닝 기술</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CH05_05. 딥러닝 소개</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CH05_06. numpy 를 이용한 행렬 연산</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>15:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CH05_07. 딥러닝 모델 구성 및 결과 검증</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
           <t>CH05_08. 머신러닝_딥러닝의 한계</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>4:36</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="A2:A54"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B47:B54"/>
+  <mergeCells count="30">
+    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B63:B76"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A48"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B77:B92"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A113"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26435,7 +27923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26443,9 +27931,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="58" customWidth="1" min="1" max="1"/>
+    <col width="58" customWidth="1" min="2" max="2"/>
+    <col width="84" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -26471,7 +27959,1231 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Part1. 딥러닝 유치원 강의 소개 (26:39)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Part1. 딥러닝 유치원 강의 소개 (26:39)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ch 01. 딥러닝 유치원 강의 소개 - 01. Orientation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Part2. 실습을 위한 환경셋팅 (14:33)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Part2. 실습을 위한 환경셋팅 (14:33)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ch 02. 실습을 위한 환경셋팅 - 01. 환경 구축하기 (아나콘다 설치)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ch 02. 실습을 위한 환경셋팅 - 02. IDE 환경 구축하기 (VSCode)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Part3. 딥러닝 Overview (01:30:23)</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Part3. 딥러닝 Overview (01:30:23)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ch 03. 딥러닝 Overview - 01. Introduction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ch 03. 딥러닝 Overview - 02. 좋은 인공지능이란</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ch 03. 딥러닝 Overview - 03. 용어 설명</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ch 03. 딥러닝 Overview - 04. Appendix  Basic Math</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Part4. 파이토치(PyTorch) Tutorials (02:32:19)</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Part4. 파이토치(PyTorch) Tutorials (02:32:19)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 01. 왜 파이토치인가</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 02. 실습 파이토치 설치</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 03. 데이터셋이란</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 04. 텐서란</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 05. 실습 텐서 생성하기</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 06. 실습 기본 연산</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 07. 실습 텐서 형태 변환</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 08. 실습 텐서 자르기 &amp; 붙이기</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ch 04. 파이토치(PyTorch) Tutorials - 09. 실습 유용한 함수들</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Part5. 신경망의 기본 구성요소 살펴보기 (01:15:19)</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Part5. 신경망의 기본 구성요소 살펴보기 (01:15:19)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ch 05. 신경망의 기본 구성요소 살펴보기 - 01. 행렬 곱</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ch 05. 신경망의 기본 구성요소 살펴보기 - 02. 실습 행렬 곱</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ch 05. 신경망의 기본 구성요소 살펴보기 - 03. Linear Layer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ch 05. 신경망의 기본 구성요소 살펴보기 - 04. 실습 Linear Layer</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ch 05. 신경망의 기본 구성요소 살펴보기 - 05. 실습 GPU 사용하기</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Part6. 신경망이 잘 학습하는지 판단하기 (24:01)</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Part6. 신경망이 잘 학습하는지 판단하기 (24:01)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ch 06. 신경망이 잘 학습하는지 판단하기 - 01. Loss Function</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ch 06. 신경망이 잘 학습하는지 판단하기 - 02. 실습 MSE Loss</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Part7. 기초 최적화 방법 : Gradient Descent (02:12:55)</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Part7. 기초 최적화 방법 : Gradient Descent (02:12:55)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 01. Appendix 미분</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 02. Appendix 편미분</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 03. Gradient Descent</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>33:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 04. Learning rate에 따른 특성</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 05. 실습 Gradient Descent 구현</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 06. 실습 PyTorch AutoGrad 소개</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ch 07. 기초 최적화 방법  Gradient Descent - 07. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Part8. 선형회귀(Linear Regression) (49:45)</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Part8. 선형회귀(Linear Regression) (49:45)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ch 08. 선형회귀(Linear Regression) - 01. Linear Regression by Gradient Descent</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ch 08. 선형회귀(Linear Regression) - 02. 수식 Linear Regression</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ch 08. 선형회귀(Linear Regression) - 03. 실습 Linear Regression</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Part9. 로지스틱 회귀(Logistic Regression) (01:28:48)</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Part9. 로지스틱 회귀(Logistic Regression) (01:28:48)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 01. Activation Function Sigmoid</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 02. 실습 Sigmoid Function</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 03. Logistic Regression</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 04. Binary Cross Entropy Loss</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 05. 수식 Logistic Regression</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 06. 실습 Logistic Regression</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ch 09. 로지스틱 회귀(Logistic Regression) - 07. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Part10. ① 딥러닝 입문 (회귀) (01:38:32)</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Part10. ① 딥러닝 입문 (회귀) (01:38:32)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 01. Deep Neural Networks</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 02. Back-propagation</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 03. 수식 Back-propagation</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 04. Gradient Vanishing</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 05. ReLU</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 06. 실습 Deep Regression</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ch 10. ① 딥러닝 입문 (회귀) - 07. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Part11. Stochastic Gradient Descent (01:15:32)</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Part11. Stochastic Gradient Descent (01:15:32)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ch 11. Stochastic Gradient Descent - 01. Stochastic Gradient Descent (SGD)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ch 11. Stochastic Gradient Descent - 02. 수식 SGD</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ch 11. Stochastic Gradient Descent - 03. 미니배치 크기에 따른 특징</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ch 11. Stochastic Gradient Descent - 04. 실습 SGD 적용하기</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Part12. 딥러닝 학습을 쉽게 하는 방법? (01:47:55)</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Part12. 딥러닝 학습을 쉽게 하는 방법? (01:47:55)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ch 12. 딥러닝 학습을 쉽게 하는 방법 - 01. 하이퍼 파라미터란</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ch 12. 딥러닝 학습을 쉽게 하는 방법 - 02. TIP 효율적인 연구 진행 방법</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ch 12. 딥러닝 학습을 쉽게 하는 방법 - 03. Momentum, Adative LR &amp; Adam Optimizer</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ch 12. 딥러닝 학습을 쉽게 하는 방법 - 04. 수식 Adaptive LR Optimizer</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>29:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ch 12. 딥러닝 학습을 쉽게 하는 방법 - 05. 실습 Adam Optimizer 적용하기</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ch 12. 딥러닝 학습을 쉽게 하는 방법 - 06. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Part13. 딥러닝 모델의 실험 과정  (01:23:46)</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Part13. 딥러닝 모델의 실험 과정  (01:23:46)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ch 13. 딥러닝 모델의 실험 과정  - 01. 실험 과정 소개</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ch 13. 딥러닝 모델의 실험 과정  - 02. 오버피팅이란</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>41:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ch 13. 딥러닝 모델의 실험 과정  - 03. 실습 실험 환경 구성하기</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Part14. ② 딥러닝 입문 (분류) (02:23:07)</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Part14. ② 딥러닝 입문 (분류) (02:23:07)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 01. Deep Binary Classification</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 02. Precision &amp; Recall</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 03. 실습 Deep Binary Classification</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 04. 분류(Classification)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 05. Softmax &amp; Cross Entropy</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 06. Confusion Matrix</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 07. 실습 Deep Classification</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>28:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ch 14. ② 딥러닝 입문 (분류) - 08. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Part15. 딥러닝의 성능개선을 위한 Regularizations (01:37:27)</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Part15. 딥러닝의 성능개선을 위한 Regularizations (01:37:27)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 01. Regularization이란</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 02. Weight Decay</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 03. Data Augmentation</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 04. Dropout</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 05. Batch Normalization</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 06. 실습 Regularization</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ch 15. 딥러닝의 성능개선을 위한 Regularizations - 07. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Part16. 딥러닝 프로젝트 Exercise (02:22:18)</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Part16. 딥러닝 프로젝트 Exercise (02:22:18)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 01. 실무에서 신경써야 할 것들</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>13:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 02. 시작하기 전에 해야 할 것들</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 03. 실습 브리핑</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 04. 실습 Classifier 구현하기</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 05. 실습 Trainer 구현하기</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 06. 실습 train.py 구현하기</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 07. 실습 CLI 환경에서 실행하기</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 08. 실습 predict.ipynb 구현하기</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ch 16. 딥러닝 프로젝트 Exercise - 09. Wrap-up</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Part17. 강의 summary</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Part17. 강의 summary</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ch 17. 강의 summary - 01. 클래스 요약</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>24:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="A49:A52"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -35279,7 +37991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38229,9 +40941,9 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Chapter.05 Advanced Topic</t>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>Chapter.05 Advanced Topic (31:56)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -38245,8 +40957,78 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>[부록] 빅쿼리 (01:20:39)</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>[부록] 빅쿼리 (01:20:39)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>CH01_01 빅쿼리 소개</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>18:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>CH01_02 빅쿼리 실행 환경 세팅</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CH01_03 Case01. 미국 이름 데이터 세트</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>CH01_04 Case02. NYC Citi Bike 데이터 세트</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>CH01_05 Case03. BigQuery ML</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>24:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="36">
     <mergeCell ref="B194:B199"/>
     <mergeCell ref="B206:B211"/>
     <mergeCell ref="A214:A231"/>
@@ -38267,6 +41049,7 @@
     <mergeCell ref="B181:B184"/>
     <mergeCell ref="B185:B191"/>
     <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A232:A236"/>
     <mergeCell ref="A21:A156"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="B117:B137"/>
@@ -38274,8 +41057,10 @@
     <mergeCell ref="B76:B95"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B145:B156"/>
+    <mergeCell ref="B231"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B232:B236"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B14:B20"/>
@@ -61540,7 +64325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63928,260 +66713,750 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>부록 Part 3. 합격의 하이패스 SQLD 과정 - 실전 예상 문제 (05:57:27)</t>
+          <t>부록 Part 2. 합격의 하이패스 SQLD 과정 - SQLD  (14:19:25)</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>Chapter 1. SQLD출제예상 1회차 (02:52:01)</t>
+          <t>부록 Part 2. 합격의 하이패스 SQLD 과정 - SQLD  (14:19:25)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 1. 데이터 모델링의 이해 1~5번</t>
+          <t>Chapter 1. 데이터 모델링의 이해 - 1-1. 데이터 모델의 이해</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>29:30</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="C185" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 1. 데이터 모델링의 이해 6~10번</t>
+          <t>Chapter 1. 데이터 모델링의 이해 - 1-2. 엔터티(Entity)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>13:28</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="C186" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 1~5번</t>
+          <t>Chapter 1. 데이터 모델링의 이해 - 1-3. 속성(Attribute)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>18:34</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="C187" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 6~10번</t>
+          <t>Chapter 1. 데이터 모델링의 이해 - 1-4. 관계(Relationship)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>23:01</t>
+          <t>13:06</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="C188" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 11~15번</t>
+          <t>Chapter 1. 데이터 모델링의 이해 - 1-5. 식별자</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>24:48</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="C189" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 16~20번</t>
+          <t>Chapter 1. 데이터 모델링의 이해 - 1-6. 연습 문제</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>9:57</t>
+          <t>9:43</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="C190" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 21~25번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-1. 성능 데이터 모델링의 개요</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>22:41</t>
+          <t>10:17</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="C191" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 26~30번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-2. 정규화와 성능</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>20:38</t>
+          <t>26:46</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="C192" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 31~35번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-3. 반정규화와 성능</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>19:28</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="C193" t="inlineStr">
         <is>
-          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 36~40번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-4. 대량 데이터에 따른 성능</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>17:03</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="B194" s="1" t="inlineStr">
-        <is>
-          <t>Chapter 2. SQLD출제예상 2회차 (03:05:26)</t>
-        </is>
-      </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 1. 데이터모델링의 이해 1~5번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-5. 데이터베이스 구조와 성능</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>17:02</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="C195" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 1. 데이터모델링의 이해 6~10번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-6. 분산 데이터베이스와 성능</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="C196" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 1~5번</t>
+          <t>Chapter 2. 데이터 모델과 성능 - 2-7. 연습문제</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>5:48</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="C197" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 6~10번</t>
+          <t>Chapter 3. SQL 기본 - 3-1. 관계형 데이터베이스 개요  (2022.07. 변경)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>14:26</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="C198" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 11~15번</t>
+          <t>Chapter 3. SQL 기본 - 3-2. DDL(DATA DEFINITION LANGUAGE)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>33:34</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="C199" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 16~20번</t>
+          <t>Chapter 3. SQL 기본 - 3-3. DML(DATA MANIPULATION LANGUAGE)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>22:47</t>
+          <t>10:42</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="C200" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 21~25번</t>
+          <t>Chapter 3. SQL 기본 - 3-4. TCL(TRANSACTION CONTROL LANGUAGE)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>26:20</t>
+          <t>29:58</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="C201" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 26~30번</t>
+          <t>Chapter 3. SQL 기본 - 3-5. WHERE 절</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>43:12</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="C202" t="inlineStr">
         <is>
-          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 31~35번</t>
+          <t>Chapter 3. SQL 기본 - 3-6. 함수(FUNCTION)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>29:20</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="C203" t="inlineStr">
         <is>
+          <t>Chapter 3. SQL 기본 - 3-7. GROUP BY, HAVING 절</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Chapter 3. SQL 기본 - 3-8. ORDER BY 절</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Chapter 3. SQL 기본 - 3-9. 조인(JOIN)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>9:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Chapter 3. SQL 기본 - 3-10. 연습문제</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 01. 표준 조인(STANDARD JOIN)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>30:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 02. 집합 연산자</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 03. 계층 형 질의와 SELF 조인</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 04. 서브 쿼리</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>43:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 05. 그룹 함수</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 06. 윈도우 함수(WINDOW FUNCTION)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 07. DCL(DATA CONTROL LANGUAGE)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 08. 절차형 SQL</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 09. 연습문제 - 1번~5번</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 09. 연습문제 - 6번~11번</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 09. 연습문제 - 12번~18번</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>9:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 09. 연습문제 - 19번~20번</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Chapter 4. SQL 활용 - 09. 연습문제 - 21번~25번</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Chapter 5. SQL 최적화 기본 원리 - 01. 옵티마이저와 실행계획</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Chapter 5. SQL 최적화 기본 원리 - 02. 인덱스 기본</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Chapter 5. SQL 최적화 기본 원리 - 03. 조인 수행 원리</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>27:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Chapter 5. SQL 최적화 기본 원리 - 04. 연습 문제</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>14:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>부록 Part 3. 합격의 하이패스 SQLD 과정 - 실전 예상 문제 (05:57:27)</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 1. SQLD출제예상 1회차 (02:52:01)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 1. 데이터 모델링의 이해 1~5번</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>16:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 1. 데이터 모델링의 이해 6~10번</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 1~5번</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 6~10번</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 11~15번</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>15:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 16~20번</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>9:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 21~25번</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 26~30번</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 31~35번</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>14:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 1회차 - 2. SQL 기본 및 활용 36~40번</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>Chapter 2. SQLD출제예상 2회차 (03:05:26)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 1. 데이터모델링의 이해 1~5번</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 1. 데이터모델링의 이해 6~10번</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 1~5번</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 6~10번</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 11~15번</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 16~20번</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 21~25번</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 26~30번</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 31~35번</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
           <t>SQLD출제예상 2회차 - 2. SQL 기본 및 활용 36~40번</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>25:19</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
     <mergeCell ref="B36:B45"/>
     <mergeCell ref="B159:B164"/>
     <mergeCell ref="B183"/>
@@ -64191,23 +67466,25 @@
     <mergeCell ref="B80"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B194:B203"/>
     <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B224:B233"/>
+    <mergeCell ref="A184:A223"/>
     <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B184:B193"/>
     <mergeCell ref="A81:A118"/>
     <mergeCell ref="B69:B79"/>
     <mergeCell ref="B119:B129"/>
     <mergeCell ref="B173:B179"/>
     <mergeCell ref="B46:B55"/>
     <mergeCell ref="B139:B145"/>
-    <mergeCell ref="A184:A203"/>
+    <mergeCell ref="A224:A243"/>
     <mergeCell ref="B180:B182"/>
     <mergeCell ref="A2:A80"/>
     <mergeCell ref="A139:A179"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B184:B223"/>
     <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B234:B243"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B97:B105"/>
     <mergeCell ref="B62:B68"/>
